--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Brazil Serie B_2025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Brazil Serie B_2025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="254" uniqueCount="131">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -768,7 +768,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP31"/>
+  <dimension ref="A1:BP32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -3786,7 +3786,7 @@
         <v>3</v>
       </c>
       <c r="AQ15">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="AR15">
         <v>0</v>
@@ -4401,7 +4401,7 @@
         <v>0</v>
       </c>
       <c r="AP18">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="AQ18">
         <v>3</v>
@@ -6703,10 +6703,10 @@
         <v>3</v>
       </c>
       <c r="BB29">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="BC29">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="BD29">
         <v>1.71</v>
@@ -6906,13 +6906,13 @@
         <v>12</v>
       </c>
       <c r="BA30">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="BB30">
         <v>6</v>
       </c>
       <c r="BC30">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="BD30">
         <v>2.1</v>
@@ -7157,6 +7157,212 @@
         <v>2.47</v>
       </c>
       <c r="BP31">
+        <v>1.48</v>
+      </c>
+    </row>
+    <row r="32" spans="1:68">
+      <c r="A32" s="1">
+        <v>31</v>
+      </c>
+      <c r="B32">
+        <v>7841067</v>
+      </c>
+      <c r="C32" t="s">
+        <v>68</v>
+      </c>
+      <c r="D32" t="s">
+        <v>69</v>
+      </c>
+      <c r="E32" s="2">
+        <v>45766.66666666666</v>
+      </c>
+      <c r="F32">
+        <v>4</v>
+      </c>
+      <c r="G32" t="s">
+        <v>86</v>
+      </c>
+      <c r="H32" t="s">
+        <v>71</v>
+      </c>
+      <c r="I32">
+        <v>0</v>
+      </c>
+      <c r="J32">
+        <v>0</v>
+      </c>
+      <c r="K32">
+        <v>0</v>
+      </c>
+      <c r="L32">
+        <v>0</v>
+      </c>
+      <c r="M32">
+        <v>0</v>
+      </c>
+      <c r="N32">
+        <v>0</v>
+      </c>
+      <c r="O32" t="s">
+        <v>97</v>
+      </c>
+      <c r="P32" t="s">
+        <v>97</v>
+      </c>
+      <c r="Q32">
+        <v>2.35</v>
+      </c>
+      <c r="R32">
+        <v>1.96</v>
+      </c>
+      <c r="S32">
+        <v>4.67</v>
+      </c>
+      <c r="T32">
+        <v>1.53</v>
+      </c>
+      <c r="U32">
+        <v>2.53</v>
+      </c>
+      <c r="V32">
+        <v>3.48</v>
+      </c>
+      <c r="W32">
+        <v>1.3</v>
+      </c>
+      <c r="X32">
+        <v>10</v>
+      </c>
+      <c r="Y32">
+        <v>1.04</v>
+      </c>
+      <c r="Z32">
+        <v>1.9</v>
+      </c>
+      <c r="AA32">
+        <v>3.05</v>
+      </c>
+      <c r="AB32">
+        <v>4.5</v>
+      </c>
+      <c r="AC32">
+        <v>1.05</v>
+      </c>
+      <c r="AD32">
+        <v>7</v>
+      </c>
+      <c r="AE32">
+        <v>1.47</v>
+      </c>
+      <c r="AF32">
+        <v>2.6</v>
+      </c>
+      <c r="AG32">
+        <v>2.3</v>
+      </c>
+      <c r="AH32">
+        <v>1.57</v>
+      </c>
+      <c r="AI32">
+        <v>2.1</v>
+      </c>
+      <c r="AJ32">
+        <v>1.7</v>
+      </c>
+      <c r="AK32">
+        <v>1.22</v>
+      </c>
+      <c r="AL32">
+        <v>1.28</v>
+      </c>
+      <c r="AM32">
+        <v>1.97</v>
+      </c>
+      <c r="AN32">
+        <v>0</v>
+      </c>
+      <c r="AO32">
+        <v>0</v>
+      </c>
+      <c r="AP32">
+        <v>0.5</v>
+      </c>
+      <c r="AQ32">
+        <v>0.5</v>
+      </c>
+      <c r="AR32">
+        <v>1.17</v>
+      </c>
+      <c r="AS32">
+        <v>1.44</v>
+      </c>
+      <c r="AT32">
+        <v>2.61</v>
+      </c>
+      <c r="AU32">
+        <v>4</v>
+      </c>
+      <c r="AV32">
+        <v>2</v>
+      </c>
+      <c r="AW32">
+        <v>13</v>
+      </c>
+      <c r="AX32">
+        <v>7</v>
+      </c>
+      <c r="AY32">
+        <v>17</v>
+      </c>
+      <c r="AZ32">
+        <v>9</v>
+      </c>
+      <c r="BA32">
+        <v>6</v>
+      </c>
+      <c r="BB32">
+        <v>3</v>
+      </c>
+      <c r="BC32">
+        <v>9</v>
+      </c>
+      <c r="BD32">
+        <v>1.62</v>
+      </c>
+      <c r="BE32">
+        <v>7</v>
+      </c>
+      <c r="BF32">
+        <v>2.65</v>
+      </c>
+      <c r="BG32">
+        <v>1.22</v>
+      </c>
+      <c r="BH32">
+        <v>3.8</v>
+      </c>
+      <c r="BI32">
+        <v>1.33</v>
+      </c>
+      <c r="BJ32">
+        <v>2.9</v>
+      </c>
+      <c r="BK32">
+        <v>1.77</v>
+      </c>
+      <c r="BL32">
+        <v>2.1</v>
+      </c>
+      <c r="BM32">
+        <v>2.05</v>
+      </c>
+      <c r="BN32">
+        <v>1.73</v>
+      </c>
+      <c r="BO32">
+        <v>2.5</v>
+      </c>
+      <c r="BP32">
         <v>1.48</v>
       </c>
     </row>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Brazil Serie B_2025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Brazil Serie B_2025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="254" uniqueCount="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="278" uniqueCount="134">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -361,6 +361,18 @@
     <t>['4', '50', '63']</t>
   </si>
   <si>
+    <t>['15', '43']</t>
+  </si>
+  <si>
+    <t>['56']</t>
+  </si>
+  <si>
+    <t>['7', '82']</t>
+  </si>
+  <si>
+    <t>['13']</t>
+  </si>
+  <si>
     <t>['33', '72']</t>
   </si>
   <si>
@@ -368,9 +380,6 @@
   </si>
   <si>
     <t>['38']</t>
-  </si>
-  <si>
-    <t>['13']</t>
   </si>
   <si>
     <t>['9', '88']</t>
@@ -768,7 +777,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP32"/>
+  <dimension ref="A1:BP36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1233,7 +1242,7 @@
         <v>91</v>
       </c>
       <c r="P3" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="Q3">
         <v>3.5</v>
@@ -1439,7 +1448,7 @@
         <v>92</v>
       </c>
       <c r="P4" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="Q4">
         <v>2.5</v>
@@ -2263,7 +2272,7 @@
         <v>96</v>
       </c>
       <c r="P8" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="Q8">
         <v>3</v>
@@ -2881,7 +2890,7 @@
         <v>99</v>
       </c>
       <c r="P11" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="Q11">
         <v>2.38</v>
@@ -3087,7 +3096,7 @@
         <v>100</v>
       </c>
       <c r="P12" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="Q12">
         <v>2.51</v>
@@ -3293,7 +3302,7 @@
         <v>101</v>
       </c>
       <c r="P13" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="Q13">
         <v>2.8</v>
@@ -3499,7 +3508,7 @@
         <v>102</v>
       </c>
       <c r="P14" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="Q14">
         <v>3.3</v>
@@ -3577,7 +3586,7 @@
         <v>0</v>
       </c>
       <c r="AP14">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="AQ14">
         <v>3</v>
@@ -4323,7 +4332,7 @@
         <v>105</v>
       </c>
       <c r="P18" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="Q18">
         <v>3.22</v>
@@ -4404,7 +4413,7 @@
         <v>0.5</v>
       </c>
       <c r="AQ18">
-        <v>3</v>
+        <v>1.5</v>
       </c>
       <c r="AR18">
         <v>0</v>
@@ -4529,7 +4538,7 @@
         <v>106</v>
       </c>
       <c r="P19" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="Q19">
         <v>2.55</v>
@@ -4610,7 +4619,7 @@
         <v>0</v>
       </c>
       <c r="AQ19">
-        <v>3</v>
+        <v>1.5</v>
       </c>
       <c r="AR19">
         <v>0</v>
@@ -4941,7 +4950,7 @@
         <v>92</v>
       </c>
       <c r="P21" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="Q21">
         <v>3.5</v>
@@ -5147,7 +5156,7 @@
         <v>108</v>
       </c>
       <c r="P22" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="Q22">
         <v>3.5</v>
@@ -5353,7 +5362,7 @@
         <v>97</v>
       </c>
       <c r="P23" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="Q23">
         <v>2.33</v>
@@ -5971,7 +5980,7 @@
         <v>109</v>
       </c>
       <c r="P26" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="Q26">
         <v>2.38</v>
@@ -6589,7 +6598,7 @@
         <v>112</v>
       </c>
       <c r="P29" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="Q29">
         <v>3.1</v>
@@ -6906,13 +6915,13 @@
         <v>12</v>
       </c>
       <c r="BA30">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="BB30">
         <v>6</v>
       </c>
       <c r="BC30">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="BD30">
         <v>2.1</v>
@@ -7001,7 +7010,7 @@
         <v>114</v>
       </c>
       <c r="P31" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="Q31">
         <v>2.2</v>
@@ -7364,6 +7373,830 @@
       </c>
       <c r="BP32">
         <v>1.48</v>
+      </c>
+    </row>
+    <row r="33" spans="1:68">
+      <c r="A33" s="1">
+        <v>32</v>
+      </c>
+      <c r="B33">
+        <v>7841063</v>
+      </c>
+      <c r="C33" t="s">
+        <v>68</v>
+      </c>
+      <c r="D33" t="s">
+        <v>69</v>
+      </c>
+      <c r="E33" s="2">
+        <v>45767.66666666666</v>
+      </c>
+      <c r="F33">
+        <v>4</v>
+      </c>
+      <c r="G33" t="s">
+        <v>83</v>
+      </c>
+      <c r="H33" t="s">
+        <v>89</v>
+      </c>
+      <c r="I33">
+        <v>2</v>
+      </c>
+      <c r="J33">
+        <v>0</v>
+      </c>
+      <c r="K33">
+        <v>2</v>
+      </c>
+      <c r="L33">
+        <v>2</v>
+      </c>
+      <c r="M33">
+        <v>0</v>
+      </c>
+      <c r="N33">
+        <v>2</v>
+      </c>
+      <c r="O33" t="s">
+        <v>115</v>
+      </c>
+      <c r="P33" t="s">
+        <v>97</v>
+      </c>
+      <c r="Q33">
+        <v>2.75</v>
+      </c>
+      <c r="R33">
+        <v>1.82</v>
+      </c>
+      <c r="S33">
+        <v>4.85</v>
+      </c>
+      <c r="T33">
+        <v>1.62</v>
+      </c>
+      <c r="U33">
+        <v>2.35</v>
+      </c>
+      <c r="V33">
+        <v>3.75</v>
+      </c>
+      <c r="W33">
+        <v>1.22</v>
+      </c>
+      <c r="X33">
+        <v>7.8</v>
+      </c>
+      <c r="Y33">
+        <v>1.03</v>
+      </c>
+      <c r="Z33">
+        <v>1.88</v>
+      </c>
+      <c r="AA33">
+        <v>3.17</v>
+      </c>
+      <c r="AB33">
+        <v>4.5</v>
+      </c>
+      <c r="AC33">
+        <v>1.07</v>
+      </c>
+      <c r="AD33">
+        <v>6</v>
+      </c>
+      <c r="AE33">
+        <v>1.55</v>
+      </c>
+      <c r="AF33">
+        <v>2.18</v>
+      </c>
+      <c r="AG33">
+        <v>2.1</v>
+      </c>
+      <c r="AH33">
+        <v>1.6</v>
+      </c>
+      <c r="AI33">
+        <v>2.3</v>
+      </c>
+      <c r="AJ33">
+        <v>1.52</v>
+      </c>
+      <c r="AK33">
+        <v>1.36</v>
+      </c>
+      <c r="AL33">
+        <v>1.28</v>
+      </c>
+      <c r="AM33">
+        <v>1.75</v>
+      </c>
+      <c r="AN33">
+        <v>3</v>
+      </c>
+      <c r="AO33">
+        <v>0</v>
+      </c>
+      <c r="AP33">
+        <v>3</v>
+      </c>
+      <c r="AQ33">
+        <v>0</v>
+      </c>
+      <c r="AR33">
+        <v>1.59</v>
+      </c>
+      <c r="AS33">
+        <v>1.17</v>
+      </c>
+      <c r="AT33">
+        <v>2.76</v>
+      </c>
+      <c r="AU33">
+        <v>5</v>
+      </c>
+      <c r="AV33">
+        <v>2</v>
+      </c>
+      <c r="AW33">
+        <v>13</v>
+      </c>
+      <c r="AX33">
+        <v>4</v>
+      </c>
+      <c r="AY33">
+        <v>21</v>
+      </c>
+      <c r="AZ33">
+        <v>9</v>
+      </c>
+      <c r="BA33">
+        <v>5</v>
+      </c>
+      <c r="BB33">
+        <v>6</v>
+      </c>
+      <c r="BC33">
+        <v>11</v>
+      </c>
+      <c r="BD33">
+        <v>1.6</v>
+      </c>
+      <c r="BE33">
+        <v>8.300000000000001</v>
+      </c>
+      <c r="BF33">
+        <v>2.91</v>
+      </c>
+      <c r="BG33">
+        <v>1.3</v>
+      </c>
+      <c r="BH33">
+        <v>3.35</v>
+      </c>
+      <c r="BI33">
+        <v>1.48</v>
+      </c>
+      <c r="BJ33">
+        <v>2.45</v>
+      </c>
+      <c r="BK33">
+        <v>2.03</v>
+      </c>
+      <c r="BL33">
+        <v>1.94</v>
+      </c>
+      <c r="BM33">
+        <v>2.27</v>
+      </c>
+      <c r="BN33">
+        <v>1.56</v>
+      </c>
+      <c r="BO33">
+        <v>2.87</v>
+      </c>
+      <c r="BP33">
+        <v>1.37</v>
+      </c>
+    </row>
+    <row r="34" spans="1:68">
+      <c r="A34" s="1">
+        <v>33</v>
+      </c>
+      <c r="B34">
+        <v>7841066</v>
+      </c>
+      <c r="C34" t="s">
+        <v>68</v>
+      </c>
+      <c r="D34" t="s">
+        <v>69</v>
+      </c>
+      <c r="E34" s="2">
+        <v>45767.75</v>
+      </c>
+      <c r="F34">
+        <v>4</v>
+      </c>
+      <c r="G34" t="s">
+        <v>82</v>
+      </c>
+      <c r="H34" t="s">
+        <v>87</v>
+      </c>
+      <c r="I34">
+        <v>0</v>
+      </c>
+      <c r="J34">
+        <v>0</v>
+      </c>
+      <c r="K34">
+        <v>0</v>
+      </c>
+      <c r="L34">
+        <v>1</v>
+      </c>
+      <c r="M34">
+        <v>0</v>
+      </c>
+      <c r="N34">
+        <v>1</v>
+      </c>
+      <c r="O34" t="s">
+        <v>116</v>
+      </c>
+      <c r="P34" t="s">
+        <v>97</v>
+      </c>
+      <c r="Q34">
+        <v>2.66</v>
+      </c>
+      <c r="R34">
+        <v>2.05</v>
+      </c>
+      <c r="S34">
+        <v>5.01</v>
+      </c>
+      <c r="T34">
+        <v>1.49</v>
+      </c>
+      <c r="U34">
+        <v>2.4</v>
+      </c>
+      <c r="V34">
+        <v>3.4</v>
+      </c>
+      <c r="W34">
+        <v>1.29</v>
+      </c>
+      <c r="X34">
+        <v>8.5</v>
+      </c>
+      <c r="Y34">
+        <v>1.04</v>
+      </c>
+      <c r="Z34">
+        <v>1.8</v>
+      </c>
+      <c r="AA34">
+        <v>3.2</v>
+      </c>
+      <c r="AB34">
+        <v>4.25</v>
+      </c>
+      <c r="AC34">
+        <v>1.04</v>
+      </c>
+      <c r="AD34">
+        <v>8</v>
+      </c>
+      <c r="AE34">
+        <v>1.32</v>
+      </c>
+      <c r="AF34">
+        <v>2.75</v>
+      </c>
+      <c r="AG34">
+        <v>2.1</v>
+      </c>
+      <c r="AH34">
+        <v>1.55</v>
+      </c>
+      <c r="AI34">
+        <v>1.83</v>
+      </c>
+      <c r="AJ34">
+        <v>1.87</v>
+      </c>
+      <c r="AK34">
+        <v>1.32</v>
+      </c>
+      <c r="AL34">
+        <v>1.28</v>
+      </c>
+      <c r="AM34">
+        <v>1.73</v>
+      </c>
+      <c r="AN34">
+        <v>0</v>
+      </c>
+      <c r="AO34">
+        <v>0</v>
+      </c>
+      <c r="AP34">
+        <v>1.5</v>
+      </c>
+      <c r="AQ34">
+        <v>0</v>
+      </c>
+      <c r="AR34">
+        <v>2.24</v>
+      </c>
+      <c r="AS34">
+        <v>0.82</v>
+      </c>
+      <c r="AT34">
+        <v>3.06</v>
+      </c>
+      <c r="AU34">
+        <v>4</v>
+      </c>
+      <c r="AV34">
+        <v>7</v>
+      </c>
+      <c r="AW34">
+        <v>7</v>
+      </c>
+      <c r="AX34">
+        <v>14</v>
+      </c>
+      <c r="AY34">
+        <v>14</v>
+      </c>
+      <c r="AZ34">
+        <v>26</v>
+      </c>
+      <c r="BA34">
+        <v>3</v>
+      </c>
+      <c r="BB34">
+        <v>8</v>
+      </c>
+      <c r="BC34">
+        <v>11</v>
+      </c>
+      <c r="BD34">
+        <v>1.68</v>
+      </c>
+      <c r="BE34">
+        <v>6.75</v>
+      </c>
+      <c r="BF34">
+        <v>2.71</v>
+      </c>
+      <c r="BG34">
+        <v>1.27</v>
+      </c>
+      <c r="BH34">
+        <v>3.3</v>
+      </c>
+      <c r="BI34">
+        <v>1.47</v>
+      </c>
+      <c r="BJ34">
+        <v>2.48</v>
+      </c>
+      <c r="BK34">
+        <v>1.75</v>
+      </c>
+      <c r="BL34">
+        <v>1.95</v>
+      </c>
+      <c r="BM34">
+        <v>2.17</v>
+      </c>
+      <c r="BN34">
+        <v>1.58</v>
+      </c>
+      <c r="BO34">
+        <v>2.75</v>
+      </c>
+      <c r="BP34">
+        <v>1.38</v>
+      </c>
+    </row>
+    <row r="35" spans="1:68">
+      <c r="A35" s="1">
+        <v>34</v>
+      </c>
+      <c r="B35">
+        <v>7841062</v>
+      </c>
+      <c r="C35" t="s">
+        <v>68</v>
+      </c>
+      <c r="D35" t="s">
+        <v>69</v>
+      </c>
+      <c r="E35" s="2">
+        <v>45767.79166666666</v>
+      </c>
+      <c r="F35">
+        <v>4</v>
+      </c>
+      <c r="G35" t="s">
+        <v>80</v>
+      </c>
+      <c r="H35" t="s">
+        <v>74</v>
+      </c>
+      <c r="I35">
+        <v>1</v>
+      </c>
+      <c r="J35">
+        <v>0</v>
+      </c>
+      <c r="K35">
+        <v>1</v>
+      </c>
+      <c r="L35">
+        <v>2</v>
+      </c>
+      <c r="M35">
+        <v>0</v>
+      </c>
+      <c r="N35">
+        <v>2</v>
+      </c>
+      <c r="O35" t="s">
+        <v>117</v>
+      </c>
+      <c r="P35" t="s">
+        <v>97</v>
+      </c>
+      <c r="Q35">
+        <v>1.95</v>
+      </c>
+      <c r="R35">
+        <v>2.15</v>
+      </c>
+      <c r="S35">
+        <v>6</v>
+      </c>
+      <c r="T35">
+        <v>1.4</v>
+      </c>
+      <c r="U35">
+        <v>2.59</v>
+      </c>
+      <c r="V35">
+        <v>2.99</v>
+      </c>
+      <c r="W35">
+        <v>1.34</v>
+      </c>
+      <c r="X35">
+        <v>8</v>
+      </c>
+      <c r="Y35">
+        <v>1.06</v>
+      </c>
+      <c r="Z35">
+        <v>1.43</v>
+      </c>
+      <c r="AA35">
+        <v>4.05</v>
+      </c>
+      <c r="AB35">
+        <v>7.5</v>
+      </c>
+      <c r="AC35">
+        <v>1.02</v>
+      </c>
+      <c r="AD35">
+        <v>10</v>
+      </c>
+      <c r="AE35">
+        <v>1.3</v>
+      </c>
+      <c r="AF35">
+        <v>3.18</v>
+      </c>
+      <c r="AG35">
+        <v>2.1</v>
+      </c>
+      <c r="AH35">
+        <v>1.71</v>
+      </c>
+      <c r="AI35">
+        <v>2.27</v>
+      </c>
+      <c r="AJ35">
+        <v>1.6</v>
+      </c>
+      <c r="AK35">
+        <v>1.25</v>
+      </c>
+      <c r="AL35">
+        <v>1.22</v>
+      </c>
+      <c r="AM35">
+        <v>2.4</v>
+      </c>
+      <c r="AN35">
+        <v>3</v>
+      </c>
+      <c r="AO35">
+        <v>3</v>
+      </c>
+      <c r="AP35">
+        <v>3</v>
+      </c>
+      <c r="AQ35">
+        <v>1.5</v>
+      </c>
+      <c r="AR35">
+        <v>1.66</v>
+      </c>
+      <c r="AS35">
+        <v>1.83</v>
+      </c>
+      <c r="AT35">
+        <v>3.49</v>
+      </c>
+      <c r="AU35">
+        <v>5</v>
+      </c>
+      <c r="AV35">
+        <v>4</v>
+      </c>
+      <c r="AW35">
+        <v>7</v>
+      </c>
+      <c r="AX35">
+        <v>6</v>
+      </c>
+      <c r="AY35">
+        <v>13</v>
+      </c>
+      <c r="AZ35">
+        <v>13</v>
+      </c>
+      <c r="BA35">
+        <v>4</v>
+      </c>
+      <c r="BB35">
+        <v>4</v>
+      </c>
+      <c r="BC35">
+        <v>8</v>
+      </c>
+      <c r="BD35">
+        <v>1.29</v>
+      </c>
+      <c r="BE35">
+        <v>7.5</v>
+      </c>
+      <c r="BF35">
+        <v>3.3</v>
+      </c>
+      <c r="BG35">
+        <v>1.24</v>
+      </c>
+      <c r="BH35">
+        <v>3.55</v>
+      </c>
+      <c r="BI35">
+        <v>1.41</v>
+      </c>
+      <c r="BJ35">
+        <v>2.65</v>
+      </c>
+      <c r="BK35">
+        <v>1.67</v>
+      </c>
+      <c r="BL35">
+        <v>2.07</v>
+      </c>
+      <c r="BM35">
+        <v>2.05</v>
+      </c>
+      <c r="BN35">
+        <v>1.68</v>
+      </c>
+      <c r="BO35">
+        <v>2.55</v>
+      </c>
+      <c r="BP35">
+        <v>1.45</v>
+      </c>
+    </row>
+    <row r="36" spans="1:68">
+      <c r="A36" s="1">
+        <v>35</v>
+      </c>
+      <c r="B36">
+        <v>7841069</v>
+      </c>
+      <c r="C36" t="s">
+        <v>68</v>
+      </c>
+      <c r="D36" t="s">
+        <v>69</v>
+      </c>
+      <c r="E36" s="2">
+        <v>45767.83333333334</v>
+      </c>
+      <c r="F36">
+        <v>4</v>
+      </c>
+      <c r="G36" t="s">
+        <v>75</v>
+      </c>
+      <c r="H36" t="s">
+        <v>70</v>
+      </c>
+      <c r="I36">
+        <v>1</v>
+      </c>
+      <c r="J36">
+        <v>0</v>
+      </c>
+      <c r="K36">
+        <v>1</v>
+      </c>
+      <c r="L36">
+        <v>1</v>
+      </c>
+      <c r="M36">
+        <v>0</v>
+      </c>
+      <c r="N36">
+        <v>1</v>
+      </c>
+      <c r="O36" t="s">
+        <v>118</v>
+      </c>
+      <c r="P36" t="s">
+        <v>97</v>
+      </c>
+      <c r="Q36">
+        <v>2.65</v>
+      </c>
+      <c r="R36">
+        <v>2</v>
+      </c>
+      <c r="S36">
+        <v>4.65</v>
+      </c>
+      <c r="T36">
+        <v>1.5</v>
+      </c>
+      <c r="U36">
+        <v>2.5</v>
+      </c>
+      <c r="V36">
+        <v>3.22</v>
+      </c>
+      <c r="W36">
+        <v>1.33</v>
+      </c>
+      <c r="X36">
+        <v>8.300000000000001</v>
+      </c>
+      <c r="Y36">
+        <v>1.06</v>
+      </c>
+      <c r="Z36">
+        <v>2.07</v>
+      </c>
+      <c r="AA36">
+        <v>3</v>
+      </c>
+      <c r="AB36">
+        <v>4.1</v>
+      </c>
+      <c r="AC36">
+        <v>1.08</v>
+      </c>
+      <c r="AD36">
+        <v>7</v>
+      </c>
+      <c r="AE36">
+        <v>1.4</v>
+      </c>
+      <c r="AF36">
+        <v>3</v>
+      </c>
+      <c r="AG36">
+        <v>2.31</v>
+      </c>
+      <c r="AH36">
+        <v>1.65</v>
+      </c>
+      <c r="AI36">
+        <v>2</v>
+      </c>
+      <c r="AJ36">
+        <v>1.84</v>
+      </c>
+      <c r="AK36">
+        <v>1.17</v>
+      </c>
+      <c r="AL36">
+        <v>1.3</v>
+      </c>
+      <c r="AM36">
+        <v>1.7</v>
+      </c>
+      <c r="AN36">
+        <v>3</v>
+      </c>
+      <c r="AO36">
+        <v>3</v>
+      </c>
+      <c r="AP36">
+        <v>3</v>
+      </c>
+      <c r="AQ36">
+        <v>1.5</v>
+      </c>
+      <c r="AR36">
+        <v>1.95</v>
+      </c>
+      <c r="AS36">
+        <v>1</v>
+      </c>
+      <c r="AT36">
+        <v>2.95</v>
+      </c>
+      <c r="AU36">
+        <v>10</v>
+      </c>
+      <c r="AV36">
+        <v>3</v>
+      </c>
+      <c r="AW36">
+        <v>8</v>
+      </c>
+      <c r="AX36">
+        <v>8</v>
+      </c>
+      <c r="AY36">
+        <v>21</v>
+      </c>
+      <c r="AZ36">
+        <v>14</v>
+      </c>
+      <c r="BA36">
+        <v>10</v>
+      </c>
+      <c r="BB36">
+        <v>9</v>
+      </c>
+      <c r="BC36">
+        <v>19</v>
+      </c>
+      <c r="BD36">
+        <v>1.62</v>
+      </c>
+      <c r="BE36">
+        <v>8.5</v>
+      </c>
+      <c r="BF36">
+        <v>2.66</v>
+      </c>
+      <c r="BG36">
+        <v>1.17</v>
+      </c>
+      <c r="BH36">
+        <v>4.15</v>
+      </c>
+      <c r="BI36">
+        <v>1.32</v>
+      </c>
+      <c r="BJ36">
+        <v>3</v>
+      </c>
+      <c r="BK36">
+        <v>1.58</v>
+      </c>
+      <c r="BL36">
+        <v>2.15</v>
+      </c>
+      <c r="BM36">
+        <v>2</v>
+      </c>
+      <c r="BN36">
+        <v>1.68</v>
+      </c>
+      <c r="BO36">
+        <v>2.65</v>
+      </c>
+      <c r="BP36">
+        <v>1.39</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Brazil Serie B_2025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Brazil Serie B_2025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="278" uniqueCount="134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="296" uniqueCount="138">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -373,6 +373,12 @@
     <t>['13']</t>
   </si>
   <si>
+    <t>['55']</t>
+  </si>
+  <si>
+    <t>['45+2']</t>
+  </si>
+  <si>
     <t>['33', '72']</t>
   </si>
   <si>
@@ -416,6 +422,12 @@
   </si>
   <si>
     <t>['36']</t>
+  </si>
+  <si>
+    <t>['7', '45+4']</t>
+  </si>
+  <si>
+    <t>['18']</t>
   </si>
 </sst>
 </file>
@@ -777,7 +789,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP36"/>
+  <dimension ref="A1:BP39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1242,7 +1254,7 @@
         <v>91</v>
       </c>
       <c r="P3" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="Q3">
         <v>3.5</v>
@@ -1448,7 +1460,7 @@
         <v>92</v>
       </c>
       <c r="P4" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="Q4">
         <v>2.5</v>
@@ -2272,7 +2284,7 @@
         <v>96</v>
       </c>
       <c r="P8" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="Q8">
         <v>3</v>
@@ -2890,7 +2902,7 @@
         <v>99</v>
       </c>
       <c r="P11" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="Q11">
         <v>2.38</v>
@@ -3096,7 +3108,7 @@
         <v>100</v>
       </c>
       <c r="P12" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="Q12">
         <v>2.51</v>
@@ -3177,7 +3189,7 @@
         <v>3</v>
       </c>
       <c r="AQ12">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="AR12">
         <v>0</v>
@@ -3302,7 +3314,7 @@
         <v>101</v>
       </c>
       <c r="P13" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="Q13">
         <v>2.8</v>
@@ -3383,7 +3395,7 @@
         <v>2</v>
       </c>
       <c r="AQ13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AR13">
         <v>0</v>
@@ -3508,7 +3520,7 @@
         <v>102</v>
       </c>
       <c r="P14" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="Q14">
         <v>3.3</v>
@@ -3589,7 +3601,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ14">
-        <v>3</v>
+        <v>1.5</v>
       </c>
       <c r="AR14">
         <v>0</v>
@@ -3998,7 +4010,7 @@
         <v>0</v>
       </c>
       <c r="AP16">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="AQ16">
         <v>1</v>
@@ -4204,7 +4216,7 @@
         <v>0</v>
       </c>
       <c r="AP17">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AQ17">
         <v>0</v>
@@ -4332,7 +4344,7 @@
         <v>105</v>
       </c>
       <c r="P18" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="Q18">
         <v>3.22</v>
@@ -4538,7 +4550,7 @@
         <v>106</v>
       </c>
       <c r="P19" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="Q19">
         <v>2.55</v>
@@ -4950,7 +4962,7 @@
         <v>92</v>
       </c>
       <c r="P21" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="Q21">
         <v>3.5</v>
@@ -5156,7 +5168,7 @@
         <v>108</v>
       </c>
       <c r="P22" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="Q22">
         <v>3.5</v>
@@ -5362,7 +5374,7 @@
         <v>97</v>
       </c>
       <c r="P23" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="Q23">
         <v>2.33</v>
@@ -5980,7 +5992,7 @@
         <v>109</v>
       </c>
       <c r="P26" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="Q26">
         <v>2.38</v>
@@ -6598,7 +6610,7 @@
         <v>112</v>
       </c>
       <c r="P29" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="Q29">
         <v>3.1</v>
@@ -7010,7 +7022,7 @@
         <v>114</v>
       </c>
       <c r="P31" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="Q31">
         <v>2.2</v>
@@ -7536,10 +7548,10 @@
         <v>5</v>
       </c>
       <c r="BB33">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="BC33">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="BD33">
         <v>1.6</v>
@@ -8197,6 +8209,624 @@
       </c>
       <c r="BP36">
         <v>1.39</v>
+      </c>
+    </row>
+    <row r="37" spans="1:68">
+      <c r="A37" s="1">
+        <v>36</v>
+      </c>
+      <c r="B37">
+        <v>7841068</v>
+      </c>
+      <c r="C37" t="s">
+        <v>68</v>
+      </c>
+      <c r="D37" t="s">
+        <v>69</v>
+      </c>
+      <c r="E37" s="2">
+        <v>45768.75</v>
+      </c>
+      <c r="F37">
+        <v>4</v>
+      </c>
+      <c r="G37" t="s">
+        <v>84</v>
+      </c>
+      <c r="H37" t="s">
+        <v>78</v>
+      </c>
+      <c r="I37">
+        <v>0</v>
+      </c>
+      <c r="J37">
+        <v>2</v>
+      </c>
+      <c r="K37">
+        <v>2</v>
+      </c>
+      <c r="L37">
+        <v>0</v>
+      </c>
+      <c r="M37">
+        <v>2</v>
+      </c>
+      <c r="N37">
+        <v>2</v>
+      </c>
+      <c r="O37" t="s">
+        <v>97</v>
+      </c>
+      <c r="P37" t="s">
+        <v>136</v>
+      </c>
+      <c r="Q37">
+        <v>3.6</v>
+      </c>
+      <c r="R37">
+        <v>1.97</v>
+      </c>
+      <c r="S37">
+        <v>3.72</v>
+      </c>
+      <c r="T37">
+        <v>1.61</v>
+      </c>
+      <c r="U37">
+        <v>2.41</v>
+      </c>
+      <c r="V37">
+        <v>3.7</v>
+      </c>
+      <c r="W37">
+        <v>1.2</v>
+      </c>
+      <c r="X37">
+        <v>15</v>
+      </c>
+      <c r="Y37">
+        <v>1.02</v>
+      </c>
+      <c r="Z37">
+        <v>2.75</v>
+      </c>
+      <c r="AA37">
+        <v>2.8</v>
+      </c>
+      <c r="AB37">
+        <v>3</v>
+      </c>
+      <c r="AC37">
+        <v>1.08</v>
+      </c>
+      <c r="AD37">
+        <v>6</v>
+      </c>
+      <c r="AE37">
+        <v>1.55</v>
+      </c>
+      <c r="AF37">
+        <v>2.4</v>
+      </c>
+      <c r="AG37">
+        <v>2.81</v>
+      </c>
+      <c r="AH37">
+        <v>1.44</v>
+      </c>
+      <c r="AI37">
+        <v>2.21</v>
+      </c>
+      <c r="AJ37">
+        <v>1.69</v>
+      </c>
+      <c r="AK37">
+        <v>1.33</v>
+      </c>
+      <c r="AL37">
+        <v>1.35</v>
+      </c>
+      <c r="AM37">
+        <v>1.53</v>
+      </c>
+      <c r="AN37">
+        <v>1</v>
+      </c>
+      <c r="AO37">
+        <v>1</v>
+      </c>
+      <c r="AP37">
+        <v>0.5</v>
+      </c>
+      <c r="AQ37">
+        <v>2</v>
+      </c>
+      <c r="AR37">
+        <v>2.41</v>
+      </c>
+      <c r="AS37">
+        <v>1.24</v>
+      </c>
+      <c r="AT37">
+        <v>3.65</v>
+      </c>
+      <c r="AU37">
+        <v>6</v>
+      </c>
+      <c r="AV37">
+        <v>6</v>
+      </c>
+      <c r="AW37">
+        <v>8</v>
+      </c>
+      <c r="AX37">
+        <v>6</v>
+      </c>
+      <c r="AY37">
+        <v>19</v>
+      </c>
+      <c r="AZ37">
+        <v>15</v>
+      </c>
+      <c r="BA37">
+        <v>4</v>
+      </c>
+      <c r="BB37">
+        <v>1</v>
+      </c>
+      <c r="BC37">
+        <v>5</v>
+      </c>
+      <c r="BD37">
+        <v>1.85</v>
+      </c>
+      <c r="BE37">
+        <v>7.7</v>
+      </c>
+      <c r="BF37">
+        <v>2.76</v>
+      </c>
+      <c r="BG37">
+        <v>1.21</v>
+      </c>
+      <c r="BH37">
+        <v>3.6</v>
+      </c>
+      <c r="BI37">
+        <v>1.41</v>
+      </c>
+      <c r="BJ37">
+        <v>2.95</v>
+      </c>
+      <c r="BK37">
+        <v>1.66</v>
+      </c>
+      <c r="BL37">
+        <v>2.11</v>
+      </c>
+      <c r="BM37">
+        <v>2.1</v>
+      </c>
+      <c r="BN37">
+        <v>1.71</v>
+      </c>
+      <c r="BO37">
+        <v>2.62</v>
+      </c>
+      <c r="BP37">
+        <v>1.43</v>
+      </c>
+    </row>
+    <row r="38" spans="1:68">
+      <c r="A38" s="1">
+        <v>37</v>
+      </c>
+      <c r="B38">
+        <v>7841070</v>
+      </c>
+      <c r="C38" t="s">
+        <v>68</v>
+      </c>
+      <c r="D38" t="s">
+        <v>69</v>
+      </c>
+      <c r="E38" s="2">
+        <v>45768.79166666666</v>
+      </c>
+      <c r="F38">
+        <v>4</v>
+      </c>
+      <c r="G38" t="s">
+        <v>85</v>
+      </c>
+      <c r="H38" t="s">
+        <v>72</v>
+      </c>
+      <c r="I38">
+        <v>0</v>
+      </c>
+      <c r="J38">
+        <v>1</v>
+      </c>
+      <c r="K38">
+        <v>1</v>
+      </c>
+      <c r="L38">
+        <v>1</v>
+      </c>
+      <c r="M38">
+        <v>1</v>
+      </c>
+      <c r="N38">
+        <v>2</v>
+      </c>
+      <c r="O38" t="s">
+        <v>119</v>
+      </c>
+      <c r="P38" t="s">
+        <v>137</v>
+      </c>
+      <c r="Q38">
+        <v>2.58</v>
+      </c>
+      <c r="R38">
+        <v>1.95</v>
+      </c>
+      <c r="S38">
+        <v>5.2</v>
+      </c>
+      <c r="T38">
+        <v>1.59</v>
+      </c>
+      <c r="U38">
+        <v>2.25</v>
+      </c>
+      <c r="V38">
+        <v>3.6</v>
+      </c>
+      <c r="W38">
+        <v>1.23</v>
+      </c>
+      <c r="X38">
+        <v>11</v>
+      </c>
+      <c r="Y38">
+        <v>1</v>
+      </c>
+      <c r="Z38">
+        <v>1.92</v>
+      </c>
+      <c r="AA38">
+        <v>3.14</v>
+      </c>
+      <c r="AB38">
+        <v>4.6</v>
+      </c>
+      <c r="AC38">
+        <v>1.04</v>
+      </c>
+      <c r="AD38">
+        <v>6.9</v>
+      </c>
+      <c r="AE38">
+        <v>1.5</v>
+      </c>
+      <c r="AF38">
+        <v>2.43</v>
+      </c>
+      <c r="AG38">
+        <v>2.45</v>
+      </c>
+      <c r="AH38">
+        <v>1.49</v>
+      </c>
+      <c r="AI38">
+        <v>2.2</v>
+      </c>
+      <c r="AJ38">
+        <v>1.65</v>
+      </c>
+      <c r="AK38">
+        <v>1.27</v>
+      </c>
+      <c r="AL38">
+        <v>1.28</v>
+      </c>
+      <c r="AM38">
+        <v>1.83</v>
+      </c>
+      <c r="AN38">
+        <v>3</v>
+      </c>
+      <c r="AO38">
+        <v>0</v>
+      </c>
+      <c r="AP38">
+        <v>2</v>
+      </c>
+      <c r="AQ38">
+        <v>0.5</v>
+      </c>
+      <c r="AR38">
+        <v>1.97</v>
+      </c>
+      <c r="AS38">
+        <v>1.14</v>
+      </c>
+      <c r="AT38">
+        <v>3.11</v>
+      </c>
+      <c r="AU38">
+        <v>8</v>
+      </c>
+      <c r="AV38">
+        <v>4</v>
+      </c>
+      <c r="AW38">
+        <v>18</v>
+      </c>
+      <c r="AX38">
+        <v>0</v>
+      </c>
+      <c r="AY38">
+        <v>37</v>
+      </c>
+      <c r="AZ38">
+        <v>6</v>
+      </c>
+      <c r="BA38">
+        <v>8</v>
+      </c>
+      <c r="BB38">
+        <v>4</v>
+      </c>
+      <c r="BC38">
+        <v>12</v>
+      </c>
+      <c r="BD38">
+        <v>1.47</v>
+      </c>
+      <c r="BE38">
+        <v>6.75</v>
+      </c>
+      <c r="BF38">
+        <v>2.95</v>
+      </c>
+      <c r="BG38">
+        <v>1.21</v>
+      </c>
+      <c r="BH38">
+        <v>3.3</v>
+      </c>
+      <c r="BI38">
+        <v>1.48</v>
+      </c>
+      <c r="BJ38">
+        <v>2.45</v>
+      </c>
+      <c r="BK38">
+        <v>1.77</v>
+      </c>
+      <c r="BL38">
+        <v>1.93</v>
+      </c>
+      <c r="BM38">
+        <v>2.08</v>
+      </c>
+      <c r="BN38">
+        <v>1.72</v>
+      </c>
+      <c r="BO38">
+        <v>2.8</v>
+      </c>
+      <c r="BP38">
+        <v>1.44</v>
+      </c>
+    </row>
+    <row r="39" spans="1:68">
+      <c r="A39" s="1">
+        <v>38</v>
+      </c>
+      <c r="B39">
+        <v>7841065</v>
+      </c>
+      <c r="C39" t="s">
+        <v>68</v>
+      </c>
+      <c r="D39" t="s">
+        <v>69</v>
+      </c>
+      <c r="E39" s="2">
+        <v>45768.89583333334</v>
+      </c>
+      <c r="F39">
+        <v>4</v>
+      </c>
+      <c r="G39" t="s">
+        <v>88</v>
+      </c>
+      <c r="H39" t="s">
+        <v>73</v>
+      </c>
+      <c r="I39">
+        <v>1</v>
+      </c>
+      <c r="J39">
+        <v>0</v>
+      </c>
+      <c r="K39">
+        <v>1</v>
+      </c>
+      <c r="L39">
+        <v>1</v>
+      </c>
+      <c r="M39">
+        <v>0</v>
+      </c>
+      <c r="N39">
+        <v>1</v>
+      </c>
+      <c r="O39" t="s">
+        <v>120</v>
+      </c>
+      <c r="P39" t="s">
+        <v>97</v>
+      </c>
+      <c r="Q39">
+        <v>3.08</v>
+      </c>
+      <c r="R39">
+        <v>1.86</v>
+      </c>
+      <c r="S39">
+        <v>3.5</v>
+      </c>
+      <c r="T39">
+        <v>1.57</v>
+      </c>
+      <c r="U39">
+        <v>2.38</v>
+      </c>
+      <c r="V39">
+        <v>3.6</v>
+      </c>
+      <c r="W39">
+        <v>1.25</v>
+      </c>
+      <c r="X39">
+        <v>10.5</v>
+      </c>
+      <c r="Y39">
+        <v>1</v>
+      </c>
+      <c r="Z39">
+        <v>2.35</v>
+      </c>
+      <c r="AA39">
+        <v>2.84</v>
+      </c>
+      <c r="AB39">
+        <v>3.64</v>
+      </c>
+      <c r="AC39">
+        <v>1.14</v>
+      </c>
+      <c r="AD39">
+        <v>5.8</v>
+      </c>
+      <c r="AE39">
+        <v>1.48</v>
+      </c>
+      <c r="AF39">
+        <v>2.42</v>
+      </c>
+      <c r="AG39">
+        <v>2.63</v>
+      </c>
+      <c r="AH39">
+        <v>1.45</v>
+      </c>
+      <c r="AI39">
+        <v>2.05</v>
+      </c>
+      <c r="AJ39">
+        <v>1.66</v>
+      </c>
+      <c r="AK39">
+        <v>1.4</v>
+      </c>
+      <c r="AL39">
+        <v>1.36</v>
+      </c>
+      <c r="AM39">
+        <v>1.6</v>
+      </c>
+      <c r="AN39">
+        <v>3</v>
+      </c>
+      <c r="AO39">
+        <v>3</v>
+      </c>
+      <c r="AP39">
+        <v>3</v>
+      </c>
+      <c r="AQ39">
+        <v>1.5</v>
+      </c>
+      <c r="AR39">
+        <v>1.19</v>
+      </c>
+      <c r="AS39">
+        <v>1.49</v>
+      </c>
+      <c r="AT39">
+        <v>2.68</v>
+      </c>
+      <c r="AU39">
+        <v>5</v>
+      </c>
+      <c r="AV39">
+        <v>7</v>
+      </c>
+      <c r="AW39">
+        <v>2</v>
+      </c>
+      <c r="AX39">
+        <v>14</v>
+      </c>
+      <c r="AY39">
+        <v>8</v>
+      </c>
+      <c r="AZ39">
+        <v>31</v>
+      </c>
+      <c r="BA39">
+        <v>1</v>
+      </c>
+      <c r="BB39">
+        <v>13</v>
+      </c>
+      <c r="BC39">
+        <v>14</v>
+      </c>
+      <c r="BD39">
+        <v>1.79</v>
+      </c>
+      <c r="BE39">
+        <v>7.6</v>
+      </c>
+      <c r="BF39">
+        <v>2.27</v>
+      </c>
+      <c r="BG39">
+        <v>1.25</v>
+      </c>
+      <c r="BH39">
+        <v>3.8</v>
+      </c>
+      <c r="BI39">
+        <v>1.38</v>
+      </c>
+      <c r="BJ39">
+        <v>2.8</v>
+      </c>
+      <c r="BK39">
+        <v>1.67</v>
+      </c>
+      <c r="BL39">
+        <v>2.35</v>
+      </c>
+      <c r="BM39">
+        <v>1.85</v>
+      </c>
+      <c r="BN39">
+        <v>1.85</v>
+      </c>
+      <c r="BO39">
+        <v>2.34</v>
+      </c>
+      <c r="BP39">
+        <v>1.5</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Brazil Serie B_2025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Brazil Serie B_2025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="296" uniqueCount="138">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="302" uniqueCount="139">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -377,6 +377,9 @@
   </si>
   <si>
     <t>['45+2']</t>
+  </si>
+  <si>
+    <t>['3']</t>
   </si>
   <si>
     <t>['33', '72']</t>
@@ -789,7 +792,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP39"/>
+  <dimension ref="A1:BP40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1254,7 +1257,7 @@
         <v>91</v>
       </c>
       <c r="P3" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="Q3">
         <v>3.5</v>
@@ -1460,7 +1463,7 @@
         <v>92</v>
       </c>
       <c r="P4" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="Q4">
         <v>2.5</v>
@@ -2284,7 +2287,7 @@
         <v>96</v>
       </c>
       <c r="P8" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="Q8">
         <v>3</v>
@@ -2571,7 +2574,7 @@
         <v>0</v>
       </c>
       <c r="AQ9">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AR9">
         <v>0</v>
@@ -2902,7 +2905,7 @@
         <v>99</v>
       </c>
       <c r="P11" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="Q11">
         <v>2.38</v>
@@ -2980,7 +2983,7 @@
         <v>0</v>
       </c>
       <c r="AP11">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AQ11">
         <v>0</v>
@@ -3108,7 +3111,7 @@
         <v>100</v>
       </c>
       <c r="P12" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="Q12">
         <v>2.51</v>
@@ -3314,7 +3317,7 @@
         <v>101</v>
       </c>
       <c r="P13" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="Q13">
         <v>2.8</v>
@@ -3520,7 +3523,7 @@
         <v>102</v>
       </c>
       <c r="P14" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="Q14">
         <v>3.3</v>
@@ -4344,7 +4347,7 @@
         <v>105</v>
       </c>
       <c r="P18" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="Q18">
         <v>3.22</v>
@@ -4550,7 +4553,7 @@
         <v>106</v>
       </c>
       <c r="P19" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="Q19">
         <v>2.55</v>
@@ -4962,7 +4965,7 @@
         <v>92</v>
       </c>
       <c r="P21" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="Q21">
         <v>3.5</v>
@@ -5168,7 +5171,7 @@
         <v>108</v>
       </c>
       <c r="P22" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="Q22">
         <v>3.5</v>
@@ -5374,7 +5377,7 @@
         <v>97</v>
       </c>
       <c r="P23" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="Q23">
         <v>2.33</v>
@@ -5992,7 +5995,7 @@
         <v>109</v>
       </c>
       <c r="P26" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="Q26">
         <v>2.38</v>
@@ -6610,7 +6613,7 @@
         <v>112</v>
       </c>
       <c r="P29" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="Q29">
         <v>3.1</v>
@@ -7022,7 +7025,7 @@
         <v>114</v>
       </c>
       <c r="P31" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="Q31">
         <v>2.2</v>
@@ -8258,7 +8261,7 @@
         <v>97</v>
       </c>
       <c r="P37" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="Q37">
         <v>3.6</v>
@@ -8464,7 +8467,7 @@
         <v>119</v>
       </c>
       <c r="P38" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="Q38">
         <v>2.58</v>
@@ -8827,6 +8830,212 @@
       </c>
       <c r="BP39">
         <v>1.5</v>
+      </c>
+    </row>
+    <row r="40" spans="1:68">
+      <c r="A40" s="1">
+        <v>39</v>
+      </c>
+      <c r="B40">
+        <v>7841064</v>
+      </c>
+      <c r="C40" t="s">
+        <v>68</v>
+      </c>
+      <c r="D40" t="s">
+        <v>69</v>
+      </c>
+      <c r="E40" s="2">
+        <v>45769.8125</v>
+      </c>
+      <c r="F40">
+        <v>4</v>
+      </c>
+      <c r="G40" t="s">
+        <v>79</v>
+      </c>
+      <c r="H40" t="s">
+        <v>81</v>
+      </c>
+      <c r="I40">
+        <v>1</v>
+      </c>
+      <c r="J40">
+        <v>0</v>
+      </c>
+      <c r="K40">
+        <v>1</v>
+      </c>
+      <c r="L40">
+        <v>1</v>
+      </c>
+      <c r="M40">
+        <v>1</v>
+      </c>
+      <c r="N40">
+        <v>2</v>
+      </c>
+      <c r="O40" t="s">
+        <v>121</v>
+      </c>
+      <c r="P40" t="s">
+        <v>102</v>
+      </c>
+      <c r="Q40">
+        <v>2.7</v>
+      </c>
+      <c r="R40">
+        <v>1.93</v>
+      </c>
+      <c r="S40">
+        <v>4.33</v>
+      </c>
+      <c r="T40">
+        <v>1.53</v>
+      </c>
+      <c r="U40">
+        <v>2.33</v>
+      </c>
+      <c r="V40">
+        <v>3.28</v>
+      </c>
+      <c r="W40">
+        <v>1.29</v>
+      </c>
+      <c r="X40">
+        <v>8.300000000000001</v>
+      </c>
+      <c r="Y40">
+        <v>1.04</v>
+      </c>
+      <c r="Z40">
+        <v>1.95</v>
+      </c>
+      <c r="AA40">
+        <v>3.1</v>
+      </c>
+      <c r="AB40">
+        <v>4.3</v>
+      </c>
+      <c r="AC40">
+        <v>1.1</v>
+      </c>
+      <c r="AD40">
+        <v>9</v>
+      </c>
+      <c r="AE40">
+        <v>1.41</v>
+      </c>
+      <c r="AF40">
+        <v>2.7</v>
+      </c>
+      <c r="AG40">
+        <v>2.25</v>
+      </c>
+      <c r="AH40">
+        <v>1.53</v>
+      </c>
+      <c r="AI40">
+        <v>2.05</v>
+      </c>
+      <c r="AJ40">
+        <v>1.73</v>
+      </c>
+      <c r="AK40">
+        <v>1.3</v>
+      </c>
+      <c r="AL40">
+        <v>1.3</v>
+      </c>
+      <c r="AM40">
+        <v>1.86</v>
+      </c>
+      <c r="AN40">
+        <v>3</v>
+      </c>
+      <c r="AO40">
+        <v>3</v>
+      </c>
+      <c r="AP40">
+        <v>2</v>
+      </c>
+      <c r="AQ40">
+        <v>2</v>
+      </c>
+      <c r="AR40">
+        <v>1.82</v>
+      </c>
+      <c r="AS40">
+        <v>1.71</v>
+      </c>
+      <c r="AT40">
+        <v>3.53</v>
+      </c>
+      <c r="AU40">
+        <v>6</v>
+      </c>
+      <c r="AV40">
+        <v>3</v>
+      </c>
+      <c r="AW40">
+        <v>10</v>
+      </c>
+      <c r="AX40">
+        <v>12</v>
+      </c>
+      <c r="AY40">
+        <v>16</v>
+      </c>
+      <c r="AZ40">
+        <v>17</v>
+      </c>
+      <c r="BA40">
+        <v>2</v>
+      </c>
+      <c r="BB40">
+        <v>8</v>
+      </c>
+      <c r="BC40">
+        <v>10</v>
+      </c>
+      <c r="BD40">
+        <v>1.38</v>
+      </c>
+      <c r="BE40">
+        <v>7</v>
+      </c>
+      <c r="BF40">
+        <v>3.22</v>
+      </c>
+      <c r="BG40">
+        <v>1.25</v>
+      </c>
+      <c r="BH40">
+        <v>3.45</v>
+      </c>
+      <c r="BI40">
+        <v>1.4</v>
+      </c>
+      <c r="BJ40">
+        <v>2.55</v>
+      </c>
+      <c r="BK40">
+        <v>1.7</v>
+      </c>
+      <c r="BL40">
+        <v>2</v>
+      </c>
+      <c r="BM40">
+        <v>2.05</v>
+      </c>
+      <c r="BN40">
+        <v>1.67</v>
+      </c>
+      <c r="BO40">
+        <v>2.55</v>
+      </c>
+      <c r="BP40">
+        <v>1.48</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Brazil Serie B_2025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Brazil Serie B_2025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="302" uniqueCount="139">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="308" uniqueCount="139">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -792,7 +792,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP40"/>
+  <dimension ref="A1:BP41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2571,7 +2571,7 @@
         <v>0</v>
       </c>
       <c r="AP9">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="AQ9">
         <v>2</v>
@@ -8984,10 +8984,10 @@
         <v>12</v>
       </c>
       <c r="AY40">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AZ40">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="BA40">
         <v>2</v>
@@ -9036,6 +9036,212 @@
       </c>
       <c r="BP40">
         <v>1.48</v>
+      </c>
+    </row>
+    <row r="41" spans="1:68">
+      <c r="A41" s="1">
+        <v>40</v>
+      </c>
+      <c r="B41">
+        <v>7841071</v>
+      </c>
+      <c r="C41" t="s">
+        <v>68</v>
+      </c>
+      <c r="D41" t="s">
+        <v>69</v>
+      </c>
+      <c r="E41" s="2">
+        <v>45769.83333333334</v>
+      </c>
+      <c r="F41">
+        <v>4</v>
+      </c>
+      <c r="G41" t="s">
+        <v>77</v>
+      </c>
+      <c r="H41" t="s">
+        <v>76</v>
+      </c>
+      <c r="I41">
+        <v>0</v>
+      </c>
+      <c r="J41">
+        <v>0</v>
+      </c>
+      <c r="K41">
+        <v>0</v>
+      </c>
+      <c r="L41">
+        <v>0</v>
+      </c>
+      <c r="M41">
+        <v>0</v>
+      </c>
+      <c r="N41">
+        <v>0</v>
+      </c>
+      <c r="O41" t="s">
+        <v>97</v>
+      </c>
+      <c r="P41" t="s">
+        <v>97</v>
+      </c>
+      <c r="Q41">
+        <v>3.2</v>
+      </c>
+      <c r="R41">
+        <v>1.83</v>
+      </c>
+      <c r="S41">
+        <v>4.2</v>
+      </c>
+      <c r="T41">
+        <v>1.65</v>
+      </c>
+      <c r="U41">
+        <v>2.3</v>
+      </c>
+      <c r="V41">
+        <v>3.33</v>
+      </c>
+      <c r="W41">
+        <v>1.25</v>
+      </c>
+      <c r="X41">
+        <v>12</v>
+      </c>
+      <c r="Y41">
+        <v>1</v>
+      </c>
+      <c r="Z41">
+        <v>2.25</v>
+      </c>
+      <c r="AA41">
+        <v>3.1</v>
+      </c>
+      <c r="AB41">
+        <v>3.5</v>
+      </c>
+      <c r="AC41">
+        <v>1.14</v>
+      </c>
+      <c r="AD41">
+        <v>5.64</v>
+      </c>
+      <c r="AE41">
+        <v>1.55</v>
+      </c>
+      <c r="AF41">
+        <v>2.25</v>
+      </c>
+      <c r="AG41">
+        <v>2.65</v>
+      </c>
+      <c r="AH41">
+        <v>1.36</v>
+      </c>
+      <c r="AI41">
+        <v>2.25</v>
+      </c>
+      <c r="AJ41">
+        <v>1.62</v>
+      </c>
+      <c r="AK41">
+        <v>1.46</v>
+      </c>
+      <c r="AL41">
+        <v>1.3</v>
+      </c>
+      <c r="AM41">
+        <v>1.62</v>
+      </c>
+      <c r="AN41">
+        <v>0</v>
+      </c>
+      <c r="AO41">
+        <v>1</v>
+      </c>
+      <c r="AP41">
+        <v>0.5</v>
+      </c>
+      <c r="AQ41">
+        <v>1</v>
+      </c>
+      <c r="AR41">
+        <v>1.74</v>
+      </c>
+      <c r="AS41">
+        <v>0.97</v>
+      </c>
+      <c r="AT41">
+        <v>2.71</v>
+      </c>
+      <c r="AU41">
+        <v>5</v>
+      </c>
+      <c r="AV41">
+        <v>0</v>
+      </c>
+      <c r="AW41">
+        <v>11</v>
+      </c>
+      <c r="AX41">
+        <v>3</v>
+      </c>
+      <c r="AY41">
+        <v>19</v>
+      </c>
+      <c r="AZ41">
+        <v>4</v>
+      </c>
+      <c r="BA41">
+        <v>6</v>
+      </c>
+      <c r="BB41">
+        <v>2</v>
+      </c>
+      <c r="BC41">
+        <v>8</v>
+      </c>
+      <c r="BD41">
+        <v>1.58</v>
+      </c>
+      <c r="BE41">
+        <v>6.75</v>
+      </c>
+      <c r="BF41">
+        <v>2.8</v>
+      </c>
+      <c r="BG41">
+        <v>1.24</v>
+      </c>
+      <c r="BH41">
+        <v>3.4</v>
+      </c>
+      <c r="BI41">
+        <v>1.47</v>
+      </c>
+      <c r="BJ41">
+        <v>2.5</v>
+      </c>
+      <c r="BK41">
+        <v>1.78</v>
+      </c>
+      <c r="BL41">
+        <v>2</v>
+      </c>
+      <c r="BM41">
+        <v>2.26</v>
+      </c>
+      <c r="BN41">
+        <v>1.61</v>
+      </c>
+      <c r="BO41">
+        <v>2.8</v>
+      </c>
+      <c r="BP41">
+        <v>1.38</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Brazil Serie B_2025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Brazil Serie B_2025.xlsx
@@ -8787,10 +8787,10 @@
         <v>1</v>
       </c>
       <c r="BB39">
+        <v>12</v>
+      </c>
+      <c r="BC39">
         <v>13</v>
-      </c>
-      <c r="BC39">
-        <v>14</v>
       </c>
       <c r="BD39">
         <v>1.79</v>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Brazil Serie B_2025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Brazil Serie B_2025.xlsx
@@ -8787,10 +8787,10 @@
         <v>1</v>
       </c>
       <c r="BB39">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="BC39">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="BD39">
         <v>1.79</v>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Brazil Serie B_2025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Brazil Serie B_2025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="308" uniqueCount="139">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="314" uniqueCount="141">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -382,6 +382,9 @@
     <t>['3']</t>
   </si>
   <si>
+    <t>['11', '74']</t>
+  </si>
+  <si>
     <t>['33', '72']</t>
   </si>
   <si>
@@ -431,6 +434,9 @@
   </si>
   <si>
     <t>['18']</t>
+  </si>
+  <si>
+    <t>['64']</t>
   </si>
 </sst>
 </file>
@@ -792,7 +798,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP41"/>
+  <dimension ref="A1:BP42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1257,7 +1263,7 @@
         <v>91</v>
       </c>
       <c r="P3" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="Q3">
         <v>3.5</v>
@@ -1338,7 +1344,7 @@
         <v>0</v>
       </c>
       <c r="AQ3">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="AR3">
         <v>0</v>
@@ -1463,7 +1469,7 @@
         <v>92</v>
       </c>
       <c r="P4" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="Q4">
         <v>2.5</v>
@@ -2287,7 +2293,7 @@
         <v>96</v>
       </c>
       <c r="P8" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="Q8">
         <v>3</v>
@@ -2905,7 +2911,7 @@
         <v>99</v>
       </c>
       <c r="P11" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="Q11">
         <v>2.38</v>
@@ -3111,7 +3117,7 @@
         <v>100</v>
       </c>
       <c r="P12" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="Q12">
         <v>2.51</v>
@@ -3317,7 +3323,7 @@
         <v>101</v>
       </c>
       <c r="P13" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="Q13">
         <v>2.8</v>
@@ -3523,7 +3529,7 @@
         <v>102</v>
       </c>
       <c r="P14" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="Q14">
         <v>3.3</v>
@@ -4219,7 +4225,7 @@
         <v>0</v>
       </c>
       <c r="AP17">
-        <v>2</v>
+        <v>2.33</v>
       </c>
       <c r="AQ17">
         <v>0</v>
@@ -4347,7 +4353,7 @@
         <v>105</v>
       </c>
       <c r="P18" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="Q18">
         <v>3.22</v>
@@ -4553,7 +4559,7 @@
         <v>106</v>
       </c>
       <c r="P19" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="Q19">
         <v>2.55</v>
@@ -4965,7 +4971,7 @@
         <v>92</v>
       </c>
       <c r="P21" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="Q21">
         <v>3.5</v>
@@ -5171,7 +5177,7 @@
         <v>108</v>
       </c>
       <c r="P22" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="Q22">
         <v>3.5</v>
@@ -5252,7 +5258,7 @@
         <v>2</v>
       </c>
       <c r="AQ22">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="AR22">
         <v>1.69</v>
@@ -5377,7 +5383,7 @@
         <v>97</v>
       </c>
       <c r="P23" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="Q23">
         <v>2.33</v>
@@ -5995,7 +6001,7 @@
         <v>109</v>
       </c>
       <c r="P26" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="Q26">
         <v>2.38</v>
@@ -6613,7 +6619,7 @@
         <v>112</v>
       </c>
       <c r="P29" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="Q29">
         <v>3.1</v>
@@ -7025,7 +7031,7 @@
         <v>114</v>
       </c>
       <c r="P31" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="Q31">
         <v>2.2</v>
@@ -8261,7 +8267,7 @@
         <v>97</v>
       </c>
       <c r="P37" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="Q37">
         <v>3.6</v>
@@ -8467,7 +8473,7 @@
         <v>119</v>
       </c>
       <c r="P38" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="Q38">
         <v>2.58</v>
@@ -8545,7 +8551,7 @@
         <v>0</v>
       </c>
       <c r="AP38">
-        <v>2</v>
+        <v>2.33</v>
       </c>
       <c r="AQ38">
         <v>0.5</v>
@@ -9242,6 +9248,212 @@
       </c>
       <c r="BP41">
         <v>1.38</v>
+      </c>
+    </row>
+    <row r="42" spans="1:68">
+      <c r="A42" s="1">
+        <v>41</v>
+      </c>
+      <c r="B42">
+        <v>7841080</v>
+      </c>
+      <c r="C42" t="s">
+        <v>68</v>
+      </c>
+      <c r="D42" t="s">
+        <v>69</v>
+      </c>
+      <c r="E42" s="2">
+        <v>45771.89930555555</v>
+      </c>
+      <c r="F42">
+        <v>5</v>
+      </c>
+      <c r="G42" t="s">
+        <v>85</v>
+      </c>
+      <c r="H42" t="s">
+        <v>80</v>
+      </c>
+      <c r="I42">
+        <v>1</v>
+      </c>
+      <c r="J42">
+        <v>0</v>
+      </c>
+      <c r="K42">
+        <v>1</v>
+      </c>
+      <c r="L42">
+        <v>2</v>
+      </c>
+      <c r="M42">
+        <v>1</v>
+      </c>
+      <c r="N42">
+        <v>3</v>
+      </c>
+      <c r="O42" t="s">
+        <v>122</v>
+      </c>
+      <c r="P42" t="s">
+        <v>140</v>
+      </c>
+      <c r="Q42">
+        <v>3.1</v>
+      </c>
+      <c r="R42">
+        <v>1.82</v>
+      </c>
+      <c r="S42">
+        <v>4</v>
+      </c>
+      <c r="T42">
+        <v>1.62</v>
+      </c>
+      <c r="U42">
+        <v>2.1</v>
+      </c>
+      <c r="V42">
+        <v>3.8</v>
+      </c>
+      <c r="W42">
+        <v>1.19</v>
+      </c>
+      <c r="X42">
+        <v>9.9</v>
+      </c>
+      <c r="Y42">
+        <v>1</v>
+      </c>
+      <c r="Z42">
+        <v>2.3</v>
+      </c>
+      <c r="AA42">
+        <v>2.75</v>
+      </c>
+      <c r="AB42">
+        <v>3.2</v>
+      </c>
+      <c r="AC42">
+        <v>1.09</v>
+      </c>
+      <c r="AD42">
+        <v>5.5</v>
+      </c>
+      <c r="AE42">
+        <v>1.62</v>
+      </c>
+      <c r="AF42">
+        <v>2.2</v>
+      </c>
+      <c r="AG42">
+        <v>2.8</v>
+      </c>
+      <c r="AH42">
+        <v>1.4</v>
+      </c>
+      <c r="AI42">
+        <v>2.3</v>
+      </c>
+      <c r="AJ42">
+        <v>1.6</v>
+      </c>
+      <c r="AK42">
+        <v>1.42</v>
+      </c>
+      <c r="AL42">
+        <v>1.33</v>
+      </c>
+      <c r="AM42">
+        <v>1.57</v>
+      </c>
+      <c r="AN42">
+        <v>2</v>
+      </c>
+      <c r="AO42">
+        <v>1.5</v>
+      </c>
+      <c r="AP42">
+        <v>2.33</v>
+      </c>
+      <c r="AQ42">
+        <v>1</v>
+      </c>
+      <c r="AR42">
+        <v>2.49</v>
+      </c>
+      <c r="AS42">
+        <v>1.21</v>
+      </c>
+      <c r="AT42">
+        <v>3.7</v>
+      </c>
+      <c r="AU42">
+        <v>5</v>
+      </c>
+      <c r="AV42">
+        <v>7</v>
+      </c>
+      <c r="AW42">
+        <v>12</v>
+      </c>
+      <c r="AX42">
+        <v>8</v>
+      </c>
+      <c r="AY42">
+        <v>23</v>
+      </c>
+      <c r="AZ42">
+        <v>21</v>
+      </c>
+      <c r="BA42">
+        <v>7</v>
+      </c>
+      <c r="BB42">
+        <v>6</v>
+      </c>
+      <c r="BC42">
+        <v>13</v>
+      </c>
+      <c r="BD42">
+        <v>1.77</v>
+      </c>
+      <c r="BE42">
+        <v>7</v>
+      </c>
+      <c r="BF42">
+        <v>2.4</v>
+      </c>
+      <c r="BG42">
+        <v>1.24</v>
+      </c>
+      <c r="BH42">
+        <v>3.6</v>
+      </c>
+      <c r="BI42">
+        <v>1.42</v>
+      </c>
+      <c r="BJ42">
+        <v>2.67</v>
+      </c>
+      <c r="BK42">
+        <v>1.73</v>
+      </c>
+      <c r="BL42">
+        <v>2.02</v>
+      </c>
+      <c r="BM42">
+        <v>2.08</v>
+      </c>
+      <c r="BN42">
+        <v>1.65</v>
+      </c>
+      <c r="BO42">
+        <v>2.62</v>
+      </c>
+      <c r="BP42">
+        <v>1.43</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Brazil Serie B_2025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Brazil Serie B_2025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="314" uniqueCount="141">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="326" uniqueCount="143">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -385,6 +385,9 @@
     <t>['11', '74']</t>
   </si>
   <si>
+    <t>['47']</t>
+  </si>
+  <si>
     <t>['33', '72']</t>
   </si>
   <si>
@@ -437,6 +440,9 @@
   </si>
   <si>
     <t>['64']</t>
+  </si>
+  <si>
+    <t>['90+2']</t>
   </si>
 </sst>
 </file>
@@ -798,7 +804,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP42"/>
+  <dimension ref="A1:BP44"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1263,7 +1269,7 @@
         <v>91</v>
       </c>
       <c r="P3" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="Q3">
         <v>3.5</v>
@@ -1469,7 +1475,7 @@
         <v>92</v>
       </c>
       <c r="P4" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="Q4">
         <v>2.5</v>
@@ -1547,7 +1553,7 @@
         <v>0</v>
       </c>
       <c r="AP4">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AQ4">
         <v>1.5</v>
@@ -1962,7 +1968,7 @@
         <v>3</v>
       </c>
       <c r="AQ6">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="AR6">
         <v>0</v>
@@ -2293,7 +2299,7 @@
         <v>96</v>
       </c>
       <c r="P8" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="Q8">
         <v>3</v>
@@ -2911,7 +2917,7 @@
         <v>99</v>
       </c>
       <c r="P11" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="Q11">
         <v>2.38</v>
@@ -3117,7 +3123,7 @@
         <v>100</v>
       </c>
       <c r="P12" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="Q12">
         <v>2.51</v>
@@ -3323,7 +3329,7 @@
         <v>101</v>
       </c>
       <c r="P13" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="Q13">
         <v>2.8</v>
@@ -3529,7 +3535,7 @@
         <v>102</v>
       </c>
       <c r="P14" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="Q14">
         <v>3.3</v>
@@ -4353,7 +4359,7 @@
         <v>105</v>
       </c>
       <c r="P18" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="Q18">
         <v>3.22</v>
@@ -4559,7 +4565,7 @@
         <v>106</v>
       </c>
       <c r="P19" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="Q19">
         <v>2.55</v>
@@ -4971,7 +4977,7 @@
         <v>92</v>
       </c>
       <c r="P21" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="Q21">
         <v>3.5</v>
@@ -5177,7 +5183,7 @@
         <v>108</v>
       </c>
       <c r="P22" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="Q22">
         <v>3.5</v>
@@ -5383,7 +5389,7 @@
         <v>97</v>
       </c>
       <c r="P23" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="Q23">
         <v>2.33</v>
@@ -5464,7 +5470,7 @@
         <v>0</v>
       </c>
       <c r="AQ23">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="AR23">
         <v>1.37</v>
@@ -6001,7 +6007,7 @@
         <v>109</v>
       </c>
       <c r="P26" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="Q26">
         <v>2.38</v>
@@ -6285,7 +6291,7 @@
         <v>0</v>
       </c>
       <c r="AP27">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AQ27">
         <v>0</v>
@@ -6619,7 +6625,7 @@
         <v>112</v>
       </c>
       <c r="P29" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="Q29">
         <v>3.1</v>
@@ -7031,7 +7037,7 @@
         <v>114</v>
       </c>
       <c r="P31" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="Q31">
         <v>2.2</v>
@@ -8267,7 +8273,7 @@
         <v>97</v>
       </c>
       <c r="P37" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="Q37">
         <v>3.6</v>
@@ -8473,7 +8479,7 @@
         <v>119</v>
       </c>
       <c r="P38" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="Q38">
         <v>2.58</v>
@@ -9297,7 +9303,7 @@
         <v>122</v>
       </c>
       <c r="P42" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="Q42">
         <v>3.1</v>
@@ -9454,6 +9460,418 @@
       </c>
       <c r="BP42">
         <v>1.43</v>
+      </c>
+    </row>
+    <row r="43" spans="1:68">
+      <c r="A43" s="1">
+        <v>42</v>
+      </c>
+      <c r="B43">
+        <v>7841077</v>
+      </c>
+      <c r="C43" t="s">
+        <v>68</v>
+      </c>
+      <c r="D43" t="s">
+        <v>69</v>
+      </c>
+      <c r="E43" s="2">
+        <v>45772.79166666666</v>
+      </c>
+      <c r="F43">
+        <v>5</v>
+      </c>
+      <c r="G43" t="s">
+        <v>72</v>
+      </c>
+      <c r="H43" t="s">
+        <v>88</v>
+      </c>
+      <c r="I43">
+        <v>0</v>
+      </c>
+      <c r="J43">
+        <v>0</v>
+      </c>
+      <c r="K43">
+        <v>0</v>
+      </c>
+      <c r="L43">
+        <v>1</v>
+      </c>
+      <c r="M43">
+        <v>1</v>
+      </c>
+      <c r="N43">
+        <v>2</v>
+      </c>
+      <c r="O43" t="s">
+        <v>123</v>
+      </c>
+      <c r="P43" t="s">
+        <v>142</v>
+      </c>
+      <c r="Q43">
+        <v>2.35</v>
+      </c>
+      <c r="R43">
+        <v>2.05</v>
+      </c>
+      <c r="S43">
+        <v>5.25</v>
+      </c>
+      <c r="T43">
+        <v>1.44</v>
+      </c>
+      <c r="U43">
+        <v>2.6</v>
+      </c>
+      <c r="V43">
+        <v>3</v>
+      </c>
+      <c r="W43">
+        <v>1.33</v>
+      </c>
+      <c r="X43">
+        <v>8</v>
+      </c>
+      <c r="Y43">
+        <v>1.05</v>
+      </c>
+      <c r="Z43">
+        <v>1.73</v>
+      </c>
+      <c r="AA43">
+        <v>3.4</v>
+      </c>
+      <c r="AB43">
+        <v>4.8</v>
+      </c>
+      <c r="AC43">
+        <v>1.05</v>
+      </c>
+      <c r="AD43">
+        <v>8</v>
+      </c>
+      <c r="AE43">
+        <v>1.33</v>
+      </c>
+      <c r="AF43">
+        <v>2.82</v>
+      </c>
+      <c r="AG43">
+        <v>2.1</v>
+      </c>
+      <c r="AH43">
+        <v>1.67</v>
+      </c>
+      <c r="AI43">
+        <v>1.87</v>
+      </c>
+      <c r="AJ43">
+        <v>1.77</v>
+      </c>
+      <c r="AK43">
+        <v>1.27</v>
+      </c>
+      <c r="AL43">
+        <v>1.2</v>
+      </c>
+      <c r="AM43">
+        <v>2.15</v>
+      </c>
+      <c r="AN43">
+        <v>1.5</v>
+      </c>
+      <c r="AO43">
+        <v>1</v>
+      </c>
+      <c r="AP43">
+        <v>1.33</v>
+      </c>
+      <c r="AQ43">
+        <v>1</v>
+      </c>
+      <c r="AR43">
+        <v>2.25</v>
+      </c>
+      <c r="AS43">
+        <v>1.53</v>
+      </c>
+      <c r="AT43">
+        <v>3.78</v>
+      </c>
+      <c r="AU43">
+        <v>6</v>
+      </c>
+      <c r="AV43">
+        <v>5</v>
+      </c>
+      <c r="AW43">
+        <v>11</v>
+      </c>
+      <c r="AX43">
+        <v>7</v>
+      </c>
+      <c r="AY43">
+        <v>18</v>
+      </c>
+      <c r="AZ43">
+        <v>12</v>
+      </c>
+      <c r="BA43">
+        <v>8</v>
+      </c>
+      <c r="BB43">
+        <v>3</v>
+      </c>
+      <c r="BC43">
+        <v>11</v>
+      </c>
+      <c r="BD43">
+        <v>1.38</v>
+      </c>
+      <c r="BE43">
+        <v>7</v>
+      </c>
+      <c r="BF43">
+        <v>4.1</v>
+      </c>
+      <c r="BG43">
+        <v>1.22</v>
+      </c>
+      <c r="BH43">
+        <v>3.8</v>
+      </c>
+      <c r="BI43">
+        <v>1.36</v>
+      </c>
+      <c r="BJ43">
+        <v>2.88</v>
+      </c>
+      <c r="BK43">
+        <v>1.6</v>
+      </c>
+      <c r="BL43">
+        <v>2.28</v>
+      </c>
+      <c r="BM43">
+        <v>1.95</v>
+      </c>
+      <c r="BN43">
+        <v>1.75</v>
+      </c>
+      <c r="BO43">
+        <v>2.4</v>
+      </c>
+      <c r="BP43">
+        <v>1.48</v>
+      </c>
+    </row>
+    <row r="44" spans="1:68">
+      <c r="A44" s="1">
+        <v>43</v>
+      </c>
+      <c r="B44">
+        <v>7841073</v>
+      </c>
+      <c r="C44" t="s">
+        <v>68</v>
+      </c>
+      <c r="D44" t="s">
+        <v>69</v>
+      </c>
+      <c r="E44" s="2">
+        <v>45772.875</v>
+      </c>
+      <c r="F44">
+        <v>5</v>
+      </c>
+      <c r="G44" t="s">
+        <v>83</v>
+      </c>
+      <c r="H44" t="s">
+        <v>82</v>
+      </c>
+      <c r="I44">
+        <v>0</v>
+      </c>
+      <c r="J44">
+        <v>0</v>
+      </c>
+      <c r="K44">
+        <v>0</v>
+      </c>
+      <c r="L44">
+        <v>1</v>
+      </c>
+      <c r="M44">
+        <v>0</v>
+      </c>
+      <c r="N44">
+        <v>1</v>
+      </c>
+      <c r="O44" t="s">
+        <v>123</v>
+      </c>
+      <c r="P44" t="s">
+        <v>97</v>
+      </c>
+      <c r="Q44">
+        <v>2.61</v>
+      </c>
+      <c r="R44">
+        <v>1.91</v>
+      </c>
+      <c r="S44">
+        <v>5.25</v>
+      </c>
+      <c r="T44">
+        <v>1.58</v>
+      </c>
+      <c r="U44">
+        <v>2.25</v>
+      </c>
+      <c r="V44">
+        <v>3.4</v>
+      </c>
+      <c r="W44">
+        <v>1.25</v>
+      </c>
+      <c r="X44">
+        <v>10</v>
+      </c>
+      <c r="Y44">
+        <v>1.04</v>
+      </c>
+      <c r="Z44">
+        <v>1.9</v>
+      </c>
+      <c r="AA44">
+        <v>2.95</v>
+      </c>
+      <c r="AB44">
+        <v>4.6</v>
+      </c>
+      <c r="AC44">
+        <v>1.13</v>
+      </c>
+      <c r="AD44">
+        <v>6</v>
+      </c>
+      <c r="AE44">
+        <v>1.53</v>
+      </c>
+      <c r="AF44">
+        <v>2.38</v>
+      </c>
+      <c r="AG44">
+        <v>2.5</v>
+      </c>
+      <c r="AH44">
+        <v>1.44</v>
+      </c>
+      <c r="AI44">
+        <v>2.51</v>
+      </c>
+      <c r="AJ44">
+        <v>1.52</v>
+      </c>
+      <c r="AK44">
+        <v>1.35</v>
+      </c>
+      <c r="AL44">
+        <v>1.3</v>
+      </c>
+      <c r="AM44">
+        <v>1.95</v>
+      </c>
+      <c r="AN44">
+        <v>3</v>
+      </c>
+      <c r="AO44">
+        <v>1.5</v>
+      </c>
+      <c r="AP44">
+        <v>3</v>
+      </c>
+      <c r="AQ44">
+        <v>1</v>
+      </c>
+      <c r="AR44">
+        <v>1.73</v>
+      </c>
+      <c r="AS44">
+        <v>1.99</v>
+      </c>
+      <c r="AT44">
+        <v>3.72</v>
+      </c>
+      <c r="AU44">
+        <v>8</v>
+      </c>
+      <c r="AV44">
+        <v>4</v>
+      </c>
+      <c r="AW44">
+        <v>11</v>
+      </c>
+      <c r="AX44">
+        <v>12</v>
+      </c>
+      <c r="AY44">
+        <v>22</v>
+      </c>
+      <c r="AZ44">
+        <v>20</v>
+      </c>
+      <c r="BA44">
+        <v>7</v>
+      </c>
+      <c r="BB44">
+        <v>5</v>
+      </c>
+      <c r="BC44">
+        <v>12</v>
+      </c>
+      <c r="BD44">
+        <v>1.52</v>
+      </c>
+      <c r="BE44">
+        <v>7</v>
+      </c>
+      <c r="BF44">
+        <v>2.65</v>
+      </c>
+      <c r="BG44">
+        <v>1.2</v>
+      </c>
+      <c r="BH44">
+        <v>3.8</v>
+      </c>
+      <c r="BI44">
+        <v>1.39</v>
+      </c>
+      <c r="BJ44">
+        <v>2.8</v>
+      </c>
+      <c r="BK44">
+        <v>1.65</v>
+      </c>
+      <c r="BL44">
+        <v>2.05</v>
+      </c>
+      <c r="BM44">
+        <v>2.03</v>
+      </c>
+      <c r="BN44">
+        <v>1.74</v>
+      </c>
+      <c r="BO44">
+        <v>2.4</v>
+      </c>
+      <c r="BP44">
+        <v>1.49</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Brazil Serie B_2025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Brazil Serie B_2025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="326" uniqueCount="143">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="338" uniqueCount="145">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -386,6 +386,12 @@
   </si>
   <si>
     <t>['47']</t>
+  </si>
+  <si>
+    <t>['19', '45+1']</t>
+  </si>
+  <si>
+    <t>['33', '87', '90+1']</t>
   </si>
   <si>
     <t>['33', '72']</t>
@@ -804,7 +810,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP44"/>
+  <dimension ref="A1:BP46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1269,7 +1275,7 @@
         <v>91</v>
       </c>
       <c r="P3" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="Q3">
         <v>3.5</v>
@@ -1475,7 +1481,7 @@
         <v>92</v>
       </c>
       <c r="P4" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="Q4">
         <v>2.5</v>
@@ -1556,7 +1562,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ4">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="AR4">
         <v>0</v>
@@ -1759,7 +1765,7 @@
         <v>0</v>
       </c>
       <c r="AP5">
-        <v>2</v>
+        <v>2.33</v>
       </c>
       <c r="AQ5">
         <v>0.5</v>
@@ -2299,7 +2305,7 @@
         <v>96</v>
       </c>
       <c r="P8" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="Q8">
         <v>3</v>
@@ -2789,7 +2795,7 @@
         <v>0</v>
       </c>
       <c r="AP10">
-        <v>2</v>
+        <v>2.33</v>
       </c>
       <c r="AQ10">
         <v>1</v>
@@ -2917,7 +2923,7 @@
         <v>99</v>
       </c>
       <c r="P11" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="Q11">
         <v>2.38</v>
@@ -3123,7 +3129,7 @@
         <v>100</v>
       </c>
       <c r="P12" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="Q12">
         <v>2.51</v>
@@ -3329,7 +3335,7 @@
         <v>101</v>
       </c>
       <c r="P13" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="Q13">
         <v>2.8</v>
@@ -3535,7 +3541,7 @@
         <v>102</v>
       </c>
       <c r="P14" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="Q14">
         <v>3.3</v>
@@ -4359,7 +4365,7 @@
         <v>105</v>
       </c>
       <c r="P18" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="Q18">
         <v>3.22</v>
@@ -4565,7 +4571,7 @@
         <v>106</v>
       </c>
       <c r="P19" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="Q19">
         <v>2.55</v>
@@ -4977,7 +4983,7 @@
         <v>92</v>
       </c>
       <c r="P21" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="Q21">
         <v>3.5</v>
@@ -5183,7 +5189,7 @@
         <v>108</v>
       </c>
       <c r="P22" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="Q22">
         <v>3.5</v>
@@ -5389,7 +5395,7 @@
         <v>97</v>
       </c>
       <c r="P23" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="Q23">
         <v>2.33</v>
@@ -5673,10 +5679,10 @@
         <v>3</v>
       </c>
       <c r="AP24">
-        <v>2</v>
+        <v>2.33</v>
       </c>
       <c r="AQ24">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="AR24">
         <v>1.38</v>
@@ -5879,7 +5885,7 @@
         <v>1</v>
       </c>
       <c r="AP25">
-        <v>2</v>
+        <v>2.33</v>
       </c>
       <c r="AQ25">
         <v>1</v>
@@ -6007,7 +6013,7 @@
         <v>109</v>
       </c>
       <c r="P26" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="Q26">
         <v>2.38</v>
@@ -6625,7 +6631,7 @@
         <v>112</v>
       </c>
       <c r="P29" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="Q29">
         <v>3.1</v>
@@ -7037,7 +7043,7 @@
         <v>114</v>
       </c>
       <c r="P31" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="Q31">
         <v>2.2</v>
@@ -8273,7 +8279,7 @@
         <v>97</v>
       </c>
       <c r="P37" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="Q37">
         <v>3.6</v>
@@ -8479,7 +8485,7 @@
         <v>119</v>
       </c>
       <c r="P38" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="Q38">
         <v>2.58</v>
@@ -9303,7 +9309,7 @@
         <v>122</v>
       </c>
       <c r="P42" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="Q42">
         <v>3.1</v>
@@ -9509,7 +9515,7 @@
         <v>123</v>
       </c>
       <c r="P43" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="Q43">
         <v>2.35</v>
@@ -9872,6 +9878,418 @@
       </c>
       <c r="BP44">
         <v>1.49</v>
+      </c>
+    </row>
+    <row r="45" spans="1:68">
+      <c r="A45" s="1">
+        <v>44</v>
+      </c>
+      <c r="B45">
+        <v>7841072</v>
+      </c>
+      <c r="C45" t="s">
+        <v>68</v>
+      </c>
+      <c r="D45" t="s">
+        <v>69</v>
+      </c>
+      <c r="E45" s="2">
+        <v>45773.66666666666</v>
+      </c>
+      <c r="F45">
+        <v>5</v>
+      </c>
+      <c r="G45" t="s">
+        <v>73</v>
+      </c>
+      <c r="H45" t="s">
+        <v>86</v>
+      </c>
+      <c r="I45">
+        <v>2</v>
+      </c>
+      <c r="J45">
+        <v>0</v>
+      </c>
+      <c r="K45">
+        <v>2</v>
+      </c>
+      <c r="L45">
+        <v>2</v>
+      </c>
+      <c r="M45">
+        <v>0</v>
+      </c>
+      <c r="N45">
+        <v>2</v>
+      </c>
+      <c r="O45" t="s">
+        <v>124</v>
+      </c>
+      <c r="P45" t="s">
+        <v>97</v>
+      </c>
+      <c r="Q45">
+        <v>2.75</v>
+      </c>
+      <c r="R45">
+        <v>1.82</v>
+      </c>
+      <c r="S45">
+        <v>4.75</v>
+      </c>
+      <c r="T45">
+        <v>1.57</v>
+      </c>
+      <c r="U45">
+        <v>2.25</v>
+      </c>
+      <c r="V45">
+        <v>3.7</v>
+      </c>
+      <c r="W45">
+        <v>1.2</v>
+      </c>
+      <c r="X45">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="Y45">
+        <v>1.02</v>
+      </c>
+      <c r="Z45">
+        <v>2.06</v>
+      </c>
+      <c r="AA45">
+        <v>3.05</v>
+      </c>
+      <c r="AB45">
+        <v>4.46</v>
+      </c>
+      <c r="AC45">
+        <v>1.11</v>
+      </c>
+      <c r="AD45">
+        <v>6</v>
+      </c>
+      <c r="AE45">
+        <v>1.52</v>
+      </c>
+      <c r="AF45">
+        <v>2.35</v>
+      </c>
+      <c r="AG45">
+        <v>2.55</v>
+      </c>
+      <c r="AH45">
+        <v>1.42</v>
+      </c>
+      <c r="AI45">
+        <v>2.25</v>
+      </c>
+      <c r="AJ45">
+        <v>1.6</v>
+      </c>
+      <c r="AK45">
+        <v>1.17</v>
+      </c>
+      <c r="AL45">
+        <v>1.28</v>
+      </c>
+      <c r="AM45">
+        <v>1.77</v>
+      </c>
+      <c r="AN45">
+        <v>2</v>
+      </c>
+      <c r="AO45">
+        <v>1.5</v>
+      </c>
+      <c r="AP45">
+        <v>2.33</v>
+      </c>
+      <c r="AQ45">
+        <v>1</v>
+      </c>
+      <c r="AR45">
+        <v>1.46</v>
+      </c>
+      <c r="AS45">
+        <v>1.59</v>
+      </c>
+      <c r="AT45">
+        <v>3.05</v>
+      </c>
+      <c r="AU45">
+        <v>5</v>
+      </c>
+      <c r="AV45">
+        <v>8</v>
+      </c>
+      <c r="AW45">
+        <v>5</v>
+      </c>
+      <c r="AX45">
+        <v>6</v>
+      </c>
+      <c r="AY45">
+        <v>11</v>
+      </c>
+      <c r="AZ45">
+        <v>15</v>
+      </c>
+      <c r="BA45">
+        <v>5</v>
+      </c>
+      <c r="BB45">
+        <v>4</v>
+      </c>
+      <c r="BC45">
+        <v>9</v>
+      </c>
+      <c r="BD45">
+        <v>1.55</v>
+      </c>
+      <c r="BE45">
+        <v>6.75</v>
+      </c>
+      <c r="BF45">
+        <v>2.95</v>
+      </c>
+      <c r="BG45">
+        <v>1.19</v>
+      </c>
+      <c r="BH45">
+        <v>3.92</v>
+      </c>
+      <c r="BI45">
+        <v>1.33</v>
+      </c>
+      <c r="BJ45">
+        <v>3</v>
+      </c>
+      <c r="BK45">
+        <v>1.57</v>
+      </c>
+      <c r="BL45">
+        <v>2.25</v>
+      </c>
+      <c r="BM45">
+        <v>1.8</v>
+      </c>
+      <c r="BN45">
+        <v>1.85</v>
+      </c>
+      <c r="BO45">
+        <v>2.3</v>
+      </c>
+      <c r="BP45">
+        <v>1.55</v>
+      </c>
+    </row>
+    <row r="46" spans="1:68">
+      <c r="A46" s="1">
+        <v>45</v>
+      </c>
+      <c r="B46">
+        <v>7841076</v>
+      </c>
+      <c r="C46" t="s">
+        <v>68</v>
+      </c>
+      <c r="D46" t="s">
+        <v>69</v>
+      </c>
+      <c r="E46" s="2">
+        <v>45773.83333333334</v>
+      </c>
+      <c r="F46">
+        <v>5</v>
+      </c>
+      <c r="G46" t="s">
+        <v>78</v>
+      </c>
+      <c r="H46" t="s">
+        <v>75</v>
+      </c>
+      <c r="I46">
+        <v>1</v>
+      </c>
+      <c r="J46">
+        <v>0</v>
+      </c>
+      <c r="K46">
+        <v>1</v>
+      </c>
+      <c r="L46">
+        <v>3</v>
+      </c>
+      <c r="M46">
+        <v>0</v>
+      </c>
+      <c r="N46">
+        <v>3</v>
+      </c>
+      <c r="O46" t="s">
+        <v>125</v>
+      </c>
+      <c r="P46" t="s">
+        <v>97</v>
+      </c>
+      <c r="Q46">
+        <v>3.15</v>
+      </c>
+      <c r="R46">
+        <v>1.98</v>
+      </c>
+      <c r="S46">
+        <v>3.9</v>
+      </c>
+      <c r="T46">
+        <v>1.48</v>
+      </c>
+      <c r="U46">
+        <v>2.5</v>
+      </c>
+      <c r="V46">
+        <v>3.1</v>
+      </c>
+      <c r="W46">
+        <v>1.3</v>
+      </c>
+      <c r="X46">
+        <v>7.8</v>
+      </c>
+      <c r="Y46">
+        <v>1.04</v>
+      </c>
+      <c r="Z46">
+        <v>2.1</v>
+      </c>
+      <c r="AA46">
+        <v>3</v>
+      </c>
+      <c r="AB46">
+        <v>3</v>
+      </c>
+      <c r="AC46">
+        <v>1.06</v>
+      </c>
+      <c r="AD46">
+        <v>7</v>
+      </c>
+      <c r="AE46">
+        <v>1.37</v>
+      </c>
+      <c r="AF46">
+        <v>2.63</v>
+      </c>
+      <c r="AG46">
+        <v>2.2</v>
+      </c>
+      <c r="AH46">
+        <v>1.6</v>
+      </c>
+      <c r="AI46">
+        <v>1.91</v>
+      </c>
+      <c r="AJ46">
+        <v>1.8</v>
+      </c>
+      <c r="AK46">
+        <v>1.35</v>
+      </c>
+      <c r="AL46">
+        <v>1.31</v>
+      </c>
+      <c r="AM46">
+        <v>1.7</v>
+      </c>
+      <c r="AN46">
+        <v>2</v>
+      </c>
+      <c r="AO46">
+        <v>0</v>
+      </c>
+      <c r="AP46">
+        <v>2.33</v>
+      </c>
+      <c r="AQ46">
+        <v>0</v>
+      </c>
+      <c r="AR46">
+        <v>1.53</v>
+      </c>
+      <c r="AS46">
+        <v>1.85</v>
+      </c>
+      <c r="AT46">
+        <v>3.38</v>
+      </c>
+      <c r="AU46">
+        <v>9</v>
+      </c>
+      <c r="AV46">
+        <v>6</v>
+      </c>
+      <c r="AW46">
+        <v>7</v>
+      </c>
+      <c r="AX46">
+        <v>11</v>
+      </c>
+      <c r="AY46">
+        <v>17</v>
+      </c>
+      <c r="AZ46">
+        <v>18</v>
+      </c>
+      <c r="BA46">
+        <v>5</v>
+      </c>
+      <c r="BB46">
+        <v>12</v>
+      </c>
+      <c r="BC46">
+        <v>17</v>
+      </c>
+      <c r="BD46">
+        <v>1.68</v>
+      </c>
+      <c r="BE46">
+        <v>8.4</v>
+      </c>
+      <c r="BF46">
+        <v>2.4</v>
+      </c>
+      <c r="BG46">
+        <v>1.19</v>
+      </c>
+      <c r="BH46">
+        <v>3.8</v>
+      </c>
+      <c r="BI46">
+        <v>1.38</v>
+      </c>
+      <c r="BJ46">
+        <v>2.8</v>
+      </c>
+      <c r="BK46">
+        <v>1.79</v>
+      </c>
+      <c r="BL46">
+        <v>2.18</v>
+      </c>
+      <c r="BM46">
+        <v>2.01</v>
+      </c>
+      <c r="BN46">
+        <v>1.73</v>
+      </c>
+      <c r="BO46">
+        <v>2.4</v>
+      </c>
+      <c r="BP46">
+        <v>1.38</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Brazil Serie B_2025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Brazil Serie B_2025.xlsx
@@ -10035,7 +10035,7 @@
         <v>11</v>
       </c>
       <c r="AZ45">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="BA45">
         <v>5</v>
@@ -10238,10 +10238,10 @@
         <v>11</v>
       </c>
       <c r="AY46">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AZ46">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="BA46">
         <v>5</v>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Brazil Serie B_2025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Brazil Serie B_2025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="338" uniqueCount="145">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="368" uniqueCount="152">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -394,6 +394,15 @@
     <t>['33', '87', '90+1']</t>
   </si>
   <si>
+    <t>['3', '73']</t>
+  </si>
+  <si>
+    <t>['44']</t>
+  </si>
+  <si>
+    <t>['73']</t>
+  </si>
+  <si>
     <t>['33', '72']</t>
   </si>
   <si>
@@ -449,6 +458,18 @@
   </si>
   <si>
     <t>['90+2']</t>
+  </si>
+  <si>
+    <t>['90+6']</t>
+  </si>
+  <si>
+    <t>['45+1']</t>
+  </si>
+  <si>
+    <t>['41']</t>
+  </si>
+  <si>
+    <t>['45']</t>
   </si>
 </sst>
 </file>
@@ -810,7 +831,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP46"/>
+  <dimension ref="A1:BP51"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1275,7 +1296,7 @@
         <v>91</v>
       </c>
       <c r="P3" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="Q3">
         <v>3.5</v>
@@ -1353,7 +1374,7 @@
         <v>0</v>
       </c>
       <c r="AP3">
-        <v>0</v>
+        <v>0.33</v>
       </c>
       <c r="AQ3">
         <v>1</v>
@@ -1481,7 +1502,7 @@
         <v>92</v>
       </c>
       <c r="P4" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="Q4">
         <v>2.5</v>
@@ -2305,7 +2326,7 @@
         <v>96</v>
       </c>
       <c r="P8" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="Q8">
         <v>3</v>
@@ -2923,7 +2944,7 @@
         <v>99</v>
       </c>
       <c r="P11" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="Q11">
         <v>2.38</v>
@@ -3129,7 +3150,7 @@
         <v>100</v>
       </c>
       <c r="P12" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="Q12">
         <v>2.51</v>
@@ -3335,7 +3356,7 @@
         <v>101</v>
       </c>
       <c r="P13" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="Q13">
         <v>2.8</v>
@@ -3413,7 +3434,7 @@
         <v>0</v>
       </c>
       <c r="AP13">
-        <v>2</v>
+        <v>2.33</v>
       </c>
       <c r="AQ13">
         <v>2</v>
@@ -3541,7 +3562,7 @@
         <v>102</v>
       </c>
       <c r="P14" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="Q14">
         <v>3.3</v>
@@ -4031,10 +4052,10 @@
         <v>0</v>
       </c>
       <c r="AP16">
-        <v>0.5</v>
+        <v>0.67</v>
       </c>
       <c r="AQ16">
-        <v>1</v>
+        <v>0.67</v>
       </c>
       <c r="AR16">
         <v>0</v>
@@ -4365,7 +4386,7 @@
         <v>105</v>
       </c>
       <c r="P18" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="Q18">
         <v>3.22</v>
@@ -4446,7 +4467,7 @@
         <v>0.5</v>
       </c>
       <c r="AQ18">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="AR18">
         <v>0</v>
@@ -4571,7 +4592,7 @@
         <v>106</v>
       </c>
       <c r="P19" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="Q19">
         <v>2.55</v>
@@ -4649,10 +4670,10 @@
         <v>0</v>
       </c>
       <c r="AP19">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="AQ19">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AR19">
         <v>0</v>
@@ -4983,7 +5004,7 @@
         <v>92</v>
       </c>
       <c r="P21" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="Q21">
         <v>3.5</v>
@@ -5061,10 +5082,10 @@
         <v>0</v>
       </c>
       <c r="AP21">
-        <v>1</v>
+        <v>0.67</v>
       </c>
       <c r="AQ21">
-        <v>0.5</v>
+        <v>0.67</v>
       </c>
       <c r="AR21">
         <v>0</v>
@@ -5189,7 +5210,7 @@
         <v>108</v>
       </c>
       <c r="P22" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="Q22">
         <v>3.5</v>
@@ -5267,7 +5288,7 @@
         <v>3</v>
       </c>
       <c r="AP22">
-        <v>2</v>
+        <v>2.33</v>
       </c>
       <c r="AQ22">
         <v>1</v>
@@ -5395,7 +5416,7 @@
         <v>97</v>
       </c>
       <c r="P23" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="Q23">
         <v>2.33</v>
@@ -5473,7 +5494,7 @@
         <v>0</v>
       </c>
       <c r="AP23">
-        <v>0</v>
+        <v>0.33</v>
       </c>
       <c r="AQ23">
         <v>1</v>
@@ -6013,7 +6034,7 @@
         <v>109</v>
       </c>
       <c r="P26" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="Q26">
         <v>2.38</v>
@@ -6631,7 +6652,7 @@
         <v>112</v>
       </c>
       <c r="P29" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="Q29">
         <v>3.1</v>
@@ -6709,7 +6730,7 @@
         <v>1</v>
       </c>
       <c r="AP29">
-        <v>1</v>
+        <v>0.67</v>
       </c>
       <c r="AQ29">
         <v>1</v>
@@ -6918,7 +6939,7 @@
         <v>2</v>
       </c>
       <c r="AQ30">
-        <v>0.5</v>
+        <v>0.67</v>
       </c>
       <c r="AR30">
         <v>2.86</v>
@@ -7043,7 +7064,7 @@
         <v>114</v>
       </c>
       <c r="P31" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="Q31">
         <v>2.2</v>
@@ -7948,7 +7969,7 @@
         <v>3</v>
       </c>
       <c r="AQ35">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AR35">
         <v>1.66</v>
@@ -8154,7 +8175,7 @@
         <v>3</v>
       </c>
       <c r="AQ36">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="AR36">
         <v>1.95</v>
@@ -8279,7 +8300,7 @@
         <v>97</v>
       </c>
       <c r="P37" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="Q37">
         <v>3.6</v>
@@ -8357,7 +8378,7 @@
         <v>1</v>
       </c>
       <c r="AP37">
-        <v>0.5</v>
+        <v>0.67</v>
       </c>
       <c r="AQ37">
         <v>2</v>
@@ -8485,7 +8506,7 @@
         <v>119</v>
       </c>
       <c r="P38" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="Q38">
         <v>2.58</v>
@@ -9184,7 +9205,7 @@
         <v>0.5</v>
       </c>
       <c r="AQ41">
-        <v>1</v>
+        <v>0.67</v>
       </c>
       <c r="AR41">
         <v>1.74</v>
@@ -9309,7 +9330,7 @@
         <v>122</v>
       </c>
       <c r="P42" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="Q42">
         <v>3.1</v>
@@ -9515,7 +9536,7 @@
         <v>123</v>
       </c>
       <c r="P43" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="Q43">
         <v>2.35</v>
@@ -10290,6 +10311,1036 @@
       </c>
       <c r="BP46">
         <v>1.38</v>
+      </c>
+    </row>
+    <row r="47" spans="1:68">
+      <c r="A47" s="1">
+        <v>46</v>
+      </c>
+      <c r="B47">
+        <v>7841079</v>
+      </c>
+      <c r="C47" t="s">
+        <v>68</v>
+      </c>
+      <c r="D47" t="s">
+        <v>69</v>
+      </c>
+      <c r="E47" s="2">
+        <v>45774.66666666666</v>
+      </c>
+      <c r="F47">
+        <v>5</v>
+      </c>
+      <c r="G47" t="s">
+        <v>87</v>
+      </c>
+      <c r="H47" t="s">
+        <v>77</v>
+      </c>
+      <c r="I47">
+        <v>1</v>
+      </c>
+      <c r="J47">
+        <v>0</v>
+      </c>
+      <c r="K47">
+        <v>1</v>
+      </c>
+      <c r="L47">
+        <v>2</v>
+      </c>
+      <c r="M47">
+        <v>1</v>
+      </c>
+      <c r="N47">
+        <v>3</v>
+      </c>
+      <c r="O47" t="s">
+        <v>126</v>
+      </c>
+      <c r="P47" t="s">
+        <v>148</v>
+      </c>
+      <c r="Q47">
+        <v>2.51</v>
+      </c>
+      <c r="R47">
+        <v>2.02</v>
+      </c>
+      <c r="S47">
+        <v>4.4</v>
+      </c>
+      <c r="T47">
+        <v>1.43</v>
+      </c>
+      <c r="U47">
+        <v>2.81</v>
+      </c>
+      <c r="V47">
+        <v>2.75</v>
+      </c>
+      <c r="W47">
+        <v>1.37</v>
+      </c>
+      <c r="X47">
+        <v>7.4</v>
+      </c>
+      <c r="Y47">
+        <v>1.06</v>
+      </c>
+      <c r="Z47">
+        <v>1.9</v>
+      </c>
+      <c r="AA47">
+        <v>3.4</v>
+      </c>
+      <c r="AB47">
+        <v>4</v>
+      </c>
+      <c r="AC47">
+        <v>1.06</v>
+      </c>
+      <c r="AD47">
+        <v>8.5</v>
+      </c>
+      <c r="AE47">
+        <v>1.3</v>
+      </c>
+      <c r="AF47">
+        <v>3.2</v>
+      </c>
+      <c r="AG47">
+        <v>2.15</v>
+      </c>
+      <c r="AH47">
+        <v>1.57</v>
+      </c>
+      <c r="AI47">
+        <v>1.85</v>
+      </c>
+      <c r="AJ47">
+        <v>1.91</v>
+      </c>
+      <c r="AK47">
+        <v>1.33</v>
+      </c>
+      <c r="AL47">
+        <v>1.29</v>
+      </c>
+      <c r="AM47">
+        <v>1.85</v>
+      </c>
+      <c r="AN47">
+        <v>0</v>
+      </c>
+      <c r="AO47">
+        <v>0</v>
+      </c>
+      <c r="AP47">
+        <v>1.5</v>
+      </c>
+      <c r="AQ47">
+        <v>0</v>
+      </c>
+      <c r="AR47">
+        <v>2.22</v>
+      </c>
+      <c r="AS47">
+        <v>1.05</v>
+      </c>
+      <c r="AT47">
+        <v>3.27</v>
+      </c>
+      <c r="AU47">
+        <v>6</v>
+      </c>
+      <c r="AV47">
+        <v>5</v>
+      </c>
+      <c r="AW47">
+        <v>3</v>
+      </c>
+      <c r="AX47">
+        <v>11</v>
+      </c>
+      <c r="AY47">
+        <v>10</v>
+      </c>
+      <c r="AZ47">
+        <v>21</v>
+      </c>
+      <c r="BA47">
+        <v>6</v>
+      </c>
+      <c r="BB47">
+        <v>6</v>
+      </c>
+      <c r="BC47">
+        <v>12</v>
+      </c>
+      <c r="BD47">
+        <v>1.66</v>
+      </c>
+      <c r="BE47">
+        <v>7</v>
+      </c>
+      <c r="BF47">
+        <v>2.81</v>
+      </c>
+      <c r="BG47">
+        <v>1.2</v>
+      </c>
+      <c r="BH47">
+        <v>3.9</v>
+      </c>
+      <c r="BI47">
+        <v>1.36</v>
+      </c>
+      <c r="BJ47">
+        <v>2.8</v>
+      </c>
+      <c r="BK47">
+        <v>1.58</v>
+      </c>
+      <c r="BL47">
+        <v>2.2</v>
+      </c>
+      <c r="BM47">
+        <v>1.92</v>
+      </c>
+      <c r="BN47">
+        <v>1.78</v>
+      </c>
+      <c r="BO47">
+        <v>2.38</v>
+      </c>
+      <c r="BP47">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="48" spans="1:68">
+      <c r="A48" s="1">
+        <v>47</v>
+      </c>
+      <c r="B48">
+        <v>7841078</v>
+      </c>
+      <c r="C48" t="s">
+        <v>68</v>
+      </c>
+      <c r="D48" t="s">
+        <v>69</v>
+      </c>
+      <c r="E48" s="2">
+        <v>45774.6875</v>
+      </c>
+      <c r="F48">
+        <v>5</v>
+      </c>
+      <c r="G48" t="s">
+        <v>84</v>
+      </c>
+      <c r="H48" t="s">
+        <v>79</v>
+      </c>
+      <c r="I48">
+        <v>0</v>
+      </c>
+      <c r="J48">
+        <v>1</v>
+      </c>
+      <c r="K48">
+        <v>1</v>
+      </c>
+      <c r="L48">
+        <v>1</v>
+      </c>
+      <c r="M48">
+        <v>1</v>
+      </c>
+      <c r="N48">
+        <v>2</v>
+      </c>
+      <c r="O48" t="s">
+        <v>95</v>
+      </c>
+      <c r="P48" t="s">
+        <v>149</v>
+      </c>
+      <c r="Q48">
+        <v>3.08</v>
+      </c>
+      <c r="R48">
+        <v>2</v>
+      </c>
+      <c r="S48">
+        <v>3.9</v>
+      </c>
+      <c r="T48">
+        <v>1.55</v>
+      </c>
+      <c r="U48">
+        <v>2.35</v>
+      </c>
+      <c r="V48">
+        <v>3.5</v>
+      </c>
+      <c r="W48">
+        <v>1.25</v>
+      </c>
+      <c r="X48">
+        <v>9</v>
+      </c>
+      <c r="Y48">
+        <v>1</v>
+      </c>
+      <c r="Z48">
+        <v>2.25</v>
+      </c>
+      <c r="AA48">
+        <v>2.9</v>
+      </c>
+      <c r="AB48">
+        <v>2.9</v>
+      </c>
+      <c r="AC48">
+        <v>1.09</v>
+      </c>
+      <c r="AD48">
+        <v>6</v>
+      </c>
+      <c r="AE48">
+        <v>1.43</v>
+      </c>
+      <c r="AF48">
+        <v>2.6</v>
+      </c>
+      <c r="AG48">
+        <v>2.4</v>
+      </c>
+      <c r="AH48">
+        <v>1.5</v>
+      </c>
+      <c r="AI48">
+        <v>2.05</v>
+      </c>
+      <c r="AJ48">
+        <v>1.69</v>
+      </c>
+      <c r="AK48">
+        <v>1.38</v>
+      </c>
+      <c r="AL48">
+        <v>0</v>
+      </c>
+      <c r="AM48">
+        <v>1.48</v>
+      </c>
+      <c r="AN48">
+        <v>0.5</v>
+      </c>
+      <c r="AO48">
+        <v>0.5</v>
+      </c>
+      <c r="AP48">
+        <v>0.67</v>
+      </c>
+      <c r="AQ48">
+        <v>0.67</v>
+      </c>
+      <c r="AR48">
+        <v>2.04</v>
+      </c>
+      <c r="AS48">
+        <v>1.64</v>
+      </c>
+      <c r="AT48">
+        <v>3.68</v>
+      </c>
+      <c r="AU48">
+        <v>5</v>
+      </c>
+      <c r="AV48">
+        <v>10</v>
+      </c>
+      <c r="AW48">
+        <v>11</v>
+      </c>
+      <c r="AX48">
+        <v>6</v>
+      </c>
+      <c r="AY48">
+        <v>19</v>
+      </c>
+      <c r="AZ48">
+        <v>20</v>
+      </c>
+      <c r="BA48">
+        <v>7</v>
+      </c>
+      <c r="BB48">
+        <v>5</v>
+      </c>
+      <c r="BC48">
+        <v>12</v>
+      </c>
+      <c r="BD48">
+        <v>2.05</v>
+      </c>
+      <c r="BE48">
+        <v>6.5</v>
+      </c>
+      <c r="BF48">
+        <v>2.25</v>
+      </c>
+      <c r="BG48">
+        <v>1.24</v>
+      </c>
+      <c r="BH48">
+        <v>4.06</v>
+      </c>
+      <c r="BI48">
+        <v>1.53</v>
+      </c>
+      <c r="BJ48">
+        <v>2.33</v>
+      </c>
+      <c r="BK48">
+        <v>1.95</v>
+      </c>
+      <c r="BL48">
+        <v>1.85</v>
+      </c>
+      <c r="BM48">
+        <v>2.3</v>
+      </c>
+      <c r="BN48">
+        <v>1.53</v>
+      </c>
+      <c r="BO48">
+        <v>3</v>
+      </c>
+      <c r="BP48">
+        <v>1.33</v>
+      </c>
+    </row>
+    <row r="49" spans="1:68">
+      <c r="A49" s="1">
+        <v>48</v>
+      </c>
+      <c r="B49">
+        <v>7841075</v>
+      </c>
+      <c r="C49" t="s">
+        <v>68</v>
+      </c>
+      <c r="D49" t="s">
+        <v>69</v>
+      </c>
+      <c r="E49" s="2">
+        <v>45774.70833333334</v>
+      </c>
+      <c r="F49">
+        <v>5</v>
+      </c>
+      <c r="G49" t="s">
+        <v>71</v>
+      </c>
+      <c r="H49" t="s">
+        <v>74</v>
+      </c>
+      <c r="I49">
+        <v>1</v>
+      </c>
+      <c r="J49">
+        <v>1</v>
+      </c>
+      <c r="K49">
+        <v>2</v>
+      </c>
+      <c r="L49">
+        <v>1</v>
+      </c>
+      <c r="M49">
+        <v>1</v>
+      </c>
+      <c r="N49">
+        <v>2</v>
+      </c>
+      <c r="O49" t="s">
+        <v>127</v>
+      </c>
+      <c r="P49" t="s">
+        <v>150</v>
+      </c>
+      <c r="Q49">
+        <v>2.75</v>
+      </c>
+      <c r="R49">
+        <v>1.93</v>
+      </c>
+      <c r="S49">
+        <v>4.2</v>
+      </c>
+      <c r="T49">
+        <v>1.53</v>
+      </c>
+      <c r="U49">
+        <v>2.53</v>
+      </c>
+      <c r="V49">
+        <v>3.1</v>
+      </c>
+      <c r="W49">
+        <v>1.3</v>
+      </c>
+      <c r="X49">
+        <v>7.2</v>
+      </c>
+      <c r="Y49">
+        <v>1.05</v>
+      </c>
+      <c r="Z49">
+        <v>1.82</v>
+      </c>
+      <c r="AA49">
+        <v>3.59</v>
+      </c>
+      <c r="AB49">
+        <v>4.1</v>
+      </c>
+      <c r="AC49">
+        <v>1.1</v>
+      </c>
+      <c r="AD49">
+        <v>7</v>
+      </c>
+      <c r="AE49">
+        <v>1.44</v>
+      </c>
+      <c r="AF49">
+        <v>2.78</v>
+      </c>
+      <c r="AG49">
+        <v>1.94</v>
+      </c>
+      <c r="AH49">
+        <v>1.8</v>
+      </c>
+      <c r="AI49">
+        <v>1.95</v>
+      </c>
+      <c r="AJ49">
+        <v>1.73</v>
+      </c>
+      <c r="AK49">
+        <v>1.4</v>
+      </c>
+      <c r="AL49">
+        <v>1.31</v>
+      </c>
+      <c r="AM49">
+        <v>1.67</v>
+      </c>
+      <c r="AN49">
+        <v>0</v>
+      </c>
+      <c r="AO49">
+        <v>1.5</v>
+      </c>
+      <c r="AP49">
+        <v>0.33</v>
+      </c>
+      <c r="AQ49">
+        <v>1.33</v>
+      </c>
+      <c r="AR49">
+        <v>1.47</v>
+      </c>
+      <c r="AS49">
+        <v>1.47</v>
+      </c>
+      <c r="AT49">
+        <v>2.94</v>
+      </c>
+      <c r="AU49">
+        <v>7</v>
+      </c>
+      <c r="AV49">
+        <v>7</v>
+      </c>
+      <c r="AW49">
+        <v>13</v>
+      </c>
+      <c r="AX49">
+        <v>16</v>
+      </c>
+      <c r="AY49">
+        <v>28</v>
+      </c>
+      <c r="AZ49">
+        <v>26</v>
+      </c>
+      <c r="BA49">
+        <v>8</v>
+      </c>
+      <c r="BB49">
+        <v>6</v>
+      </c>
+      <c r="BC49">
+        <v>14</v>
+      </c>
+      <c r="BD49">
+        <v>1.6</v>
+      </c>
+      <c r="BE49">
+        <v>8.6</v>
+      </c>
+      <c r="BF49">
+        <v>2.65</v>
+      </c>
+      <c r="BG49">
+        <v>1.23</v>
+      </c>
+      <c r="BH49">
+        <v>3.7</v>
+      </c>
+      <c r="BI49">
+        <v>1.4</v>
+      </c>
+      <c r="BJ49">
+        <v>2.7</v>
+      </c>
+      <c r="BK49">
+        <v>1.74</v>
+      </c>
+      <c r="BL49">
+        <v>2.29</v>
+      </c>
+      <c r="BM49">
+        <v>1.97</v>
+      </c>
+      <c r="BN49">
+        <v>1.83</v>
+      </c>
+      <c r="BO49">
+        <v>2.49</v>
+      </c>
+      <c r="BP49">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="50" spans="1:68">
+      <c r="A50" s="1">
+        <v>49</v>
+      </c>
+      <c r="B50">
+        <v>7841074</v>
+      </c>
+      <c r="C50" t="s">
+        <v>68</v>
+      </c>
+      <c r="D50" t="s">
+        <v>69</v>
+      </c>
+      <c r="E50" s="2">
+        <v>45774.79166666666</v>
+      </c>
+      <c r="F50">
+        <v>5</v>
+      </c>
+      <c r="G50" t="s">
+        <v>81</v>
+      </c>
+      <c r="H50" t="s">
+        <v>76</v>
+      </c>
+      <c r="I50">
+        <v>0</v>
+      </c>
+      <c r="J50">
+        <v>0</v>
+      </c>
+      <c r="K50">
+        <v>0</v>
+      </c>
+      <c r="L50">
+        <v>1</v>
+      </c>
+      <c r="M50">
+        <v>0</v>
+      </c>
+      <c r="N50">
+        <v>1</v>
+      </c>
+      <c r="O50" t="s">
+        <v>128</v>
+      </c>
+      <c r="P50" t="s">
+        <v>97</v>
+      </c>
+      <c r="Q50">
+        <v>2.45</v>
+      </c>
+      <c r="R50">
+        <v>2.07</v>
+      </c>
+      <c r="S50">
+        <v>5.9</v>
+      </c>
+      <c r="T50">
+        <v>1.5</v>
+      </c>
+      <c r="U50">
+        <v>2.43</v>
+      </c>
+      <c r="V50">
+        <v>3.3</v>
+      </c>
+      <c r="W50">
+        <v>1.28</v>
+      </c>
+      <c r="X50">
+        <v>8.699999999999999</v>
+      </c>
+      <c r="Y50">
+        <v>1.03</v>
+      </c>
+      <c r="Z50">
+        <v>1.85</v>
+      </c>
+      <c r="AA50">
+        <v>3.1</v>
+      </c>
+      <c r="AB50">
+        <v>4.6</v>
+      </c>
+      <c r="AC50">
+        <v>1.12</v>
+      </c>
+      <c r="AD50">
+        <v>6.5</v>
+      </c>
+      <c r="AE50">
+        <v>1.51</v>
+      </c>
+      <c r="AF50">
+        <v>2.5</v>
+      </c>
+      <c r="AG50">
+        <v>2.5</v>
+      </c>
+      <c r="AH50">
+        <v>1.54</v>
+      </c>
+      <c r="AI50">
+        <v>2.25</v>
+      </c>
+      <c r="AJ50">
+        <v>1.57</v>
+      </c>
+      <c r="AK50">
+        <v>1.17</v>
+      </c>
+      <c r="AL50">
+        <v>1.27</v>
+      </c>
+      <c r="AM50">
+        <v>2</v>
+      </c>
+      <c r="AN50">
+        <v>2</v>
+      </c>
+      <c r="AO50">
+        <v>1</v>
+      </c>
+      <c r="AP50">
+        <v>2.33</v>
+      </c>
+      <c r="AQ50">
+        <v>0.67</v>
+      </c>
+      <c r="AR50">
+        <v>1.55</v>
+      </c>
+      <c r="AS50">
+        <v>0.66</v>
+      </c>
+      <c r="AT50">
+        <v>2.21</v>
+      </c>
+      <c r="AU50">
+        <v>5</v>
+      </c>
+      <c r="AV50">
+        <v>8</v>
+      </c>
+      <c r="AW50">
+        <v>10</v>
+      </c>
+      <c r="AX50">
+        <v>11</v>
+      </c>
+      <c r="AY50">
+        <v>20</v>
+      </c>
+      <c r="AZ50">
+        <v>25</v>
+      </c>
+      <c r="BA50">
+        <v>8</v>
+      </c>
+      <c r="BB50">
+        <v>7</v>
+      </c>
+      <c r="BC50">
+        <v>15</v>
+      </c>
+      <c r="BD50">
+        <v>1.39</v>
+      </c>
+      <c r="BE50">
+        <v>9.4</v>
+      </c>
+      <c r="BF50">
+        <v>3.15</v>
+      </c>
+      <c r="BG50">
+        <v>1.3</v>
+      </c>
+      <c r="BH50">
+        <v>3.2</v>
+      </c>
+      <c r="BI50">
+        <v>1.53</v>
+      </c>
+      <c r="BJ50">
+        <v>2.3</v>
+      </c>
+      <c r="BK50">
+        <v>1.85</v>
+      </c>
+      <c r="BL50">
+        <v>1.85</v>
+      </c>
+      <c r="BM50">
+        <v>2.38</v>
+      </c>
+      <c r="BN50">
+        <v>1.53</v>
+      </c>
+      <c r="BO50">
+        <v>3</v>
+      </c>
+      <c r="BP50">
+        <v>1.33</v>
+      </c>
+    </row>
+    <row r="51" spans="1:68">
+      <c r="A51" s="1">
+        <v>50</v>
+      </c>
+      <c r="B51">
+        <v>7841081</v>
+      </c>
+      <c r="C51" t="s">
+        <v>68</v>
+      </c>
+      <c r="D51" t="s">
+        <v>69</v>
+      </c>
+      <c r="E51" s="2">
+        <v>45775.8125</v>
+      </c>
+      <c r="F51">
+        <v>5</v>
+      </c>
+      <c r="G51" t="s">
+        <v>89</v>
+      </c>
+      <c r="H51" t="s">
+        <v>70</v>
+      </c>
+      <c r="I51">
+        <v>0</v>
+      </c>
+      <c r="J51">
+        <v>1</v>
+      </c>
+      <c r="K51">
+        <v>1</v>
+      </c>
+      <c r="L51">
+        <v>0</v>
+      </c>
+      <c r="M51">
+        <v>1</v>
+      </c>
+      <c r="N51">
+        <v>1</v>
+      </c>
+      <c r="O51" t="s">
+        <v>97</v>
+      </c>
+      <c r="P51" t="s">
+        <v>151</v>
+      </c>
+      <c r="Q51">
+        <v>4.2</v>
+      </c>
+      <c r="R51">
+        <v>1.65</v>
+      </c>
+      <c r="S51">
+        <v>3.2</v>
+      </c>
+      <c r="T51">
+        <v>1.62</v>
+      </c>
+      <c r="U51">
+        <v>2.2</v>
+      </c>
+      <c r="V51">
+        <v>3.8</v>
+      </c>
+      <c r="W51">
+        <v>1.22</v>
+      </c>
+      <c r="X51">
+        <v>12</v>
+      </c>
+      <c r="Y51">
+        <v>1.04</v>
+      </c>
+      <c r="Z51">
+        <v>3.3</v>
+      </c>
+      <c r="AA51">
+        <v>2.97</v>
+      </c>
+      <c r="AB51">
+        <v>2.38</v>
+      </c>
+      <c r="AC51">
+        <v>1.13</v>
+      </c>
+      <c r="AD51">
+        <v>5.75</v>
+      </c>
+      <c r="AE51">
+        <v>1.57</v>
+      </c>
+      <c r="AF51">
+        <v>2.25</v>
+      </c>
+      <c r="AG51">
+        <v>2.7</v>
+      </c>
+      <c r="AH51">
+        <v>1.4</v>
+      </c>
+      <c r="AI51">
+        <v>2.2</v>
+      </c>
+      <c r="AJ51">
+        <v>1.57</v>
+      </c>
+      <c r="AK51">
+        <v>1.39</v>
+      </c>
+      <c r="AL51">
+        <v>0</v>
+      </c>
+      <c r="AM51">
+        <v>1.33</v>
+      </c>
+      <c r="AN51">
+        <v>1</v>
+      </c>
+      <c r="AO51">
+        <v>1.5</v>
+      </c>
+      <c r="AP51">
+        <v>0.67</v>
+      </c>
+      <c r="AQ51">
+        <v>2</v>
+      </c>
+      <c r="AR51">
+        <v>1.16</v>
+      </c>
+      <c r="AS51">
+        <v>1.12</v>
+      </c>
+      <c r="AT51">
+        <v>2.28</v>
+      </c>
+      <c r="AU51">
+        <v>3</v>
+      </c>
+      <c r="AV51">
+        <v>3</v>
+      </c>
+      <c r="AW51">
+        <v>11</v>
+      </c>
+      <c r="AX51">
+        <v>5</v>
+      </c>
+      <c r="AY51">
+        <v>18</v>
+      </c>
+      <c r="AZ51">
+        <v>10</v>
+      </c>
+      <c r="BA51">
+        <v>5</v>
+      </c>
+      <c r="BB51">
+        <v>8</v>
+      </c>
+      <c r="BC51">
+        <v>13</v>
+      </c>
+      <c r="BD51">
+        <v>2.17</v>
+      </c>
+      <c r="BE51">
+        <v>6.75</v>
+      </c>
+      <c r="BF51">
+        <v>2.1</v>
+      </c>
+      <c r="BG51">
+        <v>1.22</v>
+      </c>
+      <c r="BH51">
+        <v>3.92</v>
+      </c>
+      <c r="BI51">
+        <v>1.4</v>
+      </c>
+      <c r="BJ51">
+        <v>2.7</v>
+      </c>
+      <c r="BK51">
+        <v>1.67</v>
+      </c>
+      <c r="BL51">
+        <v>2.1</v>
+      </c>
+      <c r="BM51">
+        <v>2.05</v>
+      </c>
+      <c r="BN51">
+        <v>1.7</v>
+      </c>
+      <c r="BO51">
+        <v>2.6</v>
+      </c>
+      <c r="BP51">
+        <v>1.36</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Brazil Serie B_2025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Brazil Serie B_2025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="368" uniqueCount="152">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="374" uniqueCount="153">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -401,6 +401,9 @@
   </si>
   <si>
     <t>['73']</t>
+  </si>
+  <si>
+    <t>['64', '81']</t>
   </si>
   <si>
     <t>['33', '72']</t>
@@ -831,7 +834,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP51"/>
+  <dimension ref="A1:BP52"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1296,7 +1299,7 @@
         <v>91</v>
       </c>
       <c r="P3" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="Q3">
         <v>3.5</v>
@@ -1502,7 +1505,7 @@
         <v>92</v>
       </c>
       <c r="P4" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="Q4">
         <v>2.5</v>
@@ -2326,7 +2329,7 @@
         <v>96</v>
       </c>
       <c r="P8" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="Q8">
         <v>3</v>
@@ -2404,7 +2407,7 @@
         <v>0</v>
       </c>
       <c r="AP8">
-        <v>2</v>
+        <v>2.33</v>
       </c>
       <c r="AQ8">
         <v>1</v>
@@ -2944,7 +2947,7 @@
         <v>99</v>
       </c>
       <c r="P11" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="Q11">
         <v>2.38</v>
@@ -3150,7 +3153,7 @@
         <v>100</v>
       </c>
       <c r="P12" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="Q12">
         <v>2.51</v>
@@ -3356,7 +3359,7 @@
         <v>101</v>
       </c>
       <c r="P13" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="Q13">
         <v>2.8</v>
@@ -3562,7 +3565,7 @@
         <v>102</v>
       </c>
       <c r="P14" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="Q14">
         <v>3.3</v>
@@ -3643,7 +3646,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ14">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="AR14">
         <v>0</v>
@@ -4386,7 +4389,7 @@
         <v>105</v>
       </c>
       <c r="P18" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="Q18">
         <v>3.22</v>
@@ -4592,7 +4595,7 @@
         <v>106</v>
       </c>
       <c r="P19" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="Q19">
         <v>2.55</v>
@@ -5004,7 +5007,7 @@
         <v>92</v>
       </c>
       <c r="P21" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="Q21">
         <v>3.5</v>
@@ -5210,7 +5213,7 @@
         <v>108</v>
       </c>
       <c r="P22" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="Q22">
         <v>3.5</v>
@@ -5416,7 +5419,7 @@
         <v>97</v>
       </c>
       <c r="P23" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="Q23">
         <v>2.33</v>
@@ -6034,7 +6037,7 @@
         <v>109</v>
       </c>
       <c r="P26" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="Q26">
         <v>2.38</v>
@@ -6652,7 +6655,7 @@
         <v>112</v>
       </c>
       <c r="P29" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="Q29">
         <v>3.1</v>
@@ -6936,7 +6939,7 @@
         <v>1</v>
       </c>
       <c r="AP30">
-        <v>2</v>
+        <v>2.33</v>
       </c>
       <c r="AQ30">
         <v>0.67</v>
@@ -7064,7 +7067,7 @@
         <v>114</v>
       </c>
       <c r="P31" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="Q31">
         <v>2.2</v>
@@ -8300,7 +8303,7 @@
         <v>97</v>
       </c>
       <c r="P37" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="Q37">
         <v>3.6</v>
@@ -8506,7 +8509,7 @@
         <v>119</v>
       </c>
       <c r="P38" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="Q38">
         <v>2.58</v>
@@ -8793,7 +8796,7 @@
         <v>3</v>
       </c>
       <c r="AQ39">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="AR39">
         <v>1.19</v>
@@ -9330,7 +9333,7 @@
         <v>122</v>
       </c>
       <c r="P42" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="Q42">
         <v>3.1</v>
@@ -9536,7 +9539,7 @@
         <v>123</v>
       </c>
       <c r="P43" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="Q43">
         <v>2.35</v>
@@ -10360,7 +10363,7 @@
         <v>126</v>
       </c>
       <c r="P47" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="Q47">
         <v>2.51</v>
@@ -10566,7 +10569,7 @@
         <v>95</v>
       </c>
       <c r="P48" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="Q48">
         <v>3.08</v>
@@ -10772,7 +10775,7 @@
         <v>127</v>
       </c>
       <c r="P49" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="Q49">
         <v>2.75</v>
@@ -11184,7 +11187,7 @@
         <v>97</v>
       </c>
       <c r="P51" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="Q51">
         <v>4.2</v>
@@ -11341,6 +11344,212 @@
       </c>
       <c r="BP51">
         <v>1.36</v>
+      </c>
+    </row>
+    <row r="52" spans="1:68">
+      <c r="A52" s="1">
+        <v>51</v>
+      </c>
+      <c r="B52">
+        <v>7841090</v>
+      </c>
+      <c r="C52" t="s">
+        <v>68</v>
+      </c>
+      <c r="D52" t="s">
+        <v>69</v>
+      </c>
+      <c r="E52" s="2">
+        <v>45779.89930555555</v>
+      </c>
+      <c r="F52">
+        <v>6</v>
+      </c>
+      <c r="G52" t="s">
+        <v>76</v>
+      </c>
+      <c r="H52" t="s">
+        <v>73</v>
+      </c>
+      <c r="I52">
+        <v>0</v>
+      </c>
+      <c r="J52">
+        <v>1</v>
+      </c>
+      <c r="K52">
+        <v>1</v>
+      </c>
+      <c r="L52">
+        <v>2</v>
+      </c>
+      <c r="M52">
+        <v>1</v>
+      </c>
+      <c r="N52">
+        <v>3</v>
+      </c>
+      <c r="O52" t="s">
+        <v>129</v>
+      </c>
+      <c r="P52" t="s">
+        <v>146</v>
+      </c>
+      <c r="Q52">
+        <v>3.5</v>
+      </c>
+      <c r="R52">
+        <v>1.89</v>
+      </c>
+      <c r="S52">
+        <v>3.9</v>
+      </c>
+      <c r="T52">
+        <v>1.67</v>
+      </c>
+      <c r="U52">
+        <v>2.25</v>
+      </c>
+      <c r="V52">
+        <v>4</v>
+      </c>
+      <c r="W52">
+        <v>1.2</v>
+      </c>
+      <c r="X52">
+        <v>13</v>
+      </c>
+      <c r="Y52">
+        <v>1.04</v>
+      </c>
+      <c r="Z52">
+        <v>2.62</v>
+      </c>
+      <c r="AA52">
+        <v>2.83</v>
+      </c>
+      <c r="AB52">
+        <v>3</v>
+      </c>
+      <c r="AC52">
+        <v>1.11</v>
+      </c>
+      <c r="AD52">
+        <v>5.5</v>
+      </c>
+      <c r="AE52">
+        <v>1.65</v>
+      </c>
+      <c r="AF52">
+        <v>2.12</v>
+      </c>
+      <c r="AG52">
+        <v>2.9</v>
+      </c>
+      <c r="AH52">
+        <v>1.4</v>
+      </c>
+      <c r="AI52">
+        <v>2.25</v>
+      </c>
+      <c r="AJ52">
+        <v>1.54</v>
+      </c>
+      <c r="AK52">
+        <v>1.39</v>
+      </c>
+      <c r="AL52">
+        <v>1.39</v>
+      </c>
+      <c r="AM52">
+        <v>1.48</v>
+      </c>
+      <c r="AN52">
+        <v>2</v>
+      </c>
+      <c r="AO52">
+        <v>1.5</v>
+      </c>
+      <c r="AP52">
+        <v>2.33</v>
+      </c>
+      <c r="AQ52">
+        <v>1</v>
+      </c>
+      <c r="AR52">
+        <v>2.26</v>
+      </c>
+      <c r="AS52">
+        <v>1.85</v>
+      </c>
+      <c r="AT52">
+        <v>4.11</v>
+      </c>
+      <c r="AU52">
+        <v>8</v>
+      </c>
+      <c r="AV52">
+        <v>3</v>
+      </c>
+      <c r="AW52">
+        <v>7</v>
+      </c>
+      <c r="AX52">
+        <v>6</v>
+      </c>
+      <c r="AY52">
+        <v>18</v>
+      </c>
+      <c r="AZ52">
+        <v>10</v>
+      </c>
+      <c r="BA52">
+        <v>2</v>
+      </c>
+      <c r="BB52">
+        <v>6</v>
+      </c>
+      <c r="BC52">
+        <v>8</v>
+      </c>
+      <c r="BD52">
+        <v>1.98</v>
+      </c>
+      <c r="BE52">
+        <v>6.55</v>
+      </c>
+      <c r="BF52">
+        <v>2.2</v>
+      </c>
+      <c r="BG52">
+        <v>1.2</v>
+      </c>
+      <c r="BH52">
+        <v>3.82</v>
+      </c>
+      <c r="BI52">
+        <v>1.32</v>
+      </c>
+      <c r="BJ52">
+        <v>2.88</v>
+      </c>
+      <c r="BK52">
+        <v>1.85</v>
+      </c>
+      <c r="BL52">
+        <v>2.16</v>
+      </c>
+      <c r="BM52">
+        <v>2</v>
+      </c>
+      <c r="BN52">
+        <v>1.72</v>
+      </c>
+      <c r="BO52">
+        <v>2.55</v>
+      </c>
+      <c r="BP52">
+        <v>1.45</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Brazil Serie B_2025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Brazil Serie B_2025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="374" uniqueCount="153">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="386" uniqueCount="154">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -404,6 +404,9 @@
   </si>
   <si>
     <t>['64', '81']</t>
+  </si>
+  <si>
+    <t>['20']</t>
   </si>
   <si>
     <t>['33', '72']</t>
@@ -834,7 +837,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP52"/>
+  <dimension ref="A1:BP54"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1299,7 +1302,7 @@
         <v>91</v>
       </c>
       <c r="P3" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="Q3">
         <v>3.5</v>
@@ -1505,7 +1508,7 @@
         <v>92</v>
       </c>
       <c r="P4" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="Q4">
         <v>2.5</v>
@@ -2329,7 +2332,7 @@
         <v>96</v>
       </c>
       <c r="P8" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="Q8">
         <v>3</v>
@@ -2613,7 +2616,7 @@
         <v>0</v>
       </c>
       <c r="AP9">
-        <v>0.5</v>
+        <v>1.33</v>
       </c>
       <c r="AQ9">
         <v>2</v>
@@ -2947,7 +2950,7 @@
         <v>99</v>
       </c>
       <c r="P11" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="Q11">
         <v>2.38</v>
@@ -3153,7 +3156,7 @@
         <v>100</v>
       </c>
       <c r="P12" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="Q12">
         <v>2.51</v>
@@ -3359,7 +3362,7 @@
         <v>101</v>
       </c>
       <c r="P13" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="Q13">
         <v>2.8</v>
@@ -3565,7 +3568,7 @@
         <v>102</v>
       </c>
       <c r="P14" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="Q14">
         <v>3.3</v>
@@ -3852,7 +3855,7 @@
         <v>3</v>
       </c>
       <c r="AQ15">
-        <v>0.5</v>
+        <v>0.33</v>
       </c>
       <c r="AR15">
         <v>0</v>
@@ -4389,7 +4392,7 @@
         <v>105</v>
       </c>
       <c r="P18" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="Q18">
         <v>3.22</v>
@@ -4595,7 +4598,7 @@
         <v>106</v>
       </c>
       <c r="P19" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="Q19">
         <v>2.55</v>
@@ -5007,7 +5010,7 @@
         <v>92</v>
       </c>
       <c r="P21" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="Q21">
         <v>3.5</v>
@@ -5213,7 +5216,7 @@
         <v>108</v>
       </c>
       <c r="P22" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="Q22">
         <v>3.5</v>
@@ -5419,7 +5422,7 @@
         <v>97</v>
       </c>
       <c r="P23" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="Q23">
         <v>2.33</v>
@@ -6037,7 +6040,7 @@
         <v>109</v>
       </c>
       <c r="P26" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="Q26">
         <v>2.38</v>
@@ -6655,7 +6658,7 @@
         <v>112</v>
       </c>
       <c r="P29" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="Q29">
         <v>3.1</v>
@@ -7067,7 +7070,7 @@
         <v>114</v>
       </c>
       <c r="P31" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="Q31">
         <v>2.2</v>
@@ -7354,7 +7357,7 @@
         <v>0.5</v>
       </c>
       <c r="AQ32">
-        <v>0.5</v>
+        <v>0.33</v>
       </c>
       <c r="AR32">
         <v>1.17</v>
@@ -8303,7 +8306,7 @@
         <v>97</v>
       </c>
       <c r="P37" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="Q37">
         <v>3.6</v>
@@ -8509,7 +8512,7 @@
         <v>119</v>
       </c>
       <c r="P38" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="Q38">
         <v>2.58</v>
@@ -9205,7 +9208,7 @@
         <v>1</v>
       </c>
       <c r="AP41">
-        <v>0.5</v>
+        <v>1.33</v>
       </c>
       <c r="AQ41">
         <v>0.67</v>
@@ -9333,7 +9336,7 @@
         <v>122</v>
       </c>
       <c r="P42" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="Q42">
         <v>3.1</v>
@@ -9539,7 +9542,7 @@
         <v>123</v>
       </c>
       <c r="P43" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="Q43">
         <v>2.35</v>
@@ -10363,7 +10366,7 @@
         <v>126</v>
       </c>
       <c r="P47" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="Q47">
         <v>2.51</v>
@@ -10569,7 +10572,7 @@
         <v>95</v>
       </c>
       <c r="P48" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="Q48">
         <v>3.08</v>
@@ -10775,7 +10778,7 @@
         <v>127</v>
       </c>
       <c r="P49" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="Q49">
         <v>2.75</v>
@@ -11187,7 +11190,7 @@
         <v>97</v>
       </c>
       <c r="P51" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="Q51">
         <v>4.2</v>
@@ -11393,7 +11396,7 @@
         <v>129</v>
       </c>
       <c r="P52" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="Q52">
         <v>3.5</v>
@@ -11550,6 +11553,418 @@
       </c>
       <c r="BP52">
         <v>1.45</v>
+      </c>
+    </row>
+    <row r="53" spans="1:68">
+      <c r="A53" s="1">
+        <v>52</v>
+      </c>
+      <c r="B53">
+        <v>7841085</v>
+      </c>
+      <c r="C53" t="s">
+        <v>68</v>
+      </c>
+      <c r="D53" t="s">
+        <v>69</v>
+      </c>
+      <c r="E53" s="2">
+        <v>45780.66666666666</v>
+      </c>
+      <c r="F53">
+        <v>6</v>
+      </c>
+      <c r="G53" t="s">
+        <v>88</v>
+      </c>
+      <c r="H53" t="s">
+        <v>84</v>
+      </c>
+      <c r="I53">
+        <v>1</v>
+      </c>
+      <c r="J53">
+        <v>0</v>
+      </c>
+      <c r="K53">
+        <v>1</v>
+      </c>
+      <c r="L53">
+        <v>1</v>
+      </c>
+      <c r="M53">
+        <v>0</v>
+      </c>
+      <c r="N53">
+        <v>1</v>
+      </c>
+      <c r="O53" t="s">
+        <v>130</v>
+      </c>
+      <c r="P53" t="s">
+        <v>97</v>
+      </c>
+      <c r="Q53">
+        <v>2.43</v>
+      </c>
+      <c r="R53">
+        <v>2</v>
+      </c>
+      <c r="S53">
+        <v>5.5</v>
+      </c>
+      <c r="T53">
+        <v>1.48</v>
+      </c>
+      <c r="U53">
+        <v>2.4</v>
+      </c>
+      <c r="V53">
+        <v>3.1</v>
+      </c>
+      <c r="W53">
+        <v>1.32</v>
+      </c>
+      <c r="X53">
+        <v>8</v>
+      </c>
+      <c r="Y53">
+        <v>1.04</v>
+      </c>
+      <c r="Z53">
+        <v>1.95</v>
+      </c>
+      <c r="AA53">
+        <v>3.25</v>
+      </c>
+      <c r="AB53">
+        <v>4</v>
+      </c>
+      <c r="AC53">
+        <v>1.09</v>
+      </c>
+      <c r="AD53">
+        <v>6.75</v>
+      </c>
+      <c r="AE53">
+        <v>1.43</v>
+      </c>
+      <c r="AF53">
+        <v>2.55</v>
+      </c>
+      <c r="AG53">
+        <v>2.15</v>
+      </c>
+      <c r="AH53">
+        <v>1.57</v>
+      </c>
+      <c r="AI53">
+        <v>2.2</v>
+      </c>
+      <c r="AJ53">
+        <v>1.67</v>
+      </c>
+      <c r="AK53">
+        <v>1.16</v>
+      </c>
+      <c r="AL53">
+        <v>1.31</v>
+      </c>
+      <c r="AM53">
+        <v>2.01</v>
+      </c>
+      <c r="AN53">
+        <v>3</v>
+      </c>
+      <c r="AO53">
+        <v>0</v>
+      </c>
+      <c r="AP53">
+        <v>3</v>
+      </c>
+      <c r="AQ53">
+        <v>0</v>
+      </c>
+      <c r="AR53">
+        <v>1.06</v>
+      </c>
+      <c r="AS53">
+        <v>1.18</v>
+      </c>
+      <c r="AT53">
+        <v>2.24</v>
+      </c>
+      <c r="AU53">
+        <v>5</v>
+      </c>
+      <c r="AV53">
+        <v>4</v>
+      </c>
+      <c r="AW53">
+        <v>12</v>
+      </c>
+      <c r="AX53">
+        <v>12</v>
+      </c>
+      <c r="AY53">
+        <v>19</v>
+      </c>
+      <c r="AZ53">
+        <v>19</v>
+      </c>
+      <c r="BA53">
+        <v>3</v>
+      </c>
+      <c r="BB53">
+        <v>7</v>
+      </c>
+      <c r="BC53">
+        <v>10</v>
+      </c>
+      <c r="BD53">
+        <v>1.62</v>
+      </c>
+      <c r="BE53">
+        <v>8.6</v>
+      </c>
+      <c r="BF53">
+        <v>2.72</v>
+      </c>
+      <c r="BG53">
+        <v>1.2</v>
+      </c>
+      <c r="BH53">
+        <v>3.8</v>
+      </c>
+      <c r="BI53">
+        <v>1.28</v>
+      </c>
+      <c r="BJ53">
+        <v>3.08</v>
+      </c>
+      <c r="BK53">
+        <v>1.68</v>
+      </c>
+      <c r="BL53">
+        <v>2.14</v>
+      </c>
+      <c r="BM53">
+        <v>2.05</v>
+      </c>
+      <c r="BN53">
+        <v>1.74</v>
+      </c>
+      <c r="BO53">
+        <v>2.57</v>
+      </c>
+      <c r="BP53">
+        <v>1.45</v>
+      </c>
+    </row>
+    <row r="54" spans="1:68">
+      <c r="A54" s="1">
+        <v>53</v>
+      </c>
+      <c r="B54">
+        <v>7841091</v>
+      </c>
+      <c r="C54" t="s">
+        <v>68</v>
+      </c>
+      <c r="D54" t="s">
+        <v>69</v>
+      </c>
+      <c r="E54" s="2">
+        <v>45780.85416666666</v>
+      </c>
+      <c r="F54">
+        <v>6</v>
+      </c>
+      <c r="G54" t="s">
+        <v>77</v>
+      </c>
+      <c r="H54" t="s">
+        <v>71</v>
+      </c>
+      <c r="I54">
+        <v>0</v>
+      </c>
+      <c r="J54">
+        <v>0</v>
+      </c>
+      <c r="K54">
+        <v>0</v>
+      </c>
+      <c r="L54">
+        <v>1</v>
+      </c>
+      <c r="M54">
+        <v>0</v>
+      </c>
+      <c r="N54">
+        <v>1</v>
+      </c>
+      <c r="O54" t="s">
+        <v>96</v>
+      </c>
+      <c r="P54" t="s">
+        <v>97</v>
+      </c>
+      <c r="Q54">
+        <v>2.6</v>
+      </c>
+      <c r="R54">
+        <v>2.08</v>
+      </c>
+      <c r="S54">
+        <v>4.5</v>
+      </c>
+      <c r="T54">
+        <v>1.5</v>
+      </c>
+      <c r="U54">
+        <v>2.4</v>
+      </c>
+      <c r="V54">
+        <v>3.33</v>
+      </c>
+      <c r="W54">
+        <v>1.3</v>
+      </c>
+      <c r="X54">
+        <v>9.5</v>
+      </c>
+      <c r="Y54">
+        <v>1.03</v>
+      </c>
+      <c r="Z54">
+        <v>2.05</v>
+      </c>
+      <c r="AA54">
+        <v>3</v>
+      </c>
+      <c r="AB54">
+        <v>4.29</v>
+      </c>
+      <c r="AC54">
+        <v>1.05</v>
+      </c>
+      <c r="AD54">
+        <v>8.5</v>
+      </c>
+      <c r="AE54">
+        <v>1.48</v>
+      </c>
+      <c r="AF54">
+        <v>2.53</v>
+      </c>
+      <c r="AG54">
+        <v>2.48</v>
+      </c>
+      <c r="AH54">
+        <v>1.5</v>
+      </c>
+      <c r="AI54">
+        <v>2.16</v>
+      </c>
+      <c r="AJ54">
+        <v>1.72</v>
+      </c>
+      <c r="AK54">
+        <v>1.35</v>
+      </c>
+      <c r="AL54">
+        <v>1.34</v>
+      </c>
+      <c r="AM54">
+        <v>1.7</v>
+      </c>
+      <c r="AN54">
+        <v>0.5</v>
+      </c>
+      <c r="AO54">
+        <v>0.5</v>
+      </c>
+      <c r="AP54">
+        <v>1.33</v>
+      </c>
+      <c r="AQ54">
+        <v>0.33</v>
+      </c>
+      <c r="AR54">
+        <v>1.72</v>
+      </c>
+      <c r="AS54">
+        <v>1.18</v>
+      </c>
+      <c r="AT54">
+        <v>2.9</v>
+      </c>
+      <c r="AU54">
+        <v>5</v>
+      </c>
+      <c r="AV54">
+        <v>0</v>
+      </c>
+      <c r="AW54">
+        <v>19</v>
+      </c>
+      <c r="AX54">
+        <v>11</v>
+      </c>
+      <c r="AY54">
+        <v>30</v>
+      </c>
+      <c r="AZ54">
+        <v>14</v>
+      </c>
+      <c r="BA54">
+        <v>8</v>
+      </c>
+      <c r="BB54">
+        <v>3</v>
+      </c>
+      <c r="BC54">
+        <v>11</v>
+      </c>
+      <c r="BD54">
+        <v>1.82</v>
+      </c>
+      <c r="BE54">
+        <v>7.4</v>
+      </c>
+      <c r="BF54">
+        <v>2.47</v>
+      </c>
+      <c r="BG54">
+        <v>1.26</v>
+      </c>
+      <c r="BH54">
+        <v>3.5</v>
+      </c>
+      <c r="BI54">
+        <v>1.5</v>
+      </c>
+      <c r="BJ54">
+        <v>2.5</v>
+      </c>
+      <c r="BK54">
+        <v>1.86</v>
+      </c>
+      <c r="BL54">
+        <v>2</v>
+      </c>
+      <c r="BM54">
+        <v>2.28</v>
+      </c>
+      <c r="BN54">
+        <v>1.53</v>
+      </c>
+      <c r="BO54">
+        <v>3.04</v>
+      </c>
+      <c r="BP54">
+        <v>1.29</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Brazil Serie B_2025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Brazil Serie B_2025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="386" uniqueCount="154">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="410" uniqueCount="160">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -409,6 +409,18 @@
     <t>['20']</t>
   </si>
   <si>
+    <t>['31']</t>
+  </si>
+  <si>
+    <t>['2', '53']</t>
+  </si>
+  <si>
+    <t>['16']</t>
+  </si>
+  <si>
+    <t>['6']</t>
+  </si>
+  <si>
     <t>['33', '72']</t>
   </si>
   <si>
@@ -476,6 +488,12 @@
   </si>
   <si>
     <t>['45']</t>
+  </si>
+  <si>
+    <t>['35']</t>
+  </si>
+  <si>
+    <t>['24', '45+3', '60', '68']</t>
   </si>
 </sst>
 </file>
@@ -837,7 +855,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP54"/>
+  <dimension ref="A1:BP58"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1302,7 +1320,7 @@
         <v>91</v>
       </c>
       <c r="P3" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="Q3">
         <v>3.5</v>
@@ -1508,7 +1526,7 @@
         <v>92</v>
       </c>
       <c r="P4" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="Q4">
         <v>2.5</v>
@@ -2207,7 +2225,7 @@
         <v>3</v>
       </c>
       <c r="AQ7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AR7">
         <v>0</v>
@@ -2332,7 +2350,7 @@
         <v>96</v>
       </c>
       <c r="P8" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="Q8">
         <v>3</v>
@@ -2825,7 +2843,7 @@
         <v>2.33</v>
       </c>
       <c r="AQ10">
-        <v>1</v>
+        <v>0.67</v>
       </c>
       <c r="AR10">
         <v>0</v>
@@ -2950,7 +2968,7 @@
         <v>99</v>
       </c>
       <c r="P11" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="Q11">
         <v>2.38</v>
@@ -3028,7 +3046,7 @@
         <v>0</v>
       </c>
       <c r="AP11">
-        <v>2</v>
+        <v>2.33</v>
       </c>
       <c r="AQ11">
         <v>0</v>
@@ -3156,7 +3174,7 @@
         <v>100</v>
       </c>
       <c r="P12" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="Q12">
         <v>2.51</v>
@@ -3234,10 +3252,10 @@
         <v>0</v>
       </c>
       <c r="AP12">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AQ12">
-        <v>0.5</v>
+        <v>0.33</v>
       </c>
       <c r="AR12">
         <v>0</v>
@@ -3362,7 +3380,7 @@
         <v>101</v>
       </c>
       <c r="P13" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="Q13">
         <v>2.8</v>
@@ -3568,7 +3586,7 @@
         <v>102</v>
       </c>
       <c r="P14" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="Q14">
         <v>3.3</v>
@@ -3646,7 +3664,7 @@
         <v>0</v>
       </c>
       <c r="AP14">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="AQ14">
         <v>1</v>
@@ -4392,7 +4410,7 @@
         <v>105</v>
       </c>
       <c r="P18" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="Q18">
         <v>3.22</v>
@@ -4470,7 +4488,7 @@
         <v>0</v>
       </c>
       <c r="AP18">
-        <v>0.5</v>
+        <v>1.33</v>
       </c>
       <c r="AQ18">
         <v>2</v>
@@ -4598,7 +4616,7 @@
         <v>106</v>
       </c>
       <c r="P19" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="Q19">
         <v>2.55</v>
@@ -5010,7 +5028,7 @@
         <v>92</v>
       </c>
       <c r="P21" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="Q21">
         <v>3.5</v>
@@ -5216,7 +5234,7 @@
         <v>108</v>
       </c>
       <c r="P22" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="Q22">
         <v>3.5</v>
@@ -5422,7 +5440,7 @@
         <v>97</v>
       </c>
       <c r="P23" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="Q23">
         <v>2.33</v>
@@ -5915,7 +5933,7 @@
         <v>2.33</v>
       </c>
       <c r="AQ25">
-        <v>1</v>
+        <v>0.67</v>
       </c>
       <c r="AR25">
         <v>1.41</v>
@@ -6040,7 +6058,7 @@
         <v>109</v>
       </c>
       <c r="P26" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="Q26">
         <v>2.38</v>
@@ -6658,7 +6676,7 @@
         <v>112</v>
       </c>
       <c r="P29" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="Q29">
         <v>3.1</v>
@@ -7070,7 +7088,7 @@
         <v>114</v>
       </c>
       <c r="P31" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="Q31">
         <v>2.2</v>
@@ -7354,7 +7372,7 @@
         <v>0</v>
       </c>
       <c r="AP32">
-        <v>0.5</v>
+        <v>1.33</v>
       </c>
       <c r="AQ32">
         <v>0.33</v>
@@ -7563,7 +7581,7 @@
         <v>3</v>
       </c>
       <c r="AQ33">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AR33">
         <v>1.59</v>
@@ -7766,7 +7784,7 @@
         <v>0</v>
       </c>
       <c r="AP34">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="AQ34">
         <v>0</v>
@@ -7972,7 +7990,7 @@
         <v>3</v>
       </c>
       <c r="AP35">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AQ35">
         <v>1.33</v>
@@ -8306,7 +8324,7 @@
         <v>97</v>
       </c>
       <c r="P37" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="Q37">
         <v>3.6</v>
@@ -8512,7 +8530,7 @@
         <v>119</v>
       </c>
       <c r="P38" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="Q38">
         <v>2.58</v>
@@ -8593,7 +8611,7 @@
         <v>2.33</v>
       </c>
       <c r="AQ38">
-        <v>0.5</v>
+        <v>0.33</v>
       </c>
       <c r="AR38">
         <v>1.97</v>
@@ -9002,7 +9020,7 @@
         <v>3</v>
       </c>
       <c r="AP40">
-        <v>2</v>
+        <v>2.33</v>
       </c>
       <c r="AQ40">
         <v>2</v>
@@ -9336,7 +9354,7 @@
         <v>122</v>
       </c>
       <c r="P42" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="Q42">
         <v>3.1</v>
@@ -9542,7 +9560,7 @@
         <v>123</v>
       </c>
       <c r="P43" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="Q43">
         <v>2.35</v>
@@ -10366,7 +10384,7 @@
         <v>126</v>
       </c>
       <c r="P47" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="Q47">
         <v>2.51</v>
@@ -10572,7 +10590,7 @@
         <v>95</v>
       </c>
       <c r="P48" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="Q48">
         <v>3.08</v>
@@ -10778,7 +10796,7 @@
         <v>127</v>
       </c>
       <c r="P49" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="Q49">
         <v>2.75</v>
@@ -11190,7 +11208,7 @@
         <v>97</v>
       </c>
       <c r="P51" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="Q51">
         <v>4.2</v>
@@ -11396,7 +11414,7 @@
         <v>129</v>
       </c>
       <c r="P52" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="Q52">
         <v>3.5</v>
@@ -11965,6 +11983,830 @@
       </c>
       <c r="BP54">
         <v>1.29</v>
+      </c>
+    </row>
+    <row r="55" spans="1:68">
+      <c r="A55" s="1">
+        <v>54</v>
+      </c>
+      <c r="B55">
+        <v>7841084</v>
+      </c>
+      <c r="C55" t="s">
+        <v>68</v>
+      </c>
+      <c r="D55" t="s">
+        <v>69</v>
+      </c>
+      <c r="E55" s="2">
+        <v>45781.66666666666</v>
+      </c>
+      <c r="F55">
+        <v>6</v>
+      </c>
+      <c r="G55" t="s">
+        <v>79</v>
+      </c>
+      <c r="H55" t="s">
+        <v>85</v>
+      </c>
+      <c r="I55">
+        <v>1</v>
+      </c>
+      <c r="J55">
+        <v>0</v>
+      </c>
+      <c r="K55">
+        <v>1</v>
+      </c>
+      <c r="L55">
+        <v>1</v>
+      </c>
+      <c r="M55">
+        <v>0</v>
+      </c>
+      <c r="N55">
+        <v>1</v>
+      </c>
+      <c r="O55" t="s">
+        <v>131</v>
+      </c>
+      <c r="P55" t="s">
+        <v>97</v>
+      </c>
+      <c r="Q55">
+        <v>3.11</v>
+      </c>
+      <c r="R55">
+        <v>1.92</v>
+      </c>
+      <c r="S55">
+        <v>4.2</v>
+      </c>
+      <c r="T55">
+        <v>1.64</v>
+      </c>
+      <c r="U55">
+        <v>2.18</v>
+      </c>
+      <c r="V55">
+        <v>3.6</v>
+      </c>
+      <c r="W55">
+        <v>1.22</v>
+      </c>
+      <c r="X55">
+        <v>12</v>
+      </c>
+      <c r="Y55">
+        <v>1.03</v>
+      </c>
+      <c r="Z55">
+        <v>2.1</v>
+      </c>
+      <c r="AA55">
+        <v>3.15</v>
+      </c>
+      <c r="AB55">
+        <v>3.61</v>
+      </c>
+      <c r="AC55">
+        <v>1.08</v>
+      </c>
+      <c r="AD55">
+        <v>5.6</v>
+      </c>
+      <c r="AE55">
+        <v>1.51</v>
+      </c>
+      <c r="AF55">
+        <v>2.26</v>
+      </c>
+      <c r="AG55">
+        <v>2.2</v>
+      </c>
+      <c r="AH55">
+        <v>1.55</v>
+      </c>
+      <c r="AI55">
+        <v>2.2</v>
+      </c>
+      <c r="AJ55">
+        <v>1.58</v>
+      </c>
+      <c r="AK55">
+        <v>1.36</v>
+      </c>
+      <c r="AL55">
+        <v>1.37</v>
+      </c>
+      <c r="AM55">
+        <v>1.5</v>
+      </c>
+      <c r="AN55">
+        <v>2</v>
+      </c>
+      <c r="AO55">
+        <v>1</v>
+      </c>
+      <c r="AP55">
+        <v>2.33</v>
+      </c>
+      <c r="AQ55">
+        <v>0.67</v>
+      </c>
+      <c r="AR55">
+        <v>1.76</v>
+      </c>
+      <c r="AS55">
+        <v>1.04</v>
+      </c>
+      <c r="AT55">
+        <v>2.8</v>
+      </c>
+      <c r="AU55">
+        <v>5</v>
+      </c>
+      <c r="AV55">
+        <v>7</v>
+      </c>
+      <c r="AW55">
+        <v>7</v>
+      </c>
+      <c r="AX55">
+        <v>10</v>
+      </c>
+      <c r="AY55">
+        <v>14</v>
+      </c>
+      <c r="AZ55">
+        <v>18</v>
+      </c>
+      <c r="BA55">
+        <v>6</v>
+      </c>
+      <c r="BB55">
+        <v>7</v>
+      </c>
+      <c r="BC55">
+        <v>13</v>
+      </c>
+      <c r="BD55">
+        <v>1.82</v>
+      </c>
+      <c r="BE55">
+        <v>6.5</v>
+      </c>
+      <c r="BF55">
+        <v>2.49</v>
+      </c>
+      <c r="BG55">
+        <v>1.23</v>
+      </c>
+      <c r="BH55">
+        <v>3.7</v>
+      </c>
+      <c r="BI55">
+        <v>1.44</v>
+      </c>
+      <c r="BJ55">
+        <v>2.58</v>
+      </c>
+      <c r="BK55">
+        <v>1.74</v>
+      </c>
+      <c r="BL55">
+        <v>2.02</v>
+      </c>
+      <c r="BM55">
+        <v>2.17</v>
+      </c>
+      <c r="BN55">
+        <v>1.65</v>
+      </c>
+      <c r="BO55">
+        <v>2.72</v>
+      </c>
+      <c r="BP55">
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="56" spans="1:68">
+      <c r="A56" s="1">
+        <v>55</v>
+      </c>
+      <c r="B56">
+        <v>7841086</v>
+      </c>
+      <c r="C56" t="s">
+        <v>68</v>
+      </c>
+      <c r="D56" t="s">
+        <v>69</v>
+      </c>
+      <c r="E56" s="2">
+        <v>45781.77083333334</v>
+      </c>
+      <c r="F56">
+        <v>6</v>
+      </c>
+      <c r="G56" t="s">
+        <v>82</v>
+      </c>
+      <c r="H56" t="s">
+        <v>72</v>
+      </c>
+      <c r="I56">
+        <v>1</v>
+      </c>
+      <c r="J56">
+        <v>1</v>
+      </c>
+      <c r="K56">
+        <v>2</v>
+      </c>
+      <c r="L56">
+        <v>2</v>
+      </c>
+      <c r="M56">
+        <v>1</v>
+      </c>
+      <c r="N56">
+        <v>3</v>
+      </c>
+      <c r="O56" t="s">
+        <v>132</v>
+      </c>
+      <c r="P56" t="s">
+        <v>158</v>
+      </c>
+      <c r="Q56">
+        <v>3.22</v>
+      </c>
+      <c r="R56">
+        <v>1.91</v>
+      </c>
+      <c r="S56">
+        <v>3.55</v>
+      </c>
+      <c r="T56">
+        <v>1.48</v>
+      </c>
+      <c r="U56">
+        <v>2.54</v>
+      </c>
+      <c r="V56">
+        <v>3.4</v>
+      </c>
+      <c r="W56">
+        <v>1.27</v>
+      </c>
+      <c r="X56">
+        <v>8.5</v>
+      </c>
+      <c r="Y56">
+        <v>1.02</v>
+      </c>
+      <c r="Z56">
+        <v>2.55</v>
+      </c>
+      <c r="AA56">
+        <v>3.05</v>
+      </c>
+      <c r="AB56">
+        <v>2.96</v>
+      </c>
+      <c r="AC56">
+        <v>1.09</v>
+      </c>
+      <c r="AD56">
+        <v>7.19</v>
+      </c>
+      <c r="AE56">
+        <v>1.41</v>
+      </c>
+      <c r="AF56">
+        <v>2.5</v>
+      </c>
+      <c r="AG56">
+        <v>2.5</v>
+      </c>
+      <c r="AH56">
+        <v>1.5</v>
+      </c>
+      <c r="AI56">
+        <v>2</v>
+      </c>
+      <c r="AJ56">
+        <v>1.75</v>
+      </c>
+      <c r="AK56">
+        <v>1.36</v>
+      </c>
+      <c r="AL56">
+        <v>1.34</v>
+      </c>
+      <c r="AM56">
+        <v>1.5</v>
+      </c>
+      <c r="AN56">
+        <v>1.5</v>
+      </c>
+      <c r="AO56">
+        <v>0.5</v>
+      </c>
+      <c r="AP56">
+        <v>2</v>
+      </c>
+      <c r="AQ56">
+        <v>0.33</v>
+      </c>
+      <c r="AR56">
+        <v>1.78</v>
+      </c>
+      <c r="AS56">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="AT56">
+        <v>2.72</v>
+      </c>
+      <c r="AU56">
+        <v>5</v>
+      </c>
+      <c r="AV56">
+        <v>5</v>
+      </c>
+      <c r="AW56">
+        <v>13</v>
+      </c>
+      <c r="AX56">
+        <v>10</v>
+      </c>
+      <c r="AY56">
+        <v>18</v>
+      </c>
+      <c r="AZ56">
+        <v>17</v>
+      </c>
+      <c r="BA56">
+        <v>2</v>
+      </c>
+      <c r="BB56">
+        <v>6</v>
+      </c>
+      <c r="BC56">
+        <v>8</v>
+      </c>
+      <c r="BD56">
+        <v>1.97</v>
+      </c>
+      <c r="BE56">
+        <v>6.5</v>
+      </c>
+      <c r="BF56">
+        <v>2.25</v>
+      </c>
+      <c r="BG56">
+        <v>1.21</v>
+      </c>
+      <c r="BH56">
+        <v>3.3</v>
+      </c>
+      <c r="BI56">
+        <v>1.32</v>
+      </c>
+      <c r="BJ56">
+        <v>2.88</v>
+      </c>
+      <c r="BK56">
+        <v>1.67</v>
+      </c>
+      <c r="BL56">
+        <v>2.13</v>
+      </c>
+      <c r="BM56">
+        <v>2.06</v>
+      </c>
+      <c r="BN56">
+        <v>1.72</v>
+      </c>
+      <c r="BO56">
+        <v>2.55</v>
+      </c>
+      <c r="BP56">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="57" spans="1:68">
+      <c r="A57" s="1">
+        <v>56</v>
+      </c>
+      <c r="B57">
+        <v>7841082</v>
+      </c>
+      <c r="C57" t="s">
+        <v>68</v>
+      </c>
+      <c r="D57" t="s">
+        <v>69</v>
+      </c>
+      <c r="E57" s="2">
+        <v>45781.77083333334</v>
+      </c>
+      <c r="F57">
+        <v>6</v>
+      </c>
+      <c r="G57" t="s">
+        <v>80</v>
+      </c>
+      <c r="H57" t="s">
+        <v>89</v>
+      </c>
+      <c r="I57">
+        <v>1</v>
+      </c>
+      <c r="J57">
+        <v>2</v>
+      </c>
+      <c r="K57">
+        <v>3</v>
+      </c>
+      <c r="L57">
+        <v>1</v>
+      </c>
+      <c r="M57">
+        <v>4</v>
+      </c>
+      <c r="N57">
+        <v>5</v>
+      </c>
+      <c r="O57" t="s">
+        <v>133</v>
+      </c>
+      <c r="P57" t="s">
+        <v>159</v>
+      </c>
+      <c r="Q57">
+        <v>1.97</v>
+      </c>
+      <c r="R57">
+        <v>2.16</v>
+      </c>
+      <c r="S57">
+        <v>7</v>
+      </c>
+      <c r="T57">
+        <v>1.4</v>
+      </c>
+      <c r="U57">
+        <v>2.6</v>
+      </c>
+      <c r="V57">
+        <v>3.04</v>
+      </c>
+      <c r="W57">
+        <v>1.35</v>
+      </c>
+      <c r="X57">
+        <v>7</v>
+      </c>
+      <c r="Y57">
+        <v>1.07</v>
+      </c>
+      <c r="Z57">
+        <v>1.4</v>
+      </c>
+      <c r="AA57">
+        <v>4.3</v>
+      </c>
+      <c r="AB57">
+        <v>8.4</v>
+      </c>
+      <c r="AC57">
+        <v>1</v>
+      </c>
+      <c r="AD57">
+        <v>7.8</v>
+      </c>
+      <c r="AE57">
+        <v>1.31</v>
+      </c>
+      <c r="AF57">
+        <v>3.2</v>
+      </c>
+      <c r="AG57">
+        <v>2.11</v>
+      </c>
+      <c r="AH57">
+        <v>1.67</v>
+      </c>
+      <c r="AI57">
+        <v>2.33</v>
+      </c>
+      <c r="AJ57">
+        <v>1.53</v>
+      </c>
+      <c r="AK57">
+        <v>1.25</v>
+      </c>
+      <c r="AL57">
+        <v>1.22</v>
+      </c>
+      <c r="AM57">
+        <v>2.8</v>
+      </c>
+      <c r="AN57">
+        <v>3</v>
+      </c>
+      <c r="AO57">
+        <v>0</v>
+      </c>
+      <c r="AP57">
+        <v>2</v>
+      </c>
+      <c r="AQ57">
+        <v>1</v>
+      </c>
+      <c r="AR57">
+        <v>1.49</v>
+      </c>
+      <c r="AS57">
+        <v>0.97</v>
+      </c>
+      <c r="AT57">
+        <v>2.46</v>
+      </c>
+      <c r="AU57">
+        <v>5</v>
+      </c>
+      <c r="AV57">
+        <v>6</v>
+      </c>
+      <c r="AW57">
+        <v>6</v>
+      </c>
+      <c r="AX57">
+        <v>5</v>
+      </c>
+      <c r="AY57">
+        <v>11</v>
+      </c>
+      <c r="AZ57">
+        <v>12</v>
+      </c>
+      <c r="BA57">
+        <v>4</v>
+      </c>
+      <c r="BB57">
+        <v>2</v>
+      </c>
+      <c r="BC57">
+        <v>6</v>
+      </c>
+      <c r="BD57">
+        <v>1.24</v>
+      </c>
+      <c r="BE57">
+        <v>8</v>
+      </c>
+      <c r="BF57">
+        <v>4.3</v>
+      </c>
+      <c r="BG57">
+        <v>1.16</v>
+      </c>
+      <c r="BH57">
+        <v>4.35</v>
+      </c>
+      <c r="BI57">
+        <v>1.3</v>
+      </c>
+      <c r="BJ57">
+        <v>3.1</v>
+      </c>
+      <c r="BK57">
+        <v>1.67</v>
+      </c>
+      <c r="BL57">
+        <v>2.33</v>
+      </c>
+      <c r="BM57">
+        <v>1.87</v>
+      </c>
+      <c r="BN57">
+        <v>1.87</v>
+      </c>
+      <c r="BO57">
+        <v>2.33</v>
+      </c>
+      <c r="BP57">
+        <v>1.56</v>
+      </c>
+    </row>
+    <row r="58" spans="1:68">
+      <c r="A58" s="1">
+        <v>57</v>
+      </c>
+      <c r="B58">
+        <v>7841087</v>
+      </c>
+      <c r="C58" t="s">
+        <v>68</v>
+      </c>
+      <c r="D58" t="s">
+        <v>69</v>
+      </c>
+      <c r="E58" s="2">
+        <v>45781.85416666666</v>
+      </c>
+      <c r="F58">
+        <v>6</v>
+      </c>
+      <c r="G58" t="s">
+        <v>86</v>
+      </c>
+      <c r="H58" t="s">
+        <v>75</v>
+      </c>
+      <c r="I58">
+        <v>1</v>
+      </c>
+      <c r="J58">
+        <v>0</v>
+      </c>
+      <c r="K58">
+        <v>1</v>
+      </c>
+      <c r="L58">
+        <v>1</v>
+      </c>
+      <c r="M58">
+        <v>0</v>
+      </c>
+      <c r="N58">
+        <v>1</v>
+      </c>
+      <c r="O58" t="s">
+        <v>134</v>
+      </c>
+      <c r="P58" t="s">
+        <v>97</v>
+      </c>
+      <c r="Q58">
+        <v>3.2</v>
+      </c>
+      <c r="R58">
+        <v>1.95</v>
+      </c>
+      <c r="S58">
+        <v>4</v>
+      </c>
+      <c r="T58">
+        <v>1.62</v>
+      </c>
+      <c r="U58">
+        <v>2.36</v>
+      </c>
+      <c r="V58">
+        <v>3.7</v>
+      </c>
+      <c r="W58">
+        <v>1.22</v>
+      </c>
+      <c r="X58">
+        <v>12</v>
+      </c>
+      <c r="Y58">
+        <v>1.04</v>
+      </c>
+      <c r="Z58">
+        <v>2.33</v>
+      </c>
+      <c r="AA58">
+        <v>2.87</v>
+      </c>
+      <c r="AB58">
+        <v>3.05</v>
+      </c>
+      <c r="AC58">
+        <v>1.09</v>
+      </c>
+      <c r="AD58">
+        <v>5.8</v>
+      </c>
+      <c r="AE58">
+        <v>1.53</v>
+      </c>
+      <c r="AF58">
+        <v>2.42</v>
+      </c>
+      <c r="AG58">
+        <v>2.71</v>
+      </c>
+      <c r="AH58">
+        <v>1.45</v>
+      </c>
+      <c r="AI58">
+        <v>2</v>
+      </c>
+      <c r="AJ58">
+        <v>1.61</v>
+      </c>
+      <c r="AK58">
+        <v>1.4</v>
+      </c>
+      <c r="AL58">
+        <v>1.35</v>
+      </c>
+      <c r="AM58">
+        <v>1.55</v>
+      </c>
+      <c r="AN58">
+        <v>0.5</v>
+      </c>
+      <c r="AO58">
+        <v>0</v>
+      </c>
+      <c r="AP58">
+        <v>1.33</v>
+      </c>
+      <c r="AQ58">
+        <v>0</v>
+      </c>
+      <c r="AR58">
+        <v>1.48</v>
+      </c>
+      <c r="AS58">
+        <v>1.96</v>
+      </c>
+      <c r="AT58">
+        <v>3.44</v>
+      </c>
+      <c r="AU58">
+        <v>5</v>
+      </c>
+      <c r="AV58">
+        <v>4</v>
+      </c>
+      <c r="AW58">
+        <v>14</v>
+      </c>
+      <c r="AX58">
+        <v>7</v>
+      </c>
+      <c r="AY58">
+        <v>20</v>
+      </c>
+      <c r="AZ58">
+        <v>12</v>
+      </c>
+      <c r="BA58">
+        <v>5</v>
+      </c>
+      <c r="BB58">
+        <v>4</v>
+      </c>
+      <c r="BC58">
+        <v>9</v>
+      </c>
+      <c r="BD58">
+        <v>1.67</v>
+      </c>
+      <c r="BE58">
+        <v>7</v>
+      </c>
+      <c r="BF58">
+        <v>2.86</v>
+      </c>
+      <c r="BG58">
+        <v>1.21</v>
+      </c>
+      <c r="BH58">
+        <v>3.78</v>
+      </c>
+      <c r="BI58">
+        <v>1.35</v>
+      </c>
+      <c r="BJ58">
+        <v>2.72</v>
+      </c>
+      <c r="BK58">
+        <v>1.69</v>
+      </c>
+      <c r="BL58">
+        <v>2.12</v>
+      </c>
+      <c r="BM58">
+        <v>1.98</v>
+      </c>
+      <c r="BN58">
+        <v>1.8</v>
+      </c>
+      <c r="BO58">
+        <v>2.58</v>
+      </c>
+      <c r="BP58">
+        <v>1.44</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Brazil Serie B_2025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Brazil Serie B_2025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="410" uniqueCount="160">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="422" uniqueCount="163">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -421,6 +421,12 @@
     <t>['6']</t>
   </si>
   <si>
+    <t>['24', '30']</t>
+  </si>
+  <si>
+    <t>['22']</t>
+  </si>
+  <si>
     <t>['33', '72']</t>
   </si>
   <si>
@@ -494,6 +500,9 @@
   </si>
   <si>
     <t>['24', '45+3', '60', '68']</t>
+  </si>
+  <si>
+    <t>['21']</t>
   </si>
 </sst>
 </file>
@@ -855,7 +864,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP58"/>
+  <dimension ref="A1:BP60"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1192,7 +1201,7 @@
         <v>0</v>
       </c>
       <c r="AP2">
-        <v>2</v>
+        <v>2.33</v>
       </c>
       <c r="AQ2">
         <v>0</v>
@@ -1320,7 +1329,7 @@
         <v>91</v>
       </c>
       <c r="P3" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="Q3">
         <v>3.5</v>
@@ -1526,7 +1535,7 @@
         <v>92</v>
       </c>
       <c r="P4" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="Q4">
         <v>2.5</v>
@@ -2016,7 +2025,7 @@
         <v>0</v>
       </c>
       <c r="AP6">
-        <v>3</v>
+        <v>2.33</v>
       </c>
       <c r="AQ6">
         <v>1</v>
@@ -2350,7 +2359,7 @@
         <v>96</v>
       </c>
       <c r="P8" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="Q8">
         <v>3</v>
@@ -2637,7 +2646,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ9">
-        <v>2</v>
+        <v>1.67</v>
       </c>
       <c r="AR9">
         <v>0</v>
@@ -2968,7 +2977,7 @@
         <v>99</v>
       </c>
       <c r="P11" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="Q11">
         <v>2.38</v>
@@ -3174,7 +3183,7 @@
         <v>100</v>
       </c>
       <c r="P12" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="Q12">
         <v>2.51</v>
@@ -3380,7 +3389,7 @@
         <v>101</v>
       </c>
       <c r="P13" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="Q13">
         <v>2.8</v>
@@ -3461,7 +3470,7 @@
         <v>2.33</v>
       </c>
       <c r="AQ13">
-        <v>2</v>
+        <v>1.33</v>
       </c>
       <c r="AR13">
         <v>0</v>
@@ -3586,7 +3595,7 @@
         <v>102</v>
       </c>
       <c r="P14" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="Q14">
         <v>3.3</v>
@@ -4410,7 +4419,7 @@
         <v>105</v>
       </c>
       <c r="P18" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="Q18">
         <v>3.22</v>
@@ -4616,7 +4625,7 @@
         <v>106</v>
       </c>
       <c r="P19" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="Q19">
         <v>2.55</v>
@@ -5028,7 +5037,7 @@
         <v>92</v>
       </c>
       <c r="P21" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="Q21">
         <v>3.5</v>
@@ -5234,7 +5243,7 @@
         <v>108</v>
       </c>
       <c r="P22" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="Q22">
         <v>3.5</v>
@@ -5440,7 +5449,7 @@
         <v>97</v>
       </c>
       <c r="P23" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="Q23">
         <v>2.33</v>
@@ -6058,7 +6067,7 @@
         <v>109</v>
       </c>
       <c r="P26" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="Q26">
         <v>2.38</v>
@@ -6136,7 +6145,7 @@
         <v>0</v>
       </c>
       <c r="AP26">
-        <v>2</v>
+        <v>2.33</v>
       </c>
       <c r="AQ26">
         <v>0.5</v>
@@ -6548,7 +6557,7 @@
         <v>0</v>
       </c>
       <c r="AP28">
-        <v>3</v>
+        <v>2.33</v>
       </c>
       <c r="AQ28">
         <v>0</v>
@@ -6676,7 +6685,7 @@
         <v>112</v>
       </c>
       <c r="P29" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="Q29">
         <v>3.1</v>
@@ -7088,7 +7097,7 @@
         <v>114</v>
       </c>
       <c r="P31" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="Q31">
         <v>2.2</v>
@@ -8324,7 +8333,7 @@
         <v>97</v>
       </c>
       <c r="P37" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="Q37">
         <v>3.6</v>
@@ -8405,7 +8414,7 @@
         <v>0.67</v>
       </c>
       <c r="AQ37">
-        <v>2</v>
+        <v>1.33</v>
       </c>
       <c r="AR37">
         <v>2.41</v>
@@ -8530,7 +8539,7 @@
         <v>119</v>
       </c>
       <c r="P38" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="Q38">
         <v>2.58</v>
@@ -9023,7 +9032,7 @@
         <v>2.33</v>
       </c>
       <c r="AQ40">
-        <v>2</v>
+        <v>1.67</v>
       </c>
       <c r="AR40">
         <v>1.82</v>
@@ -9354,7 +9363,7 @@
         <v>122</v>
       </c>
       <c r="P42" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="Q42">
         <v>3.1</v>
@@ -9560,7 +9569,7 @@
         <v>123</v>
       </c>
       <c r="P43" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="Q43">
         <v>2.35</v>
@@ -10384,7 +10393,7 @@
         <v>126</v>
       </c>
       <c r="P47" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="Q47">
         <v>2.51</v>
@@ -10590,7 +10599,7 @@
         <v>95</v>
       </c>
       <c r="P48" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="Q48">
         <v>3.08</v>
@@ -10796,7 +10805,7 @@
         <v>127</v>
       </c>
       <c r="P49" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="Q49">
         <v>2.75</v>
@@ -11208,7 +11217,7 @@
         <v>97</v>
       </c>
       <c r="P51" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="Q51">
         <v>4.2</v>
@@ -11414,7 +11423,7 @@
         <v>129</v>
       </c>
       <c r="P52" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="Q52">
         <v>3.5</v>
@@ -12140,16 +12149,16 @@
         <v>14</v>
       </c>
       <c r="AZ55">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="BA55">
         <v>6</v>
       </c>
       <c r="BB55">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="BC55">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="BD55">
         <v>1.82</v>
@@ -12238,7 +12247,7 @@
         <v>132</v>
       </c>
       <c r="P56" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="Q56">
         <v>3.22</v>
@@ -12444,7 +12453,7 @@
         <v>133</v>
       </c>
       <c r="P57" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="Q57">
         <v>1.97</v>
@@ -12807,6 +12816,418 @@
       </c>
       <c r="BP58">
         <v>1.44</v>
+      </c>
+    </row>
+    <row r="59" spans="1:68">
+      <c r="A59" s="1">
+        <v>58</v>
+      </c>
+      <c r="B59">
+        <v>7841083</v>
+      </c>
+      <c r="C59" t="s">
+        <v>68</v>
+      </c>
+      <c r="D59" t="s">
+        <v>69</v>
+      </c>
+      <c r="E59" s="2">
+        <v>45782.79166666666</v>
+      </c>
+      <c r="F59">
+        <v>6</v>
+      </c>
+      <c r="G59" t="s">
+        <v>70</v>
+      </c>
+      <c r="H59" t="s">
+        <v>78</v>
+      </c>
+      <c r="I59">
+        <v>2</v>
+      </c>
+      <c r="J59">
+        <v>1</v>
+      </c>
+      <c r="K59">
+        <v>3</v>
+      </c>
+      <c r="L59">
+        <v>2</v>
+      </c>
+      <c r="M59">
+        <v>1</v>
+      </c>
+      <c r="N59">
+        <v>3</v>
+      </c>
+      <c r="O59" t="s">
+        <v>135</v>
+      </c>
+      <c r="P59" t="s">
+        <v>162</v>
+      </c>
+      <c r="Q59">
+        <v>2.88</v>
+      </c>
+      <c r="R59">
+        <v>1.84</v>
+      </c>
+      <c r="S59">
+        <v>4.75</v>
+      </c>
+      <c r="T59">
+        <v>1.5</v>
+      </c>
+      <c r="U59">
+        <v>2.3</v>
+      </c>
+      <c r="V59">
+        <v>3.22</v>
+      </c>
+      <c r="W59">
+        <v>1.34</v>
+      </c>
+      <c r="X59">
+        <v>10</v>
+      </c>
+      <c r="Y59">
+        <v>1.04</v>
+      </c>
+      <c r="Z59">
+        <v>2</v>
+      </c>
+      <c r="AA59">
+        <v>2.85</v>
+      </c>
+      <c r="AB59">
+        <v>3.9</v>
+      </c>
+      <c r="AC59">
+        <v>1.13</v>
+      </c>
+      <c r="AD59">
+        <v>7.5</v>
+      </c>
+      <c r="AE59">
+        <v>1.45</v>
+      </c>
+      <c r="AF59">
+        <v>2.4</v>
+      </c>
+      <c r="AG59">
+        <v>2.4</v>
+      </c>
+      <c r="AH59">
+        <v>1.47</v>
+      </c>
+      <c r="AI59">
+        <v>2.2</v>
+      </c>
+      <c r="AJ59">
+        <v>1.65</v>
+      </c>
+      <c r="AK59">
+        <v>1.22</v>
+      </c>
+      <c r="AL59">
+        <v>1.31</v>
+      </c>
+      <c r="AM59">
+        <v>1.55</v>
+      </c>
+      <c r="AN59">
+        <v>2</v>
+      </c>
+      <c r="AO59">
+        <v>2</v>
+      </c>
+      <c r="AP59">
+        <v>2.33</v>
+      </c>
+      <c r="AQ59">
+        <v>1.33</v>
+      </c>
+      <c r="AR59">
+        <v>1.57</v>
+      </c>
+      <c r="AS59">
+        <v>1.34</v>
+      </c>
+      <c r="AT59">
+        <v>2.91</v>
+      </c>
+      <c r="AU59">
+        <v>6</v>
+      </c>
+      <c r="AV59">
+        <v>5</v>
+      </c>
+      <c r="AW59">
+        <v>18</v>
+      </c>
+      <c r="AX59">
+        <v>9</v>
+      </c>
+      <c r="AY59">
+        <v>34</v>
+      </c>
+      <c r="AZ59">
+        <v>18</v>
+      </c>
+      <c r="BA59">
+        <v>13</v>
+      </c>
+      <c r="BB59">
+        <v>5</v>
+      </c>
+      <c r="BC59">
+        <v>18</v>
+      </c>
+      <c r="BD59">
+        <v>1.54</v>
+      </c>
+      <c r="BE59">
+        <v>8.4</v>
+      </c>
+      <c r="BF59">
+        <v>2.5</v>
+      </c>
+      <c r="BG59">
+        <v>1.22</v>
+      </c>
+      <c r="BH59">
+        <v>4</v>
+      </c>
+      <c r="BI59">
+        <v>1.37</v>
+      </c>
+      <c r="BJ59">
+        <v>3</v>
+      </c>
+      <c r="BK59">
+        <v>1.57</v>
+      </c>
+      <c r="BL59">
+        <v>2.17</v>
+      </c>
+      <c r="BM59">
+        <v>1.91</v>
+      </c>
+      <c r="BN59">
+        <v>1.8</v>
+      </c>
+      <c r="BO59">
+        <v>2.38</v>
+      </c>
+      <c r="BP59">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="60" spans="1:68">
+      <c r="A60" s="1">
+        <v>59</v>
+      </c>
+      <c r="B60">
+        <v>7841088</v>
+      </c>
+      <c r="C60" t="s">
+        <v>68</v>
+      </c>
+      <c r="D60" t="s">
+        <v>69</v>
+      </c>
+      <c r="E60" s="2">
+        <v>45783.8125</v>
+      </c>
+      <c r="F60">
+        <v>6</v>
+      </c>
+      <c r="G60" t="s">
+        <v>74</v>
+      </c>
+      <c r="H60" t="s">
+        <v>81</v>
+      </c>
+      <c r="I60">
+        <v>1</v>
+      </c>
+      <c r="J60">
+        <v>1</v>
+      </c>
+      <c r="K60">
+        <v>2</v>
+      </c>
+      <c r="L60">
+        <v>1</v>
+      </c>
+      <c r="M60">
+        <v>1</v>
+      </c>
+      <c r="N60">
+        <v>2</v>
+      </c>
+      <c r="O60" t="s">
+        <v>136</v>
+      </c>
+      <c r="P60" t="s">
+        <v>118</v>
+      </c>
+      <c r="Q60">
+        <v>3.22</v>
+      </c>
+      <c r="R60">
+        <v>1.91</v>
+      </c>
+      <c r="S60">
+        <v>4</v>
+      </c>
+      <c r="T60">
+        <v>1.61</v>
+      </c>
+      <c r="U60">
+        <v>2.36</v>
+      </c>
+      <c r="V60">
+        <v>3.6</v>
+      </c>
+      <c r="W60">
+        <v>1.25</v>
+      </c>
+      <c r="X60">
+        <v>11</v>
+      </c>
+      <c r="Y60">
+        <v>1</v>
+      </c>
+      <c r="Z60">
+        <v>2.16</v>
+      </c>
+      <c r="AA60">
+        <v>2.7</v>
+      </c>
+      <c r="AB60">
+        <v>3.6</v>
+      </c>
+      <c r="AC60">
+        <v>1.08</v>
+      </c>
+      <c r="AD60">
+        <v>6</v>
+      </c>
+      <c r="AE60">
+        <v>1.55</v>
+      </c>
+      <c r="AF60">
+        <v>2.51</v>
+      </c>
+      <c r="AG60">
+        <v>2.69</v>
+      </c>
+      <c r="AH60">
+        <v>1.47</v>
+      </c>
+      <c r="AI60">
+        <v>2.15</v>
+      </c>
+      <c r="AJ60">
+        <v>1.62</v>
+      </c>
+      <c r="AK60">
+        <v>1.44</v>
+      </c>
+      <c r="AL60">
+        <v>1.34</v>
+      </c>
+      <c r="AM60">
+        <v>1.53</v>
+      </c>
+      <c r="AN60">
+        <v>3</v>
+      </c>
+      <c r="AO60">
+        <v>2</v>
+      </c>
+      <c r="AP60">
+        <v>2.33</v>
+      </c>
+      <c r="AQ60">
+        <v>1.67</v>
+      </c>
+      <c r="AR60">
+        <v>1.78</v>
+      </c>
+      <c r="AS60">
+        <v>1.61</v>
+      </c>
+      <c r="AT60">
+        <v>3.39</v>
+      </c>
+      <c r="AU60">
+        <v>7</v>
+      </c>
+      <c r="AV60">
+        <v>12</v>
+      </c>
+      <c r="AW60">
+        <v>8</v>
+      </c>
+      <c r="AX60">
+        <v>7</v>
+      </c>
+      <c r="AY60">
+        <v>17</v>
+      </c>
+      <c r="AZ60">
+        <v>19</v>
+      </c>
+      <c r="BA60">
+        <v>6</v>
+      </c>
+      <c r="BB60">
+        <v>8</v>
+      </c>
+      <c r="BC60">
+        <v>14</v>
+      </c>
+      <c r="BD60">
+        <v>1.63</v>
+      </c>
+      <c r="BE60">
+        <v>6.65</v>
+      </c>
+      <c r="BF60">
+        <v>2.7</v>
+      </c>
+      <c r="BG60">
+        <v>1.24</v>
+      </c>
+      <c r="BH60">
+        <v>3.6</v>
+      </c>
+      <c r="BI60">
+        <v>1.42</v>
+      </c>
+      <c r="BJ60">
+        <v>2.59</v>
+      </c>
+      <c r="BK60">
+        <v>1.77</v>
+      </c>
+      <c r="BL60">
+        <v>2.05</v>
+      </c>
+      <c r="BM60">
+        <v>2.1</v>
+      </c>
+      <c r="BN60">
+        <v>1.67</v>
+      </c>
+      <c r="BO60">
+        <v>2.62</v>
+      </c>
+      <c r="BP60">
+        <v>1.42</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Brazil Serie B_2025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Brazil Serie B_2025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="422" uniqueCount="163">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="428" uniqueCount="164">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -503,6 +503,9 @@
   </si>
   <si>
     <t>['21']</t>
+  </si>
+  <si>
+    <t>['90+3']</t>
   </si>
 </sst>
 </file>
@@ -864,7 +867,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP60"/>
+  <dimension ref="A1:BP61"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1822,7 +1825,7 @@
         <v>2.33</v>
       </c>
       <c r="AQ5">
-        <v>0.5</v>
+        <v>1.33</v>
       </c>
       <c r="AR5">
         <v>0</v>
@@ -4703,7 +4706,7 @@
         <v>0</v>
       </c>
       <c r="AP19">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="AQ19">
         <v>1.33</v>
@@ -6148,7 +6151,7 @@
         <v>2.33</v>
       </c>
       <c r="AQ26">
-        <v>0.5</v>
+        <v>1.33</v>
       </c>
       <c r="AR26">
         <v>1.49</v>
@@ -10471,7 +10474,7 @@
         <v>0</v>
       </c>
       <c r="AP47">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="AQ47">
         <v>0</v>
@@ -13227,6 +13230,212 @@
         <v>2.62</v>
       </c>
       <c r="BP60">
+        <v>1.42</v>
+      </c>
+    </row>
+    <row r="61" spans="1:68">
+      <c r="A61" s="1">
+        <v>60</v>
+      </c>
+      <c r="B61">
+        <v>7841089</v>
+      </c>
+      <c r="C61" t="s">
+        <v>68</v>
+      </c>
+      <c r="D61" t="s">
+        <v>69</v>
+      </c>
+      <c r="E61" s="2">
+        <v>45783.89583333334</v>
+      </c>
+      <c r="F61">
+        <v>6</v>
+      </c>
+      <c r="G61" t="s">
+        <v>87</v>
+      </c>
+      <c r="H61" t="s">
+        <v>83</v>
+      </c>
+      <c r="I61">
+        <v>0</v>
+      </c>
+      <c r="J61">
+        <v>0</v>
+      </c>
+      <c r="K61">
+        <v>0</v>
+      </c>
+      <c r="L61">
+        <v>0</v>
+      </c>
+      <c r="M61">
+        <v>1</v>
+      </c>
+      <c r="N61">
+        <v>1</v>
+      </c>
+      <c r="O61" t="s">
+        <v>97</v>
+      </c>
+      <c r="P61" t="s">
+        <v>163</v>
+      </c>
+      <c r="Q61">
+        <v>2.85</v>
+      </c>
+      <c r="R61">
+        <v>2</v>
+      </c>
+      <c r="S61">
+        <v>4.33</v>
+      </c>
+      <c r="T61">
+        <v>1.54</v>
+      </c>
+      <c r="U61">
+        <v>2.32</v>
+      </c>
+      <c r="V61">
+        <v>3.2</v>
+      </c>
+      <c r="W61">
+        <v>1.27</v>
+      </c>
+      <c r="X61">
+        <v>9.5</v>
+      </c>
+      <c r="Y61">
+        <v>1.03</v>
+      </c>
+      <c r="Z61">
+        <v>2.28</v>
+      </c>
+      <c r="AA61">
+        <v>3.01</v>
+      </c>
+      <c r="AB61">
+        <v>3.61</v>
+      </c>
+      <c r="AC61">
+        <v>1.06</v>
+      </c>
+      <c r="AD61">
+        <v>6.5</v>
+      </c>
+      <c r="AE61">
+        <v>1.43</v>
+      </c>
+      <c r="AF61">
+        <v>2.55</v>
+      </c>
+      <c r="AG61">
+        <v>2.49</v>
+      </c>
+      <c r="AH61">
+        <v>1.56</v>
+      </c>
+      <c r="AI61">
+        <v>2</v>
+      </c>
+      <c r="AJ61">
+        <v>1.75</v>
+      </c>
+      <c r="AK61">
+        <v>1.4</v>
+      </c>
+      <c r="AL61">
+        <v>1.38</v>
+      </c>
+      <c r="AM61">
+        <v>1.62</v>
+      </c>
+      <c r="AN61">
+        <v>1.5</v>
+      </c>
+      <c r="AO61">
+        <v>0.5</v>
+      </c>
+      <c r="AP61">
+        <v>1</v>
+      </c>
+      <c r="AQ61">
+        <v>1.33</v>
+      </c>
+      <c r="AR61">
+        <v>1.76</v>
+      </c>
+      <c r="AS61">
+        <v>0.88</v>
+      </c>
+      <c r="AT61">
+        <v>2.64</v>
+      </c>
+      <c r="AU61">
+        <v>0</v>
+      </c>
+      <c r="AV61">
+        <v>6</v>
+      </c>
+      <c r="AW61">
+        <v>14</v>
+      </c>
+      <c r="AX61">
+        <v>6</v>
+      </c>
+      <c r="AY61">
+        <v>19</v>
+      </c>
+      <c r="AZ61">
+        <v>13</v>
+      </c>
+      <c r="BA61">
+        <v>5</v>
+      </c>
+      <c r="BB61">
+        <v>2</v>
+      </c>
+      <c r="BC61">
+        <v>7</v>
+      </c>
+      <c r="BD61">
+        <v>1.55</v>
+      </c>
+      <c r="BE61">
+        <v>7</v>
+      </c>
+      <c r="BF61">
+        <v>2.9</v>
+      </c>
+      <c r="BG61">
+        <v>1.23</v>
+      </c>
+      <c r="BH61">
+        <v>3.6</v>
+      </c>
+      <c r="BI61">
+        <v>1.42</v>
+      </c>
+      <c r="BJ61">
+        <v>2.7</v>
+      </c>
+      <c r="BK61">
+        <v>1.84</v>
+      </c>
+      <c r="BL61">
+        <v>2.1</v>
+      </c>
+      <c r="BM61">
+        <v>2.1</v>
+      </c>
+      <c r="BN61">
+        <v>1.85</v>
+      </c>
+      <c r="BO61">
+        <v>2.62</v>
+      </c>
+      <c r="BP61">
         <v>1.42</v>
       </c>
     </row>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Brazil Serie B_2025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Brazil Serie B_2025.xlsx
@@ -13185,13 +13185,13 @@
         <v>19</v>
       </c>
       <c r="BA60">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="BB60">
         <v>8</v>
       </c>
       <c r="BC60">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="BD60">
         <v>1.63</v>
@@ -13388,7 +13388,7 @@
         <v>19</v>
       </c>
       <c r="AZ61">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="BA61">
         <v>5</v>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Brazil Serie B_2025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Brazil Serie B_2025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="428" uniqueCount="164">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="434" uniqueCount="165">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -425,6 +425,9 @@
   </si>
   <si>
     <t>['22']</t>
+  </si>
+  <si>
+    <t>['90+11']</t>
   </si>
   <si>
     <t>['33', '72']</t>
@@ -867,7 +870,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP61"/>
+  <dimension ref="A1:BP62"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1332,7 +1335,7 @@
         <v>91</v>
       </c>
       <c r="P3" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="Q3">
         <v>3.5</v>
@@ -1538,7 +1541,7 @@
         <v>92</v>
       </c>
       <c r="P4" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="Q4">
         <v>2.5</v>
@@ -2362,7 +2365,7 @@
         <v>96</v>
       </c>
       <c r="P8" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="Q8">
         <v>3</v>
@@ -2980,7 +2983,7 @@
         <v>99</v>
       </c>
       <c r="P11" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="Q11">
         <v>2.38</v>
@@ -3186,7 +3189,7 @@
         <v>100</v>
       </c>
       <c r="P12" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="Q12">
         <v>2.51</v>
@@ -3264,7 +3267,7 @@
         <v>0</v>
       </c>
       <c r="AP12">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="AQ12">
         <v>0.33</v>
@@ -3392,7 +3395,7 @@
         <v>101</v>
       </c>
       <c r="P13" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="Q13">
         <v>2.8</v>
@@ -3598,7 +3601,7 @@
         <v>102</v>
       </c>
       <c r="P14" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="Q14">
         <v>3.3</v>
@@ -4422,7 +4425,7 @@
         <v>105</v>
       </c>
       <c r="P18" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="Q18">
         <v>3.22</v>
@@ -4628,7 +4631,7 @@
         <v>106</v>
       </c>
       <c r="P19" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="Q19">
         <v>2.55</v>
@@ -5040,7 +5043,7 @@
         <v>92</v>
       </c>
       <c r="P21" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="Q21">
         <v>3.5</v>
@@ -5246,7 +5249,7 @@
         <v>108</v>
       </c>
       <c r="P22" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="Q22">
         <v>3.5</v>
@@ -5452,7 +5455,7 @@
         <v>97</v>
       </c>
       <c r="P23" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="Q23">
         <v>2.33</v>
@@ -6070,7 +6073,7 @@
         <v>109</v>
       </c>
       <c r="P26" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="Q26">
         <v>2.38</v>
@@ -6688,7 +6691,7 @@
         <v>112</v>
       </c>
       <c r="P29" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="Q29">
         <v>3.1</v>
@@ -7100,7 +7103,7 @@
         <v>114</v>
       </c>
       <c r="P31" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="Q31">
         <v>2.2</v>
@@ -8002,7 +8005,7 @@
         <v>3</v>
       </c>
       <c r="AP35">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="AQ35">
         <v>1.33</v>
@@ -8336,7 +8339,7 @@
         <v>97</v>
       </c>
       <c r="P37" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="Q37">
         <v>3.6</v>
@@ -8542,7 +8545,7 @@
         <v>119</v>
       </c>
       <c r="P38" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="Q38">
         <v>2.58</v>
@@ -9366,7 +9369,7 @@
         <v>122</v>
       </c>
       <c r="P42" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="Q42">
         <v>3.1</v>
@@ -9572,7 +9575,7 @@
         <v>123</v>
       </c>
       <c r="P43" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="Q43">
         <v>2.35</v>
@@ -10396,7 +10399,7 @@
         <v>126</v>
       </c>
       <c r="P47" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="Q47">
         <v>2.51</v>
@@ -10602,7 +10605,7 @@
         <v>95</v>
       </c>
       <c r="P48" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="Q48">
         <v>3.08</v>
@@ -10808,7 +10811,7 @@
         <v>127</v>
       </c>
       <c r="P49" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="Q49">
         <v>2.75</v>
@@ -11220,7 +11223,7 @@
         <v>97</v>
       </c>
       <c r="P51" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="Q51">
         <v>4.2</v>
@@ -11426,7 +11429,7 @@
         <v>129</v>
       </c>
       <c r="P52" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="Q52">
         <v>3.5</v>
@@ -12250,7 +12253,7 @@
         <v>132</v>
       </c>
       <c r="P56" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="Q56">
         <v>3.22</v>
@@ -12456,7 +12459,7 @@
         <v>133</v>
       </c>
       <c r="P57" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="Q57">
         <v>1.97</v>
@@ -12534,7 +12537,7 @@
         <v>0</v>
       </c>
       <c r="AP57">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="AQ57">
         <v>1</v>
@@ -12868,7 +12871,7 @@
         <v>135</v>
       </c>
       <c r="P59" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="Q59">
         <v>2.88</v>
@@ -13280,7 +13283,7 @@
         <v>97</v>
       </c>
       <c r="P61" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="Q61">
         <v>2.85</v>
@@ -13437,6 +13440,212 @@
       </c>
       <c r="BP61">
         <v>1.42</v>
+      </c>
+    </row>
+    <row r="62" spans="1:68">
+      <c r="A62" s="1">
+        <v>61</v>
+      </c>
+      <c r="B62">
+        <v>7841092</v>
+      </c>
+      <c r="C62" t="s">
+        <v>68</v>
+      </c>
+      <c r="D62" t="s">
+        <v>69</v>
+      </c>
+      <c r="E62" s="2">
+        <v>45785.89930555555</v>
+      </c>
+      <c r="F62">
+        <v>7</v>
+      </c>
+      <c r="G62" t="s">
+        <v>80</v>
+      </c>
+      <c r="H62" t="s">
+        <v>82</v>
+      </c>
+      <c r="I62">
+        <v>0</v>
+      </c>
+      <c r="J62">
+        <v>0</v>
+      </c>
+      <c r="K62">
+        <v>0</v>
+      </c>
+      <c r="L62">
+        <v>1</v>
+      </c>
+      <c r="M62">
+        <v>1</v>
+      </c>
+      <c r="N62">
+        <v>2</v>
+      </c>
+      <c r="O62" t="s">
+        <v>137</v>
+      </c>
+      <c r="P62" t="s">
+        <v>147</v>
+      </c>
+      <c r="Q62">
+        <v>2.13</v>
+      </c>
+      <c r="R62">
+        <v>1.99</v>
+      </c>
+      <c r="S62">
+        <v>7.39</v>
+      </c>
+      <c r="T62">
+        <v>1.46</v>
+      </c>
+      <c r="U62">
+        <v>2.53</v>
+      </c>
+      <c r="V62">
+        <v>3.36</v>
+      </c>
+      <c r="W62">
+        <v>1.31</v>
+      </c>
+      <c r="X62">
+        <v>7.9</v>
+      </c>
+      <c r="Y62">
+        <v>1.02</v>
+      </c>
+      <c r="Z62">
+        <v>1.53</v>
+      </c>
+      <c r="AA62">
+        <v>3.5</v>
+      </c>
+      <c r="AB62">
+        <v>6.25</v>
+      </c>
+      <c r="AC62">
+        <v>1.07</v>
+      </c>
+      <c r="AD62">
+        <v>8</v>
+      </c>
+      <c r="AE62">
+        <v>1.42</v>
+      </c>
+      <c r="AF62">
+        <v>2.63</v>
+      </c>
+      <c r="AG62">
+        <v>2.3</v>
+      </c>
+      <c r="AH62">
+        <v>1.57</v>
+      </c>
+      <c r="AI62">
+        <v>2.3</v>
+      </c>
+      <c r="AJ62">
+        <v>1.53</v>
+      </c>
+      <c r="AK62">
+        <v>1.26</v>
+      </c>
+      <c r="AL62">
+        <v>1.24</v>
+      </c>
+      <c r="AM62">
+        <v>2.33</v>
+      </c>
+      <c r="AN62">
+        <v>2</v>
+      </c>
+      <c r="AO62">
+        <v>1</v>
+      </c>
+      <c r="AP62">
+        <v>1.75</v>
+      </c>
+      <c r="AQ62">
+        <v>1</v>
+      </c>
+      <c r="AR62">
+        <v>1.4</v>
+      </c>
+      <c r="AS62">
+        <v>1.83</v>
+      </c>
+      <c r="AT62">
+        <v>3.23</v>
+      </c>
+      <c r="AU62">
+        <v>8</v>
+      </c>
+      <c r="AV62">
+        <v>5</v>
+      </c>
+      <c r="AW62">
+        <v>15</v>
+      </c>
+      <c r="AX62">
+        <v>4</v>
+      </c>
+      <c r="AY62">
+        <v>24</v>
+      </c>
+      <c r="AZ62">
+        <v>10</v>
+      </c>
+      <c r="BA62">
+        <v>10</v>
+      </c>
+      <c r="BB62">
+        <v>0</v>
+      </c>
+      <c r="BC62">
+        <v>10</v>
+      </c>
+      <c r="BD62">
+        <v>1.28</v>
+      </c>
+      <c r="BE62">
+        <v>8</v>
+      </c>
+      <c r="BF62">
+        <v>5</v>
+      </c>
+      <c r="BG62">
+        <v>1.24</v>
+      </c>
+      <c r="BH62">
+        <v>3.8</v>
+      </c>
+      <c r="BI62">
+        <v>1.4</v>
+      </c>
+      <c r="BJ62">
+        <v>2.73</v>
+      </c>
+      <c r="BK62">
+        <v>1.66</v>
+      </c>
+      <c r="BL62">
+        <v>2.13</v>
+      </c>
+      <c r="BM62">
+        <v>2.03</v>
+      </c>
+      <c r="BN62">
+        <v>1.73</v>
+      </c>
+      <c r="BO62">
+        <v>2.65</v>
+      </c>
+      <c r="BP62">
+        <v>1.48</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Brazil Serie B_2025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Brazil Serie B_2025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="434" uniqueCount="165">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="440" uniqueCount="165">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -870,7 +870,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP62"/>
+  <dimension ref="A1:BP63"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2855,7 +2855,7 @@
         <v>0</v>
       </c>
       <c r="AP10">
-        <v>2.33</v>
+        <v>2</v>
       </c>
       <c r="AQ10">
         <v>0.67</v>
@@ -5124,7 +5124,7 @@
         <v>0.67</v>
       </c>
       <c r="AQ21">
-        <v>0.67</v>
+        <v>0.75</v>
       </c>
       <c r="AR21">
         <v>0</v>
@@ -5739,7 +5739,7 @@
         <v>3</v>
       </c>
       <c r="AP24">
-        <v>2.33</v>
+        <v>2</v>
       </c>
       <c r="AQ24">
         <v>1</v>
@@ -6978,7 +6978,7 @@
         <v>2.33</v>
       </c>
       <c r="AQ30">
-        <v>0.67</v>
+        <v>0.75</v>
       </c>
       <c r="AR30">
         <v>2.86</v>
@@ -10271,7 +10271,7 @@
         <v>0</v>
       </c>
       <c r="AP46">
-        <v>2.33</v>
+        <v>2</v>
       </c>
       <c r="AQ46">
         <v>0</v>
@@ -10686,7 +10686,7 @@
         <v>0.67</v>
       </c>
       <c r="AQ48">
-        <v>0.67</v>
+        <v>0.75</v>
       </c>
       <c r="AR48">
         <v>2.04</v>
@@ -13646,6 +13646,212 @@
       </c>
       <c r="BP62">
         <v>1.48</v>
+      </c>
+    </row>
+    <row r="63" spans="1:68">
+      <c r="A63" s="1">
+        <v>62</v>
+      </c>
+      <c r="B63">
+        <v>7841096</v>
+      </c>
+      <c r="C63" t="s">
+        <v>68</v>
+      </c>
+      <c r="D63" t="s">
+        <v>69</v>
+      </c>
+      <c r="E63" s="2">
+        <v>45787.66666666666</v>
+      </c>
+      <c r="F63">
+        <v>7</v>
+      </c>
+      <c r="G63" t="s">
+        <v>78</v>
+      </c>
+      <c r="H63" t="s">
+        <v>79</v>
+      </c>
+      <c r="I63">
+        <v>0</v>
+      </c>
+      <c r="J63">
+        <v>0</v>
+      </c>
+      <c r="K63">
+        <v>0</v>
+      </c>
+      <c r="L63">
+        <v>0</v>
+      </c>
+      <c r="M63">
+        <v>0</v>
+      </c>
+      <c r="N63">
+        <v>0</v>
+      </c>
+      <c r="O63" t="s">
+        <v>97</v>
+      </c>
+      <c r="P63" t="s">
+        <v>97</v>
+      </c>
+      <c r="Q63">
+        <v>2.35</v>
+      </c>
+      <c r="R63">
+        <v>1.94</v>
+      </c>
+      <c r="S63">
+        <v>4</v>
+      </c>
+      <c r="T63">
+        <v>1.42</v>
+      </c>
+      <c r="U63">
+        <v>2.5</v>
+      </c>
+      <c r="V63">
+        <v>3</v>
+      </c>
+      <c r="W63">
+        <v>1.33</v>
+      </c>
+      <c r="X63">
+        <v>7.5</v>
+      </c>
+      <c r="Y63">
+        <v>1.05</v>
+      </c>
+      <c r="Z63">
+        <v>2.2</v>
+      </c>
+      <c r="AA63">
+        <v>3.1</v>
+      </c>
+      <c r="AB63">
+        <v>3.35</v>
+      </c>
+      <c r="AC63">
+        <v>1.06</v>
+      </c>
+      <c r="AD63">
+        <v>7.5</v>
+      </c>
+      <c r="AE63">
+        <v>1.38</v>
+      </c>
+      <c r="AF63">
+        <v>2.8</v>
+      </c>
+      <c r="AG63">
+        <v>2.15</v>
+      </c>
+      <c r="AH63">
+        <v>1.6</v>
+      </c>
+      <c r="AI63">
+        <v>1.98</v>
+      </c>
+      <c r="AJ63">
+        <v>1.72</v>
+      </c>
+      <c r="AK63">
+        <v>1.29</v>
+      </c>
+      <c r="AL63">
+        <v>1.31</v>
+      </c>
+      <c r="AM63">
+        <v>1.71</v>
+      </c>
+      <c r="AN63">
+        <v>2.33</v>
+      </c>
+      <c r="AO63">
+        <v>0.67</v>
+      </c>
+      <c r="AP63">
+        <v>2</v>
+      </c>
+      <c r="AQ63">
+        <v>0.75</v>
+      </c>
+      <c r="AR63">
+        <v>1.64</v>
+      </c>
+      <c r="AS63">
+        <v>1.77</v>
+      </c>
+      <c r="AT63">
+        <v>3.41</v>
+      </c>
+      <c r="AU63">
+        <v>7</v>
+      </c>
+      <c r="AV63">
+        <v>2</v>
+      </c>
+      <c r="AW63">
+        <v>11</v>
+      </c>
+      <c r="AX63">
+        <v>8</v>
+      </c>
+      <c r="AY63">
+        <v>22</v>
+      </c>
+      <c r="AZ63">
+        <v>12</v>
+      </c>
+      <c r="BA63">
+        <v>6</v>
+      </c>
+      <c r="BB63">
+        <v>4</v>
+      </c>
+      <c r="BC63">
+        <v>10</v>
+      </c>
+      <c r="BD63">
+        <v>1.88</v>
+      </c>
+      <c r="BE63">
+        <v>6.75</v>
+      </c>
+      <c r="BF63">
+        <v>2.2</v>
+      </c>
+      <c r="BG63">
+        <v>1.17</v>
+      </c>
+      <c r="BH63">
+        <v>4.35</v>
+      </c>
+      <c r="BI63">
+        <v>1.3</v>
+      </c>
+      <c r="BJ63">
+        <v>3.15</v>
+      </c>
+      <c r="BK63">
+        <v>1.56</v>
+      </c>
+      <c r="BL63">
+        <v>2.34</v>
+      </c>
+      <c r="BM63">
+        <v>1.77</v>
+      </c>
+      <c r="BN63">
+        <v>1.8</v>
+      </c>
+      <c r="BO63">
+        <v>2.4</v>
+      </c>
+      <c r="BP63">
+        <v>1.5</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Brazil Serie B_2025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Brazil Serie B_2025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="440" uniqueCount="165">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="446" uniqueCount="166">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -428,6 +428,9 @@
   </si>
   <si>
     <t>['90+11']</t>
+  </si>
+  <si>
+    <t>['68']</t>
   </si>
   <si>
     <t>['33', '72']</t>
@@ -870,7 +873,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP63"/>
+  <dimension ref="A1:BP64"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1207,7 +1210,7 @@
         <v>0</v>
       </c>
       <c r="AP2">
-        <v>2.33</v>
+        <v>2.5</v>
       </c>
       <c r="AQ2">
         <v>0</v>
@@ -1335,7 +1338,7 @@
         <v>91</v>
       </c>
       <c r="P3" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="Q3">
         <v>3.5</v>
@@ -1541,7 +1544,7 @@
         <v>92</v>
       </c>
       <c r="P4" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="Q4">
         <v>2.5</v>
@@ -2365,7 +2368,7 @@
         <v>96</v>
       </c>
       <c r="P8" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="Q8">
         <v>3</v>
@@ -2983,7 +2986,7 @@
         <v>99</v>
       </c>
       <c r="P11" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="Q11">
         <v>2.38</v>
@@ -3189,7 +3192,7 @@
         <v>100</v>
       </c>
       <c r="P12" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="Q12">
         <v>2.51</v>
@@ -3395,7 +3398,7 @@
         <v>101</v>
       </c>
       <c r="P13" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="Q13">
         <v>2.8</v>
@@ -3601,7 +3604,7 @@
         <v>102</v>
       </c>
       <c r="P14" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="Q14">
         <v>3.3</v>
@@ -3682,7 +3685,7 @@
         <v>2</v>
       </c>
       <c r="AQ14">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="AR14">
         <v>0</v>
@@ -4425,7 +4428,7 @@
         <v>105</v>
       </c>
       <c r="P18" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="Q18">
         <v>3.22</v>
@@ -4631,7 +4634,7 @@
         <v>106</v>
       </c>
       <c r="P19" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="Q19">
         <v>2.55</v>
@@ -5043,7 +5046,7 @@
         <v>92</v>
       </c>
       <c r="P21" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="Q21">
         <v>3.5</v>
@@ -5249,7 +5252,7 @@
         <v>108</v>
       </c>
       <c r="P22" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="Q22">
         <v>3.5</v>
@@ -5455,7 +5458,7 @@
         <v>97</v>
       </c>
       <c r="P23" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="Q23">
         <v>2.33</v>
@@ -6073,7 +6076,7 @@
         <v>109</v>
       </c>
       <c r="P26" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="Q26">
         <v>2.38</v>
@@ -6151,7 +6154,7 @@
         <v>0</v>
       </c>
       <c r="AP26">
-        <v>2.33</v>
+        <v>2.5</v>
       </c>
       <c r="AQ26">
         <v>1.33</v>
@@ -6691,7 +6694,7 @@
         <v>112</v>
       </c>
       <c r="P29" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="Q29">
         <v>3.1</v>
@@ -7103,7 +7106,7 @@
         <v>114</v>
       </c>
       <c r="P31" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="Q31">
         <v>2.2</v>
@@ -8339,7 +8342,7 @@
         <v>97</v>
       </c>
       <c r="P37" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="Q37">
         <v>3.6</v>
@@ -8545,7 +8548,7 @@
         <v>119</v>
       </c>
       <c r="P38" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="Q38">
         <v>2.58</v>
@@ -8832,7 +8835,7 @@
         <v>3</v>
       </c>
       <c r="AQ39">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="AR39">
         <v>1.19</v>
@@ -9369,7 +9372,7 @@
         <v>122</v>
       </c>
       <c r="P42" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="Q42">
         <v>3.1</v>
@@ -9575,7 +9578,7 @@
         <v>123</v>
       </c>
       <c r="P43" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="Q43">
         <v>2.35</v>
@@ -10399,7 +10402,7 @@
         <v>126</v>
       </c>
       <c r="P47" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="Q47">
         <v>2.51</v>
@@ -10605,7 +10608,7 @@
         <v>95</v>
       </c>
       <c r="P48" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="Q48">
         <v>3.08</v>
@@ -10811,7 +10814,7 @@
         <v>127</v>
       </c>
       <c r="P49" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="Q49">
         <v>2.75</v>
@@ -11223,7 +11226,7 @@
         <v>97</v>
       </c>
       <c r="P51" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="Q51">
         <v>4.2</v>
@@ -11429,7 +11432,7 @@
         <v>129</v>
       </c>
       <c r="P52" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="Q52">
         <v>3.5</v>
@@ -11510,7 +11513,7 @@
         <v>2.33</v>
       </c>
       <c r="AQ52">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="AR52">
         <v>2.26</v>
@@ -12253,7 +12256,7 @@
         <v>132</v>
       </c>
       <c r="P56" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="Q56">
         <v>3.22</v>
@@ -12459,7 +12462,7 @@
         <v>133</v>
       </c>
       <c r="P57" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="Q57">
         <v>1.97</v>
@@ -12871,7 +12874,7 @@
         <v>135</v>
       </c>
       <c r="P59" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="Q59">
         <v>2.88</v>
@@ -12949,7 +12952,7 @@
         <v>2</v>
       </c>
       <c r="AP59">
-        <v>2.33</v>
+        <v>2.5</v>
       </c>
       <c r="AQ59">
         <v>1.33</v>
@@ -13283,7 +13286,7 @@
         <v>97</v>
       </c>
       <c r="P61" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="Q61">
         <v>2.85</v>
@@ -13489,7 +13492,7 @@
         <v>137</v>
       </c>
       <c r="P62" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="Q62">
         <v>2.13</v>
@@ -13852,6 +13855,212 @@
       </c>
       <c r="BP63">
         <v>1.5</v>
+      </c>
+    </row>
+    <row r="64" spans="1:68">
+      <c r="A64" s="1">
+        <v>63</v>
+      </c>
+      <c r="B64">
+        <v>7841093</v>
+      </c>
+      <c r="C64" t="s">
+        <v>68</v>
+      </c>
+      <c r="D64" t="s">
+        <v>69</v>
+      </c>
+      <c r="E64" s="2">
+        <v>45787.77083333334</v>
+      </c>
+      <c r="F64">
+        <v>7</v>
+      </c>
+      <c r="G64" t="s">
+        <v>70</v>
+      </c>
+      <c r="H64" t="s">
+        <v>73</v>
+      </c>
+      <c r="I64">
+        <v>0</v>
+      </c>
+      <c r="J64">
+        <v>0</v>
+      </c>
+      <c r="K64">
+        <v>0</v>
+      </c>
+      <c r="L64">
+        <v>1</v>
+      </c>
+      <c r="M64">
+        <v>0</v>
+      </c>
+      <c r="N64">
+        <v>1</v>
+      </c>
+      <c r="O64" t="s">
+        <v>138</v>
+      </c>
+      <c r="P64" t="s">
+        <v>97</v>
+      </c>
+      <c r="Q64">
+        <v>3.11</v>
+      </c>
+      <c r="R64">
+        <v>1.88</v>
+      </c>
+      <c r="S64">
+        <v>4.55</v>
+      </c>
+      <c r="T64">
+        <v>1.55</v>
+      </c>
+      <c r="U64">
+        <v>2.25</v>
+      </c>
+      <c r="V64">
+        <v>3.5</v>
+      </c>
+      <c r="W64">
+        <v>1.27</v>
+      </c>
+      <c r="X64">
+        <v>9.5</v>
+      </c>
+      <c r="Y64">
+        <v>1.03</v>
+      </c>
+      <c r="Z64">
+        <v>2.15</v>
+      </c>
+      <c r="AA64">
+        <v>2.8</v>
+      </c>
+      <c r="AB64">
+        <v>3.5</v>
+      </c>
+      <c r="AC64">
+        <v>1.11</v>
+      </c>
+      <c r="AD64">
+        <v>6.25</v>
+      </c>
+      <c r="AE64">
+        <v>1.45</v>
+      </c>
+      <c r="AF64">
+        <v>2.4</v>
+      </c>
+      <c r="AG64">
+        <v>2.4</v>
+      </c>
+      <c r="AH64">
+        <v>1.44</v>
+      </c>
+      <c r="AI64">
+        <v>2.15</v>
+      </c>
+      <c r="AJ64">
+        <v>1.65</v>
+      </c>
+      <c r="AK64">
+        <v>1.25</v>
+      </c>
+      <c r="AL64">
+        <v>1.36</v>
+      </c>
+      <c r="AM64">
+        <v>1.7</v>
+      </c>
+      <c r="AN64">
+        <v>2.33</v>
+      </c>
+      <c r="AO64">
+        <v>1</v>
+      </c>
+      <c r="AP64">
+        <v>2.5</v>
+      </c>
+      <c r="AQ64">
+        <v>0.75</v>
+      </c>
+      <c r="AR64">
+        <v>1.84</v>
+      </c>
+      <c r="AS64">
+        <v>1.57</v>
+      </c>
+      <c r="AT64">
+        <v>3.41</v>
+      </c>
+      <c r="AU64">
+        <v>6</v>
+      </c>
+      <c r="AV64">
+        <v>0</v>
+      </c>
+      <c r="AW64">
+        <v>11</v>
+      </c>
+      <c r="AX64">
+        <v>10</v>
+      </c>
+      <c r="AY64">
+        <v>17</v>
+      </c>
+      <c r="AZ64">
+        <v>10</v>
+      </c>
+      <c r="BA64">
+        <v>5</v>
+      </c>
+      <c r="BB64">
+        <v>7</v>
+      </c>
+      <c r="BC64">
+        <v>12</v>
+      </c>
+      <c r="BD64">
+        <v>1.75</v>
+      </c>
+      <c r="BE64">
+        <v>6.75</v>
+      </c>
+      <c r="BF64">
+        <v>2.4</v>
+      </c>
+      <c r="BG64">
+        <v>1.17</v>
+      </c>
+      <c r="BH64">
+        <v>3.95</v>
+      </c>
+      <c r="BI64">
+        <v>1.31</v>
+      </c>
+      <c r="BJ64">
+        <v>3.7</v>
+      </c>
+      <c r="BK64">
+        <v>1.42</v>
+      </c>
+      <c r="BL64">
+        <v>2.55</v>
+      </c>
+      <c r="BM64">
+        <v>1.73</v>
+      </c>
+      <c r="BN64">
+        <v>1.93</v>
+      </c>
+      <c r="BO64">
+        <v>2.2</v>
+      </c>
+      <c r="BP64">
+        <v>1.55</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Brazil Serie B_2025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Brazil Serie B_2025.xlsx
@@ -13606,10 +13606,10 @@
         <v>10</v>
       </c>
       <c r="BB62">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BC62">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="BD62">
         <v>1.28</v>
@@ -13803,7 +13803,7 @@
         <v>8</v>
       </c>
       <c r="AY63">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AZ63">
         <v>12</v>
@@ -14009,10 +14009,10 @@
         <v>10</v>
       </c>
       <c r="AY64">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="AZ64">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="BA64">
         <v>5</v>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Brazil Serie B_2025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Brazil Serie B_2025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="446" uniqueCount="166">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="452" uniqueCount="166">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -873,7 +873,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP64"/>
+  <dimension ref="A1:BP65"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1622,7 +1622,7 @@
         <v>0</v>
       </c>
       <c r="AP4">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="AQ4">
         <v>1</v>
@@ -4303,7 +4303,7 @@
         <v>2.33</v>
       </c>
       <c r="AQ17">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="AR17">
         <v>0</v>
@@ -6360,7 +6360,7 @@
         <v>0</v>
       </c>
       <c r="AP27">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="AQ27">
         <v>0</v>
@@ -6569,7 +6569,7 @@
         <v>2.33</v>
       </c>
       <c r="AQ28">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="AR28">
         <v>1.84</v>
@@ -9656,7 +9656,7 @@
         <v>1</v>
       </c>
       <c r="AP43">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="AQ43">
         <v>1</v>
@@ -10483,7 +10483,7 @@
         <v>1</v>
       </c>
       <c r="AQ47">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="AR47">
         <v>2.22</v>
@@ -14061,6 +14061,212 @@
       </c>
       <c r="BP64">
         <v>1.55</v>
+      </c>
+    </row>
+    <row r="65" spans="1:68">
+      <c r="A65" s="1">
+        <v>64</v>
+      </c>
+      <c r="B65">
+        <v>7841097</v>
+      </c>
+      <c r="C65" t="s">
+        <v>68</v>
+      </c>
+      <c r="D65" t="s">
+        <v>69</v>
+      </c>
+      <c r="E65" s="2">
+        <v>45788.66666666666</v>
+      </c>
+      <c r="F65">
+        <v>7</v>
+      </c>
+      <c r="G65" t="s">
+        <v>72</v>
+      </c>
+      <c r="H65" t="s">
+        <v>77</v>
+      </c>
+      <c r="I65">
+        <v>0</v>
+      </c>
+      <c r="J65">
+        <v>0</v>
+      </c>
+      <c r="K65">
+        <v>0</v>
+      </c>
+      <c r="L65">
+        <v>0</v>
+      </c>
+      <c r="M65">
+        <v>0</v>
+      </c>
+      <c r="N65">
+        <v>0</v>
+      </c>
+      <c r="O65" t="s">
+        <v>97</v>
+      </c>
+      <c r="P65" t="s">
+        <v>97</v>
+      </c>
+      <c r="Q65">
+        <v>2.2</v>
+      </c>
+      <c r="R65">
+        <v>2.05</v>
+      </c>
+      <c r="S65">
+        <v>5.25</v>
+      </c>
+      <c r="T65">
+        <v>1.46</v>
+      </c>
+      <c r="U65">
+        <v>2.5</v>
+      </c>
+      <c r="V65">
+        <v>3</v>
+      </c>
+      <c r="W65">
+        <v>1.33</v>
+      </c>
+      <c r="X65">
+        <v>7.5</v>
+      </c>
+      <c r="Y65">
+        <v>1.06</v>
+      </c>
+      <c r="Z65">
+        <v>1.62</v>
+      </c>
+      <c r="AA65">
+        <v>3.29</v>
+      </c>
+      <c r="AB65">
+        <v>5</v>
+      </c>
+      <c r="AC65">
+        <v>1.08</v>
+      </c>
+      <c r="AD65">
+        <v>7.5</v>
+      </c>
+      <c r="AE65">
+        <v>1.44</v>
+      </c>
+      <c r="AF65">
+        <v>2.7</v>
+      </c>
+      <c r="AG65">
+        <v>2.1</v>
+      </c>
+      <c r="AH65">
+        <v>1.6</v>
+      </c>
+      <c r="AI65">
+        <v>2.2</v>
+      </c>
+      <c r="AJ65">
+        <v>1.62</v>
+      </c>
+      <c r="AK65">
+        <v>1.16</v>
+      </c>
+      <c r="AL65">
+        <v>1.27</v>
+      </c>
+      <c r="AM65">
+        <v>2.1</v>
+      </c>
+      <c r="AN65">
+        <v>1.33</v>
+      </c>
+      <c r="AO65">
+        <v>0</v>
+      </c>
+      <c r="AP65">
+        <v>1.25</v>
+      </c>
+      <c r="AQ65">
+        <v>0.25</v>
+      </c>
+      <c r="AR65">
+        <v>2.13</v>
+      </c>
+      <c r="AS65">
+        <v>1.26</v>
+      </c>
+      <c r="AT65">
+        <v>3.39</v>
+      </c>
+      <c r="AU65">
+        <v>4</v>
+      </c>
+      <c r="AV65">
+        <v>5</v>
+      </c>
+      <c r="AW65">
+        <v>13</v>
+      </c>
+      <c r="AX65">
+        <v>10</v>
+      </c>
+      <c r="AY65">
+        <v>17</v>
+      </c>
+      <c r="AZ65">
+        <v>16</v>
+      </c>
+      <c r="BA65">
+        <v>10</v>
+      </c>
+      <c r="BB65">
+        <v>5</v>
+      </c>
+      <c r="BC65">
+        <v>15</v>
+      </c>
+      <c r="BD65">
+        <v>1.51</v>
+      </c>
+      <c r="BE65">
+        <v>7</v>
+      </c>
+      <c r="BF65">
+        <v>2.8</v>
+      </c>
+      <c r="BG65">
+        <v>1.2</v>
+      </c>
+      <c r="BH65">
+        <v>3.82</v>
+      </c>
+      <c r="BI65">
+        <v>1.4</v>
+      </c>
+      <c r="BJ65">
+        <v>2.75</v>
+      </c>
+      <c r="BK65">
+        <v>1.74</v>
+      </c>
+      <c r="BL65">
+        <v>2.18</v>
+      </c>
+      <c r="BM65">
+        <v>2.05</v>
+      </c>
+      <c r="BN65">
+        <v>1.72</v>
+      </c>
+      <c r="BO65">
+        <v>2.55</v>
+      </c>
+      <c r="BP65">
+        <v>1.45</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Brazil Serie B_2025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Brazil Serie B_2025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="452" uniqueCount="166">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="464" uniqueCount="170">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -433,6 +433,12 @@
     <t>['68']</t>
   </si>
   <si>
+    <t>['57', '89']</t>
+  </si>
+  <si>
+    <t>['3', '48']</t>
+  </si>
+  <si>
     <t>['33', '72']</t>
   </si>
   <si>
@@ -512,6 +518,12 @@
   </si>
   <si>
     <t>['90+3']</t>
+  </si>
+  <si>
+    <t>['7', '10', '90+7']</t>
+  </si>
+  <si>
+    <t>['31', '54']</t>
   </si>
 </sst>
 </file>
@@ -873,7 +885,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP65"/>
+  <dimension ref="A1:BP67"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1338,7 +1350,7 @@
         <v>91</v>
       </c>
       <c r="P3" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="Q3">
         <v>3.5</v>
@@ -1544,7 +1556,7 @@
         <v>92</v>
       </c>
       <c r="P4" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="Q4">
         <v>2.5</v>
@@ -1625,7 +1637,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ4">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="AR4">
         <v>0</v>
@@ -2368,7 +2380,7 @@
         <v>96</v>
       </c>
       <c r="P8" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="Q8">
         <v>3</v>
@@ -2986,7 +2998,7 @@
         <v>99</v>
       </c>
       <c r="P11" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="Q11">
         <v>2.38</v>
@@ -3192,7 +3204,7 @@
         <v>100</v>
       </c>
       <c r="P12" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="Q12">
         <v>2.51</v>
@@ -3398,7 +3410,7 @@
         <v>101</v>
       </c>
       <c r="P13" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="Q13">
         <v>2.8</v>
@@ -3476,7 +3488,7 @@
         <v>0</v>
       </c>
       <c r="AP13">
-        <v>2.33</v>
+        <v>1.75</v>
       </c>
       <c r="AQ13">
         <v>1.33</v>
@@ -3604,7 +3616,7 @@
         <v>102</v>
       </c>
       <c r="P14" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="Q14">
         <v>3.3</v>
@@ -4097,7 +4109,7 @@
         <v>0.67</v>
       </c>
       <c r="AQ16">
-        <v>0.67</v>
+        <v>0.75</v>
       </c>
       <c r="AR16">
         <v>0</v>
@@ -4300,7 +4312,7 @@
         <v>0</v>
       </c>
       <c r="AP17">
-        <v>2.33</v>
+        <v>2</v>
       </c>
       <c r="AQ17">
         <v>0.25</v>
@@ -4428,7 +4440,7 @@
         <v>105</v>
       </c>
       <c r="P18" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="Q18">
         <v>3.22</v>
@@ -4634,7 +4646,7 @@
         <v>106</v>
       </c>
       <c r="P19" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="Q19">
         <v>2.55</v>
@@ -5046,7 +5058,7 @@
         <v>92</v>
       </c>
       <c r="P21" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="Q21">
         <v>3.5</v>
@@ -5252,7 +5264,7 @@
         <v>108</v>
       </c>
       <c r="P22" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="Q22">
         <v>3.5</v>
@@ -5330,7 +5342,7 @@
         <v>3</v>
       </c>
       <c r="AP22">
-        <v>2.33</v>
+        <v>1.75</v>
       </c>
       <c r="AQ22">
         <v>1</v>
@@ -5458,7 +5470,7 @@
         <v>97</v>
       </c>
       <c r="P23" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="Q23">
         <v>2.33</v>
@@ -5745,7 +5757,7 @@
         <v>2</v>
       </c>
       <c r="AQ24">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="AR24">
         <v>1.38</v>
@@ -6076,7 +6088,7 @@
         <v>109</v>
       </c>
       <c r="P26" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="Q26">
         <v>2.38</v>
@@ -6694,7 +6706,7 @@
         <v>112</v>
       </c>
       <c r="P29" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="Q29">
         <v>3.1</v>
@@ -7106,7 +7118,7 @@
         <v>114</v>
       </c>
       <c r="P31" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="Q31">
         <v>2.2</v>
@@ -8342,7 +8354,7 @@
         <v>97</v>
       </c>
       <c r="P37" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="Q37">
         <v>3.6</v>
@@ -8548,7 +8560,7 @@
         <v>119</v>
       </c>
       <c r="P38" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="Q38">
         <v>2.58</v>
@@ -8626,7 +8638,7 @@
         <v>0</v>
       </c>
       <c r="AP38">
-        <v>2.33</v>
+        <v>2</v>
       </c>
       <c r="AQ38">
         <v>0.33</v>
@@ -9247,7 +9259,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ41">
-        <v>0.67</v>
+        <v>0.75</v>
       </c>
       <c r="AR41">
         <v>1.74</v>
@@ -9372,7 +9384,7 @@
         <v>122</v>
       </c>
       <c r="P42" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="Q42">
         <v>3.1</v>
@@ -9450,7 +9462,7 @@
         <v>1.5</v>
       </c>
       <c r="AP42">
-        <v>2.33</v>
+        <v>2</v>
       </c>
       <c r="AQ42">
         <v>1</v>
@@ -9578,7 +9590,7 @@
         <v>123</v>
       </c>
       <c r="P43" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="Q43">
         <v>2.35</v>
@@ -10071,7 +10083,7 @@
         <v>2.33</v>
       </c>
       <c r="AQ45">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="AR45">
         <v>1.46</v>
@@ -10402,7 +10414,7 @@
         <v>126</v>
       </c>
       <c r="P47" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="Q47">
         <v>2.51</v>
@@ -10608,7 +10620,7 @@
         <v>95</v>
       </c>
       <c r="P48" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="Q48">
         <v>3.08</v>
@@ -10814,7 +10826,7 @@
         <v>127</v>
       </c>
       <c r="P49" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="Q49">
         <v>2.75</v>
@@ -11098,10 +11110,10 @@
         <v>1</v>
       </c>
       <c r="AP50">
-        <v>2.33</v>
+        <v>1.75</v>
       </c>
       <c r="AQ50">
-        <v>0.67</v>
+        <v>0.75</v>
       </c>
       <c r="AR50">
         <v>1.55</v>
@@ -11226,7 +11238,7 @@
         <v>97</v>
       </c>
       <c r="P51" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="Q51">
         <v>4.2</v>
@@ -11432,7 +11444,7 @@
         <v>129</v>
       </c>
       <c r="P52" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="Q52">
         <v>3.5</v>
@@ -12256,7 +12268,7 @@
         <v>132</v>
       </c>
       <c r="P56" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="Q56">
         <v>3.22</v>
@@ -12462,7 +12474,7 @@
         <v>133</v>
       </c>
       <c r="P57" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="Q57">
         <v>1.97</v>
@@ -12874,7 +12886,7 @@
         <v>135</v>
       </c>
       <c r="P59" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="Q59">
         <v>2.88</v>
@@ -13286,7 +13298,7 @@
         <v>97</v>
       </c>
       <c r="P61" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="Q61">
         <v>2.85</v>
@@ -13492,7 +13504,7 @@
         <v>137</v>
       </c>
       <c r="P62" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="Q62">
         <v>2.13</v>
@@ -14267,6 +14279,418 @@
       </c>
       <c r="BP65">
         <v>1.45</v>
+      </c>
+    </row>
+    <row r="66" spans="1:68">
+      <c r="A66" s="1">
+        <v>65</v>
+      </c>
+      <c r="B66">
+        <v>7841094</v>
+      </c>
+      <c r="C66" t="s">
+        <v>68</v>
+      </c>
+      <c r="D66" t="s">
+        <v>69</v>
+      </c>
+      <c r="E66" s="2">
+        <v>45788.77083333334</v>
+      </c>
+      <c r="F66">
+        <v>7</v>
+      </c>
+      <c r="G66" t="s">
+        <v>81</v>
+      </c>
+      <c r="H66" t="s">
+        <v>86</v>
+      </c>
+      <c r="I66">
+        <v>0</v>
+      </c>
+      <c r="J66">
+        <v>2</v>
+      </c>
+      <c r="K66">
+        <v>2</v>
+      </c>
+      <c r="L66">
+        <v>2</v>
+      </c>
+      <c r="M66">
+        <v>3</v>
+      </c>
+      <c r="N66">
+        <v>5</v>
+      </c>
+      <c r="O66" t="s">
+        <v>139</v>
+      </c>
+      <c r="P66" t="s">
+        <v>168</v>
+      </c>
+      <c r="Q66">
+        <v>2.6</v>
+      </c>
+      <c r="R66">
+        <v>2</v>
+      </c>
+      <c r="S66">
+        <v>5</v>
+      </c>
+      <c r="T66">
+        <v>1.54</v>
+      </c>
+      <c r="U66">
+        <v>2.45</v>
+      </c>
+      <c r="V66">
+        <v>3.65</v>
+      </c>
+      <c r="W66">
+        <v>1.29</v>
+      </c>
+      <c r="X66">
+        <v>9</v>
+      </c>
+      <c r="Y66">
+        <v>1.03</v>
+      </c>
+      <c r="Z66">
+        <v>1.99</v>
+      </c>
+      <c r="AA66">
+        <v>2.9</v>
+      </c>
+      <c r="AB66">
+        <v>4.1</v>
+      </c>
+      <c r="AC66">
+        <v>1.06</v>
+      </c>
+      <c r="AD66">
+        <v>6.1</v>
+      </c>
+      <c r="AE66">
+        <v>1.5</v>
+      </c>
+      <c r="AF66">
+        <v>2.55</v>
+      </c>
+      <c r="AG66">
+        <v>2.55</v>
+      </c>
+      <c r="AH66">
+        <v>1.5</v>
+      </c>
+      <c r="AI66">
+        <v>2.2</v>
+      </c>
+      <c r="AJ66">
+        <v>1.58</v>
+      </c>
+      <c r="AK66">
+        <v>1.29</v>
+      </c>
+      <c r="AL66">
+        <v>1.33</v>
+      </c>
+      <c r="AM66">
+        <v>1.8</v>
+      </c>
+      <c r="AN66">
+        <v>2.33</v>
+      </c>
+      <c r="AO66">
+        <v>1</v>
+      </c>
+      <c r="AP66">
+        <v>1.75</v>
+      </c>
+      <c r="AQ66">
+        <v>1.5</v>
+      </c>
+      <c r="AR66">
+        <v>1.58</v>
+      </c>
+      <c r="AS66">
+        <v>1.66</v>
+      </c>
+      <c r="AT66">
+        <v>3.24</v>
+      </c>
+      <c r="AU66">
+        <v>9</v>
+      </c>
+      <c r="AV66">
+        <v>6</v>
+      </c>
+      <c r="AW66">
+        <v>7</v>
+      </c>
+      <c r="AX66">
+        <v>3</v>
+      </c>
+      <c r="AY66">
+        <v>17</v>
+      </c>
+      <c r="AZ66">
+        <v>10</v>
+      </c>
+      <c r="BA66">
+        <v>6</v>
+      </c>
+      <c r="BB66">
+        <v>3</v>
+      </c>
+      <c r="BC66">
+        <v>9</v>
+      </c>
+      <c r="BD66">
+        <v>1.6</v>
+      </c>
+      <c r="BE66">
+        <v>6.75</v>
+      </c>
+      <c r="BF66">
+        <v>2.4</v>
+      </c>
+      <c r="BG66">
+        <v>1.22</v>
+      </c>
+      <c r="BH66">
+        <v>3.15</v>
+      </c>
+      <c r="BI66">
+        <v>1.5</v>
+      </c>
+      <c r="BJ66">
+        <v>2.67</v>
+      </c>
+      <c r="BK66">
+        <v>1.91</v>
+      </c>
+      <c r="BL66">
+        <v>2.11</v>
+      </c>
+      <c r="BM66">
+        <v>2.11</v>
+      </c>
+      <c r="BN66">
+        <v>1.7</v>
+      </c>
+      <c r="BO66">
+        <v>2.62</v>
+      </c>
+      <c r="BP66">
+        <v>1.43</v>
+      </c>
+    </row>
+    <row r="67" spans="1:68">
+      <c r="A67" s="1">
+        <v>66</v>
+      </c>
+      <c r="B67">
+        <v>7841100</v>
+      </c>
+      <c r="C67" t="s">
+        <v>68</v>
+      </c>
+      <c r="D67" t="s">
+        <v>69</v>
+      </c>
+      <c r="E67" s="2">
+        <v>45788.77083333334</v>
+      </c>
+      <c r="F67">
+        <v>7</v>
+      </c>
+      <c r="G67" t="s">
+        <v>85</v>
+      </c>
+      <c r="H67" t="s">
+        <v>76</v>
+      </c>
+      <c r="I67">
+        <v>1</v>
+      </c>
+      <c r="J67">
+        <v>1</v>
+      </c>
+      <c r="K67">
+        <v>2</v>
+      </c>
+      <c r="L67">
+        <v>2</v>
+      </c>
+      <c r="M67">
+        <v>2</v>
+      </c>
+      <c r="N67">
+        <v>4</v>
+      </c>
+      <c r="O67" t="s">
+        <v>140</v>
+      </c>
+      <c r="P67" t="s">
+        <v>169</v>
+      </c>
+      <c r="Q67">
+        <v>2.35</v>
+      </c>
+      <c r="R67">
+        <v>1.87</v>
+      </c>
+      <c r="S67">
+        <v>5.5</v>
+      </c>
+      <c r="T67">
+        <v>1.53</v>
+      </c>
+      <c r="U67">
+        <v>2.3</v>
+      </c>
+      <c r="V67">
+        <v>3.4</v>
+      </c>
+      <c r="W67">
+        <v>1.29</v>
+      </c>
+      <c r="X67">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="Y67">
+        <v>1.03</v>
+      </c>
+      <c r="Z67">
+        <v>1.71</v>
+      </c>
+      <c r="AA67">
+        <v>3.4</v>
+      </c>
+      <c r="AB67">
+        <v>5.6</v>
+      </c>
+      <c r="AC67">
+        <v>1.06</v>
+      </c>
+      <c r="AD67">
+        <v>6</v>
+      </c>
+      <c r="AE67">
+        <v>1.49</v>
+      </c>
+      <c r="AF67">
+        <v>2.35</v>
+      </c>
+      <c r="AG67">
+        <v>2.7</v>
+      </c>
+      <c r="AH67">
+        <v>1.45</v>
+      </c>
+      <c r="AI67">
+        <v>2.63</v>
+      </c>
+      <c r="AJ67">
+        <v>1.44</v>
+      </c>
+      <c r="AK67">
+        <v>1.3</v>
+      </c>
+      <c r="AL67">
+        <v>1.3</v>
+      </c>
+      <c r="AM67">
+        <v>2.05</v>
+      </c>
+      <c r="AN67">
+        <v>2.33</v>
+      </c>
+      <c r="AO67">
+        <v>0.67</v>
+      </c>
+      <c r="AP67">
+        <v>2</v>
+      </c>
+      <c r="AQ67">
+        <v>0.75</v>
+      </c>
+      <c r="AR67">
+        <v>2.23</v>
+      </c>
+      <c r="AS67">
+        <v>1.13</v>
+      </c>
+      <c r="AT67">
+        <v>3.36</v>
+      </c>
+      <c r="AU67">
+        <v>4</v>
+      </c>
+      <c r="AV67">
+        <v>5</v>
+      </c>
+      <c r="AW67">
+        <v>11</v>
+      </c>
+      <c r="AX67">
+        <v>9</v>
+      </c>
+      <c r="AY67">
+        <v>15</v>
+      </c>
+      <c r="AZ67">
+        <v>14</v>
+      </c>
+      <c r="BA67">
+        <v>8</v>
+      </c>
+      <c r="BB67">
+        <v>2</v>
+      </c>
+      <c r="BC67">
+        <v>10</v>
+      </c>
+      <c r="BD67">
+        <v>1.41</v>
+      </c>
+      <c r="BE67">
+        <v>7.5</v>
+      </c>
+      <c r="BF67">
+        <v>3.8</v>
+      </c>
+      <c r="BG67">
+        <v>1.25</v>
+      </c>
+      <c r="BH67">
+        <v>3.45</v>
+      </c>
+      <c r="BI67">
+        <v>1.45</v>
+      </c>
+      <c r="BJ67">
+        <v>2.72</v>
+      </c>
+      <c r="BK67">
+        <v>1.88</v>
+      </c>
+      <c r="BL67">
+        <v>2.12</v>
+      </c>
+      <c r="BM67">
+        <v>2.07</v>
+      </c>
+      <c r="BN67">
+        <v>1.71</v>
+      </c>
+      <c r="BO67">
+        <v>2.65</v>
+      </c>
+      <c r="BP67">
+        <v>1.42</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Brazil Serie B_2025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Brazil Serie B_2025.xlsx
@@ -14227,10 +14227,10 @@
         <v>10</v>
       </c>
       <c r="AY65">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AZ65">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="BA65">
         <v>10</v>
@@ -14639,10 +14639,10 @@
         <v>9</v>
       </c>
       <c r="AY67">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="AZ67">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="BA67">
         <v>8</v>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Brazil Serie B_2025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Brazil Serie B_2025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="464" uniqueCount="170">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="470" uniqueCount="171">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -524,6 +524,9 @@
   </si>
   <si>
     <t>['31', '54']</t>
+  </si>
+  <si>
+    <t>['16', '21', '79']</t>
   </si>
 </sst>
 </file>
@@ -885,7 +888,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP67"/>
+  <dimension ref="A1:BP68"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -3079,7 +3082,7 @@
         <v>2.33</v>
       </c>
       <c r="AQ11">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="AR11">
         <v>0</v>
@@ -5136,7 +5139,7 @@
         <v>0</v>
       </c>
       <c r="AP21">
-        <v>0.67</v>
+        <v>0.5</v>
       </c>
       <c r="AQ21">
         <v>0.75</v>
@@ -6375,7 +6378,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ27">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="AR27">
         <v>1.99</v>
@@ -6784,7 +6787,7 @@
         <v>1</v>
       </c>
       <c r="AP29">
-        <v>0.67</v>
+        <v>0.5</v>
       </c>
       <c r="AQ29">
         <v>1</v>
@@ -7817,7 +7820,7 @@
         <v>2</v>
       </c>
       <c r="AQ34">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="AR34">
         <v>2.24</v>
@@ -11316,7 +11319,7 @@
         <v>1.5</v>
       </c>
       <c r="AP51">
-        <v>0.67</v>
+        <v>0.5</v>
       </c>
       <c r="AQ51">
         <v>2</v>
@@ -14691,6 +14694,212 @@
       </c>
       <c r="BP67">
         <v>1.42</v>
+      </c>
+    </row>
+    <row r="68" spans="1:68">
+      <c r="A68" s="1">
+        <v>67</v>
+      </c>
+      <c r="B68">
+        <v>7841101</v>
+      </c>
+      <c r="C68" t="s">
+        <v>68</v>
+      </c>
+      <c r="D68" t="s">
+        <v>69</v>
+      </c>
+      <c r="E68" s="2">
+        <v>45789.79166666666</v>
+      </c>
+      <c r="F68">
+        <v>7</v>
+      </c>
+      <c r="G68" t="s">
+        <v>89</v>
+      </c>
+      <c r="H68" t="s">
+        <v>87</v>
+      </c>
+      <c r="I68">
+        <v>0</v>
+      </c>
+      <c r="J68">
+        <v>2</v>
+      </c>
+      <c r="K68">
+        <v>2</v>
+      </c>
+      <c r="L68">
+        <v>0</v>
+      </c>
+      <c r="M68">
+        <v>3</v>
+      </c>
+      <c r="N68">
+        <v>3</v>
+      </c>
+      <c r="O68" t="s">
+        <v>97</v>
+      </c>
+      <c r="P68" t="s">
+        <v>170</v>
+      </c>
+      <c r="Q68">
+        <v>2.8</v>
+      </c>
+      <c r="R68">
+        <v>1.9</v>
+      </c>
+      <c r="S68">
+        <v>3.85</v>
+      </c>
+      <c r="T68">
+        <v>1.53</v>
+      </c>
+      <c r="U68">
+        <v>2.4</v>
+      </c>
+      <c r="V68">
+        <v>3.3</v>
+      </c>
+      <c r="W68">
+        <v>1.29</v>
+      </c>
+      <c r="X68">
+        <v>8.5</v>
+      </c>
+      <c r="Y68">
+        <v>1.04</v>
+      </c>
+      <c r="Z68">
+        <v>2.2</v>
+      </c>
+      <c r="AA68">
+        <v>2.95</v>
+      </c>
+      <c r="AB68">
+        <v>3.35</v>
+      </c>
+      <c r="AC68">
+        <v>1.09</v>
+      </c>
+      <c r="AD68">
+        <v>7.5</v>
+      </c>
+      <c r="AE68">
+        <v>1.46</v>
+      </c>
+      <c r="AF68">
+        <v>2.63</v>
+      </c>
+      <c r="AG68">
+        <v>2.4</v>
+      </c>
+      <c r="AH68">
+        <v>1.55</v>
+      </c>
+      <c r="AI68">
+        <v>2</v>
+      </c>
+      <c r="AJ68">
+        <v>1.83</v>
+      </c>
+      <c r="AK68">
+        <v>1.35</v>
+      </c>
+      <c r="AL68">
+        <v>1.34</v>
+      </c>
+      <c r="AM68">
+        <v>1.73</v>
+      </c>
+      <c r="AN68">
+        <v>0.67</v>
+      </c>
+      <c r="AO68">
+        <v>0</v>
+      </c>
+      <c r="AP68">
+        <v>0.5</v>
+      </c>
+      <c r="AQ68">
+        <v>0.75</v>
+      </c>
+      <c r="AR68">
+        <v>1.28</v>
+      </c>
+      <c r="AS68">
+        <v>1.28</v>
+      </c>
+      <c r="AT68">
+        <v>2.56</v>
+      </c>
+      <c r="AU68">
+        <v>4</v>
+      </c>
+      <c r="AV68">
+        <v>5</v>
+      </c>
+      <c r="AW68">
+        <v>7</v>
+      </c>
+      <c r="AX68">
+        <v>8</v>
+      </c>
+      <c r="AY68">
+        <v>14</v>
+      </c>
+      <c r="AZ68">
+        <v>17</v>
+      </c>
+      <c r="BA68">
+        <v>7</v>
+      </c>
+      <c r="BB68">
+        <v>6</v>
+      </c>
+      <c r="BC68">
+        <v>13</v>
+      </c>
+      <c r="BD68">
+        <v>1.9</v>
+      </c>
+      <c r="BE68">
+        <v>7.6</v>
+      </c>
+      <c r="BF68">
+        <v>2.38</v>
+      </c>
+      <c r="BG68">
+        <v>1.24</v>
+      </c>
+      <c r="BH68">
+        <v>3.88</v>
+      </c>
+      <c r="BI68">
+        <v>1.39</v>
+      </c>
+      <c r="BJ68">
+        <v>2.77</v>
+      </c>
+      <c r="BK68">
+        <v>1.85</v>
+      </c>
+      <c r="BL68">
+        <v>2</v>
+      </c>
+      <c r="BM68">
+        <v>2.03</v>
+      </c>
+      <c r="BN68">
+        <v>1.74</v>
+      </c>
+      <c r="BO68">
+        <v>2.54</v>
+      </c>
+      <c r="BP68">
+        <v>1.5</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Brazil Serie B_2025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Brazil Serie B_2025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="470" uniqueCount="171">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="476" uniqueCount="172">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -437,6 +437,9 @@
   </si>
   <si>
     <t>['3', '48']</t>
+  </si>
+  <si>
+    <t>['8']</t>
   </si>
   <si>
     <t>['33', '72']</t>
@@ -888,7 +891,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP68"/>
+  <dimension ref="A1:BP69"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1353,7 +1356,7 @@
         <v>91</v>
       </c>
       <c r="P3" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="Q3">
         <v>3.5</v>
@@ -1559,7 +1562,7 @@
         <v>92</v>
       </c>
       <c r="P4" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="Q4">
         <v>2.5</v>
@@ -2383,7 +2386,7 @@
         <v>96</v>
       </c>
       <c r="P8" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="Q8">
         <v>3</v>
@@ -3001,7 +3004,7 @@
         <v>99</v>
       </c>
       <c r="P11" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="Q11">
         <v>2.38</v>
@@ -3207,7 +3210,7 @@
         <v>100</v>
       </c>
       <c r="P12" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="Q12">
         <v>2.51</v>
@@ -3413,7 +3416,7 @@
         <v>101</v>
       </c>
       <c r="P13" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="Q13">
         <v>2.8</v>
@@ -3619,7 +3622,7 @@
         <v>102</v>
       </c>
       <c r="P14" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="Q14">
         <v>3.3</v>
@@ -4109,7 +4112,7 @@
         <v>0</v>
       </c>
       <c r="AP16">
-        <v>0.67</v>
+        <v>0.75</v>
       </c>
       <c r="AQ16">
         <v>0.75</v>
@@ -4443,7 +4446,7 @@
         <v>105</v>
       </c>
       <c r="P18" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="Q18">
         <v>3.22</v>
@@ -4649,7 +4652,7 @@
         <v>106</v>
       </c>
       <c r="P19" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="Q19">
         <v>2.55</v>
@@ -4730,7 +4733,7 @@
         <v>1</v>
       </c>
       <c r="AQ19">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="AR19">
         <v>0</v>
@@ -5061,7 +5064,7 @@
         <v>92</v>
       </c>
       <c r="P21" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="Q21">
         <v>3.5</v>
@@ -5267,7 +5270,7 @@
         <v>108</v>
       </c>
       <c r="P22" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="Q22">
         <v>3.5</v>
@@ -5473,7 +5476,7 @@
         <v>97</v>
       </c>
       <c r="P23" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="Q23">
         <v>2.33</v>
@@ -6091,7 +6094,7 @@
         <v>109</v>
       </c>
       <c r="P26" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="Q26">
         <v>2.38</v>
@@ -6709,7 +6712,7 @@
         <v>112</v>
       </c>
       <c r="P29" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="Q29">
         <v>3.1</v>
@@ -7121,7 +7124,7 @@
         <v>114</v>
       </c>
       <c r="P31" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="Q31">
         <v>2.2</v>
@@ -8026,7 +8029,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ35">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="AR35">
         <v>1.66</v>
@@ -8357,7 +8360,7 @@
         <v>97</v>
       </c>
       <c r="P37" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="Q37">
         <v>3.6</v>
@@ -8435,7 +8438,7 @@
         <v>1</v>
       </c>
       <c r="AP37">
-        <v>0.67</v>
+        <v>0.75</v>
       </c>
       <c r="AQ37">
         <v>1.33</v>
@@ -8563,7 +8566,7 @@
         <v>119</v>
       </c>
       <c r="P38" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="Q38">
         <v>2.58</v>
@@ -9387,7 +9390,7 @@
         <v>122</v>
       </c>
       <c r="P42" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="Q42">
         <v>3.1</v>
@@ -9593,7 +9596,7 @@
         <v>123</v>
       </c>
       <c r="P43" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="Q43">
         <v>2.35</v>
@@ -10417,7 +10420,7 @@
         <v>126</v>
       </c>
       <c r="P47" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="Q47">
         <v>2.51</v>
@@ -10623,7 +10626,7 @@
         <v>95</v>
       </c>
       <c r="P48" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="Q48">
         <v>3.08</v>
@@ -10701,7 +10704,7 @@
         <v>0.5</v>
       </c>
       <c r="AP48">
-        <v>0.67</v>
+        <v>0.75</v>
       </c>
       <c r="AQ48">
         <v>0.75</v>
@@ -10829,7 +10832,7 @@
         <v>127</v>
       </c>
       <c r="P49" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="Q49">
         <v>2.75</v>
@@ -10910,7 +10913,7 @@
         <v>0.33</v>
       </c>
       <c r="AQ49">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="AR49">
         <v>1.47</v>
@@ -11241,7 +11244,7 @@
         <v>97</v>
       </c>
       <c r="P51" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="Q51">
         <v>4.2</v>
@@ -11447,7 +11450,7 @@
         <v>129</v>
       </c>
       <c r="P52" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="Q52">
         <v>3.5</v>
@@ -12271,7 +12274,7 @@
         <v>132</v>
       </c>
       <c r="P56" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="Q56">
         <v>3.22</v>
@@ -12477,7 +12480,7 @@
         <v>133</v>
       </c>
       <c r="P57" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="Q57">
         <v>1.97</v>
@@ -12889,7 +12892,7 @@
         <v>135</v>
       </c>
       <c r="P59" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="Q59">
         <v>2.88</v>
@@ -13301,7 +13304,7 @@
         <v>97</v>
       </c>
       <c r="P61" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="Q61">
         <v>2.85</v>
@@ -13507,7 +13510,7 @@
         <v>137</v>
       </c>
       <c r="P62" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="Q62">
         <v>2.13</v>
@@ -14331,7 +14334,7 @@
         <v>139</v>
       </c>
       <c r="P66" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="Q66">
         <v>2.6</v>
@@ -14537,7 +14540,7 @@
         <v>140</v>
       </c>
       <c r="P67" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="Q67">
         <v>2.35</v>
@@ -14743,7 +14746,7 @@
         <v>97</v>
       </c>
       <c r="P68" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="Q68">
         <v>2.8</v>
@@ -14900,6 +14903,212 @@
       </c>
       <c r="BP68">
         <v>1.5</v>
+      </c>
+    </row>
+    <row r="69" spans="1:68">
+      <c r="A69" s="1">
+        <v>68</v>
+      </c>
+      <c r="B69">
+        <v>7841098</v>
+      </c>
+      <c r="C69" t="s">
+        <v>68</v>
+      </c>
+      <c r="D69" t="s">
+        <v>69</v>
+      </c>
+      <c r="E69" s="2">
+        <v>45789.875</v>
+      </c>
+      <c r="F69">
+        <v>7</v>
+      </c>
+      <c r="G69" t="s">
+        <v>84</v>
+      </c>
+      <c r="H69" t="s">
+        <v>74</v>
+      </c>
+      <c r="I69">
+        <v>1</v>
+      </c>
+      <c r="J69">
+        <v>0</v>
+      </c>
+      <c r="K69">
+        <v>1</v>
+      </c>
+      <c r="L69">
+        <v>1</v>
+      </c>
+      <c r="M69">
+        <v>1</v>
+      </c>
+      <c r="N69">
+        <v>2</v>
+      </c>
+      <c r="O69" t="s">
+        <v>141</v>
+      </c>
+      <c r="P69" t="s">
+        <v>168</v>
+      </c>
+      <c r="Q69">
+        <v>3</v>
+      </c>
+      <c r="R69">
+        <v>1.87</v>
+      </c>
+      <c r="S69">
+        <v>3.9</v>
+      </c>
+      <c r="T69">
+        <v>1.55</v>
+      </c>
+      <c r="U69">
+        <v>2.35</v>
+      </c>
+      <c r="V69">
+        <v>3.42</v>
+      </c>
+      <c r="W69">
+        <v>1.25</v>
+      </c>
+      <c r="X69">
+        <v>11</v>
+      </c>
+      <c r="Y69">
+        <v>1.04</v>
+      </c>
+      <c r="Z69">
+        <v>2.3</v>
+      </c>
+      <c r="AA69">
+        <v>2.91</v>
+      </c>
+      <c r="AB69">
+        <v>3.25</v>
+      </c>
+      <c r="AC69">
+        <v>1.12</v>
+      </c>
+      <c r="AD69">
+        <v>6.75</v>
+      </c>
+      <c r="AE69">
+        <v>1.5</v>
+      </c>
+      <c r="AF69">
+        <v>2.55</v>
+      </c>
+      <c r="AG69">
+        <v>2.5</v>
+      </c>
+      <c r="AH69">
+        <v>1.53</v>
+      </c>
+      <c r="AI69">
+        <v>2</v>
+      </c>
+      <c r="AJ69">
+        <v>1.68</v>
+      </c>
+      <c r="AK69">
+        <v>1.33</v>
+      </c>
+      <c r="AL69">
+        <v>1.34</v>
+      </c>
+      <c r="AM69">
+        <v>1.53</v>
+      </c>
+      <c r="AN69">
+        <v>0.67</v>
+      </c>
+      <c r="AO69">
+        <v>1.33</v>
+      </c>
+      <c r="AP69">
+        <v>0.75</v>
+      </c>
+      <c r="AQ69">
+        <v>1.25</v>
+      </c>
+      <c r="AR69">
+        <v>1.87</v>
+      </c>
+      <c r="AS69">
+        <v>1.74</v>
+      </c>
+      <c r="AT69">
+        <v>3.61</v>
+      </c>
+      <c r="AU69">
+        <v>6</v>
+      </c>
+      <c r="AV69">
+        <v>5</v>
+      </c>
+      <c r="AW69">
+        <v>10</v>
+      </c>
+      <c r="AX69">
+        <v>10</v>
+      </c>
+      <c r="AY69">
+        <v>21</v>
+      </c>
+      <c r="AZ69">
+        <v>17</v>
+      </c>
+      <c r="BA69">
+        <v>7</v>
+      </c>
+      <c r="BB69">
+        <v>17</v>
+      </c>
+      <c r="BC69">
+        <v>24</v>
+      </c>
+      <c r="BD69">
+        <v>1.65</v>
+      </c>
+      <c r="BE69">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="BF69">
+        <v>2.4</v>
+      </c>
+      <c r="BG69">
+        <v>1.22</v>
+      </c>
+      <c r="BH69">
+        <v>3.8</v>
+      </c>
+      <c r="BI69">
+        <v>1.38</v>
+      </c>
+      <c r="BJ69">
+        <v>2.8</v>
+      </c>
+      <c r="BK69">
+        <v>1.65</v>
+      </c>
+      <c r="BL69">
+        <v>2.1</v>
+      </c>
+      <c r="BM69">
+        <v>2</v>
+      </c>
+      <c r="BN69">
+        <v>1.73</v>
+      </c>
+      <c r="BO69">
+        <v>2.5</v>
+      </c>
+      <c r="BP69">
+        <v>1.48</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Brazil Serie B_2025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Brazil Serie B_2025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="476" uniqueCount="172">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="488" uniqueCount="175">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -442,6 +442,12 @@
     <t>['8']</t>
   </si>
   <si>
+    <t>['34', '80']</t>
+  </si>
+  <si>
+    <t>['86', '89']</t>
+  </si>
+  <si>
     <t>['33', '72']</t>
   </si>
   <si>
@@ -530,6 +536,9 @@
   </si>
   <si>
     <t>['16', '21', '79']</t>
+  </si>
+  <si>
+    <t>['58', '70']</t>
   </si>
 </sst>
 </file>
@@ -891,7 +900,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP69"/>
+  <dimension ref="A1:BP71"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1356,7 +1365,7 @@
         <v>91</v>
       </c>
       <c r="P3" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="Q3">
         <v>3.5</v>
@@ -1562,7 +1571,7 @@
         <v>92</v>
       </c>
       <c r="P4" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="Q4">
         <v>2.5</v>
@@ -1849,7 +1858,7 @@
         <v>2.33</v>
       </c>
       <c r="AQ5">
-        <v>1.33</v>
+        <v>1</v>
       </c>
       <c r="AR5">
         <v>0</v>
@@ -2258,7 +2267,7 @@
         <v>0</v>
       </c>
       <c r="AP7">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="AQ7">
         <v>1</v>
@@ -2386,7 +2395,7 @@
         <v>96</v>
       </c>
       <c r="P8" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="Q8">
         <v>3</v>
@@ -3004,7 +3013,7 @@
         <v>99</v>
       </c>
       <c r="P11" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="Q11">
         <v>2.38</v>
@@ -3210,7 +3219,7 @@
         <v>100</v>
       </c>
       <c r="P12" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="Q12">
         <v>2.51</v>
@@ -3416,7 +3425,7 @@
         <v>101</v>
       </c>
       <c r="P13" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="Q13">
         <v>2.8</v>
@@ -3622,7 +3631,7 @@
         <v>102</v>
       </c>
       <c r="P14" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="Q14">
         <v>3.3</v>
@@ -3909,7 +3918,7 @@
         <v>3</v>
       </c>
       <c r="AQ15">
-        <v>0.33</v>
+        <v>0.5</v>
       </c>
       <c r="AR15">
         <v>0</v>
@@ -4446,7 +4455,7 @@
         <v>105</v>
       </c>
       <c r="P18" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="Q18">
         <v>3.22</v>
@@ -4652,7 +4661,7 @@
         <v>106</v>
       </c>
       <c r="P19" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="Q19">
         <v>2.55</v>
@@ -5064,7 +5073,7 @@
         <v>92</v>
       </c>
       <c r="P21" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="Q21">
         <v>3.5</v>
@@ -5270,7 +5279,7 @@
         <v>108</v>
       </c>
       <c r="P22" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="Q22">
         <v>3.5</v>
@@ -5476,7 +5485,7 @@
         <v>97</v>
       </c>
       <c r="P23" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="Q23">
         <v>2.33</v>
@@ -6094,7 +6103,7 @@
         <v>109</v>
       </c>
       <c r="P26" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="Q26">
         <v>2.38</v>
@@ -6175,7 +6184,7 @@
         <v>2.5</v>
       </c>
       <c r="AQ26">
-        <v>1.33</v>
+        <v>1</v>
       </c>
       <c r="AR26">
         <v>1.49</v>
@@ -6712,7 +6721,7 @@
         <v>112</v>
       </c>
       <c r="P29" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="Q29">
         <v>3.1</v>
@@ -7124,7 +7133,7 @@
         <v>114</v>
       </c>
       <c r="P31" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="Q31">
         <v>2.2</v>
@@ -7202,7 +7211,7 @@
         <v>0</v>
       </c>
       <c r="AP31">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="AQ31">
         <v>0</v>
@@ -7411,7 +7420,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ32">
-        <v>0.33</v>
+        <v>0.5</v>
       </c>
       <c r="AR32">
         <v>1.17</v>
@@ -8232,7 +8241,7 @@
         <v>3</v>
       </c>
       <c r="AP36">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="AQ36">
         <v>2</v>
@@ -8360,7 +8369,7 @@
         <v>97</v>
       </c>
       <c r="P37" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="Q37">
         <v>3.6</v>
@@ -8566,7 +8575,7 @@
         <v>119</v>
       </c>
       <c r="P38" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="Q38">
         <v>2.58</v>
@@ -9390,7 +9399,7 @@
         <v>122</v>
       </c>
       <c r="P42" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="Q42">
         <v>3.1</v>
@@ -9596,7 +9605,7 @@
         <v>123</v>
       </c>
       <c r="P43" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="Q43">
         <v>2.35</v>
@@ -10420,7 +10429,7 @@
         <v>126</v>
       </c>
       <c r="P47" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="Q47">
         <v>2.51</v>
@@ -10626,7 +10635,7 @@
         <v>95</v>
       </c>
       <c r="P48" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="Q48">
         <v>3.08</v>
@@ -10832,7 +10841,7 @@
         <v>127</v>
       </c>
       <c r="P49" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="Q49">
         <v>2.75</v>
@@ -11244,7 +11253,7 @@
         <v>97</v>
       </c>
       <c r="P51" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="Q51">
         <v>4.2</v>
@@ -11450,7 +11459,7 @@
         <v>129</v>
       </c>
       <c r="P52" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="Q52">
         <v>3.5</v>
@@ -11943,7 +11952,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ54">
-        <v>0.33</v>
+        <v>0.5</v>
       </c>
       <c r="AR54">
         <v>1.72</v>
@@ -12274,7 +12283,7 @@
         <v>132</v>
       </c>
       <c r="P56" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="Q56">
         <v>3.22</v>
@@ -12480,7 +12489,7 @@
         <v>133</v>
       </c>
       <c r="P57" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="Q57">
         <v>1.97</v>
@@ -12892,7 +12901,7 @@
         <v>135</v>
       </c>
       <c r="P59" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="Q59">
         <v>2.88</v>
@@ -13304,7 +13313,7 @@
         <v>97</v>
       </c>
       <c r="P61" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="Q61">
         <v>2.85</v>
@@ -13385,7 +13394,7 @@
         <v>1</v>
       </c>
       <c r="AQ61">
-        <v>1.33</v>
+        <v>1</v>
       </c>
       <c r="AR61">
         <v>1.76</v>
@@ -13510,7 +13519,7 @@
         <v>137</v>
       </c>
       <c r="P62" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="Q62">
         <v>2.13</v>
@@ -14334,7 +14343,7 @@
         <v>139</v>
       </c>
       <c r="P66" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="Q66">
         <v>2.6</v>
@@ -14540,7 +14549,7 @@
         <v>140</v>
       </c>
       <c r="P67" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="Q67">
         <v>2.35</v>
@@ -14746,7 +14755,7 @@
         <v>97</v>
       </c>
       <c r="P68" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="Q68">
         <v>2.8</v>
@@ -14952,7 +14961,7 @@
         <v>141</v>
       </c>
       <c r="P69" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="Q69">
         <v>3</v>
@@ -15109,6 +15118,418 @@
       </c>
       <c r="BP69">
         <v>1.48</v>
+      </c>
+    </row>
+    <row r="70" spans="1:68">
+      <c r="A70" s="1">
+        <v>69</v>
+      </c>
+      <c r="B70">
+        <v>7841095</v>
+      </c>
+      <c r="C70" t="s">
+        <v>68</v>
+      </c>
+      <c r="D70" t="s">
+        <v>69</v>
+      </c>
+      <c r="E70" s="2">
+        <v>45791.79166666666</v>
+      </c>
+      <c r="F70">
+        <v>7</v>
+      </c>
+      <c r="G70" t="s">
+        <v>88</v>
+      </c>
+      <c r="H70" t="s">
+        <v>83</v>
+      </c>
+      <c r="I70">
+        <v>1</v>
+      </c>
+      <c r="J70">
+        <v>0</v>
+      </c>
+      <c r="K70">
+        <v>1</v>
+      </c>
+      <c r="L70">
+        <v>2</v>
+      </c>
+      <c r="M70">
+        <v>0</v>
+      </c>
+      <c r="N70">
+        <v>2</v>
+      </c>
+      <c r="O70" t="s">
+        <v>142</v>
+      </c>
+      <c r="P70" t="s">
+        <v>97</v>
+      </c>
+      <c r="Q70">
+        <v>3.22</v>
+      </c>
+      <c r="R70">
+        <v>1.77</v>
+      </c>
+      <c r="S70">
+        <v>4.44</v>
+      </c>
+      <c r="T70">
+        <v>1.64</v>
+      </c>
+      <c r="U70">
+        <v>2.28</v>
+      </c>
+      <c r="V70">
+        <v>3.6</v>
+      </c>
+      <c r="W70">
+        <v>1.22</v>
+      </c>
+      <c r="X70">
+        <v>13</v>
+      </c>
+      <c r="Y70">
+        <v>1</v>
+      </c>
+      <c r="Z70">
+        <v>2.43</v>
+      </c>
+      <c r="AA70">
+        <v>2.99</v>
+      </c>
+      <c r="AB70">
+        <v>3.25</v>
+      </c>
+      <c r="AC70">
+        <v>1.08</v>
+      </c>
+      <c r="AD70">
+        <v>5.5</v>
+      </c>
+      <c r="AE70">
+        <v>1.55</v>
+      </c>
+      <c r="AF70">
+        <v>2.15</v>
+      </c>
+      <c r="AG70">
+        <v>2.9</v>
+      </c>
+      <c r="AH70">
+        <v>1.34</v>
+      </c>
+      <c r="AI70">
+        <v>2.3</v>
+      </c>
+      <c r="AJ70">
+        <v>1.57</v>
+      </c>
+      <c r="AK70">
+        <v>1.4</v>
+      </c>
+      <c r="AL70">
+        <v>1.34</v>
+      </c>
+      <c r="AM70">
+        <v>1.53</v>
+      </c>
+      <c r="AN70">
+        <v>3</v>
+      </c>
+      <c r="AO70">
+        <v>1.33</v>
+      </c>
+      <c r="AP70">
+        <v>3</v>
+      </c>
+      <c r="AQ70">
+        <v>1</v>
+      </c>
+      <c r="AR70">
+        <v>1.26</v>
+      </c>
+      <c r="AS70">
+        <v>1.06</v>
+      </c>
+      <c r="AT70">
+        <v>2.32</v>
+      </c>
+      <c r="AU70">
+        <v>5</v>
+      </c>
+      <c r="AV70">
+        <v>6</v>
+      </c>
+      <c r="AW70">
+        <v>6</v>
+      </c>
+      <c r="AX70">
+        <v>16</v>
+      </c>
+      <c r="AY70">
+        <v>12</v>
+      </c>
+      <c r="AZ70">
+        <v>28</v>
+      </c>
+      <c r="BA70">
+        <v>5</v>
+      </c>
+      <c r="BB70">
+        <v>9</v>
+      </c>
+      <c r="BC70">
+        <v>14</v>
+      </c>
+      <c r="BD70">
+        <v>1.67</v>
+      </c>
+      <c r="BE70">
+        <v>6.85</v>
+      </c>
+      <c r="BF70">
+        <v>2.89</v>
+      </c>
+      <c r="BG70">
+        <v>1.17</v>
+      </c>
+      <c r="BH70">
+        <v>4.15</v>
+      </c>
+      <c r="BI70">
+        <v>1.34</v>
+      </c>
+      <c r="BJ70">
+        <v>3.08</v>
+      </c>
+      <c r="BK70">
+        <v>1.72</v>
+      </c>
+      <c r="BL70">
+        <v>2.28</v>
+      </c>
+      <c r="BM70">
+        <v>1.93</v>
+      </c>
+      <c r="BN70">
+        <v>1.82</v>
+      </c>
+      <c r="BO70">
+        <v>2.38</v>
+      </c>
+      <c r="BP70">
+        <v>1.51</v>
+      </c>
+    </row>
+    <row r="71" spans="1:68">
+      <c r="A71" s="1">
+        <v>70</v>
+      </c>
+      <c r="B71">
+        <v>7841099</v>
+      </c>
+      <c r="C71" t="s">
+        <v>68</v>
+      </c>
+      <c r="D71" t="s">
+        <v>69</v>
+      </c>
+      <c r="E71" s="2">
+        <v>45791.8125</v>
+      </c>
+      <c r="F71">
+        <v>7</v>
+      </c>
+      <c r="G71" t="s">
+        <v>75</v>
+      </c>
+      <c r="H71" t="s">
+        <v>71</v>
+      </c>
+      <c r="I71">
+        <v>0</v>
+      </c>
+      <c r="J71">
+        <v>0</v>
+      </c>
+      <c r="K71">
+        <v>0</v>
+      </c>
+      <c r="L71">
+        <v>2</v>
+      </c>
+      <c r="M71">
+        <v>2</v>
+      </c>
+      <c r="N71">
+        <v>4</v>
+      </c>
+      <c r="O71" t="s">
+        <v>143</v>
+      </c>
+      <c r="P71" t="s">
+        <v>174</v>
+      </c>
+      <c r="Q71">
+        <v>2.13</v>
+      </c>
+      <c r="R71">
+        <v>2.06</v>
+      </c>
+      <c r="S71">
+        <v>5.32</v>
+      </c>
+      <c r="T71">
+        <v>1.46</v>
+      </c>
+      <c r="U71">
+        <v>2.66</v>
+      </c>
+      <c r="V71">
+        <v>2.95</v>
+      </c>
+      <c r="W71">
+        <v>1.35</v>
+      </c>
+      <c r="X71">
+        <v>8.5</v>
+      </c>
+      <c r="Y71">
+        <v>1.01</v>
+      </c>
+      <c r="Z71">
+        <v>1.57</v>
+      </c>
+      <c r="AA71">
+        <v>3.75</v>
+      </c>
+      <c r="AB71">
+        <v>6.67</v>
+      </c>
+      <c r="AC71">
+        <v>1.08</v>
+      </c>
+      <c r="AD71">
+        <v>6.5</v>
+      </c>
+      <c r="AE71">
+        <v>1.3</v>
+      </c>
+      <c r="AF71">
+        <v>3.2</v>
+      </c>
+      <c r="AG71">
+        <v>2.11</v>
+      </c>
+      <c r="AH71">
+        <v>1.73</v>
+      </c>
+      <c r="AI71">
+        <v>2.05</v>
+      </c>
+      <c r="AJ71">
+        <v>1.72</v>
+      </c>
+      <c r="AK71">
+        <v>1.25</v>
+      </c>
+      <c r="AL71">
+        <v>1.26</v>
+      </c>
+      <c r="AM71">
+        <v>2.2</v>
+      </c>
+      <c r="AN71">
+        <v>3</v>
+      </c>
+      <c r="AO71">
+        <v>0.33</v>
+      </c>
+      <c r="AP71">
+        <v>2.5</v>
+      </c>
+      <c r="AQ71">
+        <v>0.5</v>
+      </c>
+      <c r="AR71">
+        <v>2.01</v>
+      </c>
+      <c r="AS71">
+        <v>1.1</v>
+      </c>
+      <c r="AT71">
+        <v>3.11</v>
+      </c>
+      <c r="AU71">
+        <v>5</v>
+      </c>
+      <c r="AV71">
+        <v>6</v>
+      </c>
+      <c r="AW71">
+        <v>11</v>
+      </c>
+      <c r="AX71">
+        <v>5</v>
+      </c>
+      <c r="AY71">
+        <v>21</v>
+      </c>
+      <c r="AZ71">
+        <v>11</v>
+      </c>
+      <c r="BA71">
+        <v>7</v>
+      </c>
+      <c r="BB71">
+        <v>5</v>
+      </c>
+      <c r="BC71">
+        <v>12</v>
+      </c>
+      <c r="BD71">
+        <v>1.54</v>
+      </c>
+      <c r="BE71">
+        <v>6.75</v>
+      </c>
+      <c r="BF71">
+        <v>3.1</v>
+      </c>
+      <c r="BG71">
+        <v>1.15</v>
+      </c>
+      <c r="BH71">
+        <v>4.45</v>
+      </c>
+      <c r="BI71">
+        <v>1.26</v>
+      </c>
+      <c r="BJ71">
+        <v>3.22</v>
+      </c>
+      <c r="BK71">
+        <v>1.65</v>
+      </c>
+      <c r="BL71">
+        <v>2.37</v>
+      </c>
+      <c r="BM71">
+        <v>1.88</v>
+      </c>
+      <c r="BN71">
+        <v>1.85</v>
+      </c>
+      <c r="BO71">
+        <v>2.34</v>
+      </c>
+      <c r="BP71">
+        <v>1.5</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Brazil Serie B_2025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Brazil Serie B_2025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="488" uniqueCount="175">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="494" uniqueCount="176">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -446,6 +446,9 @@
   </si>
   <si>
     <t>['86', '89']</t>
+  </si>
+  <si>
+    <t>['40']</t>
   </si>
   <si>
     <t>['33', '72']</t>
@@ -900,7 +903,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP71"/>
+  <dimension ref="A1:BP72"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1365,7 +1368,7 @@
         <v>91</v>
       </c>
       <c r="P3" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="Q3">
         <v>3.5</v>
@@ -1571,7 +1574,7 @@
         <v>92</v>
       </c>
       <c r="P4" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="Q4">
         <v>2.5</v>
@@ -2395,7 +2398,7 @@
         <v>96</v>
       </c>
       <c r="P8" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="Q8">
         <v>3</v>
@@ -2473,7 +2476,7 @@
         <v>0</v>
       </c>
       <c r="AP8">
-        <v>2.33</v>
+        <v>2</v>
       </c>
       <c r="AQ8">
         <v>1</v>
@@ -3013,7 +3016,7 @@
         <v>99</v>
       </c>
       <c r="P11" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="Q11">
         <v>2.38</v>
@@ -3219,7 +3222,7 @@
         <v>100</v>
       </c>
       <c r="P12" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="Q12">
         <v>2.51</v>
@@ -3425,7 +3428,7 @@
         <v>101</v>
       </c>
       <c r="P13" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="Q13">
         <v>2.8</v>
@@ -3506,7 +3509,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ13">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="AR13">
         <v>0</v>
@@ -3631,7 +3634,7 @@
         <v>102</v>
       </c>
       <c r="P14" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="Q14">
         <v>3.3</v>
@@ -4455,7 +4458,7 @@
         <v>105</v>
       </c>
       <c r="P18" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="Q18">
         <v>3.22</v>
@@ -4661,7 +4664,7 @@
         <v>106</v>
       </c>
       <c r="P19" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="Q19">
         <v>2.55</v>
@@ -5073,7 +5076,7 @@
         <v>92</v>
       </c>
       <c r="P21" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="Q21">
         <v>3.5</v>
@@ -5279,7 +5282,7 @@
         <v>108</v>
       </c>
       <c r="P22" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="Q22">
         <v>3.5</v>
@@ -5485,7 +5488,7 @@
         <v>97</v>
       </c>
       <c r="P23" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="Q23">
         <v>2.33</v>
@@ -6103,7 +6106,7 @@
         <v>109</v>
       </c>
       <c r="P26" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="Q26">
         <v>2.38</v>
@@ -6721,7 +6724,7 @@
         <v>112</v>
       </c>
       <c r="P29" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="Q29">
         <v>3.1</v>
@@ -7005,7 +7008,7 @@
         <v>1</v>
       </c>
       <c r="AP30">
-        <v>2.33</v>
+        <v>2</v>
       </c>
       <c r="AQ30">
         <v>0.75</v>
@@ -7133,7 +7136,7 @@
         <v>114</v>
       </c>
       <c r="P31" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="Q31">
         <v>2.2</v>
@@ -8369,7 +8372,7 @@
         <v>97</v>
       </c>
       <c r="P37" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="Q37">
         <v>3.6</v>
@@ -8450,7 +8453,7 @@
         <v>0.75</v>
       </c>
       <c r="AQ37">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="AR37">
         <v>2.41</v>
@@ -8575,7 +8578,7 @@
         <v>119</v>
       </c>
       <c r="P38" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="Q38">
         <v>2.58</v>
@@ -9399,7 +9402,7 @@
         <v>122</v>
       </c>
       <c r="P42" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="Q42">
         <v>3.1</v>
@@ -9605,7 +9608,7 @@
         <v>123</v>
       </c>
       <c r="P43" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="Q43">
         <v>2.35</v>
@@ -10429,7 +10432,7 @@
         <v>126</v>
       </c>
       <c r="P47" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="Q47">
         <v>2.51</v>
@@ -10635,7 +10638,7 @@
         <v>95</v>
       </c>
       <c r="P48" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="Q48">
         <v>3.08</v>
@@ -10841,7 +10844,7 @@
         <v>127</v>
       </c>
       <c r="P49" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="Q49">
         <v>2.75</v>
@@ -11253,7 +11256,7 @@
         <v>97</v>
       </c>
       <c r="P51" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="Q51">
         <v>4.2</v>
@@ -11459,7 +11462,7 @@
         <v>129</v>
       </c>
       <c r="P52" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="Q52">
         <v>3.5</v>
@@ -11537,7 +11540,7 @@
         <v>1.5</v>
       </c>
       <c r="AP52">
-        <v>2.33</v>
+        <v>2</v>
       </c>
       <c r="AQ52">
         <v>0.75</v>
@@ -12283,7 +12286,7 @@
         <v>132</v>
       </c>
       <c r="P56" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="Q56">
         <v>3.22</v>
@@ -12489,7 +12492,7 @@
         <v>133</v>
       </c>
       <c r="P57" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="Q57">
         <v>1.97</v>
@@ -12901,7 +12904,7 @@
         <v>135</v>
       </c>
       <c r="P59" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="Q59">
         <v>2.88</v>
@@ -12982,7 +12985,7 @@
         <v>2.5</v>
       </c>
       <c r="AQ59">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="AR59">
         <v>1.57</v>
@@ -13313,7 +13316,7 @@
         <v>97</v>
       </c>
       <c r="P61" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="Q61">
         <v>2.85</v>
@@ -13519,7 +13522,7 @@
         <v>137</v>
       </c>
       <c r="P62" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="Q62">
         <v>2.13</v>
@@ -14343,7 +14346,7 @@
         <v>139</v>
       </c>
       <c r="P66" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="Q66">
         <v>2.6</v>
@@ -14549,7 +14552,7 @@
         <v>140</v>
       </c>
       <c r="P67" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="Q67">
         <v>2.35</v>
@@ -14755,7 +14758,7 @@
         <v>97</v>
       </c>
       <c r="P68" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="Q68">
         <v>2.8</v>
@@ -14961,7 +14964,7 @@
         <v>141</v>
       </c>
       <c r="P69" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="Q69">
         <v>3</v>
@@ -15373,7 +15376,7 @@
         <v>143</v>
       </c>
       <c r="P71" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="Q71">
         <v>2.13</v>
@@ -15530,6 +15533,212 @@
       </c>
       <c r="BP71">
         <v>1.5</v>
+      </c>
+    </row>
+    <row r="72" spans="1:68">
+      <c r="A72" s="1">
+        <v>71</v>
+      </c>
+      <c r="B72">
+        <v>7841110</v>
+      </c>
+      <c r="C72" t="s">
+        <v>68</v>
+      </c>
+      <c r="D72" t="s">
+        <v>69</v>
+      </c>
+      <c r="E72" s="2">
+        <v>45792.89930555555</v>
+      </c>
+      <c r="F72">
+        <v>8</v>
+      </c>
+      <c r="G72" t="s">
+        <v>76</v>
+      </c>
+      <c r="H72" t="s">
+        <v>78</v>
+      </c>
+      <c r="I72">
+        <v>1</v>
+      </c>
+      <c r="J72">
+        <v>1</v>
+      </c>
+      <c r="K72">
+        <v>2</v>
+      </c>
+      <c r="L72">
+        <v>1</v>
+      </c>
+      <c r="M72">
+        <v>1</v>
+      </c>
+      <c r="N72">
+        <v>2</v>
+      </c>
+      <c r="O72" t="s">
+        <v>144</v>
+      </c>
+      <c r="P72" t="s">
+        <v>134</v>
+      </c>
+      <c r="Q72">
+        <v>3.04</v>
+      </c>
+      <c r="R72">
+        <v>1.82</v>
+      </c>
+      <c r="S72">
+        <v>4.15</v>
+      </c>
+      <c r="T72">
+        <v>1.59</v>
+      </c>
+      <c r="U72">
+        <v>2.4</v>
+      </c>
+      <c r="V72">
+        <v>3.5</v>
+      </c>
+      <c r="W72">
+        <v>1.25</v>
+      </c>
+      <c r="X72">
+        <v>9.5</v>
+      </c>
+      <c r="Y72">
+        <v>1.01</v>
+      </c>
+      <c r="Z72">
+        <v>2.3</v>
+      </c>
+      <c r="AA72">
+        <v>2.8</v>
+      </c>
+      <c r="AB72">
+        <v>3.55</v>
+      </c>
+      <c r="AC72">
+        <v>1.06</v>
+      </c>
+      <c r="AD72">
+        <v>6.52</v>
+      </c>
+      <c r="AE72">
+        <v>1.53</v>
+      </c>
+      <c r="AF72">
+        <v>2.49</v>
+      </c>
+      <c r="AG72">
+        <v>2.6</v>
+      </c>
+      <c r="AH72">
+        <v>1.44</v>
+      </c>
+      <c r="AI72">
+        <v>2.1</v>
+      </c>
+      <c r="AJ72">
+        <v>1.63</v>
+      </c>
+      <c r="AK72">
+        <v>1.27</v>
+      </c>
+      <c r="AL72">
+        <v>1.35</v>
+      </c>
+      <c r="AM72">
+        <v>1.65</v>
+      </c>
+      <c r="AN72">
+        <v>2.33</v>
+      </c>
+      <c r="AO72">
+        <v>1.33</v>
+      </c>
+      <c r="AP72">
+        <v>2</v>
+      </c>
+      <c r="AQ72">
+        <v>1.25</v>
+      </c>
+      <c r="AR72">
+        <v>2.1</v>
+      </c>
+      <c r="AS72">
+        <v>1.39</v>
+      </c>
+      <c r="AT72">
+        <v>3.49</v>
+      </c>
+      <c r="AU72">
+        <v>7</v>
+      </c>
+      <c r="AV72">
+        <v>4</v>
+      </c>
+      <c r="AW72">
+        <v>11</v>
+      </c>
+      <c r="AX72">
+        <v>11</v>
+      </c>
+      <c r="AY72">
+        <v>23</v>
+      </c>
+      <c r="AZ72">
+        <v>18</v>
+      </c>
+      <c r="BA72">
+        <v>3</v>
+      </c>
+      <c r="BB72">
+        <v>10</v>
+      </c>
+      <c r="BC72">
+        <v>13</v>
+      </c>
+      <c r="BD72">
+        <v>1.88</v>
+      </c>
+      <c r="BE72">
+        <v>7.6</v>
+      </c>
+      <c r="BF72">
+        <v>2.36</v>
+      </c>
+      <c r="BG72">
+        <v>1.26</v>
+      </c>
+      <c r="BH72">
+        <v>3.62</v>
+      </c>
+      <c r="BI72">
+        <v>1.43</v>
+      </c>
+      <c r="BJ72">
+        <v>2.62</v>
+      </c>
+      <c r="BK72">
+        <v>1.63</v>
+      </c>
+      <c r="BL72">
+        <v>2.06</v>
+      </c>
+      <c r="BM72">
+        <v>2.14</v>
+      </c>
+      <c r="BN72">
+        <v>1.68</v>
+      </c>
+      <c r="BO72">
+        <v>2.67</v>
+      </c>
+      <c r="BP72">
+        <v>1.39</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Brazil Serie B_2025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Brazil Serie B_2025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="494" uniqueCount="176">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="500" uniqueCount="177">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -449,6 +449,9 @@
   </si>
   <si>
     <t>['40']</t>
+  </si>
+  <si>
+    <t>['8', '77']</t>
   </si>
   <si>
     <t>['33', '72']</t>
@@ -903,7 +906,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP72"/>
+  <dimension ref="A1:BP73"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1368,7 +1371,7 @@
         <v>91</v>
       </c>
       <c r="P3" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="Q3">
         <v>3.5</v>
@@ -1574,7 +1577,7 @@
         <v>92</v>
       </c>
       <c r="P4" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="Q4">
         <v>2.5</v>
@@ -2398,7 +2401,7 @@
         <v>96</v>
       </c>
       <c r="P8" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="Q8">
         <v>3</v>
@@ -2685,7 +2688,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ9">
-        <v>1.67</v>
+        <v>1.25</v>
       </c>
       <c r="AR9">
         <v>0</v>
@@ -3016,7 +3019,7 @@
         <v>99</v>
       </c>
       <c r="P11" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="Q11">
         <v>2.38</v>
@@ -3222,7 +3225,7 @@
         <v>100</v>
       </c>
       <c r="P12" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="Q12">
         <v>2.51</v>
@@ -3428,7 +3431,7 @@
         <v>101</v>
       </c>
       <c r="P13" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="Q13">
         <v>2.8</v>
@@ -3634,7 +3637,7 @@
         <v>102</v>
       </c>
       <c r="P14" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="Q14">
         <v>3.3</v>
@@ -3712,7 +3715,7 @@
         <v>0</v>
       </c>
       <c r="AP14">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="AQ14">
         <v>0.75</v>
@@ -4458,7 +4461,7 @@
         <v>105</v>
       </c>
       <c r="P18" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="Q18">
         <v>3.22</v>
@@ -4664,7 +4667,7 @@
         <v>106</v>
       </c>
       <c r="P19" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="Q19">
         <v>2.55</v>
@@ -5076,7 +5079,7 @@
         <v>92</v>
       </c>
       <c r="P21" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="Q21">
         <v>3.5</v>
@@ -5282,7 +5285,7 @@
         <v>108</v>
       </c>
       <c r="P22" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="Q22">
         <v>3.5</v>
@@ -5488,7 +5491,7 @@
         <v>97</v>
       </c>
       <c r="P23" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="Q23">
         <v>2.33</v>
@@ -6106,7 +6109,7 @@
         <v>109</v>
       </c>
       <c r="P26" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="Q26">
         <v>2.38</v>
@@ -6724,7 +6727,7 @@
         <v>112</v>
       </c>
       <c r="P29" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="Q29">
         <v>3.1</v>
@@ -7136,7 +7139,7 @@
         <v>114</v>
       </c>
       <c r="P31" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="Q31">
         <v>2.2</v>
@@ -7832,7 +7835,7 @@
         <v>0</v>
       </c>
       <c r="AP34">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="AQ34">
         <v>0.75</v>
@@ -8372,7 +8375,7 @@
         <v>97</v>
       </c>
       <c r="P37" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="Q37">
         <v>3.6</v>
@@ -8578,7 +8581,7 @@
         <v>119</v>
       </c>
       <c r="P38" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="Q38">
         <v>2.58</v>
@@ -9071,7 +9074,7 @@
         <v>2.33</v>
       </c>
       <c r="AQ40">
-        <v>1.67</v>
+        <v>1.25</v>
       </c>
       <c r="AR40">
         <v>1.82</v>
@@ -9402,7 +9405,7 @@
         <v>122</v>
       </c>
       <c r="P42" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="Q42">
         <v>3.1</v>
@@ -9608,7 +9611,7 @@
         <v>123</v>
       </c>
       <c r="P43" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="Q43">
         <v>2.35</v>
@@ -10432,7 +10435,7 @@
         <v>126</v>
       </c>
       <c r="P47" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="Q47">
         <v>2.51</v>
@@ -10638,7 +10641,7 @@
         <v>95</v>
       </c>
       <c r="P48" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="Q48">
         <v>3.08</v>
@@ -10844,7 +10847,7 @@
         <v>127</v>
       </c>
       <c r="P49" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="Q49">
         <v>2.75</v>
@@ -11256,7 +11259,7 @@
         <v>97</v>
       </c>
       <c r="P51" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="Q51">
         <v>4.2</v>
@@ -11462,7 +11465,7 @@
         <v>129</v>
       </c>
       <c r="P52" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="Q52">
         <v>3.5</v>
@@ -12286,7 +12289,7 @@
         <v>132</v>
       </c>
       <c r="P56" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="Q56">
         <v>3.22</v>
@@ -12364,7 +12367,7 @@
         <v>0.5</v>
       </c>
       <c r="AP56">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="AQ56">
         <v>0.33</v>
@@ -12492,7 +12495,7 @@
         <v>133</v>
       </c>
       <c r="P57" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="Q57">
         <v>1.97</v>
@@ -12904,7 +12907,7 @@
         <v>135</v>
       </c>
       <c r="P59" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="Q59">
         <v>2.88</v>
@@ -13191,7 +13194,7 @@
         <v>2.33</v>
       </c>
       <c r="AQ60">
-        <v>1.67</v>
+        <v>1.25</v>
       </c>
       <c r="AR60">
         <v>1.78</v>
@@ -13316,7 +13319,7 @@
         <v>97</v>
       </c>
       <c r="P61" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="Q61">
         <v>2.85</v>
@@ -13522,7 +13525,7 @@
         <v>137</v>
       </c>
       <c r="P62" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="Q62">
         <v>2.13</v>
@@ -14346,7 +14349,7 @@
         <v>139</v>
       </c>
       <c r="P66" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="Q66">
         <v>2.6</v>
@@ -14552,7 +14555,7 @@
         <v>140</v>
       </c>
       <c r="P67" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="Q67">
         <v>2.35</v>
@@ -14758,7 +14761,7 @@
         <v>97</v>
       </c>
       <c r="P68" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="Q68">
         <v>2.8</v>
@@ -14964,7 +14967,7 @@
         <v>141</v>
       </c>
       <c r="P69" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="Q69">
         <v>3</v>
@@ -15376,7 +15379,7 @@
         <v>143</v>
       </c>
       <c r="P71" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="Q71">
         <v>2.13</v>
@@ -15739,6 +15742,212 @@
       </c>
       <c r="BP72">
         <v>1.39</v>
+      </c>
+    </row>
+    <row r="73" spans="1:68">
+      <c r="A73" s="1">
+        <v>72</v>
+      </c>
+      <c r="B73">
+        <v>7841106</v>
+      </c>
+      <c r="C73" t="s">
+        <v>68</v>
+      </c>
+      <c r="D73" t="s">
+        <v>69</v>
+      </c>
+      <c r="E73" s="2">
+        <v>45793.79166666666</v>
+      </c>
+      <c r="F73">
+        <v>8</v>
+      </c>
+      <c r="G73" t="s">
+        <v>82</v>
+      </c>
+      <c r="H73" t="s">
+        <v>81</v>
+      </c>
+      <c r="I73">
+        <v>1</v>
+      </c>
+      <c r="J73">
+        <v>0</v>
+      </c>
+      <c r="K73">
+        <v>1</v>
+      </c>
+      <c r="L73">
+        <v>2</v>
+      </c>
+      <c r="M73">
+        <v>1</v>
+      </c>
+      <c r="N73">
+        <v>3</v>
+      </c>
+      <c r="O73" t="s">
+        <v>145</v>
+      </c>
+      <c r="P73" t="s">
+        <v>138</v>
+      </c>
+      <c r="Q73">
+        <v>3.35</v>
+      </c>
+      <c r="R73">
+        <v>1.84</v>
+      </c>
+      <c r="S73">
+        <v>3.6</v>
+      </c>
+      <c r="T73">
+        <v>1.59</v>
+      </c>
+      <c r="U73">
+        <v>2.36</v>
+      </c>
+      <c r="V73">
+        <v>3.4</v>
+      </c>
+      <c r="W73">
+        <v>1.25</v>
+      </c>
+      <c r="X73">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="Y73">
+        <v>1</v>
+      </c>
+      <c r="Z73">
+        <v>2.49</v>
+      </c>
+      <c r="AA73">
+        <v>2.9</v>
+      </c>
+      <c r="AB73">
+        <v>2.83</v>
+      </c>
+      <c r="AC73">
+        <v>1.05</v>
+      </c>
+      <c r="AD73">
+        <v>6.2</v>
+      </c>
+      <c r="AE73">
+        <v>1.54</v>
+      </c>
+      <c r="AF73">
+        <v>2.42</v>
+      </c>
+      <c r="AG73">
+        <v>2.7</v>
+      </c>
+      <c r="AH73">
+        <v>1.4</v>
+      </c>
+      <c r="AI73">
+        <v>2.15</v>
+      </c>
+      <c r="AJ73">
+        <v>1.68</v>
+      </c>
+      <c r="AK73">
+        <v>1.37</v>
+      </c>
+      <c r="AL73">
+        <v>1.33</v>
+      </c>
+      <c r="AM73">
+        <v>1.45</v>
+      </c>
+      <c r="AN73">
+        <v>2</v>
+      </c>
+      <c r="AO73">
+        <v>1.67</v>
+      </c>
+      <c r="AP73">
+        <v>2.25</v>
+      </c>
+      <c r="AQ73">
+        <v>1.25</v>
+      </c>
+      <c r="AR73">
+        <v>1.75</v>
+      </c>
+      <c r="AS73">
+        <v>1.84</v>
+      </c>
+      <c r="AT73">
+        <v>3.59</v>
+      </c>
+      <c r="AU73">
+        <v>5</v>
+      </c>
+      <c r="AV73">
+        <v>2</v>
+      </c>
+      <c r="AW73">
+        <v>6</v>
+      </c>
+      <c r="AX73">
+        <v>15</v>
+      </c>
+      <c r="AY73">
+        <v>13</v>
+      </c>
+      <c r="AZ73">
+        <v>25</v>
+      </c>
+      <c r="BA73">
+        <v>4</v>
+      </c>
+      <c r="BB73">
+        <v>5</v>
+      </c>
+      <c r="BC73">
+        <v>9</v>
+      </c>
+      <c r="BD73">
+        <v>2.05</v>
+      </c>
+      <c r="BE73">
+        <v>6.75</v>
+      </c>
+      <c r="BF73">
+        <v>1.98</v>
+      </c>
+      <c r="BG73">
+        <v>1.2</v>
+      </c>
+      <c r="BH73">
+        <v>3.45</v>
+      </c>
+      <c r="BI73">
+        <v>1.33</v>
+      </c>
+      <c r="BJ73">
+        <v>2.91</v>
+      </c>
+      <c r="BK73">
+        <v>1.84</v>
+      </c>
+      <c r="BL73">
+        <v>2.18</v>
+      </c>
+      <c r="BM73">
+        <v>2.03</v>
+      </c>
+      <c r="BN73">
+        <v>1.76</v>
+      </c>
+      <c r="BO73">
+        <v>2.65</v>
+      </c>
+      <c r="BP73">
+        <v>1.46</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Brazil Serie B_2025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Brazil Serie B_2025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="500" uniqueCount="177">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="506" uniqueCount="178">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -452,6 +452,9 @@
   </si>
   <si>
     <t>['8', '77']</t>
+  </si>
+  <si>
+    <t>['55', '60', '62']</t>
   </si>
   <si>
     <t>['33', '72']</t>
@@ -906,7 +909,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP73"/>
+  <dimension ref="A1:BP74"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1371,7 +1374,7 @@
         <v>91</v>
       </c>
       <c r="P3" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="Q3">
         <v>3.5</v>
@@ -1577,7 +1580,7 @@
         <v>92</v>
       </c>
       <c r="P4" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="Q4">
         <v>2.5</v>
@@ -2276,7 +2279,7 @@
         <v>2.5</v>
       </c>
       <c r="AQ7">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="AR7">
         <v>0</v>
@@ -2401,7 +2404,7 @@
         <v>96</v>
       </c>
       <c r="P8" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="Q8">
         <v>3</v>
@@ -3019,7 +3022,7 @@
         <v>99</v>
       </c>
       <c r="P11" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="Q11">
         <v>2.38</v>
@@ -3225,7 +3228,7 @@
         <v>100</v>
       </c>
       <c r="P12" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="Q12">
         <v>2.51</v>
@@ -3431,7 +3434,7 @@
         <v>101</v>
       </c>
       <c r="P13" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="Q13">
         <v>2.8</v>
@@ -3637,7 +3640,7 @@
         <v>102</v>
       </c>
       <c r="P14" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="Q14">
         <v>3.3</v>
@@ -4461,7 +4464,7 @@
         <v>105</v>
       </c>
       <c r="P18" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="Q18">
         <v>3.22</v>
@@ -4539,7 +4542,7 @@
         <v>0</v>
       </c>
       <c r="AP18">
-        <v>1.33</v>
+        <v>1.75</v>
       </c>
       <c r="AQ18">
         <v>2</v>
@@ -4667,7 +4670,7 @@
         <v>106</v>
       </c>
       <c r="P19" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="Q19">
         <v>2.55</v>
@@ -5079,7 +5082,7 @@
         <v>92</v>
       </c>
       <c r="P21" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="Q21">
         <v>3.5</v>
@@ -5285,7 +5288,7 @@
         <v>108</v>
       </c>
       <c r="P22" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="Q22">
         <v>3.5</v>
@@ -5491,7 +5494,7 @@
         <v>97</v>
       </c>
       <c r="P23" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="Q23">
         <v>2.33</v>
@@ -6109,7 +6112,7 @@
         <v>109</v>
       </c>
       <c r="P26" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="Q26">
         <v>2.38</v>
@@ -6727,7 +6730,7 @@
         <v>112</v>
       </c>
       <c r="P29" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="Q29">
         <v>3.1</v>
@@ -7139,7 +7142,7 @@
         <v>114</v>
       </c>
       <c r="P31" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="Q31">
         <v>2.2</v>
@@ -7423,7 +7426,7 @@
         <v>0</v>
       </c>
       <c r="AP32">
-        <v>1.33</v>
+        <v>1.75</v>
       </c>
       <c r="AQ32">
         <v>0.5</v>
@@ -7632,7 +7635,7 @@
         <v>3</v>
       </c>
       <c r="AQ33">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="AR33">
         <v>1.59</v>
@@ -8375,7 +8378,7 @@
         <v>97</v>
       </c>
       <c r="P37" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="Q37">
         <v>3.6</v>
@@ -8581,7 +8584,7 @@
         <v>119</v>
       </c>
       <c r="P38" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="Q38">
         <v>2.58</v>
@@ -9405,7 +9408,7 @@
         <v>122</v>
       </c>
       <c r="P42" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="Q42">
         <v>3.1</v>
@@ -9611,7 +9614,7 @@
         <v>123</v>
       </c>
       <c r="P43" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="Q43">
         <v>2.35</v>
@@ -10435,7 +10438,7 @@
         <v>126</v>
       </c>
       <c r="P47" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="Q47">
         <v>2.51</v>
@@ -10641,7 +10644,7 @@
         <v>95</v>
       </c>
       <c r="P48" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="Q48">
         <v>3.08</v>
@@ -10847,7 +10850,7 @@
         <v>127</v>
       </c>
       <c r="P49" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="Q49">
         <v>2.75</v>
@@ -11259,7 +11262,7 @@
         <v>97</v>
       </c>
       <c r="P51" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="Q51">
         <v>4.2</v>
@@ -11465,7 +11468,7 @@
         <v>129</v>
       </c>
       <c r="P52" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="Q52">
         <v>3.5</v>
@@ -12289,7 +12292,7 @@
         <v>132</v>
       </c>
       <c r="P56" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="Q56">
         <v>3.22</v>
@@ -12495,7 +12498,7 @@
         <v>133</v>
       </c>
       <c r="P57" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="Q57">
         <v>1.97</v>
@@ -12576,7 +12579,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ57">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="AR57">
         <v>1.49</v>
@@ -12779,7 +12782,7 @@
         <v>0</v>
       </c>
       <c r="AP58">
-        <v>1.33</v>
+        <v>1.75</v>
       </c>
       <c r="AQ58">
         <v>0</v>
@@ -12907,7 +12910,7 @@
         <v>135</v>
       </c>
       <c r="P59" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="Q59">
         <v>2.88</v>
@@ -13319,7 +13322,7 @@
         <v>97</v>
       </c>
       <c r="P61" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="Q61">
         <v>2.85</v>
@@ -13525,7 +13528,7 @@
         <v>137</v>
       </c>
       <c r="P62" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="Q62">
         <v>2.13</v>
@@ -14349,7 +14352,7 @@
         <v>139</v>
       </c>
       <c r="P66" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="Q66">
         <v>2.6</v>
@@ -14555,7 +14558,7 @@
         <v>140</v>
       </c>
       <c r="P67" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="Q67">
         <v>2.35</v>
@@ -14761,7 +14764,7 @@
         <v>97</v>
       </c>
       <c r="P68" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="Q68">
         <v>2.8</v>
@@ -14967,7 +14970,7 @@
         <v>141</v>
       </c>
       <c r="P69" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="Q69">
         <v>3</v>
@@ -15379,7 +15382,7 @@
         <v>143</v>
       </c>
       <c r="P71" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="Q71">
         <v>2.13</v>
@@ -15948,6 +15951,212 @@
       </c>
       <c r="BP73">
         <v>1.46</v>
+      </c>
+    </row>
+    <row r="74" spans="1:68">
+      <c r="A74" s="1">
+        <v>73</v>
+      </c>
+      <c r="B74">
+        <v>7841107</v>
+      </c>
+      <c r="C74" t="s">
+        <v>68</v>
+      </c>
+      <c r="D74" t="s">
+        <v>69</v>
+      </c>
+      <c r="E74" s="2">
+        <v>45794.66666666666</v>
+      </c>
+      <c r="F74">
+        <v>8</v>
+      </c>
+      <c r="G74" t="s">
+        <v>86</v>
+      </c>
+      <c r="H74" t="s">
+        <v>89</v>
+      </c>
+      <c r="I74">
+        <v>0</v>
+      </c>
+      <c r="J74">
+        <v>0</v>
+      </c>
+      <c r="K74">
+        <v>0</v>
+      </c>
+      <c r="L74">
+        <v>3</v>
+      </c>
+      <c r="M74">
+        <v>0</v>
+      </c>
+      <c r="N74">
+        <v>3</v>
+      </c>
+      <c r="O74" t="s">
+        <v>146</v>
+      </c>
+      <c r="P74" t="s">
+        <v>97</v>
+      </c>
+      <c r="Q74">
+        <v>2.5</v>
+      </c>
+      <c r="R74">
+        <v>2</v>
+      </c>
+      <c r="S74">
+        <v>5.6</v>
+      </c>
+      <c r="T74">
+        <v>1.5</v>
+      </c>
+      <c r="U74">
+        <v>2.35</v>
+      </c>
+      <c r="V74">
+        <v>3.64</v>
+      </c>
+      <c r="W74">
+        <v>1.25</v>
+      </c>
+      <c r="X74">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="Y74">
+        <v>1.04</v>
+      </c>
+      <c r="Z74">
+        <v>1.97</v>
+      </c>
+      <c r="AA74">
+        <v>3.13</v>
+      </c>
+      <c r="AB74">
+        <v>3.41</v>
+      </c>
+      <c r="AC74">
+        <v>1.11</v>
+      </c>
+      <c r="AD74">
+        <v>8</v>
+      </c>
+      <c r="AE74">
+        <v>1.5</v>
+      </c>
+      <c r="AF74">
+        <v>2.4</v>
+      </c>
+      <c r="AG74">
+        <v>2.3</v>
+      </c>
+      <c r="AH74">
+        <v>1.5</v>
+      </c>
+      <c r="AI74">
+        <v>2.25</v>
+      </c>
+      <c r="AJ74">
+        <v>1.6</v>
+      </c>
+      <c r="AK74">
+        <v>1.31</v>
+      </c>
+      <c r="AL74">
+        <v>1.22</v>
+      </c>
+      <c r="AM74">
+        <v>1.93</v>
+      </c>
+      <c r="AN74">
+        <v>1.33</v>
+      </c>
+      <c r="AO74">
+        <v>1</v>
+      </c>
+      <c r="AP74">
+        <v>1.75</v>
+      </c>
+      <c r="AQ74">
+        <v>0.75</v>
+      </c>
+      <c r="AR74">
+        <v>1.6</v>
+      </c>
+      <c r="AS74">
+        <v>1.09</v>
+      </c>
+      <c r="AT74">
+        <v>2.69</v>
+      </c>
+      <c r="AU74">
+        <v>8</v>
+      </c>
+      <c r="AV74">
+        <v>2</v>
+      </c>
+      <c r="AW74">
+        <v>13</v>
+      </c>
+      <c r="AX74">
+        <v>3</v>
+      </c>
+      <c r="AY74">
+        <v>25</v>
+      </c>
+      <c r="AZ74">
+        <v>6</v>
+      </c>
+      <c r="BA74">
+        <v>6</v>
+      </c>
+      <c r="BB74">
+        <v>0</v>
+      </c>
+      <c r="BC74">
+        <v>6</v>
+      </c>
+      <c r="BD74">
+        <v>1.51</v>
+      </c>
+      <c r="BE74">
+        <v>7</v>
+      </c>
+      <c r="BF74">
+        <v>3.24</v>
+      </c>
+      <c r="BG74">
+        <v>1.21</v>
+      </c>
+      <c r="BH74">
+        <v>3.78</v>
+      </c>
+      <c r="BI74">
+        <v>1.34</v>
+      </c>
+      <c r="BJ74">
+        <v>2.72</v>
+      </c>
+      <c r="BK74">
+        <v>1.67</v>
+      </c>
+      <c r="BL74">
+        <v>2.12</v>
+      </c>
+      <c r="BM74">
+        <v>2.07</v>
+      </c>
+      <c r="BN74">
+        <v>1.71</v>
+      </c>
+      <c r="BO74">
+        <v>2.58</v>
+      </c>
+      <c r="BP74">
+        <v>1.33</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Brazil Serie B_2025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Brazil Serie B_2025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="506" uniqueCount="178">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="512" uniqueCount="180">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -457,6 +457,9 @@
     <t>['55', '60', '62']</t>
   </si>
   <si>
+    <t>['12', '32']</t>
+  </si>
+  <si>
     <t>['33', '72']</t>
   </si>
   <si>
@@ -548,6 +551,9 @@
   </si>
   <si>
     <t>['58', '70']</t>
+  </si>
+  <si>
+    <t>['77']</t>
   </si>
 </sst>
 </file>
@@ -909,7 +915,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP74"/>
+  <dimension ref="A1:BP75"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1374,7 +1380,7 @@
         <v>91</v>
       </c>
       <c r="P3" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="Q3">
         <v>3.5</v>
@@ -1455,7 +1461,7 @@
         <v>0.33</v>
       </c>
       <c r="AQ3">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="AR3">
         <v>0</v>
@@ -1580,7 +1586,7 @@
         <v>92</v>
       </c>
       <c r="P4" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="Q4">
         <v>2.5</v>
@@ -2404,7 +2410,7 @@
         <v>96</v>
       </c>
       <c r="P8" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="Q8">
         <v>3</v>
@@ -3022,7 +3028,7 @@
         <v>99</v>
       </c>
       <c r="P11" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="Q11">
         <v>2.38</v>
@@ -3228,7 +3234,7 @@
         <v>100</v>
       </c>
       <c r="P12" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="Q12">
         <v>2.51</v>
@@ -3434,7 +3440,7 @@
         <v>101</v>
       </c>
       <c r="P13" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="Q13">
         <v>2.8</v>
@@ -3640,7 +3646,7 @@
         <v>102</v>
       </c>
       <c r="P14" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="Q14">
         <v>3.3</v>
@@ -4464,7 +4470,7 @@
         <v>105</v>
       </c>
       <c r="P18" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="Q18">
         <v>3.22</v>
@@ -4670,7 +4676,7 @@
         <v>106</v>
       </c>
       <c r="P19" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="Q19">
         <v>2.55</v>
@@ -5082,7 +5088,7 @@
         <v>92</v>
       </c>
       <c r="P21" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="Q21">
         <v>3.5</v>
@@ -5288,7 +5294,7 @@
         <v>108</v>
       </c>
       <c r="P22" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="Q22">
         <v>3.5</v>
@@ -5369,7 +5375,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ22">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="AR22">
         <v>1.69</v>
@@ -5494,7 +5500,7 @@
         <v>97</v>
       </c>
       <c r="P23" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="Q23">
         <v>2.33</v>
@@ -6112,7 +6118,7 @@
         <v>109</v>
       </c>
       <c r="P26" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="Q26">
         <v>2.38</v>
@@ -6730,7 +6736,7 @@
         <v>112</v>
       </c>
       <c r="P29" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="Q29">
         <v>3.1</v>
@@ -7142,7 +7148,7 @@
         <v>114</v>
       </c>
       <c r="P31" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="Q31">
         <v>2.2</v>
@@ -8378,7 +8384,7 @@
         <v>97</v>
       </c>
       <c r="P37" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="Q37">
         <v>3.6</v>
@@ -8584,7 +8590,7 @@
         <v>119</v>
       </c>
       <c r="P38" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="Q38">
         <v>2.58</v>
@@ -9408,7 +9414,7 @@
         <v>122</v>
       </c>
       <c r="P42" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="Q42">
         <v>3.1</v>
@@ -9489,7 +9495,7 @@
         <v>2</v>
       </c>
       <c r="AQ42">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="AR42">
         <v>2.49</v>
@@ -9614,7 +9620,7 @@
         <v>123</v>
       </c>
       <c r="P43" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="Q43">
         <v>2.35</v>
@@ -10438,7 +10444,7 @@
         <v>126</v>
       </c>
       <c r="P47" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="Q47">
         <v>2.51</v>
@@ -10644,7 +10650,7 @@
         <v>95</v>
       </c>
       <c r="P48" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="Q48">
         <v>3.08</v>
@@ -10850,7 +10856,7 @@
         <v>127</v>
       </c>
       <c r="P49" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="Q49">
         <v>2.75</v>
@@ -11262,7 +11268,7 @@
         <v>97</v>
       </c>
       <c r="P51" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="Q51">
         <v>4.2</v>
@@ -11468,7 +11474,7 @@
         <v>129</v>
       </c>
       <c r="P52" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="Q52">
         <v>3.5</v>
@@ -12292,7 +12298,7 @@
         <v>132</v>
       </c>
       <c r="P56" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="Q56">
         <v>3.22</v>
@@ -12498,7 +12504,7 @@
         <v>133</v>
       </c>
       <c r="P57" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="Q57">
         <v>1.97</v>
@@ -12910,7 +12916,7 @@
         <v>135</v>
       </c>
       <c r="P59" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="Q59">
         <v>2.88</v>
@@ -13322,7 +13328,7 @@
         <v>97</v>
       </c>
       <c r="P61" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="Q61">
         <v>2.85</v>
@@ -13528,7 +13534,7 @@
         <v>137</v>
       </c>
       <c r="P62" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="Q62">
         <v>2.13</v>
@@ -14352,7 +14358,7 @@
         <v>139</v>
       </c>
       <c r="P66" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="Q66">
         <v>2.6</v>
@@ -14558,7 +14564,7 @@
         <v>140</v>
       </c>
       <c r="P67" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="Q67">
         <v>2.35</v>
@@ -14764,7 +14770,7 @@
         <v>97</v>
       </c>
       <c r="P68" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="Q68">
         <v>2.8</v>
@@ -14970,7 +14976,7 @@
         <v>141</v>
       </c>
       <c r="P69" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="Q69">
         <v>3</v>
@@ -15382,7 +15388,7 @@
         <v>143</v>
       </c>
       <c r="P71" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="Q71">
         <v>2.13</v>
@@ -16157,6 +16163,212 @@
       </c>
       <c r="BP74">
         <v>1.33</v>
+      </c>
+    </row>
+    <row r="75" spans="1:68">
+      <c r="A75" s="1">
+        <v>74</v>
+      </c>
+      <c r="B75">
+        <v>7841103</v>
+      </c>
+      <c r="C75" t="s">
+        <v>68</v>
+      </c>
+      <c r="D75" t="s">
+        <v>69</v>
+      </c>
+      <c r="E75" s="2">
+        <v>45794.77083333334</v>
+      </c>
+      <c r="F75">
+        <v>8</v>
+      </c>
+      <c r="G75" t="s">
+        <v>83</v>
+      </c>
+      <c r="H75" t="s">
+        <v>80</v>
+      </c>
+      <c r="I75">
+        <v>2</v>
+      </c>
+      <c r="J75">
+        <v>0</v>
+      </c>
+      <c r="K75">
+        <v>2</v>
+      </c>
+      <c r="L75">
+        <v>2</v>
+      </c>
+      <c r="M75">
+        <v>1</v>
+      </c>
+      <c r="N75">
+        <v>3</v>
+      </c>
+      <c r="O75" t="s">
+        <v>147</v>
+      </c>
+      <c r="P75" t="s">
+        <v>179</v>
+      </c>
+      <c r="Q75">
+        <v>3.6</v>
+      </c>
+      <c r="R75">
+        <v>1.8</v>
+      </c>
+      <c r="S75">
+        <v>3.45</v>
+      </c>
+      <c r="T75">
+        <v>1.6</v>
+      </c>
+      <c r="U75">
+        <v>2.25</v>
+      </c>
+      <c r="V75">
+        <v>3.98</v>
+      </c>
+      <c r="W75">
+        <v>1.2</v>
+      </c>
+      <c r="X75">
+        <v>7.8</v>
+      </c>
+      <c r="Y75">
+        <v>1.01</v>
+      </c>
+      <c r="Z75">
+        <v>2.62</v>
+      </c>
+      <c r="AA75">
+        <v>2.7</v>
+      </c>
+      <c r="AB75">
+        <v>2.85</v>
+      </c>
+      <c r="AC75">
+        <v>1.06</v>
+      </c>
+      <c r="AD75">
+        <v>6.25</v>
+      </c>
+      <c r="AE75">
+        <v>1.54</v>
+      </c>
+      <c r="AF75">
+        <v>2.32</v>
+      </c>
+      <c r="AG75">
+        <v>2.8</v>
+      </c>
+      <c r="AH75">
+        <v>1.38</v>
+      </c>
+      <c r="AI75">
+        <v>2.25</v>
+      </c>
+      <c r="AJ75">
+        <v>1.62</v>
+      </c>
+      <c r="AK75">
+        <v>1.4</v>
+      </c>
+      <c r="AL75">
+        <v>1.3</v>
+      </c>
+      <c r="AM75">
+        <v>1.4</v>
+      </c>
+      <c r="AN75">
+        <v>3</v>
+      </c>
+      <c r="AO75">
+        <v>1</v>
+      </c>
+      <c r="AP75">
+        <v>3</v>
+      </c>
+      <c r="AQ75">
+        <v>0.75</v>
+      </c>
+      <c r="AR75">
+        <v>1.88</v>
+      </c>
+      <c r="AS75">
+        <v>1.39</v>
+      </c>
+      <c r="AT75">
+        <v>3.27</v>
+      </c>
+      <c r="AU75">
+        <v>5</v>
+      </c>
+      <c r="AV75">
+        <v>3</v>
+      </c>
+      <c r="AW75">
+        <v>6</v>
+      </c>
+      <c r="AX75">
+        <v>6</v>
+      </c>
+      <c r="AY75">
+        <v>12</v>
+      </c>
+      <c r="AZ75">
+        <v>9</v>
+      </c>
+      <c r="BA75">
+        <v>5</v>
+      </c>
+      <c r="BB75">
+        <v>6</v>
+      </c>
+      <c r="BC75">
+        <v>11</v>
+      </c>
+      <c r="BD75">
+        <v>2.49</v>
+      </c>
+      <c r="BE75">
+        <v>6.6</v>
+      </c>
+      <c r="BF75">
+        <v>1.81</v>
+      </c>
+      <c r="BG75">
+        <v>1.23</v>
+      </c>
+      <c r="BH75">
+        <v>3.2</v>
+      </c>
+      <c r="BI75">
+        <v>1.44</v>
+      </c>
+      <c r="BJ75">
+        <v>2.7</v>
+      </c>
+      <c r="BK75">
+        <v>1.97</v>
+      </c>
+      <c r="BL75">
+        <v>2.03</v>
+      </c>
+      <c r="BM75">
+        <v>2.18</v>
+      </c>
+      <c r="BN75">
+        <v>1.67</v>
+      </c>
+      <c r="BO75">
+        <v>2.72</v>
+      </c>
+      <c r="BP75">
+        <v>1.37</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Brazil Serie B_2025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Brazil Serie B_2025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="512" uniqueCount="180">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="518" uniqueCount="181">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -554,6 +554,9 @@
   </si>
   <si>
     <t>['77']</t>
+  </si>
+  <si>
+    <t>['55', '67']</t>
   </si>
 </sst>
 </file>
@@ -915,7 +918,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP75"/>
+  <dimension ref="A1:BP76"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2903,7 +2906,7 @@
         <v>2</v>
       </c>
       <c r="AQ10">
-        <v>0.67</v>
+        <v>1.25</v>
       </c>
       <c r="AR10">
         <v>0</v>
@@ -4754,7 +4757,7 @@
         <v>0</v>
       </c>
       <c r="AP19">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="AQ19">
         <v>1.25</v>
@@ -5993,7 +5996,7 @@
         <v>2.33</v>
       </c>
       <c r="AQ25">
-        <v>0.67</v>
+        <v>1.25</v>
       </c>
       <c r="AR25">
         <v>1.41</v>
@@ -10522,7 +10525,7 @@
         <v>0</v>
       </c>
       <c r="AP47">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="AQ47">
         <v>0.25</v>
@@ -12173,7 +12176,7 @@
         <v>2.33</v>
       </c>
       <c r="AQ55">
-        <v>0.67</v>
+        <v>1.25</v>
       </c>
       <c r="AR55">
         <v>1.76</v>
@@ -13406,7 +13409,7 @@
         <v>0.5</v>
       </c>
       <c r="AP61">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="AQ61">
         <v>1</v>
@@ -16369,6 +16372,212 @@
       </c>
       <c r="BP75">
         <v>1.37</v>
+      </c>
+    </row>
+    <row r="76" spans="1:68">
+      <c r="A76" s="1">
+        <v>75</v>
+      </c>
+      <c r="B76">
+        <v>7841109</v>
+      </c>
+      <c r="C76" t="s">
+        <v>68</v>
+      </c>
+      <c r="D76" t="s">
+        <v>69</v>
+      </c>
+      <c r="E76" s="2">
+        <v>45794.85416666666</v>
+      </c>
+      <c r="F76">
+        <v>8</v>
+      </c>
+      <c r="G76" t="s">
+        <v>87</v>
+      </c>
+      <c r="H76" t="s">
+        <v>85</v>
+      </c>
+      <c r="I76">
+        <v>0</v>
+      </c>
+      <c r="J76">
+        <v>0</v>
+      </c>
+      <c r="K76">
+        <v>0</v>
+      </c>
+      <c r="L76">
+        <v>0</v>
+      </c>
+      <c r="M76">
+        <v>2</v>
+      </c>
+      <c r="N76">
+        <v>2</v>
+      </c>
+      <c r="O76" t="s">
+        <v>97</v>
+      </c>
+      <c r="P76" t="s">
+        <v>180</v>
+      </c>
+      <c r="Q76">
+        <v>3.64</v>
+      </c>
+      <c r="R76">
+        <v>1.84</v>
+      </c>
+      <c r="S76">
+        <v>3.2</v>
+      </c>
+      <c r="T76">
+        <v>1.54</v>
+      </c>
+      <c r="U76">
+        <v>2.25</v>
+      </c>
+      <c r="V76">
+        <v>3.55</v>
+      </c>
+      <c r="W76">
+        <v>1.25</v>
+      </c>
+      <c r="X76">
+        <v>12</v>
+      </c>
+      <c r="Y76">
+        <v>1.01</v>
+      </c>
+      <c r="Z76">
+        <v>3.2</v>
+      </c>
+      <c r="AA76">
+        <v>2.8</v>
+      </c>
+      <c r="AB76">
+        <v>2.25</v>
+      </c>
+      <c r="AC76">
+        <v>1.12</v>
+      </c>
+      <c r="AD76">
+        <v>6.2</v>
+      </c>
+      <c r="AE76">
+        <v>1.53</v>
+      </c>
+      <c r="AF76">
+        <v>2.4</v>
+      </c>
+      <c r="AG76">
+        <v>2.6</v>
+      </c>
+      <c r="AH76">
+        <v>1.48</v>
+      </c>
+      <c r="AI76">
+        <v>2.16</v>
+      </c>
+      <c r="AJ76">
+        <v>1.72</v>
+      </c>
+      <c r="AK76">
+        <v>1.54</v>
+      </c>
+      <c r="AL76">
+        <v>1.33</v>
+      </c>
+      <c r="AM76">
+        <v>1.32</v>
+      </c>
+      <c r="AN76">
+        <v>1</v>
+      </c>
+      <c r="AO76">
+        <v>0.67</v>
+      </c>
+      <c r="AP76">
+        <v>0.75</v>
+      </c>
+      <c r="AQ76">
+        <v>1.25</v>
+      </c>
+      <c r="AR76">
+        <v>1.64</v>
+      </c>
+      <c r="AS76">
+        <v>1.33</v>
+      </c>
+      <c r="AT76">
+        <v>2.97</v>
+      </c>
+      <c r="AU76">
+        <v>9</v>
+      </c>
+      <c r="AV76">
+        <v>4</v>
+      </c>
+      <c r="AW76">
+        <v>8</v>
+      </c>
+      <c r="AX76">
+        <v>6</v>
+      </c>
+      <c r="AY76">
+        <v>19</v>
+      </c>
+      <c r="AZ76">
+        <v>11</v>
+      </c>
+      <c r="BA76">
+        <v>11</v>
+      </c>
+      <c r="BB76">
+        <v>1</v>
+      </c>
+      <c r="BC76">
+        <v>12</v>
+      </c>
+      <c r="BD76">
+        <v>2.33</v>
+      </c>
+      <c r="BE76">
+        <v>7.5</v>
+      </c>
+      <c r="BF76">
+        <v>1.71</v>
+      </c>
+      <c r="BG76">
+        <v>1.24</v>
+      </c>
+      <c r="BH76">
+        <v>3.7</v>
+      </c>
+      <c r="BI76">
+        <v>1.42</v>
+      </c>
+      <c r="BJ76">
+        <v>2.66</v>
+      </c>
+      <c r="BK76">
+        <v>1.91</v>
+      </c>
+      <c r="BL76">
+        <v>2.08</v>
+      </c>
+      <c r="BM76">
+        <v>1.9</v>
+      </c>
+      <c r="BN76">
+        <v>1.8</v>
+      </c>
+      <c r="BO76">
+        <v>2.79</v>
+      </c>
+      <c r="BP76">
+        <v>1.42</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Brazil Serie B_2025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Brazil Serie B_2025.xlsx
@@ -16526,10 +16526,10 @@
         <v>6</v>
       </c>
       <c r="AY76">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AZ76">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="BA76">
         <v>11</v>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Brazil Serie B_2025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Brazil Serie B_2025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="518" uniqueCount="181">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="536" uniqueCount="182">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -460,6 +460,9 @@
     <t>['12', '32']</t>
   </si>
   <si>
+    <t>['90+6']</t>
+  </si>
+  <si>
     <t>['33', '72']</t>
   </si>
   <si>
@@ -517,9 +520,6 @@
     <t>['90+2']</t>
   </si>
   <si>
-    <t>['90+6']</t>
-  </si>
-  <si>
     <t>['45+1']</t>
   </si>
   <si>
@@ -557,6 +557,9 @@
   </si>
   <si>
     <t>['55', '67']</t>
+  </si>
+  <si>
+    <t>['52']</t>
   </si>
 </sst>
 </file>
@@ -918,7 +921,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP76"/>
+  <dimension ref="A1:BP79"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1383,7 +1386,7 @@
         <v>91</v>
       </c>
       <c r="P3" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="Q3">
         <v>3.5</v>
@@ -1461,7 +1464,7 @@
         <v>0</v>
       </c>
       <c r="AP3">
-        <v>0.33</v>
+        <v>0.5</v>
       </c>
       <c r="AQ3">
         <v>0.75</v>
@@ -1589,7 +1592,7 @@
         <v>92</v>
       </c>
       <c r="P4" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="Q4">
         <v>2.5</v>
@@ -2079,7 +2082,7 @@
         <v>0</v>
       </c>
       <c r="AP6">
-        <v>2.33</v>
+        <v>2.5</v>
       </c>
       <c r="AQ6">
         <v>1</v>
@@ -2413,7 +2416,7 @@
         <v>96</v>
       </c>
       <c r="P8" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="Q8">
         <v>3</v>
@@ -3031,7 +3034,7 @@
         <v>99</v>
       </c>
       <c r="P11" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="Q11">
         <v>2.38</v>
@@ -3109,7 +3112,7 @@
         <v>0</v>
       </c>
       <c r="AP11">
-        <v>2.33</v>
+        <v>2</v>
       </c>
       <c r="AQ11">
         <v>0.75</v>
@@ -3237,7 +3240,7 @@
         <v>100</v>
       </c>
       <c r="P12" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="Q12">
         <v>2.51</v>
@@ -3318,7 +3321,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ12">
-        <v>0.33</v>
+        <v>0.25</v>
       </c>
       <c r="AR12">
         <v>0</v>
@@ -3443,7 +3446,7 @@
         <v>101</v>
       </c>
       <c r="P13" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="Q13">
         <v>2.8</v>
@@ -3649,7 +3652,7 @@
         <v>102</v>
       </c>
       <c r="P14" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="Q14">
         <v>3.3</v>
@@ -4473,7 +4476,7 @@
         <v>105</v>
       </c>
       <c r="P18" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="Q18">
         <v>3.22</v>
@@ -4554,7 +4557,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ18">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="AR18">
         <v>0</v>
@@ -4679,7 +4682,7 @@
         <v>106</v>
       </c>
       <c r="P19" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="Q19">
         <v>2.55</v>
@@ -5091,7 +5094,7 @@
         <v>92</v>
       </c>
       <c r="P21" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="Q21">
         <v>3.5</v>
@@ -5297,7 +5300,7 @@
         <v>108</v>
       </c>
       <c r="P22" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="Q22">
         <v>3.5</v>
@@ -5503,7 +5506,7 @@
         <v>97</v>
       </c>
       <c r="P23" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="Q23">
         <v>2.33</v>
@@ -5581,7 +5584,7 @@
         <v>0</v>
       </c>
       <c r="AP23">
-        <v>0.33</v>
+        <v>0.5</v>
       </c>
       <c r="AQ23">
         <v>1</v>
@@ -6121,7 +6124,7 @@
         <v>109</v>
       </c>
       <c r="P26" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="Q26">
         <v>2.38</v>
@@ -6611,7 +6614,7 @@
         <v>0</v>
       </c>
       <c r="AP28">
-        <v>2.33</v>
+        <v>2.5</v>
       </c>
       <c r="AQ28">
         <v>0.25</v>
@@ -6739,7 +6742,7 @@
         <v>112</v>
       </c>
       <c r="P29" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="Q29">
         <v>3.1</v>
@@ -7151,7 +7154,7 @@
         <v>114</v>
       </c>
       <c r="P31" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="Q31">
         <v>2.2</v>
@@ -8262,7 +8265,7 @@
         <v>2.5</v>
       </c>
       <c r="AQ36">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="AR36">
         <v>1.95</v>
@@ -8387,7 +8390,7 @@
         <v>97</v>
       </c>
       <c r="P37" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="Q37">
         <v>3.6</v>
@@ -8593,7 +8596,7 @@
         <v>119</v>
       </c>
       <c r="P38" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="Q38">
         <v>2.58</v>
@@ -8674,7 +8677,7 @@
         <v>2</v>
       </c>
       <c r="AQ38">
-        <v>0.33</v>
+        <v>0.25</v>
       </c>
       <c r="AR38">
         <v>1.97</v>
@@ -9083,7 +9086,7 @@
         <v>3</v>
       </c>
       <c r="AP40">
-        <v>2.33</v>
+        <v>2</v>
       </c>
       <c r="AQ40">
         <v>1.25</v>
@@ -9417,7 +9420,7 @@
         <v>122</v>
       </c>
       <c r="P42" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="Q42">
         <v>3.1</v>
@@ -9623,7 +9626,7 @@
         <v>123</v>
       </c>
       <c r="P43" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="Q43">
         <v>2.35</v>
@@ -10447,7 +10450,7 @@
         <v>126</v>
       </c>
       <c r="P47" t="s">
-        <v>167</v>
+        <v>148</v>
       </c>
       <c r="Q47">
         <v>2.51</v>
@@ -10937,7 +10940,7 @@
         <v>1.5</v>
       </c>
       <c r="AP49">
-        <v>0.33</v>
+        <v>0.5</v>
       </c>
       <c r="AQ49">
         <v>1.25</v>
@@ -11352,7 +11355,7 @@
         <v>0.5</v>
       </c>
       <c r="AQ51">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="AR51">
         <v>1.16</v>
@@ -11477,7 +11480,7 @@
         <v>129</v>
       </c>
       <c r="P52" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="Q52">
         <v>3.5</v>
@@ -12173,7 +12176,7 @@
         <v>1</v>
       </c>
       <c r="AP55">
-        <v>2.33</v>
+        <v>2</v>
       </c>
       <c r="AQ55">
         <v>1.25</v>
@@ -12382,7 +12385,7 @@
         <v>2.25</v>
       </c>
       <c r="AQ56">
-        <v>0.33</v>
+        <v>0.25</v>
       </c>
       <c r="AR56">
         <v>1.78</v>
@@ -13203,7 +13206,7 @@
         <v>2</v>
       </c>
       <c r="AP60">
-        <v>2.33</v>
+        <v>2.5</v>
       </c>
       <c r="AQ60">
         <v>1.25</v>
@@ -13537,7 +13540,7 @@
         <v>137</v>
       </c>
       <c r="P62" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="Q62">
         <v>2.13</v>
@@ -16532,13 +16535,13 @@
         <v>13</v>
       </c>
       <c r="BA76">
+        <v>10</v>
+      </c>
+      <c r="BB76">
+        <v>1</v>
+      </c>
+      <c r="BC76">
         <v>11</v>
-      </c>
-      <c r="BB76">
-        <v>1</v>
-      </c>
-      <c r="BC76">
-        <v>12</v>
       </c>
       <c r="BD76">
         <v>2.33</v>
@@ -16578,6 +16581,624 @@
       </c>
       <c r="BP76">
         <v>1.42</v>
+      </c>
+    </row>
+    <row r="77" spans="1:68">
+      <c r="A77" s="1">
+        <v>76</v>
+      </c>
+      <c r="B77">
+        <v>7841104</v>
+      </c>
+      <c r="C77" t="s">
+        <v>68</v>
+      </c>
+      <c r="D77" t="s">
+        <v>69</v>
+      </c>
+      <c r="E77" s="2">
+        <v>45795.66666666666</v>
+      </c>
+      <c r="F77">
+        <v>8</v>
+      </c>
+      <c r="G77" t="s">
+        <v>79</v>
+      </c>
+      <c r="H77" t="s">
+        <v>88</v>
+      </c>
+      <c r="I77">
+        <v>0</v>
+      </c>
+      <c r="J77">
+        <v>0</v>
+      </c>
+      <c r="K77">
+        <v>0</v>
+      </c>
+      <c r="L77">
+        <v>1</v>
+      </c>
+      <c r="M77">
+        <v>1</v>
+      </c>
+      <c r="N77">
+        <v>2</v>
+      </c>
+      <c r="O77" t="s">
+        <v>148</v>
+      </c>
+      <c r="P77" t="s">
+        <v>181</v>
+      </c>
+      <c r="Q77">
+        <v>2.5</v>
+      </c>
+      <c r="R77">
+        <v>2.15</v>
+      </c>
+      <c r="S77">
+        <v>4.8</v>
+      </c>
+      <c r="T77">
+        <v>1.42</v>
+      </c>
+      <c r="U77">
+        <v>2.45</v>
+      </c>
+      <c r="V77">
+        <v>3.4</v>
+      </c>
+      <c r="W77">
+        <v>1.32</v>
+      </c>
+      <c r="X77">
+        <v>9</v>
+      </c>
+      <c r="Y77">
+        <v>1.04</v>
+      </c>
+      <c r="Z77">
+        <v>2.02</v>
+      </c>
+      <c r="AA77">
+        <v>3.09</v>
+      </c>
+      <c r="AB77">
+        <v>3.32</v>
+      </c>
+      <c r="AC77">
+        <v>1.07</v>
+      </c>
+      <c r="AD77">
+        <v>8</v>
+      </c>
+      <c r="AE77">
+        <v>1.48</v>
+      </c>
+      <c r="AF77">
+        <v>2.37</v>
+      </c>
+      <c r="AG77">
+        <v>2.26</v>
+      </c>
+      <c r="AH77">
+        <v>1.61</v>
+      </c>
+      <c r="AI77">
+        <v>1.9</v>
+      </c>
+      <c r="AJ77">
+        <v>1.63</v>
+      </c>
+      <c r="AK77">
+        <v>1.33</v>
+      </c>
+      <c r="AL77">
+        <v>1.25</v>
+      </c>
+      <c r="AM77">
+        <v>2.06</v>
+      </c>
+      <c r="AN77">
+        <v>2.33</v>
+      </c>
+      <c r="AO77">
+        <v>1</v>
+      </c>
+      <c r="AP77">
+        <v>2</v>
+      </c>
+      <c r="AQ77">
+        <v>1</v>
+      </c>
+      <c r="AR77">
+        <v>1.59</v>
+      </c>
+      <c r="AS77">
+        <v>1.46</v>
+      </c>
+      <c r="AT77">
+        <v>3.05</v>
+      </c>
+      <c r="AU77">
+        <v>11</v>
+      </c>
+      <c r="AV77">
+        <v>6</v>
+      </c>
+      <c r="AW77">
+        <v>15</v>
+      </c>
+      <c r="AX77">
+        <v>3</v>
+      </c>
+      <c r="AY77">
+        <v>31</v>
+      </c>
+      <c r="AZ77">
+        <v>9</v>
+      </c>
+      <c r="BA77">
+        <v>8</v>
+      </c>
+      <c r="BB77">
+        <v>5</v>
+      </c>
+      <c r="BC77">
+        <v>13</v>
+      </c>
+      <c r="BD77">
+        <v>1.36</v>
+      </c>
+      <c r="BE77">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="BF77">
+        <v>3.54</v>
+      </c>
+      <c r="BG77">
+        <v>1.16</v>
+      </c>
+      <c r="BH77">
+        <v>4.35</v>
+      </c>
+      <c r="BI77">
+        <v>1.33</v>
+      </c>
+      <c r="BJ77">
+        <v>3.1</v>
+      </c>
+      <c r="BK77">
+        <v>1.55</v>
+      </c>
+      <c r="BL77">
+        <v>2.38</v>
+      </c>
+      <c r="BM77">
+        <v>1.89</v>
+      </c>
+      <c r="BN77">
+        <v>1.91</v>
+      </c>
+      <c r="BO77">
+        <v>2.33</v>
+      </c>
+      <c r="BP77">
+        <v>1.55</v>
+      </c>
+    </row>
+    <row r="78" spans="1:68">
+      <c r="A78" s="1">
+        <v>77</v>
+      </c>
+      <c r="B78">
+        <v>7841108</v>
+      </c>
+      <c r="C78" t="s">
+        <v>68</v>
+      </c>
+      <c r="D78" t="s">
+        <v>69</v>
+      </c>
+      <c r="E78" s="2">
+        <v>45795.66666666666</v>
+      </c>
+      <c r="F78">
+        <v>8</v>
+      </c>
+      <c r="G78" t="s">
+        <v>74</v>
+      </c>
+      <c r="H78" t="s">
+        <v>72</v>
+      </c>
+      <c r="I78">
+        <v>0</v>
+      </c>
+      <c r="J78">
+        <v>0</v>
+      </c>
+      <c r="K78">
+        <v>0</v>
+      </c>
+      <c r="L78">
+        <v>1</v>
+      </c>
+      <c r="M78">
+        <v>0</v>
+      </c>
+      <c r="N78">
+        <v>1</v>
+      </c>
+      <c r="O78" t="s">
+        <v>104</v>
+      </c>
+      <c r="P78" t="s">
+        <v>97</v>
+      </c>
+      <c r="Q78">
+        <v>2.75</v>
+      </c>
+      <c r="R78">
+        <v>2</v>
+      </c>
+      <c r="S78">
+        <v>4.2</v>
+      </c>
+      <c r="T78">
+        <v>1.52</v>
+      </c>
+      <c r="U78">
+        <v>2.47</v>
+      </c>
+      <c r="V78">
+        <v>3.3</v>
+      </c>
+      <c r="W78">
+        <v>1.28</v>
+      </c>
+      <c r="X78">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="Y78">
+        <v>1.04</v>
+      </c>
+      <c r="Z78">
+        <v>2.39</v>
+      </c>
+      <c r="AA78">
+        <v>2.85</v>
+      </c>
+      <c r="AB78">
+        <v>2.85</v>
+      </c>
+      <c r="AC78">
+        <v>1.11</v>
+      </c>
+      <c r="AD78">
+        <v>7</v>
+      </c>
+      <c r="AE78">
+        <v>1.39</v>
+      </c>
+      <c r="AF78">
+        <v>2.6</v>
+      </c>
+      <c r="AG78">
+        <v>2.3</v>
+      </c>
+      <c r="AH78">
+        <v>1.5</v>
+      </c>
+      <c r="AI78">
+        <v>1.98</v>
+      </c>
+      <c r="AJ78">
+        <v>1.77</v>
+      </c>
+      <c r="AK78">
+        <v>1.3</v>
+      </c>
+      <c r="AL78">
+        <v>1.3</v>
+      </c>
+      <c r="AM78">
+        <v>1.77</v>
+      </c>
+      <c r="AN78">
+        <v>2.33</v>
+      </c>
+      <c r="AO78">
+        <v>0.33</v>
+      </c>
+      <c r="AP78">
+        <v>2.5</v>
+      </c>
+      <c r="AQ78">
+        <v>0.25</v>
+      </c>
+      <c r="AR78">
+        <v>1.76</v>
+      </c>
+      <c r="AS78">
+        <v>1.17</v>
+      </c>
+      <c r="AT78">
+        <v>2.93</v>
+      </c>
+      <c r="AU78">
+        <v>5</v>
+      </c>
+      <c r="AV78">
+        <v>5</v>
+      </c>
+      <c r="AW78">
+        <v>12</v>
+      </c>
+      <c r="AX78">
+        <v>11</v>
+      </c>
+      <c r="AY78">
+        <v>22</v>
+      </c>
+      <c r="AZ78">
+        <v>23</v>
+      </c>
+      <c r="BA78">
+        <v>1</v>
+      </c>
+      <c r="BB78">
+        <v>5</v>
+      </c>
+      <c r="BC78">
+        <v>6</v>
+      </c>
+      <c r="BD78">
+        <v>1.54</v>
+      </c>
+      <c r="BE78">
+        <v>6.75</v>
+      </c>
+      <c r="BF78">
+        <v>2.52</v>
+      </c>
+      <c r="BG78">
+        <v>1.21</v>
+      </c>
+      <c r="BH78">
+        <v>3.65</v>
+      </c>
+      <c r="BI78">
+        <v>1.4</v>
+      </c>
+      <c r="BJ78">
+        <v>2.72</v>
+      </c>
+      <c r="BK78">
+        <v>1.67</v>
+      </c>
+      <c r="BL78">
+        <v>2.12</v>
+      </c>
+      <c r="BM78">
+        <v>2.06</v>
+      </c>
+      <c r="BN78">
+        <v>1.71</v>
+      </c>
+      <c r="BO78">
+        <v>2.57</v>
+      </c>
+      <c r="BP78">
+        <v>1.44</v>
+      </c>
+    </row>
+    <row r="79" spans="1:68">
+      <c r="A79" s="1">
+        <v>78</v>
+      </c>
+      <c r="B79">
+        <v>7841105</v>
+      </c>
+      <c r="C79" t="s">
+        <v>68</v>
+      </c>
+      <c r="D79" t="s">
+        <v>69</v>
+      </c>
+      <c r="E79" s="2">
+        <v>45795.77083333334</v>
+      </c>
+      <c r="F79">
+        <v>8</v>
+      </c>
+      <c r="G79" t="s">
+        <v>71</v>
+      </c>
+      <c r="H79" t="s">
+        <v>70</v>
+      </c>
+      <c r="I79">
+        <v>0</v>
+      </c>
+      <c r="J79">
+        <v>0</v>
+      </c>
+      <c r="K79">
+        <v>0</v>
+      </c>
+      <c r="L79">
+        <v>0</v>
+      </c>
+      <c r="M79">
+        <v>0</v>
+      </c>
+      <c r="N79">
+        <v>0</v>
+      </c>
+      <c r="O79" t="s">
+        <v>97</v>
+      </c>
+      <c r="P79" t="s">
+        <v>97</v>
+      </c>
+      <c r="Q79">
+        <v>3.5</v>
+      </c>
+      <c r="R79">
+        <v>1.95</v>
+      </c>
+      <c r="S79">
+        <v>3.42</v>
+      </c>
+      <c r="T79">
+        <v>1.59</v>
+      </c>
+      <c r="U79">
+        <v>2.36</v>
+      </c>
+      <c r="V79">
+        <v>3.66</v>
+      </c>
+      <c r="W79">
+        <v>1.22</v>
+      </c>
+      <c r="X79">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="Y79">
+        <v>1</v>
+      </c>
+      <c r="Z79">
+        <v>2.56</v>
+      </c>
+      <c r="AA79">
+        <v>2.85</v>
+      </c>
+      <c r="AB79">
+        <v>2.7</v>
+      </c>
+      <c r="AC79">
+        <v>1.07</v>
+      </c>
+      <c r="AD79">
+        <v>5.9</v>
+      </c>
+      <c r="AE79">
+        <v>1.57</v>
+      </c>
+      <c r="AF79">
+        <v>2.4</v>
+      </c>
+      <c r="AG79">
+        <v>2.65</v>
+      </c>
+      <c r="AH79">
+        <v>1.45</v>
+      </c>
+      <c r="AI79">
+        <v>2.1</v>
+      </c>
+      <c r="AJ79">
+        <v>1.62</v>
+      </c>
+      <c r="AK79">
+        <v>1.4</v>
+      </c>
+      <c r="AL79">
+        <v>1.33</v>
+      </c>
+      <c r="AM79">
+        <v>1.4</v>
+      </c>
+      <c r="AN79">
+        <v>0.33</v>
+      </c>
+      <c r="AO79">
+        <v>2</v>
+      </c>
+      <c r="AP79">
+        <v>0.5</v>
+      </c>
+      <c r="AQ79">
+        <v>1.75</v>
+      </c>
+      <c r="AR79">
+        <v>1.67</v>
+      </c>
+      <c r="AS79">
+        <v>1.07</v>
+      </c>
+      <c r="AT79">
+        <v>2.74</v>
+      </c>
+      <c r="AU79">
+        <v>7</v>
+      </c>
+      <c r="AV79">
+        <v>4</v>
+      </c>
+      <c r="AW79">
+        <v>15</v>
+      </c>
+      <c r="AX79">
+        <v>10</v>
+      </c>
+      <c r="AY79">
+        <v>29</v>
+      </c>
+      <c r="AZ79">
+        <v>18</v>
+      </c>
+      <c r="BA79">
+        <v>5</v>
+      </c>
+      <c r="BB79">
+        <v>4</v>
+      </c>
+      <c r="BC79">
+        <v>9</v>
+      </c>
+      <c r="BD79">
+        <v>1.58</v>
+      </c>
+      <c r="BE79">
+        <v>7</v>
+      </c>
+      <c r="BF79">
+        <v>2.55</v>
+      </c>
+      <c r="BG79">
+        <v>1.17</v>
+      </c>
+      <c r="BH79">
+        <v>4.25</v>
+      </c>
+      <c r="BI79">
+        <v>1.28</v>
+      </c>
+      <c r="BJ79">
+        <v>2.8</v>
+      </c>
+      <c r="BK79">
+        <v>1.61</v>
+      </c>
+      <c r="BL79">
+        <v>2.28</v>
+      </c>
+      <c r="BM79">
+        <v>1.94</v>
+      </c>
+      <c r="BN79">
+        <v>1.84</v>
+      </c>
+      <c r="BO79">
+        <v>2.4</v>
+      </c>
+      <c r="BP79">
+        <v>1.49</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Brazil Serie B_2025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Brazil Serie B_2025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="536" uniqueCount="182">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="542" uniqueCount="182">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -463,6 +463,9 @@
     <t>['90+6']</t>
   </si>
   <si>
+    <t>['90+2']</t>
+  </si>
+  <si>
     <t>['33', '72']</t>
   </si>
   <si>
@@ -515,9 +518,6 @@
   </si>
   <si>
     <t>['64']</t>
-  </si>
-  <si>
-    <t>['90+2']</t>
   </si>
   <si>
     <t>['45+1']</t>
@@ -921,7 +921,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP79"/>
+  <dimension ref="A1:BP80"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1261,7 +1261,7 @@
         <v>2.5</v>
       </c>
       <c r="AQ2">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="AR2">
         <v>0</v>
@@ -1386,7 +1386,7 @@
         <v>91</v>
       </c>
       <c r="P3" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="Q3">
         <v>3.5</v>
@@ -1592,7 +1592,7 @@
         <v>92</v>
       </c>
       <c r="P4" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="Q4">
         <v>2.5</v>
@@ -2416,7 +2416,7 @@
         <v>96</v>
       </c>
       <c r="P8" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="Q8">
         <v>3</v>
@@ -2700,7 +2700,7 @@
         <v>0</v>
       </c>
       <c r="AP9">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="AQ9">
         <v>1.25</v>
@@ -3034,7 +3034,7 @@
         <v>99</v>
       </c>
       <c r="P11" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="Q11">
         <v>2.38</v>
@@ -3240,7 +3240,7 @@
         <v>100</v>
       </c>
       <c r="P12" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="Q12">
         <v>2.51</v>
@@ -3446,7 +3446,7 @@
         <v>101</v>
       </c>
       <c r="P13" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="Q13">
         <v>2.8</v>
@@ -3652,7 +3652,7 @@
         <v>102</v>
       </c>
       <c r="P14" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="Q14">
         <v>3.3</v>
@@ -4476,7 +4476,7 @@
         <v>105</v>
       </c>
       <c r="P18" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="Q18">
         <v>3.22</v>
@@ -4682,7 +4682,7 @@
         <v>106</v>
       </c>
       <c r="P19" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="Q19">
         <v>2.55</v>
@@ -5094,7 +5094,7 @@
         <v>92</v>
       </c>
       <c r="P21" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="Q21">
         <v>3.5</v>
@@ -5300,7 +5300,7 @@
         <v>108</v>
       </c>
       <c r="P22" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="Q22">
         <v>3.5</v>
@@ -5506,7 +5506,7 @@
         <v>97</v>
       </c>
       <c r="P23" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="Q23">
         <v>2.33</v>
@@ -6124,7 +6124,7 @@
         <v>109</v>
       </c>
       <c r="P26" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="Q26">
         <v>2.38</v>
@@ -6742,7 +6742,7 @@
         <v>112</v>
       </c>
       <c r="P29" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="Q29">
         <v>3.1</v>
@@ -7154,7 +7154,7 @@
         <v>114</v>
       </c>
       <c r="P31" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="Q31">
         <v>2.2</v>
@@ -7235,7 +7235,7 @@
         <v>2.5</v>
       </c>
       <c r="AQ31">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="AR31">
         <v>2.07</v>
@@ -8390,7 +8390,7 @@
         <v>97</v>
       </c>
       <c r="P37" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="Q37">
         <v>3.6</v>
@@ -8596,7 +8596,7 @@
         <v>119</v>
       </c>
       <c r="P38" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="Q38">
         <v>2.58</v>
@@ -9292,7 +9292,7 @@
         <v>1</v>
       </c>
       <c r="AP41">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="AQ41">
         <v>0.75</v>
@@ -9420,7 +9420,7 @@
         <v>122</v>
       </c>
       <c r="P42" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="Q42">
         <v>3.1</v>
@@ -9626,7 +9626,7 @@
         <v>123</v>
       </c>
       <c r="P43" t="s">
-        <v>167</v>
+        <v>149</v>
       </c>
       <c r="Q43">
         <v>2.35</v>
@@ -11480,7 +11480,7 @@
         <v>129</v>
       </c>
       <c r="P52" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="Q52">
         <v>3.5</v>
@@ -11767,7 +11767,7 @@
         <v>3</v>
       </c>
       <c r="AQ53">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="AR53">
         <v>1.06</v>
@@ -11970,7 +11970,7 @@
         <v>0.5</v>
       </c>
       <c r="AP54">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="AQ54">
         <v>0.5</v>
@@ -13540,7 +13540,7 @@
         <v>137</v>
       </c>
       <c r="P62" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="Q62">
         <v>2.13</v>
@@ -17199,6 +17199,212 @@
       </c>
       <c r="BP79">
         <v>1.49</v>
+      </c>
+    </row>
+    <row r="80" spans="1:68">
+      <c r="A80" s="1">
+        <v>79</v>
+      </c>
+      <c r="B80">
+        <v>7841111</v>
+      </c>
+      <c r="C80" t="s">
+        <v>68</v>
+      </c>
+      <c r="D80" t="s">
+        <v>69</v>
+      </c>
+      <c r="E80" s="2">
+        <v>45796.79166666666</v>
+      </c>
+      <c r="F80">
+        <v>8</v>
+      </c>
+      <c r="G80" t="s">
+        <v>77</v>
+      </c>
+      <c r="H80" t="s">
+        <v>84</v>
+      </c>
+      <c r="I80">
+        <v>0</v>
+      </c>
+      <c r="J80">
+        <v>1</v>
+      </c>
+      <c r="K80">
+        <v>1</v>
+      </c>
+      <c r="L80">
+        <v>1</v>
+      </c>
+      <c r="M80">
+        <v>1</v>
+      </c>
+      <c r="N80">
+        <v>2</v>
+      </c>
+      <c r="O80" t="s">
+        <v>149</v>
+      </c>
+      <c r="P80" t="s">
+        <v>98</v>
+      </c>
+      <c r="Q80">
+        <v>2.65</v>
+      </c>
+      <c r="R80">
+        <v>2.02</v>
+      </c>
+      <c r="S80">
+        <v>4.4</v>
+      </c>
+      <c r="T80">
+        <v>1.5</v>
+      </c>
+      <c r="U80">
+        <v>2.42</v>
+      </c>
+      <c r="V80">
+        <v>3.5</v>
+      </c>
+      <c r="W80">
+        <v>1.32</v>
+      </c>
+      <c r="X80">
+        <v>11</v>
+      </c>
+      <c r="Y80">
+        <v>1.03</v>
+      </c>
+      <c r="Z80">
+        <v>1.94</v>
+      </c>
+      <c r="AA80">
+        <v>3.15</v>
+      </c>
+      <c r="AB80">
+        <v>4.2</v>
+      </c>
+      <c r="AC80">
+        <v>1.11</v>
+      </c>
+      <c r="AD80">
+        <v>6.5</v>
+      </c>
+      <c r="AE80">
+        <v>1.54</v>
+      </c>
+      <c r="AF80">
+        <v>2.5</v>
+      </c>
+      <c r="AG80">
+        <v>2.5</v>
+      </c>
+      <c r="AH80">
+        <v>1.49</v>
+      </c>
+      <c r="AI80">
+        <v>2.1</v>
+      </c>
+      <c r="AJ80">
+        <v>1.62</v>
+      </c>
+      <c r="AK80">
+        <v>1.36</v>
+      </c>
+      <c r="AL80">
+        <v>1.25</v>
+      </c>
+      <c r="AM80">
+        <v>1.83</v>
+      </c>
+      <c r="AN80">
+        <v>1.33</v>
+      </c>
+      <c r="AO80">
+        <v>0</v>
+      </c>
+      <c r="AP80">
+        <v>1.25</v>
+      </c>
+      <c r="AQ80">
+        <v>0.25</v>
+      </c>
+      <c r="AR80">
+        <v>1.86</v>
+      </c>
+      <c r="AS80">
+        <v>1.29</v>
+      </c>
+      <c r="AT80">
+        <v>3.15</v>
+      </c>
+      <c r="AU80">
+        <v>10</v>
+      </c>
+      <c r="AV80">
+        <v>3</v>
+      </c>
+      <c r="AW80">
+        <v>27</v>
+      </c>
+      <c r="AX80">
+        <v>0</v>
+      </c>
+      <c r="AY80">
+        <v>45</v>
+      </c>
+      <c r="AZ80">
+        <v>3</v>
+      </c>
+      <c r="BA80">
+        <v>7</v>
+      </c>
+      <c r="BB80">
+        <v>1</v>
+      </c>
+      <c r="BC80">
+        <v>8</v>
+      </c>
+      <c r="BD80">
+        <v>1.68</v>
+      </c>
+      <c r="BE80">
+        <v>6.75</v>
+      </c>
+      <c r="BF80">
+        <v>2.6</v>
+      </c>
+      <c r="BG80">
+        <v>1.18</v>
+      </c>
+      <c r="BH80">
+        <v>4.2</v>
+      </c>
+      <c r="BI80">
+        <v>1.48</v>
+      </c>
+      <c r="BJ80">
+        <v>2.23</v>
+      </c>
+      <c r="BK80">
+        <v>1.75</v>
+      </c>
+      <c r="BL80">
+        <v>1.78</v>
+      </c>
+      <c r="BM80">
+        <v>2.4</v>
+      </c>
+      <c r="BN80">
+        <v>1.49</v>
+      </c>
+      <c r="BO80">
+        <v>2.75</v>
+      </c>
+      <c r="BP80">
+        <v>1.36</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Brazil Serie B_2025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Brazil Serie B_2025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="542" uniqueCount="182">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="548" uniqueCount="183">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -464,6 +464,9 @@
   </si>
   <si>
     <t>['90+2']</t>
+  </si>
+  <si>
+    <t>['23']</t>
   </si>
   <si>
     <t>['33', '72']</t>
@@ -921,7 +924,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP80"/>
+  <dimension ref="A1:BP81"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1386,7 +1389,7 @@
         <v>91</v>
       </c>
       <c r="P3" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="Q3">
         <v>3.5</v>
@@ -1592,7 +1595,7 @@
         <v>92</v>
       </c>
       <c r="P4" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="Q4">
         <v>2.5</v>
@@ -1876,7 +1879,7 @@
         <v>0</v>
       </c>
       <c r="AP5">
-        <v>2.33</v>
+        <v>2.5</v>
       </c>
       <c r="AQ5">
         <v>1</v>
@@ -2416,7 +2419,7 @@
         <v>96</v>
       </c>
       <c r="P8" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="Q8">
         <v>3</v>
@@ -3034,7 +3037,7 @@
         <v>99</v>
       </c>
       <c r="P11" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="Q11">
         <v>2.38</v>
@@ -3240,7 +3243,7 @@
         <v>100</v>
       </c>
       <c r="P12" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="Q12">
         <v>2.51</v>
@@ -3446,7 +3449,7 @@
         <v>101</v>
       </c>
       <c r="P13" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="Q13">
         <v>2.8</v>
@@ -3652,7 +3655,7 @@
         <v>102</v>
       </c>
       <c r="P14" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="Q14">
         <v>3.3</v>
@@ -4476,7 +4479,7 @@
         <v>105</v>
       </c>
       <c r="P18" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="Q18">
         <v>3.22</v>
@@ -4682,7 +4685,7 @@
         <v>106</v>
       </c>
       <c r="P19" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="Q19">
         <v>2.55</v>
@@ -5094,7 +5097,7 @@
         <v>92</v>
       </c>
       <c r="P21" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="Q21">
         <v>3.5</v>
@@ -5300,7 +5303,7 @@
         <v>108</v>
       </c>
       <c r="P22" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="Q22">
         <v>3.5</v>
@@ -5506,7 +5509,7 @@
         <v>97</v>
       </c>
       <c r="P23" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="Q23">
         <v>2.33</v>
@@ -5996,7 +5999,7 @@
         <v>1</v>
       </c>
       <c r="AP25">
-        <v>2.33</v>
+        <v>2.5</v>
       </c>
       <c r="AQ25">
         <v>1.25</v>
@@ -6124,7 +6127,7 @@
         <v>109</v>
       </c>
       <c r="P26" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="Q26">
         <v>2.38</v>
@@ -6742,7 +6745,7 @@
         <v>112</v>
       </c>
       <c r="P29" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="Q29">
         <v>3.1</v>
@@ -7154,7 +7157,7 @@
         <v>114</v>
       </c>
       <c r="P31" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="Q31">
         <v>2.2</v>
@@ -8390,7 +8393,7 @@
         <v>97</v>
       </c>
       <c r="P37" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="Q37">
         <v>3.6</v>
@@ -8596,7 +8599,7 @@
         <v>119</v>
       </c>
       <c r="P38" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="Q38">
         <v>2.58</v>
@@ -9420,7 +9423,7 @@
         <v>122</v>
       </c>
       <c r="P42" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="Q42">
         <v>3.1</v>
@@ -10116,7 +10119,7 @@
         <v>1.5</v>
       </c>
       <c r="AP45">
-        <v>2.33</v>
+        <v>2.5</v>
       </c>
       <c r="AQ45">
         <v>1.5</v>
@@ -10656,7 +10659,7 @@
         <v>95</v>
       </c>
       <c r="P48" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="Q48">
         <v>3.08</v>
@@ -10862,7 +10865,7 @@
         <v>127</v>
       </c>
       <c r="P49" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="Q49">
         <v>2.75</v>
@@ -11274,7 +11277,7 @@
         <v>97</v>
       </c>
       <c r="P51" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="Q51">
         <v>4.2</v>
@@ -11480,7 +11483,7 @@
         <v>129</v>
       </c>
       <c r="P52" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="Q52">
         <v>3.5</v>
@@ -12304,7 +12307,7 @@
         <v>132</v>
       </c>
       <c r="P56" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="Q56">
         <v>3.22</v>
@@ -12510,7 +12513,7 @@
         <v>133</v>
       </c>
       <c r="P57" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="Q57">
         <v>1.97</v>
@@ -12922,7 +12925,7 @@
         <v>135</v>
       </c>
       <c r="P59" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="Q59">
         <v>2.88</v>
@@ -13334,7 +13337,7 @@
         <v>97</v>
       </c>
       <c r="P61" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="Q61">
         <v>2.85</v>
@@ -13540,7 +13543,7 @@
         <v>137</v>
       </c>
       <c r="P62" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="Q62">
         <v>2.13</v>
@@ -14364,7 +14367,7 @@
         <v>139</v>
       </c>
       <c r="P66" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="Q66">
         <v>2.6</v>
@@ -14570,7 +14573,7 @@
         <v>140</v>
       </c>
       <c r="P67" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="Q67">
         <v>2.35</v>
@@ -14776,7 +14779,7 @@
         <v>97</v>
       </c>
       <c r="P68" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="Q68">
         <v>2.8</v>
@@ -14982,7 +14985,7 @@
         <v>141</v>
       </c>
       <c r="P69" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="Q69">
         <v>3</v>
@@ -15394,7 +15397,7 @@
         <v>143</v>
       </c>
       <c r="P71" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="Q71">
         <v>2.13</v>
@@ -16218,7 +16221,7 @@
         <v>147</v>
       </c>
       <c r="P75" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="Q75">
         <v>3.6</v>
@@ -16424,7 +16427,7 @@
         <v>97</v>
       </c>
       <c r="P76" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="Q76">
         <v>3.64</v>
@@ -16630,7 +16633,7 @@
         <v>148</v>
       </c>
       <c r="P77" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="Q77">
         <v>2.5</v>
@@ -17405,6 +17408,212 @@
       </c>
       <c r="BP80">
         <v>1.36</v>
+      </c>
+    </row>
+    <row r="81" spans="1:68">
+      <c r="A81" s="1">
+        <v>80</v>
+      </c>
+      <c r="B81">
+        <v>7841102</v>
+      </c>
+      <c r="C81" t="s">
+        <v>68</v>
+      </c>
+      <c r="D81" t="s">
+        <v>69</v>
+      </c>
+      <c r="E81" s="2">
+        <v>45796.89930555555</v>
+      </c>
+      <c r="F81">
+        <v>8</v>
+      </c>
+      <c r="G81" t="s">
+        <v>73</v>
+      </c>
+      <c r="H81" t="s">
+        <v>75</v>
+      </c>
+      <c r="I81">
+        <v>1</v>
+      </c>
+      <c r="J81">
+        <v>0</v>
+      </c>
+      <c r="K81">
+        <v>1</v>
+      </c>
+      <c r="L81">
+        <v>1</v>
+      </c>
+      <c r="M81">
+        <v>0</v>
+      </c>
+      <c r="N81">
+        <v>1</v>
+      </c>
+      <c r="O81" t="s">
+        <v>150</v>
+      </c>
+      <c r="P81" t="s">
+        <v>97</v>
+      </c>
+      <c r="Q81">
+        <v>2.75</v>
+      </c>
+      <c r="R81">
+        <v>1.95</v>
+      </c>
+      <c r="S81">
+        <v>4.3</v>
+      </c>
+      <c r="T81">
+        <v>1.61</v>
+      </c>
+      <c r="U81">
+        <v>2.2</v>
+      </c>
+      <c r="V81">
+        <v>3.5</v>
+      </c>
+      <c r="W81">
+        <v>1.25</v>
+      </c>
+      <c r="X81">
+        <v>10</v>
+      </c>
+      <c r="Y81">
+        <v>1.02</v>
+      </c>
+      <c r="Z81">
+        <v>1.95</v>
+      </c>
+      <c r="AA81">
+        <v>2.75</v>
+      </c>
+      <c r="AB81">
+        <v>4.2</v>
+      </c>
+      <c r="AC81">
+        <v>1.09</v>
+      </c>
+      <c r="AD81">
+        <v>6.2</v>
+      </c>
+      <c r="AE81">
+        <v>1.71</v>
+      </c>
+      <c r="AF81">
+        <v>2.4</v>
+      </c>
+      <c r="AG81">
+        <v>2.63</v>
+      </c>
+      <c r="AH81">
+        <v>1.45</v>
+      </c>
+      <c r="AI81">
+        <v>2.3</v>
+      </c>
+      <c r="AJ81">
+        <v>1.55</v>
+      </c>
+      <c r="AK81">
+        <v>1.4</v>
+      </c>
+      <c r="AL81">
+        <v>1.3</v>
+      </c>
+      <c r="AM81">
+        <v>1.73</v>
+      </c>
+      <c r="AN81">
+        <v>2.33</v>
+      </c>
+      <c r="AO81">
+        <v>0</v>
+      </c>
+      <c r="AP81">
+        <v>2.5</v>
+      </c>
+      <c r="AQ81">
+        <v>0</v>
+      </c>
+      <c r="AR81">
+        <v>1.39</v>
+      </c>
+      <c r="AS81">
+        <v>1.73</v>
+      </c>
+      <c r="AT81">
+        <v>3.12</v>
+      </c>
+      <c r="AU81">
+        <v>7</v>
+      </c>
+      <c r="AV81">
+        <v>11</v>
+      </c>
+      <c r="AW81">
+        <v>3</v>
+      </c>
+      <c r="AX81">
+        <v>6</v>
+      </c>
+      <c r="AY81">
+        <v>12</v>
+      </c>
+      <c r="AZ81">
+        <v>22</v>
+      </c>
+      <c r="BA81">
+        <v>9</v>
+      </c>
+      <c r="BB81">
+        <v>6</v>
+      </c>
+      <c r="BC81">
+        <v>15</v>
+      </c>
+      <c r="BD81">
+        <v>1.58</v>
+      </c>
+      <c r="BE81">
+        <v>7</v>
+      </c>
+      <c r="BF81">
+        <v>2.8</v>
+      </c>
+      <c r="BG81">
+        <v>1.2</v>
+      </c>
+      <c r="BH81">
+        <v>4.2</v>
+      </c>
+      <c r="BI81">
+        <v>1.38</v>
+      </c>
+      <c r="BJ81">
+        <v>3.4</v>
+      </c>
+      <c r="BK81">
+        <v>1.6</v>
+      </c>
+      <c r="BL81">
+        <v>2.37</v>
+      </c>
+      <c r="BM81">
+        <v>1.9</v>
+      </c>
+      <c r="BN81">
+        <v>1.8</v>
+      </c>
+      <c r="BO81">
+        <v>2.42</v>
+      </c>
+      <c r="BP81">
+        <v>1.47</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Brazil Serie B_2025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Brazil Serie B_2025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="548" uniqueCount="183">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="602" uniqueCount="192">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -469,6 +469,27 @@
     <t>['23']</t>
   </si>
   <si>
+    <t>['38', '84']</t>
+  </si>
+  <si>
+    <t>['58']</t>
+  </si>
+  <si>
+    <t>['35']</t>
+  </si>
+  <si>
+    <t>['48', '84']</t>
+  </si>
+  <si>
+    <t>['27', '60', '82']</t>
+  </si>
+  <si>
+    <t>['51', '84']</t>
+  </si>
+  <si>
+    <t>['1', '46']</t>
+  </si>
+  <si>
     <t>['33', '72']</t>
   </si>
   <si>
@@ -532,9 +553,6 @@
     <t>['45']</t>
   </si>
   <si>
-    <t>['35']</t>
-  </si>
-  <si>
     <t>['24', '45+3', '60', '68']</t>
   </si>
   <si>
@@ -563,6 +581,15 @@
   </si>
   <si>
     <t>['52']</t>
+  </si>
+  <si>
+    <t>['74']</t>
+  </si>
+  <si>
+    <t>['60']</t>
+  </si>
+  <si>
+    <t>['63']</t>
   </si>
 </sst>
 </file>
@@ -924,7 +951,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP81"/>
+  <dimension ref="A1:BP90"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1261,7 +1288,7 @@
         <v>0</v>
       </c>
       <c r="AP2">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="AQ2">
         <v>0.25</v>
@@ -1389,7 +1416,7 @@
         <v>91</v>
       </c>
       <c r="P3" t="s">
-        <v>151</v>
+        <v>158</v>
       </c>
       <c r="Q3">
         <v>3.5</v>
@@ -1595,7 +1622,7 @@
         <v>92</v>
       </c>
       <c r="P4" t="s">
-        <v>152</v>
+        <v>159</v>
       </c>
       <c r="Q4">
         <v>2.5</v>
@@ -1673,10 +1700,10 @@
         <v>0</v>
       </c>
       <c r="AP4">
-        <v>1.25</v>
+        <v>1</v>
       </c>
       <c r="AQ4">
-        <v>1.5</v>
+        <v>1.2</v>
       </c>
       <c r="AR4">
         <v>0</v>
@@ -1882,7 +1909,7 @@
         <v>2.5</v>
       </c>
       <c r="AQ5">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AR5">
         <v>0</v>
@@ -2088,7 +2115,7 @@
         <v>2.5</v>
       </c>
       <c r="AQ6">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AR6">
         <v>0</v>
@@ -2419,7 +2446,7 @@
         <v>96</v>
       </c>
       <c r="P8" t="s">
-        <v>153</v>
+        <v>160</v>
       </c>
       <c r="Q8">
         <v>3</v>
@@ -2909,7 +2936,7 @@
         <v>0</v>
       </c>
       <c r="AP10">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="AQ10">
         <v>1.25</v>
@@ -3037,7 +3064,7 @@
         <v>99</v>
       </c>
       <c r="P11" t="s">
-        <v>154</v>
+        <v>161</v>
       </c>
       <c r="Q11">
         <v>2.38</v>
@@ -3118,7 +3145,7 @@
         <v>2</v>
       </c>
       <c r="AQ11">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="AR11">
         <v>0</v>
@@ -3243,7 +3270,7 @@
         <v>100</v>
       </c>
       <c r="P12" t="s">
-        <v>155</v>
+        <v>162</v>
       </c>
       <c r="Q12">
         <v>2.51</v>
@@ -3321,7 +3348,7 @@
         <v>0</v>
       </c>
       <c r="AP12">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="AQ12">
         <v>0.25</v>
@@ -3449,7 +3476,7 @@
         <v>101</v>
       </c>
       <c r="P13" t="s">
-        <v>156</v>
+        <v>163</v>
       </c>
       <c r="Q13">
         <v>2.8</v>
@@ -3527,7 +3554,7 @@
         <v>0</v>
       </c>
       <c r="AP13">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="AQ13">
         <v>1.25</v>
@@ -3655,7 +3682,7 @@
         <v>102</v>
       </c>
       <c r="P14" t="s">
-        <v>157</v>
+        <v>164</v>
       </c>
       <c r="Q14">
         <v>3.3</v>
@@ -3736,7 +3763,7 @@
         <v>2.25</v>
       </c>
       <c r="AQ14">
-        <v>0.75</v>
+        <v>1.2</v>
       </c>
       <c r="AR14">
         <v>0</v>
@@ -3942,7 +3969,7 @@
         <v>3</v>
       </c>
       <c r="AQ15">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="AR15">
         <v>0</v>
@@ -4145,10 +4172,10 @@
         <v>0</v>
       </c>
       <c r="AP16">
-        <v>0.75</v>
+        <v>1.2</v>
       </c>
       <c r="AQ16">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="AR16">
         <v>0</v>
@@ -4351,10 +4378,10 @@
         <v>0</v>
       </c>
       <c r="AP17">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="AQ17">
-        <v>0.25</v>
+        <v>0.4</v>
       </c>
       <c r="AR17">
         <v>0</v>
@@ -4479,7 +4506,7 @@
         <v>105</v>
       </c>
       <c r="P18" t="s">
-        <v>158</v>
+        <v>165</v>
       </c>
       <c r="Q18">
         <v>3.22</v>
@@ -4685,7 +4712,7 @@
         <v>106</v>
       </c>
       <c r="P19" t="s">
-        <v>159</v>
+        <v>166</v>
       </c>
       <c r="Q19">
         <v>2.55</v>
@@ -4766,7 +4793,7 @@
         <v>0.75</v>
       </c>
       <c r="AQ19">
-        <v>1.25</v>
+        <v>1</v>
       </c>
       <c r="AR19">
         <v>0</v>
@@ -4969,7 +4996,7 @@
         <v>0</v>
       </c>
       <c r="AP20">
-        <v>3</v>
+        <v>2.6</v>
       </c>
       <c r="AQ20">
         <v>0</v>
@@ -5097,7 +5124,7 @@
         <v>92</v>
       </c>
       <c r="P21" t="s">
-        <v>160</v>
+        <v>167</v>
       </c>
       <c r="Q21">
         <v>3.5</v>
@@ -5175,7 +5202,7 @@
         <v>0</v>
       </c>
       <c r="AP21">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="AQ21">
         <v>0.75</v>
@@ -5303,7 +5330,7 @@
         <v>108</v>
       </c>
       <c r="P22" t="s">
-        <v>161</v>
+        <v>168</v>
       </c>
       <c r="Q22">
         <v>3.5</v>
@@ -5381,7 +5408,7 @@
         <v>3</v>
       </c>
       <c r="AP22">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="AQ22">
         <v>0.75</v>
@@ -5509,7 +5536,7 @@
         <v>97</v>
       </c>
       <c r="P23" t="s">
-        <v>162</v>
+        <v>169</v>
       </c>
       <c r="Q23">
         <v>2.33</v>
@@ -5590,7 +5617,7 @@
         <v>0.5</v>
       </c>
       <c r="AQ23">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AR23">
         <v>1.37</v>
@@ -5793,10 +5820,10 @@
         <v>3</v>
       </c>
       <c r="AP24">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="AQ24">
-        <v>1.5</v>
+        <v>1.2</v>
       </c>
       <c r="AR24">
         <v>1.38</v>
@@ -6127,7 +6154,7 @@
         <v>109</v>
       </c>
       <c r="P26" t="s">
-        <v>163</v>
+        <v>170</v>
       </c>
       <c r="Q26">
         <v>2.38</v>
@@ -6205,10 +6232,10 @@
         <v>0</v>
       </c>
       <c r="AP26">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="AQ26">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AR26">
         <v>1.49</v>
@@ -6411,10 +6438,10 @@
         <v>0</v>
       </c>
       <c r="AP27">
-        <v>1.25</v>
+        <v>1</v>
       </c>
       <c r="AQ27">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="AR27">
         <v>1.99</v>
@@ -6620,7 +6647,7 @@
         <v>2.5</v>
       </c>
       <c r="AQ28">
-        <v>0.25</v>
+        <v>0.4</v>
       </c>
       <c r="AR28">
         <v>1.84</v>
@@ -6745,7 +6772,7 @@
         <v>112</v>
       </c>
       <c r="P29" t="s">
-        <v>164</v>
+        <v>171</v>
       </c>
       <c r="Q29">
         <v>3.1</v>
@@ -6823,7 +6850,7 @@
         <v>1</v>
       </c>
       <c r="AP29">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="AQ29">
         <v>1</v>
@@ -7157,7 +7184,7 @@
         <v>114</v>
       </c>
       <c r="P31" t="s">
-        <v>165</v>
+        <v>172</v>
       </c>
       <c r="Q31">
         <v>2.2</v>
@@ -7444,7 +7471,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ32">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="AR32">
         <v>1.17</v>
@@ -7856,7 +7883,7 @@
         <v>2.25</v>
       </c>
       <c r="AQ34">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="AR34">
         <v>2.24</v>
@@ -8059,10 +8086,10 @@
         <v>3</v>
       </c>
       <c r="AP35">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="AQ35">
-        <v>1.25</v>
+        <v>1</v>
       </c>
       <c r="AR35">
         <v>1.66</v>
@@ -8393,7 +8420,7 @@
         <v>97</v>
       </c>
       <c r="P37" t="s">
-        <v>166</v>
+        <v>173</v>
       </c>
       <c r="Q37">
         <v>3.6</v>
@@ -8471,7 +8498,7 @@
         <v>1</v>
       </c>
       <c r="AP37">
-        <v>0.75</v>
+        <v>1.2</v>
       </c>
       <c r="AQ37">
         <v>1.25</v>
@@ -8599,7 +8626,7 @@
         <v>119</v>
       </c>
       <c r="P38" t="s">
-        <v>167</v>
+        <v>174</v>
       </c>
       <c r="Q38">
         <v>2.58</v>
@@ -8677,7 +8704,7 @@
         <v>0</v>
       </c>
       <c r="AP38">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="AQ38">
         <v>0.25</v>
@@ -8883,10 +8910,10 @@
         <v>3</v>
       </c>
       <c r="AP39">
-        <v>3</v>
+        <v>2.6</v>
       </c>
       <c r="AQ39">
-        <v>0.75</v>
+        <v>1.2</v>
       </c>
       <c r="AR39">
         <v>1.19</v>
@@ -9298,7 +9325,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ41">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="AR41">
         <v>1.74</v>
@@ -9423,7 +9450,7 @@
         <v>122</v>
       </c>
       <c r="P42" t="s">
-        <v>168</v>
+        <v>175</v>
       </c>
       <c r="Q42">
         <v>3.1</v>
@@ -9501,7 +9528,7 @@
         <v>1.5</v>
       </c>
       <c r="AP42">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="AQ42">
         <v>0.75</v>
@@ -9707,7 +9734,7 @@
         <v>1</v>
       </c>
       <c r="AP43">
-        <v>1.25</v>
+        <v>1</v>
       </c>
       <c r="AQ43">
         <v>1</v>
@@ -9916,7 +9943,7 @@
         <v>3</v>
       </c>
       <c r="AQ44">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AR44">
         <v>1.73</v>
@@ -10122,7 +10149,7 @@
         <v>2.5</v>
       </c>
       <c r="AQ45">
-        <v>1.5</v>
+        <v>1.2</v>
       </c>
       <c r="AR45">
         <v>1.46</v>
@@ -10325,7 +10352,7 @@
         <v>0</v>
       </c>
       <c r="AP46">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="AQ46">
         <v>0</v>
@@ -10534,7 +10561,7 @@
         <v>0.75</v>
       </c>
       <c r="AQ47">
-        <v>0.25</v>
+        <v>0.4</v>
       </c>
       <c r="AR47">
         <v>2.22</v>
@@ -10659,7 +10686,7 @@
         <v>95</v>
       </c>
       <c r="P48" t="s">
-        <v>169</v>
+        <v>176</v>
       </c>
       <c r="Q48">
         <v>3.08</v>
@@ -10737,7 +10764,7 @@
         <v>0.5</v>
       </c>
       <c r="AP48">
-        <v>0.75</v>
+        <v>1.2</v>
       </c>
       <c r="AQ48">
         <v>0.75</v>
@@ -10865,7 +10892,7 @@
         <v>127</v>
       </c>
       <c r="P49" t="s">
-        <v>170</v>
+        <v>177</v>
       </c>
       <c r="Q49">
         <v>2.75</v>
@@ -10946,7 +10973,7 @@
         <v>0.5</v>
       </c>
       <c r="AQ49">
-        <v>1.25</v>
+        <v>1</v>
       </c>
       <c r="AR49">
         <v>1.47</v>
@@ -11149,10 +11176,10 @@
         <v>1</v>
       </c>
       <c r="AP50">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="AQ50">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="AR50">
         <v>1.55</v>
@@ -11277,7 +11304,7 @@
         <v>97</v>
       </c>
       <c r="P51" t="s">
-        <v>171</v>
+        <v>178</v>
       </c>
       <c r="Q51">
         <v>4.2</v>
@@ -11355,7 +11382,7 @@
         <v>1.5</v>
       </c>
       <c r="AP51">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="AQ51">
         <v>1.75</v>
@@ -11483,7 +11510,7 @@
         <v>129</v>
       </c>
       <c r="P52" t="s">
-        <v>167</v>
+        <v>174</v>
       </c>
       <c r="Q52">
         <v>3.5</v>
@@ -11564,7 +11591,7 @@
         <v>2</v>
       </c>
       <c r="AQ52">
-        <v>0.75</v>
+        <v>1.2</v>
       </c>
       <c r="AR52">
         <v>2.26</v>
@@ -11767,7 +11794,7 @@
         <v>0</v>
       </c>
       <c r="AP53">
-        <v>3</v>
+        <v>2.6</v>
       </c>
       <c r="AQ53">
         <v>0.25</v>
@@ -11976,7 +12003,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ54">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="AR54">
         <v>1.72</v>
@@ -12307,7 +12334,7 @@
         <v>132</v>
       </c>
       <c r="P56" t="s">
-        <v>172</v>
+        <v>153</v>
       </c>
       <c r="Q56">
         <v>3.22</v>
@@ -12513,7 +12540,7 @@
         <v>133</v>
       </c>
       <c r="P57" t="s">
-        <v>173</v>
+        <v>179</v>
       </c>
       <c r="Q57">
         <v>1.97</v>
@@ -12591,7 +12618,7 @@
         <v>0</v>
       </c>
       <c r="AP57">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="AQ57">
         <v>0.75</v>
@@ -12925,7 +12952,7 @@
         <v>135</v>
       </c>
       <c r="P59" t="s">
-        <v>174</v>
+        <v>180</v>
       </c>
       <c r="Q59">
         <v>2.88</v>
@@ -13003,7 +13030,7 @@
         <v>2</v>
       </c>
       <c r="AP59">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="AQ59">
         <v>1.25</v>
@@ -13337,7 +13364,7 @@
         <v>97</v>
       </c>
       <c r="P61" t="s">
-        <v>175</v>
+        <v>181</v>
       </c>
       <c r="Q61">
         <v>2.85</v>
@@ -13418,7 +13445,7 @@
         <v>0.75</v>
       </c>
       <c r="AQ61">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AR61">
         <v>1.76</v>
@@ -13543,7 +13570,7 @@
         <v>137</v>
       </c>
       <c r="P62" t="s">
-        <v>160</v>
+        <v>167</v>
       </c>
       <c r="Q62">
         <v>2.13</v>
@@ -13621,10 +13648,10 @@
         <v>1</v>
       </c>
       <c r="AP62">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="AQ62">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AR62">
         <v>1.4</v>
@@ -13827,7 +13854,7 @@
         <v>0.67</v>
       </c>
       <c r="AP63">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="AQ63">
         <v>0.75</v>
@@ -14033,10 +14060,10 @@
         <v>1</v>
       </c>
       <c r="AP64">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="AQ64">
-        <v>0.75</v>
+        <v>1.2</v>
       </c>
       <c r="AR64">
         <v>1.84</v>
@@ -14239,10 +14266,10 @@
         <v>0</v>
       </c>
       <c r="AP65">
-        <v>1.25</v>
+        <v>1</v>
       </c>
       <c r="AQ65">
-        <v>0.25</v>
+        <v>0.4</v>
       </c>
       <c r="AR65">
         <v>2.13</v>
@@ -14367,7 +14394,7 @@
         <v>139</v>
       </c>
       <c r="P66" t="s">
-        <v>176</v>
+        <v>182</v>
       </c>
       <c r="Q66">
         <v>2.6</v>
@@ -14445,10 +14472,10 @@
         <v>1</v>
       </c>
       <c r="AP66">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="AQ66">
-        <v>1.5</v>
+        <v>1.2</v>
       </c>
       <c r="AR66">
         <v>1.58</v>
@@ -14573,7 +14600,7 @@
         <v>140</v>
       </c>
       <c r="P67" t="s">
-        <v>177</v>
+        <v>183</v>
       </c>
       <c r="Q67">
         <v>2.35</v>
@@ -14651,10 +14678,10 @@
         <v>0.67</v>
       </c>
       <c r="AP67">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="AQ67">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="AR67">
         <v>2.23</v>
@@ -14779,7 +14806,7 @@
         <v>97</v>
       </c>
       <c r="P68" t="s">
-        <v>178</v>
+        <v>184</v>
       </c>
       <c r="Q68">
         <v>2.8</v>
@@ -14857,10 +14884,10 @@
         <v>0</v>
       </c>
       <c r="AP68">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="AQ68">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="AR68">
         <v>1.28</v>
@@ -14985,7 +15012,7 @@
         <v>141</v>
       </c>
       <c r="P69" t="s">
-        <v>175</v>
+        <v>181</v>
       </c>
       <c r="Q69">
         <v>3</v>
@@ -15063,10 +15090,10 @@
         <v>1.33</v>
       </c>
       <c r="AP69">
-        <v>0.75</v>
+        <v>1.2</v>
       </c>
       <c r="AQ69">
-        <v>1.25</v>
+        <v>1</v>
       </c>
       <c r="AR69">
         <v>1.87</v>
@@ -15269,10 +15296,10 @@
         <v>1.33</v>
       </c>
       <c r="AP70">
-        <v>3</v>
+        <v>2.6</v>
       </c>
       <c r="AQ70">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AR70">
         <v>1.26</v>
@@ -15397,7 +15424,7 @@
         <v>143</v>
       </c>
       <c r="P71" t="s">
-        <v>179</v>
+        <v>185</v>
       </c>
       <c r="Q71">
         <v>2.13</v>
@@ -15478,7 +15505,7 @@
         <v>2.5</v>
       </c>
       <c r="AQ71">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="AR71">
         <v>2.01</v>
@@ -16221,7 +16248,7 @@
         <v>147</v>
       </c>
       <c r="P75" t="s">
-        <v>180</v>
+        <v>186</v>
       </c>
       <c r="Q75">
         <v>3.6</v>
@@ -16427,7 +16454,7 @@
         <v>97</v>
       </c>
       <c r="P76" t="s">
-        <v>181</v>
+        <v>187</v>
       </c>
       <c r="Q76">
         <v>3.64</v>
@@ -16633,7 +16660,7 @@
         <v>148</v>
       </c>
       <c r="P77" t="s">
-        <v>182</v>
+        <v>188</v>
       </c>
       <c r="Q77">
         <v>2.5</v>
@@ -17614,6 +17641,1860 @@
       </c>
       <c r="BP81">
         <v>1.47</v>
+      </c>
+    </row>
+    <row r="82" spans="1:68">
+      <c r="A82" s="1">
+        <v>81</v>
+      </c>
+      <c r="B82">
+        <v>7841113</v>
+      </c>
+      <c r="C82" t="s">
+        <v>68</v>
+      </c>
+      <c r="D82" t="s">
+        <v>69</v>
+      </c>
+      <c r="E82" s="2">
+        <v>45800.89930555555</v>
+      </c>
+      <c r="F82">
+        <v>9</v>
+      </c>
+      <c r="G82" t="s">
+        <v>70</v>
+      </c>
+      <c r="H82" t="s">
+        <v>76</v>
+      </c>
+      <c r="I82">
+        <v>1</v>
+      </c>
+      <c r="J82">
+        <v>0</v>
+      </c>
+      <c r="K82">
+        <v>1</v>
+      </c>
+      <c r="L82">
+        <v>2</v>
+      </c>
+      <c r="M82">
+        <v>0</v>
+      </c>
+      <c r="N82">
+        <v>2</v>
+      </c>
+      <c r="O82" t="s">
+        <v>151</v>
+      </c>
+      <c r="P82" t="s">
+        <v>97</v>
+      </c>
+      <c r="Q82">
+        <v>2.55</v>
+      </c>
+      <c r="R82">
+        <v>1.9</v>
+      </c>
+      <c r="S82">
+        <v>5</v>
+      </c>
+      <c r="T82">
+        <v>1.6</v>
+      </c>
+      <c r="U82">
+        <v>2.35</v>
+      </c>
+      <c r="V82">
+        <v>3.6</v>
+      </c>
+      <c r="W82">
+        <v>1.22</v>
+      </c>
+      <c r="X82">
+        <v>10.5</v>
+      </c>
+      <c r="Y82">
+        <v>1.04</v>
+      </c>
+      <c r="Z82">
+        <v>1.95</v>
+      </c>
+      <c r="AA82">
+        <v>2.8</v>
+      </c>
+      <c r="AB82">
+        <v>4.2</v>
+      </c>
+      <c r="AC82">
+        <v>1.11</v>
+      </c>
+      <c r="AD82">
+        <v>5.75</v>
+      </c>
+      <c r="AE82">
+        <v>1.53</v>
+      </c>
+      <c r="AF82">
+        <v>2.38</v>
+      </c>
+      <c r="AG82">
+        <v>2.62</v>
+      </c>
+      <c r="AH82">
+        <v>1.42</v>
+      </c>
+      <c r="AI82">
+        <v>2.25</v>
+      </c>
+      <c r="AJ82">
+        <v>1.57</v>
+      </c>
+      <c r="AK82">
+        <v>1.3</v>
+      </c>
+      <c r="AL82">
+        <v>1.25</v>
+      </c>
+      <c r="AM82">
+        <v>1.82</v>
+      </c>
+      <c r="AN82">
+        <v>2.5</v>
+      </c>
+      <c r="AO82">
+        <v>0.75</v>
+      </c>
+      <c r="AP82">
+        <v>2.6</v>
+      </c>
+      <c r="AQ82">
+        <v>0.6</v>
+      </c>
+      <c r="AR82">
+        <v>1.86</v>
+      </c>
+      <c r="AS82">
+        <v>1.21</v>
+      </c>
+      <c r="AT82">
+        <v>3.07</v>
+      </c>
+      <c r="AU82">
+        <v>4</v>
+      </c>
+      <c r="AV82">
+        <v>9</v>
+      </c>
+      <c r="AW82">
+        <v>5</v>
+      </c>
+      <c r="AX82">
+        <v>14</v>
+      </c>
+      <c r="AY82">
+        <v>12</v>
+      </c>
+      <c r="AZ82">
+        <v>28</v>
+      </c>
+      <c r="BA82">
+        <v>4</v>
+      </c>
+      <c r="BB82">
+        <v>8</v>
+      </c>
+      <c r="BC82">
+        <v>12</v>
+      </c>
+      <c r="BD82">
+        <v>1.44</v>
+      </c>
+      <c r="BE82">
+        <v>7.5</v>
+      </c>
+      <c r="BF82">
+        <v>3.72</v>
+      </c>
+      <c r="BG82">
+        <v>1.2</v>
+      </c>
+      <c r="BH82">
+        <v>4</v>
+      </c>
+      <c r="BI82">
+        <v>1.26</v>
+      </c>
+      <c r="BJ82">
+        <v>3.22</v>
+      </c>
+      <c r="BK82">
+        <v>1.78</v>
+      </c>
+      <c r="BL82">
+        <v>2.25</v>
+      </c>
+      <c r="BM82">
+        <v>1.8</v>
+      </c>
+      <c r="BN82">
+        <v>1.85</v>
+      </c>
+      <c r="BO82">
+        <v>2.5</v>
+      </c>
+      <c r="BP82">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="83" spans="1:68">
+      <c r="A83" s="1">
+        <v>82</v>
+      </c>
+      <c r="B83">
+        <v>7841112</v>
+      </c>
+      <c r="C83" t="s">
+        <v>68</v>
+      </c>
+      <c r="D83" t="s">
+        <v>69</v>
+      </c>
+      <c r="E83" s="2">
+        <v>45801.66666666666</v>
+      </c>
+      <c r="F83">
+        <v>9</v>
+      </c>
+      <c r="G83" t="s">
+        <v>80</v>
+      </c>
+      <c r="H83" t="s">
+        <v>87</v>
+      </c>
+      <c r="I83">
+        <v>0</v>
+      </c>
+      <c r="J83">
+        <v>0</v>
+      </c>
+      <c r="K83">
+        <v>0</v>
+      </c>
+      <c r="L83">
+        <v>1</v>
+      </c>
+      <c r="M83">
+        <v>0</v>
+      </c>
+      <c r="N83">
+        <v>1</v>
+      </c>
+      <c r="O83" t="s">
+        <v>152</v>
+      </c>
+      <c r="P83" t="s">
+        <v>97</v>
+      </c>
+      <c r="Q83">
+        <v>2.15</v>
+      </c>
+      <c r="R83">
+        <v>2.15</v>
+      </c>
+      <c r="S83">
+        <v>6</v>
+      </c>
+      <c r="T83">
+        <v>1.43</v>
+      </c>
+      <c r="U83">
+        <v>2.62</v>
+      </c>
+      <c r="V83">
+        <v>3</v>
+      </c>
+      <c r="W83">
+        <v>1.33</v>
+      </c>
+      <c r="X83">
+        <v>7</v>
+      </c>
+      <c r="Y83">
+        <v>1.05</v>
+      </c>
+      <c r="Z83">
+        <v>1.47</v>
+      </c>
+      <c r="AA83">
+        <v>3.73</v>
+      </c>
+      <c r="AB83">
+        <v>5.9</v>
+      </c>
+      <c r="AC83">
+        <v>1.01</v>
+      </c>
+      <c r="AD83">
+        <v>8</v>
+      </c>
+      <c r="AE83">
+        <v>1.38</v>
+      </c>
+      <c r="AF83">
+        <v>3.15</v>
+      </c>
+      <c r="AG83">
+        <v>1.92</v>
+      </c>
+      <c r="AH83">
+        <v>1.78</v>
+      </c>
+      <c r="AI83">
+        <v>2.25</v>
+      </c>
+      <c r="AJ83">
+        <v>1.57</v>
+      </c>
+      <c r="AK83">
+        <v>1.25</v>
+      </c>
+      <c r="AL83">
+        <v>1.18</v>
+      </c>
+      <c r="AM83">
+        <v>2.45</v>
+      </c>
+      <c r="AN83">
+        <v>1.75</v>
+      </c>
+      <c r="AO83">
+        <v>0.75</v>
+      </c>
+      <c r="AP83">
+        <v>2</v>
+      </c>
+      <c r="AQ83">
+        <v>0.6</v>
+      </c>
+      <c r="AR83">
+        <v>1.64</v>
+      </c>
+      <c r="AS83">
+        <v>1.3</v>
+      </c>
+      <c r="AT83">
+        <v>2.94</v>
+      </c>
+      <c r="AU83">
+        <v>6</v>
+      </c>
+      <c r="AV83">
+        <v>3</v>
+      </c>
+      <c r="AW83">
+        <v>9</v>
+      </c>
+      <c r="AX83">
+        <v>5</v>
+      </c>
+      <c r="AY83">
+        <v>18</v>
+      </c>
+      <c r="AZ83">
+        <v>8</v>
+      </c>
+      <c r="BA83">
+        <v>5</v>
+      </c>
+      <c r="BB83">
+        <v>1</v>
+      </c>
+      <c r="BC83">
+        <v>6</v>
+      </c>
+      <c r="BD83">
+        <v>1.35</v>
+      </c>
+      <c r="BE83">
+        <v>9.5</v>
+      </c>
+      <c r="BF83">
+        <v>3.45</v>
+      </c>
+      <c r="BG83">
+        <v>1.13</v>
+      </c>
+      <c r="BH83">
+        <v>4.75</v>
+      </c>
+      <c r="BI83">
+        <v>1.33</v>
+      </c>
+      <c r="BJ83">
+        <v>3</v>
+      </c>
+      <c r="BK83">
+        <v>1.57</v>
+      </c>
+      <c r="BL83">
+        <v>2.25</v>
+      </c>
+      <c r="BM83">
+        <v>1.91</v>
+      </c>
+      <c r="BN83">
+        <v>1.98</v>
+      </c>
+      <c r="BO83">
+        <v>2.19</v>
+      </c>
+      <c r="BP83">
+        <v>1.53</v>
+      </c>
+    </row>
+    <row r="84" spans="1:68">
+      <c r="A84" s="1">
+        <v>83</v>
+      </c>
+      <c r="B84">
+        <v>7841115</v>
+      </c>
+      <c r="C84" t="s">
+        <v>68</v>
+      </c>
+      <c r="D84" t="s">
+        <v>69</v>
+      </c>
+      <c r="E84" s="2">
+        <v>45801.75</v>
+      </c>
+      <c r="F84">
+        <v>9</v>
+      </c>
+      <c r="G84" t="s">
+        <v>88</v>
+      </c>
+      <c r="H84" t="s">
+        <v>77</v>
+      </c>
+      <c r="I84">
+        <v>1</v>
+      </c>
+      <c r="J84">
+        <v>1</v>
+      </c>
+      <c r="K84">
+        <v>2</v>
+      </c>
+      <c r="L84">
+        <v>1</v>
+      </c>
+      <c r="M84">
+        <v>1</v>
+      </c>
+      <c r="N84">
+        <v>2</v>
+      </c>
+      <c r="O84" t="s">
+        <v>153</v>
+      </c>
+      <c r="P84" t="s">
+        <v>131</v>
+      </c>
+      <c r="Q84">
+        <v>2.8</v>
+      </c>
+      <c r="R84">
+        <v>1.93</v>
+      </c>
+      <c r="S84">
+        <v>4.4</v>
+      </c>
+      <c r="T84">
+        <v>1.62</v>
+      </c>
+      <c r="U84">
+        <v>2.16</v>
+      </c>
+      <c r="V84">
+        <v>3.7</v>
+      </c>
+      <c r="W84">
+        <v>1.23</v>
+      </c>
+      <c r="X84">
+        <v>12</v>
+      </c>
+      <c r="Y84">
+        <v>1.01</v>
+      </c>
+      <c r="Z84">
+        <v>2.19</v>
+      </c>
+      <c r="AA84">
+        <v>2.7</v>
+      </c>
+      <c r="AB84">
+        <v>4.13</v>
+      </c>
+      <c r="AC84">
+        <v>1.11</v>
+      </c>
+      <c r="AD84">
+        <v>5.5</v>
+      </c>
+      <c r="AE84">
+        <v>1.59</v>
+      </c>
+      <c r="AF84">
+        <v>2.4</v>
+      </c>
+      <c r="AG84">
+        <v>2.94</v>
+      </c>
+      <c r="AH84">
+        <v>1.43</v>
+      </c>
+      <c r="AI84">
+        <v>2.25</v>
+      </c>
+      <c r="AJ84">
+        <v>1.56</v>
+      </c>
+      <c r="AK84">
+        <v>1.24</v>
+      </c>
+      <c r="AL84">
+        <v>1.28</v>
+      </c>
+      <c r="AM84">
+        <v>1.62</v>
+      </c>
+      <c r="AN84">
+        <v>3</v>
+      </c>
+      <c r="AO84">
+        <v>0.25</v>
+      </c>
+      <c r="AP84">
+        <v>2.6</v>
+      </c>
+      <c r="AQ84">
+        <v>0.4</v>
+      </c>
+      <c r="AR84">
+        <v>1.23</v>
+      </c>
+      <c r="AS84">
+        <v>1.35</v>
+      </c>
+      <c r="AT84">
+        <v>2.58</v>
+      </c>
+      <c r="AU84">
+        <v>5</v>
+      </c>
+      <c r="AV84">
+        <v>8</v>
+      </c>
+      <c r="AW84">
+        <v>10</v>
+      </c>
+      <c r="AX84">
+        <v>8</v>
+      </c>
+      <c r="AY84">
+        <v>20</v>
+      </c>
+      <c r="AZ84">
+        <v>22</v>
+      </c>
+      <c r="BA84">
+        <v>3</v>
+      </c>
+      <c r="BB84">
+        <v>6</v>
+      </c>
+      <c r="BC84">
+        <v>9</v>
+      </c>
+      <c r="BD84">
+        <v>1.79</v>
+      </c>
+      <c r="BE84">
+        <v>7.8</v>
+      </c>
+      <c r="BF84">
+        <v>2.46</v>
+      </c>
+      <c r="BG84">
+        <v>1.17</v>
+      </c>
+      <c r="BH84">
+        <v>4.25</v>
+      </c>
+      <c r="BI84">
+        <v>1.33</v>
+      </c>
+      <c r="BJ84">
+        <v>3.02</v>
+      </c>
+      <c r="BK84">
+        <v>1.57</v>
+      </c>
+      <c r="BL84">
+        <v>2.32</v>
+      </c>
+      <c r="BM84">
+        <v>1.94</v>
+      </c>
+      <c r="BN84">
+        <v>1.87</v>
+      </c>
+      <c r="BO84">
+        <v>2.4</v>
+      </c>
+      <c r="BP84">
+        <v>1.49</v>
+      </c>
+    </row>
+    <row r="85" spans="1:68">
+      <c r="A85" s="1">
+        <v>84</v>
+      </c>
+      <c r="B85">
+        <v>7841116</v>
+      </c>
+      <c r="C85" t="s">
+        <v>68</v>
+      </c>
+      <c r="D85" t="s">
+        <v>69</v>
+      </c>
+      <c r="E85" s="2">
+        <v>45801.77083333334</v>
+      </c>
+      <c r="F85">
+        <v>9</v>
+      </c>
+      <c r="G85" t="s">
+        <v>78</v>
+      </c>
+      <c r="H85" t="s">
+        <v>82</v>
+      </c>
+      <c r="I85">
+        <v>0</v>
+      </c>
+      <c r="J85">
+        <v>0</v>
+      </c>
+      <c r="K85">
+        <v>0</v>
+      </c>
+      <c r="L85">
+        <v>2</v>
+      </c>
+      <c r="M85">
+        <v>1</v>
+      </c>
+      <c r="N85">
+        <v>3</v>
+      </c>
+      <c r="O85" t="s">
+        <v>154</v>
+      </c>
+      <c r="P85" t="s">
+        <v>189</v>
+      </c>
+      <c r="Q85">
+        <v>2.4</v>
+      </c>
+      <c r="R85">
+        <v>2.18</v>
+      </c>
+      <c r="S85">
+        <v>4.55</v>
+      </c>
+      <c r="T85">
+        <v>1.42</v>
+      </c>
+      <c r="U85">
+        <v>2.44</v>
+      </c>
+      <c r="V85">
+        <v>2.88</v>
+      </c>
+      <c r="W85">
+        <v>1.27</v>
+      </c>
+      <c r="X85">
+        <v>7.5</v>
+      </c>
+      <c r="Y85">
+        <v>1.07</v>
+      </c>
+      <c r="Z85">
+        <v>1.66</v>
+      </c>
+      <c r="AA85">
+        <v>3.45</v>
+      </c>
+      <c r="AB85">
+        <v>4.8</v>
+      </c>
+      <c r="AC85">
+        <v>1.03</v>
+      </c>
+      <c r="AD85">
+        <v>7.35</v>
+      </c>
+      <c r="AE85">
+        <v>1.33</v>
+      </c>
+      <c r="AF85">
+        <v>2.95</v>
+      </c>
+      <c r="AG85">
+        <v>2.28</v>
+      </c>
+      <c r="AH85">
+        <v>1.66</v>
+      </c>
+      <c r="AI85">
+        <v>2.05</v>
+      </c>
+      <c r="AJ85">
+        <v>1.67</v>
+      </c>
+      <c r="AK85">
+        <v>1.17</v>
+      </c>
+      <c r="AL85">
+        <v>1.28</v>
+      </c>
+      <c r="AM85">
+        <v>2.01</v>
+      </c>
+      <c r="AN85">
+        <v>2</v>
+      </c>
+      <c r="AO85">
+        <v>1</v>
+      </c>
+      <c r="AP85">
+        <v>2.2</v>
+      </c>
+      <c r="AQ85">
+        <v>0.8</v>
+      </c>
+      <c r="AR85">
+        <v>1.73</v>
+      </c>
+      <c r="AS85">
+        <v>1.63</v>
+      </c>
+      <c r="AT85">
+        <v>3.36</v>
+      </c>
+      <c r="AU85">
+        <v>6</v>
+      </c>
+      <c r="AV85">
+        <v>3</v>
+      </c>
+      <c r="AW85">
+        <v>15</v>
+      </c>
+      <c r="AX85">
+        <v>13</v>
+      </c>
+      <c r="AY85">
+        <v>26</v>
+      </c>
+      <c r="AZ85">
+        <v>19</v>
+      </c>
+      <c r="BA85">
+        <v>5</v>
+      </c>
+      <c r="BB85">
+        <v>9</v>
+      </c>
+      <c r="BC85">
+        <v>14</v>
+      </c>
+      <c r="BD85">
+        <v>1.34</v>
+      </c>
+      <c r="BE85">
+        <v>7.5</v>
+      </c>
+      <c r="BF85">
+        <v>4</v>
+      </c>
+      <c r="BG85">
+        <v>1.2</v>
+      </c>
+      <c r="BH85">
+        <v>4.1</v>
+      </c>
+      <c r="BI85">
+        <v>1.27</v>
+      </c>
+      <c r="BJ85">
+        <v>3</v>
+      </c>
+      <c r="BK85">
+        <v>1.74</v>
+      </c>
+      <c r="BL85">
+        <v>2.3</v>
+      </c>
+      <c r="BM85">
+        <v>1.88</v>
+      </c>
+      <c r="BN85">
+        <v>1.85</v>
+      </c>
+      <c r="BO85">
+        <v>2.43</v>
+      </c>
+      <c r="BP85">
+        <v>1.53</v>
+      </c>
+    </row>
+    <row r="86" spans="1:68">
+      <c r="A86" s="1">
+        <v>85</v>
+      </c>
+      <c r="B86">
+        <v>7841120</v>
+      </c>
+      <c r="C86" t="s">
+        <v>68</v>
+      </c>
+      <c r="D86" t="s">
+        <v>69</v>
+      </c>
+      <c r="E86" s="2">
+        <v>45802.66666666666</v>
+      </c>
+      <c r="F86">
+        <v>9</v>
+      </c>
+      <c r="G86" t="s">
+        <v>85</v>
+      </c>
+      <c r="H86" t="s">
+        <v>71</v>
+      </c>
+      <c r="I86">
+        <v>1</v>
+      </c>
+      <c r="J86">
+        <v>1</v>
+      </c>
+      <c r="K86">
+        <v>2</v>
+      </c>
+      <c r="L86">
+        <v>3</v>
+      </c>
+      <c r="M86">
+        <v>1</v>
+      </c>
+      <c r="N86">
+        <v>4</v>
+      </c>
+      <c r="O86" t="s">
+        <v>155</v>
+      </c>
+      <c r="P86" t="s">
+        <v>118</v>
+      </c>
+      <c r="Q86">
+        <v>2.2</v>
+      </c>
+      <c r="R86">
+        <v>1.8</v>
+      </c>
+      <c r="S86">
+        <v>6</v>
+      </c>
+      <c r="T86">
+        <v>1.52</v>
+      </c>
+      <c r="U86">
+        <v>2.51</v>
+      </c>
+      <c r="V86">
+        <v>3.34</v>
+      </c>
+      <c r="W86">
+        <v>1.28</v>
+      </c>
+      <c r="X86">
+        <v>7</v>
+      </c>
+      <c r="Y86">
+        <v>1.05</v>
+      </c>
+      <c r="Z86">
+        <v>1.49</v>
+      </c>
+      <c r="AA86">
+        <v>3.5</v>
+      </c>
+      <c r="AB86">
+        <v>6.2</v>
+      </c>
+      <c r="AC86">
+        <v>1.04</v>
+      </c>
+      <c r="AD86">
+        <v>7.8</v>
+      </c>
+      <c r="AE86">
+        <v>1.45</v>
+      </c>
+      <c r="AF86">
+        <v>2.63</v>
+      </c>
+      <c r="AG86">
+        <v>2.15</v>
+      </c>
+      <c r="AH86">
+        <v>1.6</v>
+      </c>
+      <c r="AI86">
+        <v>2.5</v>
+      </c>
+      <c r="AJ86">
+        <v>1.56</v>
+      </c>
+      <c r="AK86">
+        <v>1.26</v>
+      </c>
+      <c r="AL86">
+        <v>1.22</v>
+      </c>
+      <c r="AM86">
+        <v>2.4</v>
+      </c>
+      <c r="AN86">
+        <v>2</v>
+      </c>
+      <c r="AO86">
+        <v>0.5</v>
+      </c>
+      <c r="AP86">
+        <v>2.2</v>
+      </c>
+      <c r="AQ86">
+        <v>0.4</v>
+      </c>
+      <c r="AR86">
+        <v>2.07</v>
+      </c>
+      <c r="AS86">
+        <v>1.15</v>
+      </c>
+      <c r="AT86">
+        <v>3.22</v>
+      </c>
+      <c r="AU86">
+        <v>7</v>
+      </c>
+      <c r="AV86">
+        <v>5</v>
+      </c>
+      <c r="AW86">
+        <v>16</v>
+      </c>
+      <c r="AX86">
+        <v>4</v>
+      </c>
+      <c r="AY86">
+        <v>27</v>
+      </c>
+      <c r="AZ86">
+        <v>13</v>
+      </c>
+      <c r="BA86">
+        <v>8</v>
+      </c>
+      <c r="BB86">
+        <v>3</v>
+      </c>
+      <c r="BC86">
+        <v>11</v>
+      </c>
+      <c r="BD86">
+        <v>1.4</v>
+      </c>
+      <c r="BE86">
+        <v>7</v>
+      </c>
+      <c r="BF86">
+        <v>2.9</v>
+      </c>
+      <c r="BG86">
+        <v>1.25</v>
+      </c>
+      <c r="BH86">
+        <v>3.98</v>
+      </c>
+      <c r="BI86">
+        <v>1.37</v>
+      </c>
+      <c r="BJ86">
+        <v>2.85</v>
+      </c>
+      <c r="BK86">
+        <v>1.77</v>
+      </c>
+      <c r="BL86">
+        <v>2.21</v>
+      </c>
+      <c r="BM86">
+        <v>1.98</v>
+      </c>
+      <c r="BN86">
+        <v>1.77</v>
+      </c>
+      <c r="BO86">
+        <v>2.47</v>
+      </c>
+      <c r="BP86">
+        <v>1.38</v>
+      </c>
+    </row>
+    <row r="87" spans="1:68">
+      <c r="A87" s="1">
+        <v>86</v>
+      </c>
+      <c r="B87">
+        <v>7841118</v>
+      </c>
+      <c r="C87" t="s">
+        <v>68</v>
+      </c>
+      <c r="D87" t="s">
+        <v>69</v>
+      </c>
+      <c r="E87" s="2">
+        <v>45802.77083333334</v>
+      </c>
+      <c r="F87">
+        <v>9</v>
+      </c>
+      <c r="G87" t="s">
+        <v>84</v>
+      </c>
+      <c r="H87" t="s">
+        <v>86</v>
+      </c>
+      <c r="I87">
+        <v>0</v>
+      </c>
+      <c r="J87">
+        <v>0</v>
+      </c>
+      <c r="K87">
+        <v>0</v>
+      </c>
+      <c r="L87">
+        <v>2</v>
+      </c>
+      <c r="M87">
+        <v>0</v>
+      </c>
+      <c r="N87">
+        <v>2</v>
+      </c>
+      <c r="O87" t="s">
+        <v>156</v>
+      </c>
+      <c r="P87" t="s">
+        <v>97</v>
+      </c>
+      <c r="Q87">
+        <v>3.98</v>
+      </c>
+      <c r="R87">
+        <v>1.7</v>
+      </c>
+      <c r="S87">
+        <v>3</v>
+      </c>
+      <c r="T87">
+        <v>1.52</v>
+      </c>
+      <c r="U87">
+        <v>2.25</v>
+      </c>
+      <c r="V87">
+        <v>3.6</v>
+      </c>
+      <c r="W87">
+        <v>1.25</v>
+      </c>
+      <c r="X87">
+        <v>10</v>
+      </c>
+      <c r="Y87">
+        <v>1.01</v>
+      </c>
+      <c r="Z87">
+        <v>3.4</v>
+      </c>
+      <c r="AA87">
+        <v>2.95</v>
+      </c>
+      <c r="AB87">
+        <v>2.34</v>
+      </c>
+      <c r="AC87">
+        <v>1.1</v>
+      </c>
+      <c r="AD87">
+        <v>6</v>
+      </c>
+      <c r="AE87">
+        <v>1.57</v>
+      </c>
+      <c r="AF87">
+        <v>2.4</v>
+      </c>
+      <c r="AG87">
+        <v>2.7</v>
+      </c>
+      <c r="AH87">
+        <v>1.44</v>
+      </c>
+      <c r="AI87">
+        <v>2.15</v>
+      </c>
+      <c r="AJ87">
+        <v>1.67</v>
+      </c>
+      <c r="AK87">
+        <v>1.4</v>
+      </c>
+      <c r="AL87">
+        <v>1.3</v>
+      </c>
+      <c r="AM87">
+        <v>1.33</v>
+      </c>
+      <c r="AN87">
+        <v>0.75</v>
+      </c>
+      <c r="AO87">
+        <v>1.5</v>
+      </c>
+      <c r="AP87">
+        <v>1.2</v>
+      </c>
+      <c r="AQ87">
+        <v>1.2</v>
+      </c>
+      <c r="AR87">
+        <v>1.81</v>
+      </c>
+      <c r="AS87">
+        <v>1.54</v>
+      </c>
+      <c r="AT87">
+        <v>3.35</v>
+      </c>
+      <c r="AU87">
+        <v>4</v>
+      </c>
+      <c r="AV87">
+        <v>2</v>
+      </c>
+      <c r="AW87">
+        <v>8</v>
+      </c>
+      <c r="AX87">
+        <v>10</v>
+      </c>
+      <c r="AY87">
+        <v>12</v>
+      </c>
+      <c r="AZ87">
+        <v>16</v>
+      </c>
+      <c r="BA87">
+        <v>4</v>
+      </c>
+      <c r="BB87">
+        <v>10</v>
+      </c>
+      <c r="BC87">
+        <v>14</v>
+      </c>
+      <c r="BD87">
+        <v>1.97</v>
+      </c>
+      <c r="BE87">
+        <v>6.5</v>
+      </c>
+      <c r="BF87">
+        <v>2.26</v>
+      </c>
+      <c r="BG87">
+        <v>1.25</v>
+      </c>
+      <c r="BH87">
+        <v>3.6</v>
+      </c>
+      <c r="BI87">
+        <v>1.41</v>
+      </c>
+      <c r="BJ87">
+        <v>2.7</v>
+      </c>
+      <c r="BK87">
+        <v>1.85</v>
+      </c>
+      <c r="BL87">
+        <v>2.11</v>
+      </c>
+      <c r="BM87">
+        <v>2.07</v>
+      </c>
+      <c r="BN87">
+        <v>1.7</v>
+      </c>
+      <c r="BO87">
+        <v>2.62</v>
+      </c>
+      <c r="BP87">
+        <v>1.44</v>
+      </c>
+    </row>
+    <row r="88" spans="1:68">
+      <c r="A88" s="1">
+        <v>87</v>
+      </c>
+      <c r="B88">
+        <v>7841117</v>
+      </c>
+      <c r="C88" t="s">
+        <v>68</v>
+      </c>
+      <c r="D88" t="s">
+        <v>69</v>
+      </c>
+      <c r="E88" s="2">
+        <v>45803.79166666666</v>
+      </c>
+      <c r="F88">
+        <v>9</v>
+      </c>
+      <c r="G88" t="s">
+        <v>72</v>
+      </c>
+      <c r="H88" t="s">
+        <v>73</v>
+      </c>
+      <c r="I88">
+        <v>0</v>
+      </c>
+      <c r="J88">
+        <v>0</v>
+      </c>
+      <c r="K88">
+        <v>0</v>
+      </c>
+      <c r="L88">
+        <v>0</v>
+      </c>
+      <c r="M88">
+        <v>1</v>
+      </c>
+      <c r="N88">
+        <v>1</v>
+      </c>
+      <c r="O88" t="s">
+        <v>97</v>
+      </c>
+      <c r="P88" t="s">
+        <v>190</v>
+      </c>
+      <c r="Q88">
+        <v>2.85</v>
+      </c>
+      <c r="R88">
+        <v>1.85</v>
+      </c>
+      <c r="S88">
+        <v>4.05</v>
+      </c>
+      <c r="T88">
+        <v>1.55</v>
+      </c>
+      <c r="U88">
+        <v>2.35</v>
+      </c>
+      <c r="V88">
+        <v>3.6</v>
+      </c>
+      <c r="W88">
+        <v>1.25</v>
+      </c>
+      <c r="X88">
+        <v>10</v>
+      </c>
+      <c r="Y88">
+        <v>1.02</v>
+      </c>
+      <c r="Z88">
+        <v>2.21</v>
+      </c>
+      <c r="AA88">
+        <v>3.1</v>
+      </c>
+      <c r="AB88">
+        <v>3.6</v>
+      </c>
+      <c r="AC88">
+        <v>1.13</v>
+      </c>
+      <c r="AD88">
+        <v>7.5</v>
+      </c>
+      <c r="AE88">
+        <v>1.46</v>
+      </c>
+      <c r="AF88">
+        <v>2.5</v>
+      </c>
+      <c r="AG88">
+        <v>2.5</v>
+      </c>
+      <c r="AH88">
+        <v>1.48</v>
+      </c>
+      <c r="AI88">
+        <v>2.05</v>
+      </c>
+      <c r="AJ88">
+        <v>1.62</v>
+      </c>
+      <c r="AK88">
+        <v>1.4</v>
+      </c>
+      <c r="AL88">
+        <v>1.38</v>
+      </c>
+      <c r="AM88">
+        <v>1.67</v>
+      </c>
+      <c r="AN88">
+        <v>1.25</v>
+      </c>
+      <c r="AO88">
+        <v>0.75</v>
+      </c>
+      <c r="AP88">
+        <v>1</v>
+      </c>
+      <c r="AQ88">
+        <v>1.2</v>
+      </c>
+      <c r="AR88">
+        <v>2.01</v>
+      </c>
+      <c r="AS88">
+        <v>1.39</v>
+      </c>
+      <c r="AT88">
+        <v>3.4</v>
+      </c>
+      <c r="AU88">
+        <v>7</v>
+      </c>
+      <c r="AV88">
+        <v>5</v>
+      </c>
+      <c r="AW88">
+        <v>12</v>
+      </c>
+      <c r="AX88">
+        <v>6</v>
+      </c>
+      <c r="AY88">
+        <v>23</v>
+      </c>
+      <c r="AZ88">
+        <v>15</v>
+      </c>
+      <c r="BA88">
+        <v>9</v>
+      </c>
+      <c r="BB88">
+        <v>2</v>
+      </c>
+      <c r="BC88">
+        <v>11</v>
+      </c>
+      <c r="BD88">
+        <v>1.75</v>
+      </c>
+      <c r="BE88">
+        <v>7</v>
+      </c>
+      <c r="BF88">
+        <v>2.3</v>
+      </c>
+      <c r="BG88">
+        <v>1.16</v>
+      </c>
+      <c r="BH88">
+        <v>4.35</v>
+      </c>
+      <c r="BI88">
+        <v>1.3</v>
+      </c>
+      <c r="BJ88">
+        <v>3.15</v>
+      </c>
+      <c r="BK88">
+        <v>1.5</v>
+      </c>
+      <c r="BL88">
+        <v>2.33</v>
+      </c>
+      <c r="BM88">
+        <v>1.94</v>
+      </c>
+      <c r="BN88">
+        <v>1.88</v>
+      </c>
+      <c r="BO88">
+        <v>2.33</v>
+      </c>
+      <c r="BP88">
+        <v>1.55</v>
+      </c>
+    </row>
+    <row r="89" spans="1:68">
+      <c r="A89" s="1">
+        <v>88</v>
+      </c>
+      <c r="B89">
+        <v>7841121</v>
+      </c>
+      <c r="C89" t="s">
+        <v>68</v>
+      </c>
+      <c r="D89" t="s">
+        <v>69</v>
+      </c>
+      <c r="E89" s="2">
+        <v>45803.83333333334</v>
+      </c>
+      <c r="F89">
+        <v>9</v>
+      </c>
+      <c r="G89" t="s">
+        <v>89</v>
+      </c>
+      <c r="H89" t="s">
+        <v>74</v>
+      </c>
+      <c r="I89">
+        <v>1</v>
+      </c>
+      <c r="J89">
+        <v>0</v>
+      </c>
+      <c r="K89">
+        <v>1</v>
+      </c>
+      <c r="L89">
+        <v>2</v>
+      </c>
+      <c r="M89">
+        <v>1</v>
+      </c>
+      <c r="N89">
+        <v>3</v>
+      </c>
+      <c r="O89" t="s">
+        <v>157</v>
+      </c>
+      <c r="P89" t="s">
+        <v>191</v>
+      </c>
+      <c r="Q89">
+        <v>2.8</v>
+      </c>
+      <c r="R89">
+        <v>2</v>
+      </c>
+      <c r="S89">
+        <v>3.95</v>
+      </c>
+      <c r="T89">
+        <v>1.51</v>
+      </c>
+      <c r="U89">
+        <v>2.45</v>
+      </c>
+      <c r="V89">
+        <v>3.4</v>
+      </c>
+      <c r="W89">
+        <v>1.3</v>
+      </c>
+      <c r="X89">
+        <v>8.9</v>
+      </c>
+      <c r="Y89">
+        <v>1.02</v>
+      </c>
+      <c r="Z89">
+        <v>2.21</v>
+      </c>
+      <c r="AA89">
+        <v>3</v>
+      </c>
+      <c r="AB89">
+        <v>2.9</v>
+      </c>
+      <c r="AC89">
+        <v>1.04</v>
+      </c>
+      <c r="AD89">
+        <v>8.5</v>
+      </c>
+      <c r="AE89">
+        <v>1.38</v>
+      </c>
+      <c r="AF89">
+        <v>2.53</v>
+      </c>
+      <c r="AG89">
+        <v>2.3</v>
+      </c>
+      <c r="AH89">
+        <v>1.55</v>
+      </c>
+      <c r="AI89">
+        <v>2</v>
+      </c>
+      <c r="AJ89">
+        <v>1.83</v>
+      </c>
+      <c r="AK89">
+        <v>1.24</v>
+      </c>
+      <c r="AL89">
+        <v>1.33</v>
+      </c>
+      <c r="AM89">
+        <v>1.62</v>
+      </c>
+      <c r="AN89">
+        <v>0.5</v>
+      </c>
+      <c r="AO89">
+        <v>1.25</v>
+      </c>
+      <c r="AP89">
+        <v>1</v>
+      </c>
+      <c r="AQ89">
+        <v>1</v>
+      </c>
+      <c r="AR89">
+        <v>1.31</v>
+      </c>
+      <c r="AS89">
+        <v>1.76</v>
+      </c>
+      <c r="AT89">
+        <v>3.07</v>
+      </c>
+      <c r="AU89">
+        <v>4</v>
+      </c>
+      <c r="AV89">
+        <v>4</v>
+      </c>
+      <c r="AW89">
+        <v>9</v>
+      </c>
+      <c r="AX89">
+        <v>11</v>
+      </c>
+      <c r="AY89">
+        <v>15</v>
+      </c>
+      <c r="AZ89">
+        <v>20</v>
+      </c>
+      <c r="BA89">
+        <v>1</v>
+      </c>
+      <c r="BB89">
+        <v>8</v>
+      </c>
+      <c r="BC89">
+        <v>9</v>
+      </c>
+      <c r="BD89">
+        <v>1.81</v>
+      </c>
+      <c r="BE89">
+        <v>6.75</v>
+      </c>
+      <c r="BF89">
+        <v>2.23</v>
+      </c>
+      <c r="BG89">
+        <v>1.22</v>
+      </c>
+      <c r="BH89">
+        <v>4.1</v>
+      </c>
+      <c r="BI89">
+        <v>1.38</v>
+      </c>
+      <c r="BJ89">
+        <v>2.98</v>
+      </c>
+      <c r="BK89">
+        <v>1.59</v>
+      </c>
+      <c r="BL89">
+        <v>2.25</v>
+      </c>
+      <c r="BM89">
+        <v>1.97</v>
+      </c>
+      <c r="BN89">
+        <v>1.81</v>
+      </c>
+      <c r="BO89">
+        <v>2.43</v>
+      </c>
+      <c r="BP89">
+        <v>1.48</v>
+      </c>
+    </row>
+    <row r="90" spans="1:68">
+      <c r="A90" s="1">
+        <v>89</v>
+      </c>
+      <c r="B90">
+        <v>7841114</v>
+      </c>
+      <c r="C90" t="s">
+        <v>68</v>
+      </c>
+      <c r="D90" t="s">
+        <v>69</v>
+      </c>
+      <c r="E90" s="2">
+        <v>45803.875</v>
+      </c>
+      <c r="F90">
+        <v>9</v>
+      </c>
+      <c r="G90" t="s">
+        <v>81</v>
+      </c>
+      <c r="H90" t="s">
+        <v>83</v>
+      </c>
+      <c r="I90">
+        <v>1</v>
+      </c>
+      <c r="J90">
+        <v>0</v>
+      </c>
+      <c r="K90">
+        <v>1</v>
+      </c>
+      <c r="L90">
+        <v>1</v>
+      </c>
+      <c r="M90">
+        <v>0</v>
+      </c>
+      <c r="N90">
+        <v>1</v>
+      </c>
+      <c r="O90" t="s">
+        <v>118</v>
+      </c>
+      <c r="P90" t="s">
+        <v>97</v>
+      </c>
+      <c r="Q90">
+        <v>2.75</v>
+      </c>
+      <c r="R90">
+        <v>1.8</v>
+      </c>
+      <c r="S90">
+        <v>4.75</v>
+      </c>
+      <c r="T90">
+        <v>1.63</v>
+      </c>
+      <c r="U90">
+        <v>2.15</v>
+      </c>
+      <c r="V90">
+        <v>3.6</v>
+      </c>
+      <c r="W90">
+        <v>1.22</v>
+      </c>
+      <c r="X90">
+        <v>10</v>
+      </c>
+      <c r="Y90">
+        <v>1.01</v>
+      </c>
+      <c r="Z90">
+        <v>2.2</v>
+      </c>
+      <c r="AA90">
+        <v>3.02</v>
+      </c>
+      <c r="AB90">
+        <v>3.77</v>
+      </c>
+      <c r="AC90">
+        <v>1.14</v>
+      </c>
+      <c r="AD90">
+        <v>5.5</v>
+      </c>
+      <c r="AE90">
+        <v>1.63</v>
+      </c>
+      <c r="AF90">
+        <v>2.25</v>
+      </c>
+      <c r="AG90">
+        <v>2.79</v>
+      </c>
+      <c r="AH90">
+        <v>1.4</v>
+      </c>
+      <c r="AI90">
+        <v>2.2</v>
+      </c>
+      <c r="AJ90">
+        <v>1.61</v>
+      </c>
+      <c r="AK90">
+        <v>1.25</v>
+      </c>
+      <c r="AL90">
+        <v>1.36</v>
+      </c>
+      <c r="AM90">
+        <v>1.67</v>
+      </c>
+      <c r="AN90">
+        <v>1.75</v>
+      </c>
+      <c r="AO90">
+        <v>1</v>
+      </c>
+      <c r="AP90">
+        <v>2</v>
+      </c>
+      <c r="AQ90">
+        <v>0.8</v>
+      </c>
+      <c r="AR90">
+        <v>1.68</v>
+      </c>
+      <c r="AS90">
+        <v>1.34</v>
+      </c>
+      <c r="AT90">
+        <v>3.02</v>
+      </c>
+      <c r="AU90">
+        <v>6</v>
+      </c>
+      <c r="AV90">
+        <v>3</v>
+      </c>
+      <c r="AW90">
+        <v>8</v>
+      </c>
+      <c r="AX90">
+        <v>5</v>
+      </c>
+      <c r="AY90">
+        <v>18</v>
+      </c>
+      <c r="AZ90">
+        <v>8</v>
+      </c>
+      <c r="BA90">
+        <v>4</v>
+      </c>
+      <c r="BB90">
+        <v>1</v>
+      </c>
+      <c r="BC90">
+        <v>5</v>
+      </c>
+      <c r="BD90">
+        <v>1.49</v>
+      </c>
+      <c r="BE90">
+        <v>8.300000000000001</v>
+      </c>
+      <c r="BF90">
+        <v>3.34</v>
+      </c>
+      <c r="BG90">
+        <v>1.18</v>
+      </c>
+      <c r="BH90">
+        <v>3.8</v>
+      </c>
+      <c r="BI90">
+        <v>1.34</v>
+      </c>
+      <c r="BJ90">
+        <v>2.81</v>
+      </c>
+      <c r="BK90">
+        <v>1.73</v>
+      </c>
+      <c r="BL90">
+        <v>2.1</v>
+      </c>
+      <c r="BM90">
+        <v>2.04</v>
+      </c>
+      <c r="BN90">
+        <v>1.69</v>
+      </c>
+      <c r="BO90">
+        <v>2.5</v>
+      </c>
+      <c r="BP90">
+        <v>1.48</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Brazil Serie B_2025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Brazil Serie B_2025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="602" uniqueCount="192">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="608" uniqueCount="193">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -490,6 +490,9 @@
     <t>['1', '46']</t>
   </si>
   <si>
+    <t>['24', '28']</t>
+  </si>
+  <si>
     <t>['33', '72']</t>
   </si>
   <si>
@@ -951,7 +954,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP90"/>
+  <dimension ref="A1:BP91"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1416,7 +1419,7 @@
         <v>91</v>
       </c>
       <c r="P3" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="Q3">
         <v>3.5</v>
@@ -1622,7 +1625,7 @@
         <v>92</v>
       </c>
       <c r="P4" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="Q4">
         <v>2.5</v>
@@ -2318,7 +2321,7 @@
         <v>0</v>
       </c>
       <c r="AP7">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="AQ7">
         <v>0.75</v>
@@ -2446,7 +2449,7 @@
         <v>96</v>
       </c>
       <c r="P8" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="Q8">
         <v>3</v>
@@ -3064,7 +3067,7 @@
         <v>99</v>
       </c>
       <c r="P11" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="Q11">
         <v>2.38</v>
@@ -3270,7 +3273,7 @@
         <v>100</v>
       </c>
       <c r="P12" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="Q12">
         <v>2.51</v>
@@ -3476,7 +3479,7 @@
         <v>101</v>
       </c>
       <c r="P13" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="Q13">
         <v>2.8</v>
@@ -3682,7 +3685,7 @@
         <v>102</v>
       </c>
       <c r="P14" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="Q14">
         <v>3.3</v>
@@ -4506,7 +4509,7 @@
         <v>105</v>
       </c>
       <c r="P18" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="Q18">
         <v>3.22</v>
@@ -4712,7 +4715,7 @@
         <v>106</v>
       </c>
       <c r="P19" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="Q19">
         <v>2.55</v>
@@ -5124,7 +5127,7 @@
         <v>92</v>
       </c>
       <c r="P21" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="Q21">
         <v>3.5</v>
@@ -5205,7 +5208,7 @@
         <v>1</v>
       </c>
       <c r="AQ21">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="AR21">
         <v>0</v>
@@ -5330,7 +5333,7 @@
         <v>108</v>
       </c>
       <c r="P22" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="Q22">
         <v>3.5</v>
@@ -5536,7 +5539,7 @@
         <v>97</v>
       </c>
       <c r="P23" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="Q23">
         <v>2.33</v>
@@ -6154,7 +6157,7 @@
         <v>109</v>
       </c>
       <c r="P26" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="Q26">
         <v>2.38</v>
@@ -6772,7 +6775,7 @@
         <v>112</v>
       </c>
       <c r="P29" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="Q29">
         <v>3.1</v>
@@ -7059,7 +7062,7 @@
         <v>2</v>
       </c>
       <c r="AQ30">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="AR30">
         <v>2.86</v>
@@ -7184,7 +7187,7 @@
         <v>114</v>
       </c>
       <c r="P31" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="Q31">
         <v>2.2</v>
@@ -7262,7 +7265,7 @@
         <v>0</v>
       </c>
       <c r="AP31">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="AQ31">
         <v>0.25</v>
@@ -8292,7 +8295,7 @@
         <v>3</v>
       </c>
       <c r="AP36">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="AQ36">
         <v>1.75</v>
@@ -8420,7 +8423,7 @@
         <v>97</v>
       </c>
       <c r="P37" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="Q37">
         <v>3.6</v>
@@ -8626,7 +8629,7 @@
         <v>119</v>
       </c>
       <c r="P38" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="Q38">
         <v>2.58</v>
@@ -9450,7 +9453,7 @@
         <v>122</v>
       </c>
       <c r="P42" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="Q42">
         <v>3.1</v>
@@ -10686,7 +10689,7 @@
         <v>95</v>
       </c>
       <c r="P48" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="Q48">
         <v>3.08</v>
@@ -10767,7 +10770,7 @@
         <v>1.2</v>
       </c>
       <c r="AQ48">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="AR48">
         <v>2.04</v>
@@ -10892,7 +10895,7 @@
         <v>127</v>
       </c>
       <c r="P49" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="Q49">
         <v>2.75</v>
@@ -11304,7 +11307,7 @@
         <v>97</v>
       </c>
       <c r="P51" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="Q51">
         <v>4.2</v>
@@ -11510,7 +11513,7 @@
         <v>129</v>
       </c>
       <c r="P52" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="Q52">
         <v>3.5</v>
@@ -12540,7 +12543,7 @@
         <v>133</v>
       </c>
       <c r="P57" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="Q57">
         <v>1.97</v>
@@ -12952,7 +12955,7 @@
         <v>135</v>
       </c>
       <c r="P59" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="Q59">
         <v>2.88</v>
@@ -13364,7 +13367,7 @@
         <v>97</v>
       </c>
       <c r="P61" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="Q61">
         <v>2.85</v>
@@ -13570,7 +13573,7 @@
         <v>137</v>
       </c>
       <c r="P62" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="Q62">
         <v>2.13</v>
@@ -13857,7 +13860,7 @@
         <v>2.2</v>
       </c>
       <c r="AQ63">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="AR63">
         <v>1.64</v>
@@ -14394,7 +14397,7 @@
         <v>139</v>
       </c>
       <c r="P66" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="Q66">
         <v>2.6</v>
@@ -14600,7 +14603,7 @@
         <v>140</v>
       </c>
       <c r="P67" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="Q67">
         <v>2.35</v>
@@ -14806,7 +14809,7 @@
         <v>97</v>
       </c>
       <c r="P68" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="Q68">
         <v>2.8</v>
@@ -15012,7 +15015,7 @@
         <v>141</v>
       </c>
       <c r="P69" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="Q69">
         <v>3</v>
@@ -15424,7 +15427,7 @@
         <v>143</v>
       </c>
       <c r="P71" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="Q71">
         <v>2.13</v>
@@ -15502,7 +15505,7 @@
         <v>0.33</v>
       </c>
       <c r="AP71">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="AQ71">
         <v>0.4</v>
@@ -16248,7 +16251,7 @@
         <v>147</v>
       </c>
       <c r="P75" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="Q75">
         <v>3.6</v>
@@ -16454,7 +16457,7 @@
         <v>97</v>
       </c>
       <c r="P76" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="Q76">
         <v>3.64</v>
@@ -16660,7 +16663,7 @@
         <v>148</v>
       </c>
       <c r="P77" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="Q77">
         <v>2.5</v>
@@ -18308,7 +18311,7 @@
         <v>154</v>
       </c>
       <c r="P85" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="Q85">
         <v>2.4</v>
@@ -18926,7 +18929,7 @@
         <v>97</v>
       </c>
       <c r="P88" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="Q88">
         <v>2.85</v>
@@ -19132,7 +19135,7 @@
         <v>157</v>
       </c>
       <c r="P89" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="Q89">
         <v>2.8</v>
@@ -19246,10 +19249,10 @@
         <v>1</v>
       </c>
       <c r="BB89">
+        <v>7</v>
+      </c>
+      <c r="BC89">
         <v>8</v>
-      </c>
-      <c r="BC89">
-        <v>9</v>
       </c>
       <c r="BD89">
         <v>1.81</v>
@@ -19494,6 +19497,212 @@
         <v>2.5</v>
       </c>
       <c r="BP90">
+        <v>1.48</v>
+      </c>
+    </row>
+    <row r="91" spans="1:68">
+      <c r="A91" s="1">
+        <v>90</v>
+      </c>
+      <c r="B91">
+        <v>7841119</v>
+      </c>
+      <c r="C91" t="s">
+        <v>68</v>
+      </c>
+      <c r="D91" t="s">
+        <v>69</v>
+      </c>
+      <c r="E91" s="2">
+        <v>45804.8125</v>
+      </c>
+      <c r="F91">
+        <v>9</v>
+      </c>
+      <c r="G91" t="s">
+        <v>75</v>
+      </c>
+      <c r="H91" t="s">
+        <v>79</v>
+      </c>
+      <c r="I91">
+        <v>2</v>
+      </c>
+      <c r="J91">
+        <v>1</v>
+      </c>
+      <c r="K91">
+        <v>3</v>
+      </c>
+      <c r="L91">
+        <v>2</v>
+      </c>
+      <c r="M91">
+        <v>1</v>
+      </c>
+      <c r="N91">
+        <v>3</v>
+      </c>
+      <c r="O91" t="s">
+        <v>158</v>
+      </c>
+      <c r="P91" t="s">
+        <v>173</v>
+      </c>
+      <c r="Q91">
+        <v>2.34</v>
+      </c>
+      <c r="R91">
+        <v>1.98</v>
+      </c>
+      <c r="S91">
+        <v>5.3</v>
+      </c>
+      <c r="T91">
+        <v>1.46</v>
+      </c>
+      <c r="U91">
+        <v>2.55</v>
+      </c>
+      <c r="V91">
+        <v>3.3</v>
+      </c>
+      <c r="W91">
+        <v>1.32</v>
+      </c>
+      <c r="X91">
+        <v>8</v>
+      </c>
+      <c r="Y91">
+        <v>1.04</v>
+      </c>
+      <c r="Z91">
+        <v>1.79</v>
+      </c>
+      <c r="AA91">
+        <v>3.5</v>
+      </c>
+      <c r="AB91">
+        <v>4.6</v>
+      </c>
+      <c r="AC91">
+        <v>1.1</v>
+      </c>
+      <c r="AD91">
+        <v>7.8</v>
+      </c>
+      <c r="AE91">
+        <v>1.36</v>
+      </c>
+      <c r="AF91">
+        <v>2.9</v>
+      </c>
+      <c r="AG91">
+        <v>2.25</v>
+      </c>
+      <c r="AH91">
+        <v>1.65</v>
+      </c>
+      <c r="AI91">
+        <v>2.06</v>
+      </c>
+      <c r="AJ91">
+        <v>1.73</v>
+      </c>
+      <c r="AK91">
+        <v>1.3</v>
+      </c>
+      <c r="AL91">
+        <v>1.31</v>
+      </c>
+      <c r="AM91">
+        <v>2</v>
+      </c>
+      <c r="AN91">
+        <v>2.5</v>
+      </c>
+      <c r="AO91">
+        <v>0.75</v>
+      </c>
+      <c r="AP91">
+        <v>2.6</v>
+      </c>
+      <c r="AQ91">
+        <v>0.6</v>
+      </c>
+      <c r="AR91">
+        <v>1.96</v>
+      </c>
+      <c r="AS91">
+        <v>1.58</v>
+      </c>
+      <c r="AT91">
+        <v>3.54</v>
+      </c>
+      <c r="AU91">
+        <v>5</v>
+      </c>
+      <c r="AV91">
+        <v>4</v>
+      </c>
+      <c r="AW91">
+        <v>7</v>
+      </c>
+      <c r="AX91">
+        <v>8</v>
+      </c>
+      <c r="AY91">
+        <v>13</v>
+      </c>
+      <c r="AZ91">
+        <v>14</v>
+      </c>
+      <c r="BA91">
+        <v>6</v>
+      </c>
+      <c r="BB91">
+        <v>4</v>
+      </c>
+      <c r="BC91">
+        <v>10</v>
+      </c>
+      <c r="BD91">
+        <v>1.8</v>
+      </c>
+      <c r="BE91">
+        <v>6.6</v>
+      </c>
+      <c r="BF91">
+        <v>2.3</v>
+      </c>
+      <c r="BG91">
+        <v>1.22</v>
+      </c>
+      <c r="BH91">
+        <v>3.8</v>
+      </c>
+      <c r="BI91">
+        <v>1.32</v>
+      </c>
+      <c r="BJ91">
+        <v>2.85</v>
+      </c>
+      <c r="BK91">
+        <v>1.65</v>
+      </c>
+      <c r="BL91">
+        <v>2.21</v>
+      </c>
+      <c r="BM91">
+        <v>1.93</v>
+      </c>
+      <c r="BN91">
+        <v>1.73</v>
+      </c>
+      <c r="BO91">
+        <v>2.5</v>
+      </c>
+      <c r="BP91">
         <v>1.48</v>
       </c>
     </row>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Brazil Serie B_2025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Brazil Serie B_2025.xlsx
@@ -19655,7 +19655,7 @@
         <v>13</v>
       </c>
       <c r="AZ91">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="BA91">
         <v>6</v>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Brazil Serie B_2025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Brazil Serie B_2025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="608" uniqueCount="193">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="614" uniqueCount="194">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -594,6 +594,9 @@
   <si>
     <t>['63']</t>
   </si>
+  <si>
+    <t>['86']</t>
+  </si>
 </sst>
 </file>
 
@@ -954,7 +957,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP91"/>
+  <dimension ref="A1:BP92"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2324,7 +2327,7 @@
         <v>2.6</v>
       </c>
       <c r="AQ7">
-        <v>0.75</v>
+        <v>0.8</v>
       </c>
       <c r="AR7">
         <v>0</v>
@@ -2527,7 +2530,7 @@
         <v>0</v>
       </c>
       <c r="AP8">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="AQ8">
         <v>1</v>
@@ -7059,7 +7062,7 @@
         <v>1</v>
       </c>
       <c r="AP30">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="AQ30">
         <v>0.6</v>
@@ -7680,7 +7683,7 @@
         <v>3</v>
       </c>
       <c r="AQ33">
-        <v>0.75</v>
+        <v>0.8</v>
       </c>
       <c r="AR33">
         <v>1.59</v>
@@ -11591,7 +11594,7 @@
         <v>1.5</v>
       </c>
       <c r="AP52">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="AQ52">
         <v>1.2</v>
@@ -12624,7 +12627,7 @@
         <v>2</v>
       </c>
       <c r="AQ57">
-        <v>0.75</v>
+        <v>0.8</v>
       </c>
       <c r="AR57">
         <v>1.49</v>
@@ -15711,7 +15714,7 @@
         <v>1.33</v>
       </c>
       <c r="AP72">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="AQ72">
         <v>1.25</v>
@@ -16126,7 +16129,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ74">
-        <v>0.75</v>
+        <v>0.8</v>
       </c>
       <c r="AR74">
         <v>1.6</v>
@@ -19704,6 +19707,212 @@
       </c>
       <c r="BP91">
         <v>1.48</v>
+      </c>
+    </row>
+    <row r="92" spans="1:68">
+      <c r="A92" s="1">
+        <v>91</v>
+      </c>
+      <c r="B92">
+        <v>7841130</v>
+      </c>
+      <c r="C92" t="s">
+        <v>68</v>
+      </c>
+      <c r="D92" t="s">
+        <v>69</v>
+      </c>
+      <c r="E92" s="2">
+        <v>45806.89930555555</v>
+      </c>
+      <c r="F92">
+        <v>10</v>
+      </c>
+      <c r="G92" t="s">
+        <v>76</v>
+      </c>
+      <c r="H92" t="s">
+        <v>89</v>
+      </c>
+      <c r="I92">
+        <v>1</v>
+      </c>
+      <c r="J92">
+        <v>0</v>
+      </c>
+      <c r="K92">
+        <v>1</v>
+      </c>
+      <c r="L92">
+        <v>1</v>
+      </c>
+      <c r="M92">
+        <v>1</v>
+      </c>
+      <c r="N92">
+        <v>2</v>
+      </c>
+      <c r="O92" t="s">
+        <v>92</v>
+      </c>
+      <c r="P92" t="s">
+        <v>193</v>
+      </c>
+      <c r="Q92">
+        <v>2.78</v>
+      </c>
+      <c r="R92">
+        <v>1.98</v>
+      </c>
+      <c r="S92">
+        <v>4.8</v>
+      </c>
+      <c r="T92">
+        <v>1.56</v>
+      </c>
+      <c r="U92">
+        <v>2.3</v>
+      </c>
+      <c r="V92">
+        <v>3.5</v>
+      </c>
+      <c r="W92">
+        <v>1.26</v>
+      </c>
+      <c r="X92">
+        <v>11</v>
+      </c>
+      <c r="Y92">
+        <v>1.04</v>
+      </c>
+      <c r="Z92">
+        <v>1.95</v>
+      </c>
+      <c r="AA92">
+        <v>3.22</v>
+      </c>
+      <c r="AB92">
+        <v>4.27</v>
+      </c>
+      <c r="AC92">
+        <v>1.1</v>
+      </c>
+      <c r="AD92">
+        <v>6.25</v>
+      </c>
+      <c r="AE92">
+        <v>1.5</v>
+      </c>
+      <c r="AF92">
+        <v>2.4</v>
+      </c>
+      <c r="AG92">
+        <v>2.72</v>
+      </c>
+      <c r="AH92">
+        <v>1.47</v>
+      </c>
+      <c r="AI92">
+        <v>2.25</v>
+      </c>
+      <c r="AJ92">
+        <v>1.57</v>
+      </c>
+      <c r="AK92">
+        <v>1.36</v>
+      </c>
+      <c r="AL92">
+        <v>1.31</v>
+      </c>
+      <c r="AM92">
+        <v>1.8</v>
+      </c>
+      <c r="AN92">
+        <v>2</v>
+      </c>
+      <c r="AO92">
+        <v>0.75</v>
+      </c>
+      <c r="AP92">
+        <v>1.8</v>
+      </c>
+      <c r="AQ92">
+        <v>0.8</v>
+      </c>
+      <c r="AR92">
+        <v>2.06</v>
+      </c>
+      <c r="AS92">
+        <v>0.97</v>
+      </c>
+      <c r="AT92">
+        <v>3.03</v>
+      </c>
+      <c r="AU92">
+        <v>4</v>
+      </c>
+      <c r="AV92">
+        <v>7</v>
+      </c>
+      <c r="AW92">
+        <v>16</v>
+      </c>
+      <c r="AX92">
+        <v>9</v>
+      </c>
+      <c r="AY92">
+        <v>28</v>
+      </c>
+      <c r="AZ92">
+        <v>19</v>
+      </c>
+      <c r="BA92">
+        <v>2</v>
+      </c>
+      <c r="BB92">
+        <v>5</v>
+      </c>
+      <c r="BC92">
+        <v>7</v>
+      </c>
+      <c r="BD92">
+        <v>1.6</v>
+      </c>
+      <c r="BE92">
+        <v>6.75</v>
+      </c>
+      <c r="BF92">
+        <v>3</v>
+      </c>
+      <c r="BG92">
+        <v>1.25</v>
+      </c>
+      <c r="BH92">
+        <v>3.72</v>
+      </c>
+      <c r="BI92">
+        <v>1.35</v>
+      </c>
+      <c r="BJ92">
+        <v>2.74</v>
+      </c>
+      <c r="BK92">
+        <v>1.65</v>
+      </c>
+      <c r="BL92">
+        <v>2.05</v>
+      </c>
+      <c r="BM92">
+        <v>2.1</v>
+      </c>
+      <c r="BN92">
+        <v>1.7</v>
+      </c>
+      <c r="BO92">
+        <v>2.71</v>
+      </c>
+      <c r="BP92">
+        <v>1.38</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Brazil Serie B_2025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Brazil Serie B_2025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="614" uniqueCount="194">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="620" uniqueCount="194">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -957,7 +957,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP92"/>
+  <dimension ref="A1:BP93"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2945,7 +2945,7 @@
         <v>2.2</v>
       </c>
       <c r="AQ10">
-        <v>1.25</v>
+        <v>1.6</v>
       </c>
       <c r="AR10">
         <v>0</v>
@@ -3972,7 +3972,7 @@
         <v>0</v>
       </c>
       <c r="AP15">
-        <v>3</v>
+        <v>2.4</v>
       </c>
       <c r="AQ15">
         <v>0.4</v>
@@ -6035,7 +6035,7 @@
         <v>2.5</v>
       </c>
       <c r="AQ25">
-        <v>1.25</v>
+        <v>1.6</v>
       </c>
       <c r="AR25">
         <v>1.41</v>
@@ -7680,7 +7680,7 @@
         <v>0</v>
       </c>
       <c r="AP33">
-        <v>3</v>
+        <v>2.4</v>
       </c>
       <c r="AQ33">
         <v>0.8</v>
@@ -9946,7 +9946,7 @@
         <v>1.5</v>
       </c>
       <c r="AP44">
-        <v>3</v>
+        <v>2.4</v>
       </c>
       <c r="AQ44">
         <v>0.8</v>
@@ -12215,7 +12215,7 @@
         <v>2</v>
       </c>
       <c r="AQ55">
-        <v>1.25</v>
+        <v>1.6</v>
       </c>
       <c r="AR55">
         <v>1.76</v>
@@ -16332,7 +16332,7 @@
         <v>1</v>
       </c>
       <c r="AP75">
-        <v>3</v>
+        <v>2.4</v>
       </c>
       <c r="AQ75">
         <v>0.75</v>
@@ -16541,7 +16541,7 @@
         <v>0.75</v>
       </c>
       <c r="AQ76">
-        <v>1.25</v>
+        <v>1.6</v>
       </c>
       <c r="AR76">
         <v>1.64</v>
@@ -19913,6 +19913,212 @@
       </c>
       <c r="BP92">
         <v>1.38</v>
+      </c>
+    </row>
+    <row r="93" spans="1:68">
+      <c r="A93" s="1">
+        <v>92</v>
+      </c>
+      <c r="B93">
+        <v>7841123</v>
+      </c>
+      <c r="C93" t="s">
+        <v>68</v>
+      </c>
+      <c r="D93" t="s">
+        <v>69</v>
+      </c>
+      <c r="E93" s="2">
+        <v>45807.79166666666</v>
+      </c>
+      <c r="F93">
+        <v>10</v>
+      </c>
+      <c r="G93" t="s">
+        <v>83</v>
+      </c>
+      <c r="H93" t="s">
+        <v>85</v>
+      </c>
+      <c r="I93">
+        <v>0</v>
+      </c>
+      <c r="J93">
+        <v>1</v>
+      </c>
+      <c r="K93">
+        <v>1</v>
+      </c>
+      <c r="L93">
+        <v>0</v>
+      </c>
+      <c r="M93">
+        <v>1</v>
+      </c>
+      <c r="N93">
+        <v>1</v>
+      </c>
+      <c r="O93" t="s">
+        <v>97</v>
+      </c>
+      <c r="P93" t="s">
+        <v>177</v>
+      </c>
+      <c r="Q93">
+        <v>3.12</v>
+      </c>
+      <c r="R93">
+        <v>1.85</v>
+      </c>
+      <c r="S93">
+        <v>5.08</v>
+      </c>
+      <c r="T93">
+        <v>1.65</v>
+      </c>
+      <c r="U93">
+        <v>2.26</v>
+      </c>
+      <c r="V93">
+        <v>4</v>
+      </c>
+      <c r="W93">
+        <v>1.22</v>
+      </c>
+      <c r="X93">
+        <v>9.9</v>
+      </c>
+      <c r="Y93">
+        <v>1.02</v>
+      </c>
+      <c r="Z93">
+        <v>2.2</v>
+      </c>
+      <c r="AA93">
+        <v>2.75</v>
+      </c>
+      <c r="AB93">
+        <v>2.7</v>
+      </c>
+      <c r="AC93">
+        <v>1.08</v>
+      </c>
+      <c r="AD93">
+        <v>5.25</v>
+      </c>
+      <c r="AE93">
+        <v>1.67</v>
+      </c>
+      <c r="AF93">
+        <v>2.28</v>
+      </c>
+      <c r="AG93">
+        <v>3.12</v>
+      </c>
+      <c r="AH93">
+        <v>1.36</v>
+      </c>
+      <c r="AI93">
+        <v>2.38</v>
+      </c>
+      <c r="AJ93">
+        <v>1.55</v>
+      </c>
+      <c r="AK93">
+        <v>1.4</v>
+      </c>
+      <c r="AL93">
+        <v>1.37</v>
+      </c>
+      <c r="AM93">
+        <v>1.68</v>
+      </c>
+      <c r="AN93">
+        <v>3</v>
+      </c>
+      <c r="AO93">
+        <v>1.25</v>
+      </c>
+      <c r="AP93">
+        <v>2.4</v>
+      </c>
+      <c r="AQ93">
+        <v>1.6</v>
+      </c>
+      <c r="AR93">
+        <v>1.7</v>
+      </c>
+      <c r="AS93">
+        <v>1.29</v>
+      </c>
+      <c r="AT93">
+        <v>2.99</v>
+      </c>
+      <c r="AU93">
+        <v>8</v>
+      </c>
+      <c r="AV93">
+        <v>2</v>
+      </c>
+      <c r="AW93">
+        <v>9</v>
+      </c>
+      <c r="AX93">
+        <v>6</v>
+      </c>
+      <c r="AY93">
+        <v>20</v>
+      </c>
+      <c r="AZ93">
+        <v>9</v>
+      </c>
+      <c r="BA93">
+        <v>13</v>
+      </c>
+      <c r="BB93">
+        <v>2</v>
+      </c>
+      <c r="BC93">
+        <v>15</v>
+      </c>
+      <c r="BD93">
+        <v>1.9</v>
+      </c>
+      <c r="BE93">
+        <v>6.55</v>
+      </c>
+      <c r="BF93">
+        <v>1.95</v>
+      </c>
+      <c r="BG93">
+        <v>1.21</v>
+      </c>
+      <c r="BH93">
+        <v>3.75</v>
+      </c>
+      <c r="BI93">
+        <v>1.28</v>
+      </c>
+      <c r="BJ93">
+        <v>2.7</v>
+      </c>
+      <c r="BK93">
+        <v>1.52</v>
+      </c>
+      <c r="BL93">
+        <v>2.25</v>
+      </c>
+      <c r="BM93">
+        <v>2.07</v>
+      </c>
+      <c r="BN93">
+        <v>1.71</v>
+      </c>
+      <c r="BO93">
+        <v>2.5</v>
+      </c>
+      <c r="BP93">
+        <v>1.44</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Brazil Serie B_2025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Brazil Serie B_2025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="620" uniqueCount="194">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="626" uniqueCount="195">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -493,6 +493,9 @@
     <t>['24', '28']</t>
   </si>
   <si>
+    <t>['35', '86']</t>
+  </si>
+  <si>
     <t>['33', '72']</t>
   </si>
   <si>
@@ -957,7 +960,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP93"/>
+  <dimension ref="A1:BP94"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1422,7 +1425,7 @@
         <v>91</v>
       </c>
       <c r="P3" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="Q3">
         <v>3.5</v>
@@ -1628,7 +1631,7 @@
         <v>92</v>
       </c>
       <c r="P4" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="Q4">
         <v>2.5</v>
@@ -1912,7 +1915,7 @@
         <v>0</v>
       </c>
       <c r="AP5">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="AQ5">
         <v>0.8</v>
@@ -2452,7 +2455,7 @@
         <v>96</v>
       </c>
       <c r="P8" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="Q8">
         <v>3</v>
@@ -3070,7 +3073,7 @@
         <v>99</v>
       </c>
       <c r="P11" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="Q11">
         <v>2.38</v>
@@ -3276,7 +3279,7 @@
         <v>100</v>
       </c>
       <c r="P12" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="Q12">
         <v>2.51</v>
@@ -3482,7 +3485,7 @@
         <v>101</v>
       </c>
       <c r="P13" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="Q13">
         <v>2.8</v>
@@ -3563,7 +3566,7 @@
         <v>2</v>
       </c>
       <c r="AQ13">
-        <v>1.25</v>
+        <v>1</v>
       </c>
       <c r="AR13">
         <v>0</v>
@@ -3688,7 +3691,7 @@
         <v>102</v>
       </c>
       <c r="P14" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="Q14">
         <v>3.3</v>
@@ -4512,7 +4515,7 @@
         <v>105</v>
       </c>
       <c r="P18" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="Q18">
         <v>3.22</v>
@@ -4718,7 +4721,7 @@
         <v>106</v>
       </c>
       <c r="P19" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="Q19">
         <v>2.55</v>
@@ -5130,7 +5133,7 @@
         <v>92</v>
       </c>
       <c r="P21" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="Q21">
         <v>3.5</v>
@@ -5336,7 +5339,7 @@
         <v>108</v>
       </c>
       <c r="P22" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="Q22">
         <v>3.5</v>
@@ -5542,7 +5545,7 @@
         <v>97</v>
       </c>
       <c r="P23" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="Q23">
         <v>2.33</v>
@@ -6032,7 +6035,7 @@
         <v>1</v>
       </c>
       <c r="AP25">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="AQ25">
         <v>1.6</v>
@@ -6160,7 +6163,7 @@
         <v>109</v>
       </c>
       <c r="P26" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="Q26">
         <v>2.38</v>
@@ -6778,7 +6781,7 @@
         <v>112</v>
       </c>
       <c r="P29" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="Q29">
         <v>3.1</v>
@@ -7190,7 +7193,7 @@
         <v>114</v>
       </c>
       <c r="P31" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="Q31">
         <v>2.2</v>
@@ -8426,7 +8429,7 @@
         <v>97</v>
       </c>
       <c r="P37" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="Q37">
         <v>3.6</v>
@@ -8507,7 +8510,7 @@
         <v>1.2</v>
       </c>
       <c r="AQ37">
-        <v>1.25</v>
+        <v>1</v>
       </c>
       <c r="AR37">
         <v>2.41</v>
@@ -8632,7 +8635,7 @@
         <v>119</v>
       </c>
       <c r="P38" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="Q38">
         <v>2.58</v>
@@ -9456,7 +9459,7 @@
         <v>122</v>
       </c>
       <c r="P42" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="Q42">
         <v>3.1</v>
@@ -10152,7 +10155,7 @@
         <v>1.5</v>
       </c>
       <c r="AP45">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="AQ45">
         <v>1.2</v>
@@ -10692,7 +10695,7 @@
         <v>95</v>
       </c>
       <c r="P48" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="Q48">
         <v>3.08</v>
@@ -10898,7 +10901,7 @@
         <v>127</v>
       </c>
       <c r="P49" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="Q49">
         <v>2.75</v>
@@ -11310,7 +11313,7 @@
         <v>97</v>
       </c>
       <c r="P51" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="Q51">
         <v>4.2</v>
@@ -11516,7 +11519,7 @@
         <v>129</v>
       </c>
       <c r="P52" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="Q52">
         <v>3.5</v>
@@ -12546,7 +12549,7 @@
         <v>133</v>
       </c>
       <c r="P57" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="Q57">
         <v>1.97</v>
@@ -12958,7 +12961,7 @@
         <v>135</v>
       </c>
       <c r="P59" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="Q59">
         <v>2.88</v>
@@ -13039,7 +13042,7 @@
         <v>2.6</v>
       </c>
       <c r="AQ59">
-        <v>1.25</v>
+        <v>1</v>
       </c>
       <c r="AR59">
         <v>1.57</v>
@@ -13370,7 +13373,7 @@
         <v>97</v>
       </c>
       <c r="P61" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="Q61">
         <v>2.85</v>
@@ -13576,7 +13579,7 @@
         <v>137</v>
       </c>
       <c r="P62" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="Q62">
         <v>2.13</v>
@@ -14400,7 +14403,7 @@
         <v>139</v>
       </c>
       <c r="P66" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="Q66">
         <v>2.6</v>
@@ -14606,7 +14609,7 @@
         <v>140</v>
       </c>
       <c r="P67" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="Q67">
         <v>2.35</v>
@@ -14812,7 +14815,7 @@
         <v>97</v>
       </c>
       <c r="P68" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="Q68">
         <v>2.8</v>
@@ -15018,7 +15021,7 @@
         <v>141</v>
       </c>
       <c r="P69" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="Q69">
         <v>3</v>
@@ -15430,7 +15433,7 @@
         <v>143</v>
       </c>
       <c r="P71" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="Q71">
         <v>2.13</v>
@@ -15717,7 +15720,7 @@
         <v>1.8</v>
       </c>
       <c r="AQ72">
-        <v>1.25</v>
+        <v>1</v>
       </c>
       <c r="AR72">
         <v>2.1</v>
@@ -16254,7 +16257,7 @@
         <v>147</v>
       </c>
       <c r="P75" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="Q75">
         <v>3.6</v>
@@ -16460,7 +16463,7 @@
         <v>97</v>
       </c>
       <c r="P76" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="Q76">
         <v>3.64</v>
@@ -16666,7 +16669,7 @@
         <v>148</v>
       </c>
       <c r="P77" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="Q77">
         <v>2.5</v>
@@ -17568,7 +17571,7 @@
         <v>0</v>
       </c>
       <c r="AP81">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="AQ81">
         <v>0</v>
@@ -18314,7 +18317,7 @@
         <v>154</v>
       </c>
       <c r="P85" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="Q85">
         <v>2.4</v>
@@ -18932,7 +18935,7 @@
         <v>97</v>
       </c>
       <c r="P88" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="Q88">
         <v>2.85</v>
@@ -19138,7 +19141,7 @@
         <v>157</v>
       </c>
       <c r="P89" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="Q89">
         <v>2.8</v>
@@ -19550,7 +19553,7 @@
         <v>158</v>
       </c>
       <c r="P91" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="Q91">
         <v>2.34</v>
@@ -19756,7 +19759,7 @@
         <v>92</v>
       </c>
       <c r="P92" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="Q92">
         <v>2.78</v>
@@ -19962,7 +19965,7 @@
         <v>97</v>
       </c>
       <c r="P93" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="Q93">
         <v>3.12</v>
@@ -20073,13 +20076,13 @@
         <v>9</v>
       </c>
       <c r="BA93">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="BB93">
         <v>2</v>
       </c>
       <c r="BC93">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="BD93">
         <v>1.9</v>
@@ -20119,6 +20122,212 @@
       </c>
       <c r="BP93">
         <v>1.44</v>
+      </c>
+    </row>
+    <row r="94" spans="1:68">
+      <c r="A94" s="1">
+        <v>93</v>
+      </c>
+      <c r="B94">
+        <v>7841122</v>
+      </c>
+      <c r="C94" t="s">
+        <v>68</v>
+      </c>
+      <c r="D94" t="s">
+        <v>69</v>
+      </c>
+      <c r="E94" s="2">
+        <v>45808.66666666666</v>
+      </c>
+      <c r="F94">
+        <v>10</v>
+      </c>
+      <c r="G94" t="s">
+        <v>73</v>
+      </c>
+      <c r="H94" t="s">
+        <v>78</v>
+      </c>
+      <c r="I94">
+        <v>1</v>
+      </c>
+      <c r="J94">
+        <v>0</v>
+      </c>
+      <c r="K94">
+        <v>1</v>
+      </c>
+      <c r="L94">
+        <v>2</v>
+      </c>
+      <c r="M94">
+        <v>1</v>
+      </c>
+      <c r="N94">
+        <v>3</v>
+      </c>
+      <c r="O94" t="s">
+        <v>159</v>
+      </c>
+      <c r="P94" t="s">
+        <v>102</v>
+      </c>
+      <c r="Q94">
+        <v>2.75</v>
+      </c>
+      <c r="R94">
+        <v>1.91</v>
+      </c>
+      <c r="S94">
+        <v>4.35</v>
+      </c>
+      <c r="T94">
+        <v>1.58</v>
+      </c>
+      <c r="U94">
+        <v>2.25</v>
+      </c>
+      <c r="V94">
+        <v>3.8</v>
+      </c>
+      <c r="W94">
+        <v>1.22</v>
+      </c>
+      <c r="X94">
+        <v>11.5</v>
+      </c>
+      <c r="Y94">
+        <v>1</v>
+      </c>
+      <c r="Z94">
+        <v>1.84</v>
+      </c>
+      <c r="AA94">
+        <v>3.04</v>
+      </c>
+      <c r="AB94">
+        <v>4.1</v>
+      </c>
+      <c r="AC94">
+        <v>1.13</v>
+      </c>
+      <c r="AD94">
+        <v>5.75</v>
+      </c>
+      <c r="AE94">
+        <v>1.5</v>
+      </c>
+      <c r="AF94">
+        <v>2.4</v>
+      </c>
+      <c r="AG94">
+        <v>2.3</v>
+      </c>
+      <c r="AH94">
+        <v>1.5</v>
+      </c>
+      <c r="AI94">
+        <v>2.2</v>
+      </c>
+      <c r="AJ94">
+        <v>1.57</v>
+      </c>
+      <c r="AK94">
+        <v>1.25</v>
+      </c>
+      <c r="AL94">
+        <v>1.32</v>
+      </c>
+      <c r="AM94">
+        <v>1.73</v>
+      </c>
+      <c r="AN94">
+        <v>2.5</v>
+      </c>
+      <c r="AO94">
+        <v>1.25</v>
+      </c>
+      <c r="AP94">
+        <v>2.6</v>
+      </c>
+      <c r="AQ94">
+        <v>1</v>
+      </c>
+      <c r="AR94">
+        <v>1.37</v>
+      </c>
+      <c r="AS94">
+        <v>1.41</v>
+      </c>
+      <c r="AT94">
+        <v>2.78</v>
+      </c>
+      <c r="AU94">
+        <v>8</v>
+      </c>
+      <c r="AV94">
+        <v>5</v>
+      </c>
+      <c r="AW94">
+        <v>7</v>
+      </c>
+      <c r="AX94">
+        <v>4</v>
+      </c>
+      <c r="AY94">
+        <v>16</v>
+      </c>
+      <c r="AZ94">
+        <v>9</v>
+      </c>
+      <c r="BA94">
+        <v>4</v>
+      </c>
+      <c r="BB94">
+        <v>2</v>
+      </c>
+      <c r="BC94">
+        <v>6</v>
+      </c>
+      <c r="BD94">
+        <v>1.42</v>
+      </c>
+      <c r="BE94">
+        <v>7.5</v>
+      </c>
+      <c r="BF94">
+        <v>3.6</v>
+      </c>
+      <c r="BG94">
+        <v>1.17</v>
+      </c>
+      <c r="BH94">
+        <v>4.5</v>
+      </c>
+      <c r="BI94">
+        <v>1.24</v>
+      </c>
+      <c r="BJ94">
+        <v>3.5</v>
+      </c>
+      <c r="BK94">
+        <v>1.46</v>
+      </c>
+      <c r="BL94">
+        <v>2.45</v>
+      </c>
+      <c r="BM94">
+        <v>1.8</v>
+      </c>
+      <c r="BN94">
+        <v>1.91</v>
+      </c>
+      <c r="BO94">
+        <v>2.25</v>
+      </c>
+      <c r="BP94">
+        <v>1.61</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Brazil Serie B_2025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Brazil Serie B_2025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="626" uniqueCount="195">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="638" uniqueCount="197">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -600,6 +600,12 @@
   <si>
     <t>['86']</t>
   </si>
+  <si>
+    <t>['30', '45+7']</t>
+  </si>
+  <si>
+    <t>['12', '87']</t>
+  </si>
 </sst>
 </file>
 
@@ -960,7 +966,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP94"/>
+  <dimension ref="A1:BP96"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2742,7 +2748,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ9">
-        <v>1.25</v>
+        <v>1.6</v>
       </c>
       <c r="AR9">
         <v>0</v>
@@ -3151,7 +3157,7 @@
         <v>0</v>
       </c>
       <c r="AP11">
-        <v>2</v>
+        <v>1.6</v>
       </c>
       <c r="AQ11">
         <v>0.6</v>
@@ -4596,7 +4602,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ18">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="AR18">
         <v>0</v>
@@ -4799,7 +4805,7 @@
         <v>0</v>
       </c>
       <c r="AP19">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="AQ19">
         <v>1</v>
@@ -8304,7 +8310,7 @@
         <v>2.6</v>
       </c>
       <c r="AQ36">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="AR36">
         <v>1.95</v>
@@ -9125,10 +9131,10 @@
         <v>3</v>
       </c>
       <c r="AP40">
-        <v>2</v>
+        <v>1.6</v>
       </c>
       <c r="AQ40">
-        <v>1.25</v>
+        <v>1.6</v>
       </c>
       <c r="AR40">
         <v>1.82</v>
@@ -10567,7 +10573,7 @@
         <v>0</v>
       </c>
       <c r="AP47">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="AQ47">
         <v>0.4</v>
@@ -11394,7 +11400,7 @@
         <v>1</v>
       </c>
       <c r="AQ51">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="AR51">
         <v>1.16</v>
@@ -12215,7 +12221,7 @@
         <v>1</v>
       </c>
       <c r="AP55">
-        <v>2</v>
+        <v>1.6</v>
       </c>
       <c r="AQ55">
         <v>1.6</v>
@@ -13248,7 +13254,7 @@
         <v>2.5</v>
       </c>
       <c r="AQ60">
-        <v>1.25</v>
+        <v>1.6</v>
       </c>
       <c r="AR60">
         <v>1.78</v>
@@ -13451,7 +13457,7 @@
         <v>0.5</v>
       </c>
       <c r="AP61">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="AQ61">
         <v>0.8</v>
@@ -15926,7 +15932,7 @@
         <v>2.25</v>
       </c>
       <c r="AQ73">
-        <v>1.25</v>
+        <v>1.6</v>
       </c>
       <c r="AR73">
         <v>1.75</v>
@@ -16541,7 +16547,7 @@
         <v>0.67</v>
       </c>
       <c r="AP76">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="AQ76">
         <v>1.6</v>
@@ -16747,7 +16753,7 @@
         <v>1</v>
       </c>
       <c r="AP77">
-        <v>2</v>
+        <v>1.6</v>
       </c>
       <c r="AQ77">
         <v>1</v>
@@ -17162,7 +17168,7 @@
         <v>0.5</v>
       </c>
       <c r="AQ79">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="AR79">
         <v>1.67</v>
@@ -20328,6 +20334,418 @@
       </c>
       <c r="BP94">
         <v>1.61</v>
+      </c>
+    </row>
+    <row r="95" spans="1:68">
+      <c r="A95" s="1">
+        <v>94</v>
+      </c>
+      <c r="B95">
+        <v>7841124</v>
+      </c>
+      <c r="C95" t="s">
+        <v>68</v>
+      </c>
+      <c r="D95" t="s">
+        <v>69</v>
+      </c>
+      <c r="E95" s="2">
+        <v>45808.77083333334</v>
+      </c>
+      <c r="F95">
+        <v>10</v>
+      </c>
+      <c r="G95" t="s">
+        <v>79</v>
+      </c>
+      <c r="H95" t="s">
+        <v>70</v>
+      </c>
+      <c r="I95">
+        <v>1</v>
+      </c>
+      <c r="J95">
+        <v>2</v>
+      </c>
+      <c r="K95">
+        <v>3</v>
+      </c>
+      <c r="L95">
+        <v>1</v>
+      </c>
+      <c r="M95">
+        <v>2</v>
+      </c>
+      <c r="N95">
+        <v>3</v>
+      </c>
+      <c r="O95" t="s">
+        <v>94</v>
+      </c>
+      <c r="P95" t="s">
+        <v>195</v>
+      </c>
+      <c r="Q95">
+        <v>2.9</v>
+      </c>
+      <c r="R95">
+        <v>2.02</v>
+      </c>
+      <c r="S95">
+        <v>4.44</v>
+      </c>
+      <c r="T95">
+        <v>1.55</v>
+      </c>
+      <c r="U95">
+        <v>2.25</v>
+      </c>
+      <c r="V95">
+        <v>3.3</v>
+      </c>
+      <c r="W95">
+        <v>1.29</v>
+      </c>
+      <c r="X95">
+        <v>11</v>
+      </c>
+      <c r="Y95">
+        <v>1.04</v>
+      </c>
+      <c r="Z95">
+        <v>2.33</v>
+      </c>
+      <c r="AA95">
+        <v>2.99</v>
+      </c>
+      <c r="AB95">
+        <v>3.63</v>
+      </c>
+      <c r="AC95">
+        <v>1.11</v>
+      </c>
+      <c r="AD95">
+        <v>6.25</v>
+      </c>
+      <c r="AE95">
+        <v>1.51</v>
+      </c>
+      <c r="AF95">
+        <v>2.44</v>
+      </c>
+      <c r="AG95">
+        <v>2.4</v>
+      </c>
+      <c r="AH95">
+        <v>1.44</v>
+      </c>
+      <c r="AI95">
+        <v>2.15</v>
+      </c>
+      <c r="AJ95">
+        <v>1.7</v>
+      </c>
+      <c r="AK95">
+        <v>1.29</v>
+      </c>
+      <c r="AL95">
+        <v>1.38</v>
+      </c>
+      <c r="AM95">
+        <v>1.57</v>
+      </c>
+      <c r="AN95">
+        <v>2</v>
+      </c>
+      <c r="AO95">
+        <v>1.75</v>
+      </c>
+      <c r="AP95">
+        <v>1.6</v>
+      </c>
+      <c r="AQ95">
+        <v>2</v>
+      </c>
+      <c r="AR95">
+        <v>1.93</v>
+      </c>
+      <c r="AS95">
+        <v>1.18</v>
+      </c>
+      <c r="AT95">
+        <v>3.11</v>
+      </c>
+      <c r="AU95">
+        <v>6</v>
+      </c>
+      <c r="AV95">
+        <v>6</v>
+      </c>
+      <c r="AW95">
+        <v>10</v>
+      </c>
+      <c r="AX95">
+        <v>3</v>
+      </c>
+      <c r="AY95">
+        <v>17</v>
+      </c>
+      <c r="AZ95">
+        <v>10</v>
+      </c>
+      <c r="BA95">
+        <v>6</v>
+      </c>
+      <c r="BB95">
+        <v>3</v>
+      </c>
+      <c r="BC95">
+        <v>9</v>
+      </c>
+      <c r="BD95">
+        <v>1.62</v>
+      </c>
+      <c r="BE95">
+        <v>8.1</v>
+      </c>
+      <c r="BF95">
+        <v>2.66</v>
+      </c>
+      <c r="BG95">
+        <v>1.15</v>
+      </c>
+      <c r="BH95">
+        <v>4.75</v>
+      </c>
+      <c r="BI95">
+        <v>1.24</v>
+      </c>
+      <c r="BJ95">
+        <v>3.6</v>
+      </c>
+      <c r="BK95">
+        <v>1.55</v>
+      </c>
+      <c r="BL95">
+        <v>2.62</v>
+      </c>
+      <c r="BM95">
+        <v>1.82</v>
+      </c>
+      <c r="BN95">
+        <v>2.04</v>
+      </c>
+      <c r="BO95">
+        <v>2.2</v>
+      </c>
+      <c r="BP95">
+        <v>1.62</v>
+      </c>
+    </row>
+    <row r="96" spans="1:68">
+      <c r="A96" s="1">
+        <v>95</v>
+      </c>
+      <c r="B96">
+        <v>7841129</v>
+      </c>
+      <c r="C96" t="s">
+        <v>68</v>
+      </c>
+      <c r="D96" t="s">
+        <v>69</v>
+      </c>
+      <c r="E96" s="2">
+        <v>45808.85416666666</v>
+      </c>
+      <c r="F96">
+        <v>10</v>
+      </c>
+      <c r="G96" t="s">
+        <v>87</v>
+      </c>
+      <c r="H96" t="s">
+        <v>81</v>
+      </c>
+      <c r="I96">
+        <v>0</v>
+      </c>
+      <c r="J96">
+        <v>1</v>
+      </c>
+      <c r="K96">
+        <v>1</v>
+      </c>
+      <c r="L96">
+        <v>0</v>
+      </c>
+      <c r="M96">
+        <v>2</v>
+      </c>
+      <c r="N96">
+        <v>2</v>
+      </c>
+      <c r="O96" t="s">
+        <v>97</v>
+      </c>
+      <c r="P96" t="s">
+        <v>196</v>
+      </c>
+      <c r="Q96">
+        <v>3.2</v>
+      </c>
+      <c r="R96">
+        <v>1.9</v>
+      </c>
+      <c r="S96">
+        <v>3.85</v>
+      </c>
+      <c r="T96">
+        <v>1.58</v>
+      </c>
+      <c r="U96">
+        <v>2.35</v>
+      </c>
+      <c r="V96">
+        <v>3.4</v>
+      </c>
+      <c r="W96">
+        <v>1.32</v>
+      </c>
+      <c r="X96">
+        <v>10.5</v>
+      </c>
+      <c r="Y96">
+        <v>1.02</v>
+      </c>
+      <c r="Z96">
+        <v>2.4</v>
+      </c>
+      <c r="AA96">
+        <v>2.7</v>
+      </c>
+      <c r="AB96">
+        <v>3</v>
+      </c>
+      <c r="AC96">
+        <v>1.13</v>
+      </c>
+      <c r="AD96">
+        <v>6.21</v>
+      </c>
+      <c r="AE96">
+        <v>1.53</v>
+      </c>
+      <c r="AF96">
+        <v>2.3</v>
+      </c>
+      <c r="AG96">
+        <v>2.7</v>
+      </c>
+      <c r="AH96">
+        <v>1.45</v>
+      </c>
+      <c r="AI96">
+        <v>2.14</v>
+      </c>
+      <c r="AJ96">
+        <v>1.67</v>
+      </c>
+      <c r="AK96">
+        <v>1.36</v>
+      </c>
+      <c r="AL96">
+        <v>1.3</v>
+      </c>
+      <c r="AM96">
+        <v>1.52</v>
+      </c>
+      <c r="AN96">
+        <v>0.75</v>
+      </c>
+      <c r="AO96">
+        <v>1.25</v>
+      </c>
+      <c r="AP96">
+        <v>0.6</v>
+      </c>
+      <c r="AQ96">
+        <v>1.6</v>
+      </c>
+      <c r="AR96">
+        <v>1.76</v>
+      </c>
+      <c r="AS96">
+        <v>1.77</v>
+      </c>
+      <c r="AT96">
+        <v>3.53</v>
+      </c>
+      <c r="AU96">
+        <v>2</v>
+      </c>
+      <c r="AV96">
+        <v>4</v>
+      </c>
+      <c r="AW96">
+        <v>8</v>
+      </c>
+      <c r="AX96">
+        <v>8</v>
+      </c>
+      <c r="AY96">
+        <v>12</v>
+      </c>
+      <c r="AZ96">
+        <v>13</v>
+      </c>
+      <c r="BA96">
+        <v>3</v>
+      </c>
+      <c r="BB96">
+        <v>5</v>
+      </c>
+      <c r="BC96">
+        <v>8</v>
+      </c>
+      <c r="BD96">
+        <v>1.79</v>
+      </c>
+      <c r="BE96">
+        <v>6.5</v>
+      </c>
+      <c r="BF96">
+        <v>2.46</v>
+      </c>
+      <c r="BG96">
+        <v>1.2</v>
+      </c>
+      <c r="BH96">
+        <v>3.9</v>
+      </c>
+      <c r="BI96">
+        <v>1.48</v>
+      </c>
+      <c r="BJ96">
+        <v>2.5</v>
+      </c>
+      <c r="BK96">
+        <v>1.8</v>
+      </c>
+      <c r="BL96">
+        <v>2.17</v>
+      </c>
+      <c r="BM96">
+        <v>2.02</v>
+      </c>
+      <c r="BN96">
+        <v>1.71</v>
+      </c>
+      <c r="BO96">
+        <v>2.52</v>
+      </c>
+      <c r="BP96">
+        <v>1.46</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Brazil Serie B_2025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Brazil Serie B_2025.xlsx
@@ -20694,10 +20694,10 @@
         <v>8</v>
       </c>
       <c r="AY96">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AZ96">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="BA96">
         <v>3</v>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Brazil Serie B_2025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Brazil Serie B_2025.xlsx
@@ -20494,13 +20494,13 @@
         <v>10</v>
       </c>
       <c r="BA95">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="BB95">
         <v>3</v>
       </c>
       <c r="BC95">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="BD95">
         <v>1.62</v>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Brazil Serie B_2025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Brazil Serie B_2025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="638" uniqueCount="197">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="650" uniqueCount="199">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -496,6 +496,12 @@
     <t>['35', '86']</t>
   </si>
   <si>
+    <t>['17', '26']</t>
+  </si>
+  <si>
+    <t>['9', '62']</t>
+  </si>
+  <si>
     <t>['33', '72']</t>
   </si>
   <si>
@@ -966,7 +972,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP96"/>
+  <dimension ref="A1:BP98"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1431,7 +1437,7 @@
         <v>91</v>
       </c>
       <c r="P3" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="Q3">
         <v>3.5</v>
@@ -1512,7 +1518,7 @@
         <v>0.5</v>
       </c>
       <c r="AQ3">
-        <v>0.75</v>
+        <v>0.8</v>
       </c>
       <c r="AR3">
         <v>0</v>
@@ -1637,7 +1643,7 @@
         <v>92</v>
       </c>
       <c r="P4" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="Q4">
         <v>2.5</v>
@@ -2127,7 +2133,7 @@
         <v>0</v>
       </c>
       <c r="AP6">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="AQ6">
         <v>0.8</v>
@@ -2461,7 +2467,7 @@
         <v>96</v>
       </c>
       <c r="P8" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="Q8">
         <v>3</v>
@@ -2542,7 +2548,7 @@
         <v>1.8</v>
       </c>
       <c r="AQ8">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AR8">
         <v>0</v>
@@ -3079,7 +3085,7 @@
         <v>99</v>
       </c>
       <c r="P11" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="Q11">
         <v>2.38</v>
@@ -3285,7 +3291,7 @@
         <v>100</v>
       </c>
       <c r="P12" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="Q12">
         <v>2.51</v>
@@ -3491,7 +3497,7 @@
         <v>101</v>
       </c>
       <c r="P13" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="Q13">
         <v>2.8</v>
@@ -3697,7 +3703,7 @@
         <v>102</v>
       </c>
       <c r="P14" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="Q14">
         <v>3.3</v>
@@ -4521,7 +4527,7 @@
         <v>105</v>
       </c>
       <c r="P18" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="Q18">
         <v>3.22</v>
@@ -4599,7 +4605,7 @@
         <v>0</v>
       </c>
       <c r="AP18">
-        <v>1.75</v>
+        <v>1.6</v>
       </c>
       <c r="AQ18">
         <v>2</v>
@@ -4727,7 +4733,7 @@
         <v>106</v>
       </c>
       <c r="P19" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="Q19">
         <v>2.55</v>
@@ -5139,7 +5145,7 @@
         <v>92</v>
       </c>
       <c r="P21" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="Q21">
         <v>3.5</v>
@@ -5345,7 +5351,7 @@
         <v>108</v>
       </c>
       <c r="P22" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="Q22">
         <v>3.5</v>
@@ -5426,7 +5432,7 @@
         <v>2</v>
       </c>
       <c r="AQ22">
-        <v>0.75</v>
+        <v>0.8</v>
       </c>
       <c r="AR22">
         <v>1.69</v>
@@ -5551,7 +5557,7 @@
         <v>97</v>
       </c>
       <c r="P23" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="Q23">
         <v>2.33</v>
@@ -6169,7 +6175,7 @@
         <v>109</v>
       </c>
       <c r="P26" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="Q26">
         <v>2.38</v>
@@ -6659,7 +6665,7 @@
         <v>0</v>
       </c>
       <c r="AP28">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="AQ28">
         <v>0.4</v>
@@ -6787,7 +6793,7 @@
         <v>112</v>
       </c>
       <c r="P29" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="Q29">
         <v>3.1</v>
@@ -6868,7 +6874,7 @@
         <v>1</v>
       </c>
       <c r="AQ29">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AR29">
         <v>1.52</v>
@@ -7199,7 +7205,7 @@
         <v>114</v>
       </c>
       <c r="P31" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="Q31">
         <v>2.2</v>
@@ -7483,7 +7489,7 @@
         <v>0</v>
       </c>
       <c r="AP32">
-        <v>1.75</v>
+        <v>1.6</v>
       </c>
       <c r="AQ32">
         <v>0.4</v>
@@ -8435,7 +8441,7 @@
         <v>97</v>
       </c>
       <c r="P37" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="Q37">
         <v>3.6</v>
@@ -8641,7 +8647,7 @@
         <v>119</v>
       </c>
       <c r="P38" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="Q38">
         <v>2.58</v>
@@ -9465,7 +9471,7 @@
         <v>122</v>
       </c>
       <c r="P42" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="Q42">
         <v>3.1</v>
@@ -9546,7 +9552,7 @@
         <v>2.2</v>
       </c>
       <c r="AQ42">
-        <v>0.75</v>
+        <v>0.8</v>
       </c>
       <c r="AR42">
         <v>2.49</v>
@@ -9752,7 +9758,7 @@
         <v>1</v>
       </c>
       <c r="AQ43">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AR43">
         <v>2.25</v>
@@ -10701,7 +10707,7 @@
         <v>95</v>
       </c>
       <c r="P48" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="Q48">
         <v>3.08</v>
@@ -10907,7 +10913,7 @@
         <v>127</v>
       </c>
       <c r="P49" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="Q49">
         <v>2.75</v>
@@ -11319,7 +11325,7 @@
         <v>97</v>
       </c>
       <c r="P51" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="Q51">
         <v>4.2</v>
@@ -11525,7 +11531,7 @@
         <v>129</v>
       </c>
       <c r="P52" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="Q52">
         <v>3.5</v>
@@ -12555,7 +12561,7 @@
         <v>133</v>
       </c>
       <c r="P57" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="Q57">
         <v>1.97</v>
@@ -12839,7 +12845,7 @@
         <v>0</v>
       </c>
       <c r="AP58">
-        <v>1.75</v>
+        <v>1.6</v>
       </c>
       <c r="AQ58">
         <v>0</v>
@@ -12967,7 +12973,7 @@
         <v>135</v>
       </c>
       <c r="P59" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="Q59">
         <v>2.88</v>
@@ -13251,7 +13257,7 @@
         <v>2</v>
       </c>
       <c r="AP60">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="AQ60">
         <v>1.6</v>
@@ -13379,7 +13385,7 @@
         <v>97</v>
       </c>
       <c r="P61" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="Q61">
         <v>2.85</v>
@@ -13585,7 +13591,7 @@
         <v>137</v>
       </c>
       <c r="P62" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="Q62">
         <v>2.13</v>
@@ -14409,7 +14415,7 @@
         <v>139</v>
       </c>
       <c r="P66" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="Q66">
         <v>2.6</v>
@@ -14615,7 +14621,7 @@
         <v>140</v>
       </c>
       <c r="P67" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="Q67">
         <v>2.35</v>
@@ -14821,7 +14827,7 @@
         <v>97</v>
       </c>
       <c r="P68" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="Q68">
         <v>2.8</v>
@@ -15027,7 +15033,7 @@
         <v>141</v>
       </c>
       <c r="P69" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="Q69">
         <v>3</v>
@@ -15439,7 +15445,7 @@
         <v>143</v>
       </c>
       <c r="P71" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="Q71">
         <v>2.13</v>
@@ -16135,7 +16141,7 @@
         <v>1</v>
       </c>
       <c r="AP74">
-        <v>1.75</v>
+        <v>1.6</v>
       </c>
       <c r="AQ74">
         <v>0.8</v>
@@ -16263,7 +16269,7 @@
         <v>147</v>
       </c>
       <c r="P75" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="Q75">
         <v>3.6</v>
@@ -16344,7 +16350,7 @@
         <v>2.4</v>
       </c>
       <c r="AQ75">
-        <v>0.75</v>
+        <v>0.8</v>
       </c>
       <c r="AR75">
         <v>1.88</v>
@@ -16469,7 +16475,7 @@
         <v>97</v>
       </c>
       <c r="P76" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="Q76">
         <v>3.64</v>
@@ -16675,7 +16681,7 @@
         <v>148</v>
       </c>
       <c r="P77" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="Q77">
         <v>2.5</v>
@@ -16756,7 +16762,7 @@
         <v>1.6</v>
       </c>
       <c r="AQ77">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AR77">
         <v>1.59</v>
@@ -16959,7 +16965,7 @@
         <v>0.33</v>
       </c>
       <c r="AP78">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="AQ78">
         <v>0.25</v>
@@ -18323,7 +18329,7 @@
         <v>154</v>
       </c>
       <c r="P85" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="Q85">
         <v>2.4</v>
@@ -18941,7 +18947,7 @@
         <v>97</v>
       </c>
       <c r="P88" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="Q88">
         <v>2.85</v>
@@ -19147,7 +19153,7 @@
         <v>157</v>
       </c>
       <c r="P89" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="Q89">
         <v>2.8</v>
@@ -19559,7 +19565,7 @@
         <v>158</v>
       </c>
       <c r="P91" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="Q91">
         <v>2.34</v>
@@ -19765,7 +19771,7 @@
         <v>92</v>
       </c>
       <c r="P92" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="Q92">
         <v>2.78</v>
@@ -19971,7 +19977,7 @@
         <v>97</v>
       </c>
       <c r="P93" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="Q93">
         <v>3.12</v>
@@ -20383,7 +20389,7 @@
         <v>94</v>
       </c>
       <c r="P95" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="Q95">
         <v>2.9</v>
@@ -20494,13 +20500,13 @@
         <v>10</v>
       </c>
       <c r="BA95">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="BB95">
         <v>3</v>
       </c>
       <c r="BC95">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="BD95">
         <v>1.62</v>
@@ -20589,7 +20595,7 @@
         <v>97</v>
       </c>
       <c r="P96" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="Q96">
         <v>3.2</v>
@@ -20746,6 +20752,418 @@
       </c>
       <c r="BP96">
         <v>1.46</v>
+      </c>
+    </row>
+    <row r="97" spans="1:68">
+      <c r="A97" s="1">
+        <v>96</v>
+      </c>
+      <c r="B97">
+        <v>7841127</v>
+      </c>
+      <c r="C97" t="s">
+        <v>68</v>
+      </c>
+      <c r="D97" t="s">
+        <v>69</v>
+      </c>
+      <c r="E97" s="2">
+        <v>45809.66666666666</v>
+      </c>
+      <c r="F97">
+        <v>10</v>
+      </c>
+      <c r="G97" t="s">
+        <v>86</v>
+      </c>
+      <c r="H97" t="s">
+        <v>80</v>
+      </c>
+      <c r="I97">
+        <v>2</v>
+      </c>
+      <c r="J97">
+        <v>1</v>
+      </c>
+      <c r="K97">
+        <v>3</v>
+      </c>
+      <c r="L97">
+        <v>2</v>
+      </c>
+      <c r="M97">
+        <v>2</v>
+      </c>
+      <c r="N97">
+        <v>4</v>
+      </c>
+      <c r="O97" t="s">
+        <v>160</v>
+      </c>
+      <c r="P97" t="s">
+        <v>161</v>
+      </c>
+      <c r="Q97">
+        <v>3.24</v>
+      </c>
+      <c r="R97">
+        <v>1.88</v>
+      </c>
+      <c r="S97">
+        <v>3.67</v>
+      </c>
+      <c r="T97">
+        <v>1.62</v>
+      </c>
+      <c r="U97">
+        <v>2.31</v>
+      </c>
+      <c r="V97">
+        <v>3.6</v>
+      </c>
+      <c r="W97">
+        <v>1.22</v>
+      </c>
+      <c r="X97">
+        <v>10.5</v>
+      </c>
+      <c r="Y97">
+        <v>1.02</v>
+      </c>
+      <c r="Z97">
+        <v>2.47</v>
+      </c>
+      <c r="AA97">
+        <v>2.64</v>
+      </c>
+      <c r="AB97">
+        <v>2.98</v>
+      </c>
+      <c r="AC97">
+        <v>1.08</v>
+      </c>
+      <c r="AD97">
+        <v>5.8</v>
+      </c>
+      <c r="AE97">
+        <v>1.55</v>
+      </c>
+      <c r="AF97">
+        <v>2.2</v>
+      </c>
+      <c r="AG97">
+        <v>2.38</v>
+      </c>
+      <c r="AH97">
+        <v>1.56</v>
+      </c>
+      <c r="AI97">
+        <v>2.25</v>
+      </c>
+      <c r="AJ97">
+        <v>1.62</v>
+      </c>
+      <c r="AK97">
+        <v>1.4</v>
+      </c>
+      <c r="AL97">
+        <v>1.37</v>
+      </c>
+      <c r="AM97">
+        <v>1.53</v>
+      </c>
+      <c r="AN97">
+        <v>1.75</v>
+      </c>
+      <c r="AO97">
+        <v>0.75</v>
+      </c>
+      <c r="AP97">
+        <v>1.6</v>
+      </c>
+      <c r="AQ97">
+        <v>0.8</v>
+      </c>
+      <c r="AR97">
+        <v>1.76</v>
+      </c>
+      <c r="AS97">
+        <v>1.33</v>
+      </c>
+      <c r="AT97">
+        <v>3.09</v>
+      </c>
+      <c r="AU97">
+        <v>5</v>
+      </c>
+      <c r="AV97">
+        <v>5</v>
+      </c>
+      <c r="AW97">
+        <v>8</v>
+      </c>
+      <c r="AX97">
+        <v>5</v>
+      </c>
+      <c r="AY97">
+        <v>15</v>
+      </c>
+      <c r="AZ97">
+        <v>12</v>
+      </c>
+      <c r="BA97">
+        <v>1</v>
+      </c>
+      <c r="BB97">
+        <v>1</v>
+      </c>
+      <c r="BC97">
+        <v>2</v>
+      </c>
+      <c r="BD97">
+        <v>1.68</v>
+      </c>
+      <c r="BE97">
+        <v>6.5</v>
+      </c>
+      <c r="BF97">
+        <v>2.57</v>
+      </c>
+      <c r="BG97">
+        <v>1.24</v>
+      </c>
+      <c r="BH97">
+        <v>3.5</v>
+      </c>
+      <c r="BI97">
+        <v>1.45</v>
+      </c>
+      <c r="BJ97">
+        <v>2.55</v>
+      </c>
+      <c r="BK97">
+        <v>1.75</v>
+      </c>
+      <c r="BL97">
+        <v>2.01</v>
+      </c>
+      <c r="BM97">
+        <v>2.19</v>
+      </c>
+      <c r="BN97">
+        <v>1.63</v>
+      </c>
+      <c r="BO97">
+        <v>2.75</v>
+      </c>
+      <c r="BP97">
+        <v>1.39</v>
+      </c>
+    </row>
+    <row r="98" spans="1:68">
+      <c r="A98" s="1">
+        <v>97</v>
+      </c>
+      <c r="B98">
+        <v>7841128</v>
+      </c>
+      <c r="C98" t="s">
+        <v>68</v>
+      </c>
+      <c r="D98" t="s">
+        <v>69</v>
+      </c>
+      <c r="E98" s="2">
+        <v>45809.75</v>
+      </c>
+      <c r="F98">
+        <v>10</v>
+      </c>
+      <c r="G98" t="s">
+        <v>74</v>
+      </c>
+      <c r="H98" t="s">
+        <v>88</v>
+      </c>
+      <c r="I98">
+        <v>1</v>
+      </c>
+      <c r="J98">
+        <v>0</v>
+      </c>
+      <c r="K98">
+        <v>1</v>
+      </c>
+      <c r="L98">
+        <v>2</v>
+      </c>
+      <c r="M98">
+        <v>0</v>
+      </c>
+      <c r="N98">
+        <v>2</v>
+      </c>
+      <c r="O98" t="s">
+        <v>161</v>
+      </c>
+      <c r="P98" t="s">
+        <v>97</v>
+      </c>
+      <c r="Q98">
+        <v>2.4</v>
+      </c>
+      <c r="R98">
+        <v>1.87</v>
+      </c>
+      <c r="S98">
+        <v>4.3</v>
+      </c>
+      <c r="T98">
+        <v>1.55</v>
+      </c>
+      <c r="U98">
+        <v>2.44</v>
+      </c>
+      <c r="V98">
+        <v>3.5</v>
+      </c>
+      <c r="W98">
+        <v>1.27</v>
+      </c>
+      <c r="X98">
+        <v>11</v>
+      </c>
+      <c r="Y98">
+        <v>1.05</v>
+      </c>
+      <c r="Z98">
+        <v>2.09</v>
+      </c>
+      <c r="AA98">
+        <v>3.05</v>
+      </c>
+      <c r="AB98">
+        <v>4.1</v>
+      </c>
+      <c r="AC98">
+        <v>1.11</v>
+      </c>
+      <c r="AD98">
+        <v>6</v>
+      </c>
+      <c r="AE98">
+        <v>1.42</v>
+      </c>
+      <c r="AF98">
+        <v>2.56</v>
+      </c>
+      <c r="AG98">
+        <v>2.63</v>
+      </c>
+      <c r="AH98">
+        <v>1.44</v>
+      </c>
+      <c r="AI98">
+        <v>2.1</v>
+      </c>
+      <c r="AJ98">
+        <v>1.67</v>
+      </c>
+      <c r="AK98">
+        <v>1.4</v>
+      </c>
+      <c r="AL98">
+        <v>1.3</v>
+      </c>
+      <c r="AM98">
+        <v>1.7</v>
+      </c>
+      <c r="AN98">
+        <v>2.5</v>
+      </c>
+      <c r="AO98">
+        <v>1</v>
+      </c>
+      <c r="AP98">
+        <v>2.6</v>
+      </c>
+      <c r="AQ98">
+        <v>0.8</v>
+      </c>
+      <c r="AR98">
+        <v>1.74</v>
+      </c>
+      <c r="AS98">
+        <v>1.37</v>
+      </c>
+      <c r="AT98">
+        <v>3.11</v>
+      </c>
+      <c r="AU98">
+        <v>5</v>
+      </c>
+      <c r="AV98">
+        <v>7</v>
+      </c>
+      <c r="AW98">
+        <v>10</v>
+      </c>
+      <c r="AX98">
+        <v>12</v>
+      </c>
+      <c r="AY98">
+        <v>21</v>
+      </c>
+      <c r="AZ98">
+        <v>24</v>
+      </c>
+      <c r="BA98">
+        <v>5</v>
+      </c>
+      <c r="BB98">
+        <v>5</v>
+      </c>
+      <c r="BC98">
+        <v>10</v>
+      </c>
+      <c r="BD98">
+        <v>1.47</v>
+      </c>
+      <c r="BE98">
+        <v>7.25</v>
+      </c>
+      <c r="BF98">
+        <v>3.3</v>
+      </c>
+      <c r="BG98">
+        <v>1.2</v>
+      </c>
+      <c r="BH98">
+        <v>4.25</v>
+      </c>
+      <c r="BI98">
+        <v>1.32</v>
+      </c>
+      <c r="BJ98">
+        <v>2.9</v>
+      </c>
+      <c r="BK98">
+        <v>1.7</v>
+      </c>
+      <c r="BL98">
+        <v>2.25</v>
+      </c>
+      <c r="BM98">
+        <v>1.91</v>
+      </c>
+      <c r="BN98">
+        <v>1.8</v>
+      </c>
+      <c r="BO98">
+        <v>2.5</v>
+      </c>
+      <c r="BP98">
+        <v>1.5</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Brazil Serie B_2025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Brazil Serie B_2025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="650" uniqueCount="199">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="656" uniqueCount="199">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -972,7 +972,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP98"/>
+  <dimension ref="A1:BP99"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2751,7 +2751,7 @@
         <v>0</v>
       </c>
       <c r="AP9">
-        <v>1.25</v>
+        <v>1.6</v>
       </c>
       <c r="AQ9">
         <v>1.6</v>
@@ -9343,7 +9343,7 @@
         <v>1</v>
       </c>
       <c r="AP41">
-        <v>1.25</v>
+        <v>1.6</v>
       </c>
       <c r="AQ41">
         <v>0.6</v>
@@ -12021,7 +12021,7 @@
         <v>0.5</v>
       </c>
       <c r="AP54">
-        <v>1.25</v>
+        <v>1.6</v>
       </c>
       <c r="AQ54">
         <v>0.4</v>
@@ -17377,7 +17377,7 @@
         <v>0</v>
       </c>
       <c r="AP80">
-        <v>1.25</v>
+        <v>1.6</v>
       </c>
       <c r="AQ80">
         <v>0.25</v>
@@ -20709,10 +20709,10 @@
         <v>3</v>
       </c>
       <c r="BB96">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="BC96">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="BD96">
         <v>1.79</v>
@@ -21164,6 +21164,212 @@
       </c>
       <c r="BP98">
         <v>1.5</v>
+      </c>
+    </row>
+    <row r="99" spans="1:68">
+      <c r="A99" s="1">
+        <v>98</v>
+      </c>
+      <c r="B99">
+        <v>7841131</v>
+      </c>
+      <c r="C99" t="s">
+        <v>68</v>
+      </c>
+      <c r="D99" t="s">
+        <v>69</v>
+      </c>
+      <c r="E99" s="2">
+        <v>45809.85416666666</v>
+      </c>
+      <c r="F99">
+        <v>10</v>
+      </c>
+      <c r="G99" t="s">
+        <v>77</v>
+      </c>
+      <c r="H99" t="s">
+        <v>75</v>
+      </c>
+      <c r="I99">
+        <v>0</v>
+      </c>
+      <c r="J99">
+        <v>0</v>
+      </c>
+      <c r="K99">
+        <v>0</v>
+      </c>
+      <c r="L99">
+        <v>1</v>
+      </c>
+      <c r="M99">
+        <v>0</v>
+      </c>
+      <c r="N99">
+        <v>1</v>
+      </c>
+      <c r="O99" t="s">
+        <v>93</v>
+      </c>
+      <c r="P99" t="s">
+        <v>97</v>
+      </c>
+      <c r="Q99">
+        <v>3.3</v>
+      </c>
+      <c r="R99">
+        <v>1.88</v>
+      </c>
+      <c r="S99">
+        <v>3.4</v>
+      </c>
+      <c r="T99">
+        <v>1.45</v>
+      </c>
+      <c r="U99">
+        <v>2.45</v>
+      </c>
+      <c r="V99">
+        <v>3.2</v>
+      </c>
+      <c r="W99">
+        <v>1.27</v>
+      </c>
+      <c r="X99">
+        <v>8.4</v>
+      </c>
+      <c r="Y99">
+        <v>1.01</v>
+      </c>
+      <c r="Z99">
+        <v>2.35</v>
+      </c>
+      <c r="AA99">
+        <v>3.1</v>
+      </c>
+      <c r="AB99">
+        <v>2.6</v>
+      </c>
+      <c r="AC99">
+        <v>1.06</v>
+      </c>
+      <c r="AD99">
+        <v>6.5</v>
+      </c>
+      <c r="AE99">
+        <v>1.52</v>
+      </c>
+      <c r="AF99">
+        <v>2.5</v>
+      </c>
+      <c r="AG99">
+        <v>2.25</v>
+      </c>
+      <c r="AH99">
+        <v>1.51</v>
+      </c>
+      <c r="AI99">
+        <v>2</v>
+      </c>
+      <c r="AJ99">
+        <v>1.66</v>
+      </c>
+      <c r="AK99">
+        <v>1.38</v>
+      </c>
+      <c r="AL99">
+        <v>1.35</v>
+      </c>
+      <c r="AM99">
+        <v>1.48</v>
+      </c>
+      <c r="AN99">
+        <v>1.25</v>
+      </c>
+      <c r="AO99">
+        <v>0</v>
+      </c>
+      <c r="AP99">
+        <v>1.6</v>
+      </c>
+      <c r="AQ99">
+        <v>0</v>
+      </c>
+      <c r="AR99">
+        <v>2.28</v>
+      </c>
+      <c r="AS99">
+        <v>1.83</v>
+      </c>
+      <c r="AT99">
+        <v>4.11</v>
+      </c>
+      <c r="AU99">
+        <v>8</v>
+      </c>
+      <c r="AV99">
+        <v>4</v>
+      </c>
+      <c r="AW99">
+        <v>6</v>
+      </c>
+      <c r="AX99">
+        <v>7</v>
+      </c>
+      <c r="AY99">
+        <v>17</v>
+      </c>
+      <c r="AZ99">
+        <v>14</v>
+      </c>
+      <c r="BA99">
+        <v>6</v>
+      </c>
+      <c r="BB99">
+        <v>4</v>
+      </c>
+      <c r="BC99">
+        <v>10</v>
+      </c>
+      <c r="BD99">
+        <v>1.67</v>
+      </c>
+      <c r="BE99">
+        <v>6.9</v>
+      </c>
+      <c r="BF99">
+        <v>2.4</v>
+      </c>
+      <c r="BG99">
+        <v>1.25</v>
+      </c>
+      <c r="BH99">
+        <v>3.98</v>
+      </c>
+      <c r="BI99">
+        <v>1.37</v>
+      </c>
+      <c r="BJ99">
+        <v>2.85</v>
+      </c>
+      <c r="BK99">
+        <v>1.62</v>
+      </c>
+      <c r="BL99">
+        <v>2.21</v>
+      </c>
+      <c r="BM99">
+        <v>1.98</v>
+      </c>
+      <c r="BN99">
+        <v>1.77</v>
+      </c>
+      <c r="BO99">
+        <v>2.63</v>
+      </c>
+      <c r="BP99">
+        <v>1.48</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Brazil Serie B_2025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Brazil Serie B_2025.xlsx
@@ -20088,13 +20088,13 @@
         <v>9</v>
       </c>
       <c r="BA93">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="BB93">
         <v>2</v>
       </c>
       <c r="BC93">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="BD93">
         <v>1.9</v>
@@ -21318,7 +21318,7 @@
         <v>7</v>
       </c>
       <c r="AY99">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AZ99">
         <v>14</v>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Brazil Serie B_2025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Brazil Serie B_2025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="656" uniqueCount="199">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="668" uniqueCount="200">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -502,6 +502,9 @@
     <t>['9', '62']</t>
   </si>
   <si>
+    <t>['15', '27', '57', '90+3']</t>
+  </si>
+  <si>
     <t>['33', '72']</t>
   </si>
   <si>
@@ -972,7 +975,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP99"/>
+  <dimension ref="A1:BP101"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1312,7 +1315,7 @@
         <v>2.6</v>
       </c>
       <c r="AQ2">
-        <v>0.25</v>
+        <v>0.2</v>
       </c>
       <c r="AR2">
         <v>0</v>
@@ -1437,7 +1440,7 @@
         <v>91</v>
       </c>
       <c r="P3" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="Q3">
         <v>3.5</v>
@@ -1515,7 +1518,7 @@
         <v>0</v>
       </c>
       <c r="AP3">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="AQ3">
         <v>0.8</v>
@@ -1643,7 +1646,7 @@
         <v>92</v>
       </c>
       <c r="P4" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="Q4">
         <v>2.5</v>
@@ -2467,7 +2470,7 @@
         <v>96</v>
       </c>
       <c r="P8" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="Q8">
         <v>3</v>
@@ -3085,7 +3088,7 @@
         <v>99</v>
       </c>
       <c r="P11" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="Q11">
         <v>2.38</v>
@@ -3291,7 +3294,7 @@
         <v>100</v>
       </c>
       <c r="P12" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="Q12">
         <v>2.51</v>
@@ -3372,7 +3375,7 @@
         <v>2</v>
       </c>
       <c r="AQ12">
-        <v>0.25</v>
+        <v>0.8</v>
       </c>
       <c r="AR12">
         <v>0</v>
@@ -3497,7 +3500,7 @@
         <v>101</v>
       </c>
       <c r="P13" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="Q13">
         <v>2.8</v>
@@ -3703,7 +3706,7 @@
         <v>102</v>
       </c>
       <c r="P14" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="Q14">
         <v>3.3</v>
@@ -3781,7 +3784,7 @@
         <v>0</v>
       </c>
       <c r="AP14">
-        <v>2.25</v>
+        <v>2.4</v>
       </c>
       <c r="AQ14">
         <v>1.2</v>
@@ -4527,7 +4530,7 @@
         <v>105</v>
       </c>
       <c r="P18" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="Q18">
         <v>3.22</v>
@@ -4733,7 +4736,7 @@
         <v>106</v>
       </c>
       <c r="P19" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="Q19">
         <v>2.55</v>
@@ -5145,7 +5148,7 @@
         <v>92</v>
       </c>
       <c r="P21" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="Q21">
         <v>3.5</v>
@@ -5351,7 +5354,7 @@
         <v>108</v>
       </c>
       <c r="P22" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="Q22">
         <v>3.5</v>
@@ -5557,7 +5560,7 @@
         <v>97</v>
       </c>
       <c r="P23" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="Q23">
         <v>2.33</v>
@@ -5635,7 +5638,7 @@
         <v>0</v>
       </c>
       <c r="AP23">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="AQ23">
         <v>0.8</v>
@@ -6175,7 +6178,7 @@
         <v>109</v>
       </c>
       <c r="P26" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="Q26">
         <v>2.38</v>
@@ -6793,7 +6796,7 @@
         <v>112</v>
       </c>
       <c r="P29" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="Q29">
         <v>3.1</v>
@@ -7205,7 +7208,7 @@
         <v>114</v>
       </c>
       <c r="P31" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="Q31">
         <v>2.2</v>
@@ -7286,7 +7289,7 @@
         <v>2.6</v>
       </c>
       <c r="AQ31">
-        <v>0.25</v>
+        <v>0.2</v>
       </c>
       <c r="AR31">
         <v>2.07</v>
@@ -7901,7 +7904,7 @@
         <v>0</v>
       </c>
       <c r="AP34">
-        <v>2.25</v>
+        <v>2.4</v>
       </c>
       <c r="AQ34">
         <v>0.6</v>
@@ -8441,7 +8444,7 @@
         <v>97</v>
       </c>
       <c r="P37" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="Q37">
         <v>3.6</v>
@@ -8647,7 +8650,7 @@
         <v>119</v>
       </c>
       <c r="P38" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="Q38">
         <v>2.58</v>
@@ -8728,7 +8731,7 @@
         <v>2.2</v>
       </c>
       <c r="AQ38">
-        <v>0.25</v>
+        <v>0.8</v>
       </c>
       <c r="AR38">
         <v>1.97</v>
@@ -9471,7 +9474,7 @@
         <v>122</v>
       </c>
       <c r="P42" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="Q42">
         <v>3.1</v>
@@ -10707,7 +10710,7 @@
         <v>95</v>
       </c>
       <c r="P48" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="Q48">
         <v>3.08</v>
@@ -10913,7 +10916,7 @@
         <v>127</v>
       </c>
       <c r="P49" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="Q49">
         <v>2.75</v>
@@ -10991,7 +10994,7 @@
         <v>1.5</v>
       </c>
       <c r="AP49">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="AQ49">
         <v>1</v>
@@ -11325,7 +11328,7 @@
         <v>97</v>
       </c>
       <c r="P51" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="Q51">
         <v>4.2</v>
@@ -11531,7 +11534,7 @@
         <v>129</v>
       </c>
       <c r="P52" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="Q52">
         <v>3.5</v>
@@ -11818,7 +11821,7 @@
         <v>2.6</v>
       </c>
       <c r="AQ53">
-        <v>0.25</v>
+        <v>0.2</v>
       </c>
       <c r="AR53">
         <v>1.06</v>
@@ -12433,10 +12436,10 @@
         <v>0.5</v>
       </c>
       <c r="AP56">
-        <v>2.25</v>
+        <v>2.4</v>
       </c>
       <c r="AQ56">
-        <v>0.25</v>
+        <v>0.8</v>
       </c>
       <c r="AR56">
         <v>1.78</v>
@@ -12561,7 +12564,7 @@
         <v>133</v>
       </c>
       <c r="P57" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="Q57">
         <v>1.97</v>
@@ -12973,7 +12976,7 @@
         <v>135</v>
       </c>
       <c r="P59" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="Q59">
         <v>2.88</v>
@@ -13385,7 +13388,7 @@
         <v>97</v>
       </c>
       <c r="P61" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="Q61">
         <v>2.85</v>
@@ -13591,7 +13594,7 @@
         <v>137</v>
       </c>
       <c r="P62" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="Q62">
         <v>2.13</v>
@@ -14415,7 +14418,7 @@
         <v>139</v>
       </c>
       <c r="P66" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="Q66">
         <v>2.6</v>
@@ -14621,7 +14624,7 @@
         <v>140</v>
       </c>
       <c r="P67" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="Q67">
         <v>2.35</v>
@@ -14827,7 +14830,7 @@
         <v>97</v>
       </c>
       <c r="P68" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="Q68">
         <v>2.8</v>
@@ -15033,7 +15036,7 @@
         <v>141</v>
       </c>
       <c r="P69" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="Q69">
         <v>3</v>
@@ -15445,7 +15448,7 @@
         <v>143</v>
       </c>
       <c r="P71" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="Q71">
         <v>2.13</v>
@@ -15935,7 +15938,7 @@
         <v>1.67</v>
       </c>
       <c r="AP73">
-        <v>2.25</v>
+        <v>2.4</v>
       </c>
       <c r="AQ73">
         <v>1.6</v>
@@ -16269,7 +16272,7 @@
         <v>147</v>
       </c>
       <c r="P75" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="Q75">
         <v>3.6</v>
@@ -16475,7 +16478,7 @@
         <v>97</v>
       </c>
       <c r="P76" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="Q76">
         <v>3.64</v>
@@ -16681,7 +16684,7 @@
         <v>148</v>
       </c>
       <c r="P77" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="Q77">
         <v>2.5</v>
@@ -16968,7 +16971,7 @@
         <v>2.6</v>
       </c>
       <c r="AQ78">
-        <v>0.25</v>
+        <v>0.8</v>
       </c>
       <c r="AR78">
         <v>1.76</v>
@@ -17171,7 +17174,7 @@
         <v>2</v>
       </c>
       <c r="AP79">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="AQ79">
         <v>2</v>
@@ -17380,7 +17383,7 @@
         <v>1.6</v>
       </c>
       <c r="AQ80">
-        <v>0.25</v>
+        <v>0.2</v>
       </c>
       <c r="AR80">
         <v>1.86</v>
@@ -18329,7 +18332,7 @@
         <v>154</v>
       </c>
       <c r="P85" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="Q85">
         <v>2.4</v>
@@ -18947,7 +18950,7 @@
         <v>97</v>
       </c>
       <c r="P88" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="Q88">
         <v>2.85</v>
@@ -19153,7 +19156,7 @@
         <v>157</v>
       </c>
       <c r="P89" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="Q89">
         <v>2.8</v>
@@ -19565,7 +19568,7 @@
         <v>158</v>
       </c>
       <c r="P91" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="Q91">
         <v>2.34</v>
@@ -19771,7 +19774,7 @@
         <v>92</v>
       </c>
       <c r="P92" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="Q92">
         <v>2.78</v>
@@ -19977,7 +19980,7 @@
         <v>97</v>
       </c>
       <c r="P93" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="Q93">
         <v>3.12</v>
@@ -20389,7 +20392,7 @@
         <v>94</v>
       </c>
       <c r="P95" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="Q95">
         <v>2.9</v>
@@ -20595,7 +20598,7 @@
         <v>97</v>
       </c>
       <c r="P96" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="Q96">
         <v>3.2</v>
@@ -21370,6 +21373,418 @@
       </c>
       <c r="BP99">
         <v>1.48</v>
+      </c>
+    </row>
+    <row r="100" spans="1:68">
+      <c r="A100" s="1">
+        <v>99</v>
+      </c>
+      <c r="B100">
+        <v>7841126</v>
+      </c>
+      <c r="C100" t="s">
+        <v>68</v>
+      </c>
+      <c r="D100" t="s">
+        <v>69</v>
+      </c>
+      <c r="E100" s="2">
+        <v>45810.79166666666</v>
+      </c>
+      <c r="F100">
+        <v>10</v>
+      </c>
+      <c r="G100" t="s">
+        <v>82</v>
+      </c>
+      <c r="H100" t="s">
+        <v>84</v>
+      </c>
+      <c r="I100">
+        <v>2</v>
+      </c>
+      <c r="J100">
+        <v>0</v>
+      </c>
+      <c r="K100">
+        <v>2</v>
+      </c>
+      <c r="L100">
+        <v>4</v>
+      </c>
+      <c r="M100">
+        <v>0</v>
+      </c>
+      <c r="N100">
+        <v>4</v>
+      </c>
+      <c r="O100" t="s">
+        <v>162</v>
+      </c>
+      <c r="P100" t="s">
+        <v>97</v>
+      </c>
+      <c r="Q100">
+        <v>2.1</v>
+      </c>
+      <c r="R100">
+        <v>2.05</v>
+      </c>
+      <c r="S100">
+        <v>4.5</v>
+      </c>
+      <c r="T100">
+        <v>1.48</v>
+      </c>
+      <c r="U100">
+        <v>2.6</v>
+      </c>
+      <c r="V100">
+        <v>3.43</v>
+      </c>
+      <c r="W100">
+        <v>1.32</v>
+      </c>
+      <c r="X100">
+        <v>8</v>
+      </c>
+      <c r="Y100">
+        <v>1.03</v>
+      </c>
+      <c r="Z100">
+        <v>1.75</v>
+      </c>
+      <c r="AA100">
+        <v>3.25</v>
+      </c>
+      <c r="AB100">
+        <v>4.75</v>
+      </c>
+      <c r="AC100">
+        <v>1.04</v>
+      </c>
+      <c r="AD100">
+        <v>6.37</v>
+      </c>
+      <c r="AE100">
+        <v>1.34</v>
+      </c>
+      <c r="AF100">
+        <v>2.93</v>
+      </c>
+      <c r="AG100">
+        <v>2.24</v>
+      </c>
+      <c r="AH100">
+        <v>1.69</v>
+      </c>
+      <c r="AI100">
+        <v>1.99</v>
+      </c>
+      <c r="AJ100">
+        <v>1.79</v>
+      </c>
+      <c r="AK100">
+        <v>1.21</v>
+      </c>
+      <c r="AL100">
+        <v>1.31</v>
+      </c>
+      <c r="AM100">
+        <v>1.94</v>
+      </c>
+      <c r="AN100">
+        <v>2.25</v>
+      </c>
+      <c r="AO100">
+        <v>0.25</v>
+      </c>
+      <c r="AP100">
+        <v>2.4</v>
+      </c>
+      <c r="AQ100">
+        <v>0.2</v>
+      </c>
+      <c r="AR100">
+        <v>1.63</v>
+      </c>
+      <c r="AS100">
+        <v>1.1</v>
+      </c>
+      <c r="AT100">
+        <v>2.73</v>
+      </c>
+      <c r="AU100">
+        <v>6</v>
+      </c>
+      <c r="AV100">
+        <v>3</v>
+      </c>
+      <c r="AW100">
+        <v>12</v>
+      </c>
+      <c r="AX100">
+        <v>9</v>
+      </c>
+      <c r="AY100">
+        <v>23</v>
+      </c>
+      <c r="AZ100">
+        <v>18</v>
+      </c>
+      <c r="BA100">
+        <v>9</v>
+      </c>
+      <c r="BB100">
+        <v>1</v>
+      </c>
+      <c r="BC100">
+        <v>10</v>
+      </c>
+      <c r="BD100">
+        <v>1.77</v>
+      </c>
+      <c r="BE100">
+        <v>8</v>
+      </c>
+      <c r="BF100">
+        <v>2.52</v>
+      </c>
+      <c r="BG100">
+        <v>1.2</v>
+      </c>
+      <c r="BH100">
+        <v>4</v>
+      </c>
+      <c r="BI100">
+        <v>1.26</v>
+      </c>
+      <c r="BJ100">
+        <v>3.14</v>
+      </c>
+      <c r="BK100">
+        <v>1.57</v>
+      </c>
+      <c r="BL100">
+        <v>2.3</v>
+      </c>
+      <c r="BM100">
+        <v>1.91</v>
+      </c>
+      <c r="BN100">
+        <v>1.8</v>
+      </c>
+      <c r="BO100">
+        <v>2.4</v>
+      </c>
+      <c r="BP100">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="101" spans="1:68">
+      <c r="A101" s="1">
+        <v>100</v>
+      </c>
+      <c r="B101">
+        <v>7841125</v>
+      </c>
+      <c r="C101" t="s">
+        <v>68</v>
+      </c>
+      <c r="D101" t="s">
+        <v>69</v>
+      </c>
+      <c r="E101" s="2">
+        <v>45810.875</v>
+      </c>
+      <c r="F101">
+        <v>10</v>
+      </c>
+      <c r="G101" t="s">
+        <v>71</v>
+      </c>
+      <c r="H101" t="s">
+        <v>72</v>
+      </c>
+      <c r="I101">
+        <v>0</v>
+      </c>
+      <c r="J101">
+        <v>0</v>
+      </c>
+      <c r="K101">
+        <v>0</v>
+      </c>
+      <c r="L101">
+        <v>0</v>
+      </c>
+      <c r="M101">
+        <v>1</v>
+      </c>
+      <c r="N101">
+        <v>1</v>
+      </c>
+      <c r="O101" t="s">
+        <v>97</v>
+      </c>
+      <c r="P101" t="s">
+        <v>193</v>
+      </c>
+      <c r="Q101">
+        <v>3.12</v>
+      </c>
+      <c r="R101">
+        <v>1.8</v>
+      </c>
+      <c r="S101">
+        <v>4.1</v>
+      </c>
+      <c r="T101">
+        <v>1.55</v>
+      </c>
+      <c r="U101">
+        <v>2.25</v>
+      </c>
+      <c r="V101">
+        <v>3.5</v>
+      </c>
+      <c r="W101">
+        <v>1.22</v>
+      </c>
+      <c r="X101">
+        <v>9</v>
+      </c>
+      <c r="Y101">
+        <v>1.02</v>
+      </c>
+      <c r="Z101">
+        <v>2.02</v>
+      </c>
+      <c r="AA101">
+        <v>3.15</v>
+      </c>
+      <c r="AB101">
+        <v>3.25</v>
+      </c>
+      <c r="AC101">
+        <v>1.08</v>
+      </c>
+      <c r="AD101">
+        <v>5.7</v>
+      </c>
+      <c r="AE101">
+        <v>1.45</v>
+      </c>
+      <c r="AF101">
+        <v>2.37</v>
+      </c>
+      <c r="AG101">
+        <v>2.78</v>
+      </c>
+      <c r="AH101">
+        <v>1.42</v>
+      </c>
+      <c r="AI101">
+        <v>2.23</v>
+      </c>
+      <c r="AJ101">
+        <v>1.68</v>
+      </c>
+      <c r="AK101">
+        <v>1.31</v>
+      </c>
+      <c r="AL101">
+        <v>1.34</v>
+      </c>
+      <c r="AM101">
+        <v>1.61</v>
+      </c>
+      <c r="AN101">
+        <v>0.5</v>
+      </c>
+      <c r="AO101">
+        <v>0.25</v>
+      </c>
+      <c r="AP101">
+        <v>0.4</v>
+      </c>
+      <c r="AQ101">
+        <v>0.8</v>
+      </c>
+      <c r="AR101">
+        <v>1.81</v>
+      </c>
+      <c r="AS101">
+        <v>1.31</v>
+      </c>
+      <c r="AT101">
+        <v>3.12</v>
+      </c>
+      <c r="AU101">
+        <v>6</v>
+      </c>
+      <c r="AV101">
+        <v>7</v>
+      </c>
+      <c r="AW101">
+        <v>18</v>
+      </c>
+      <c r="AX101">
+        <v>2</v>
+      </c>
+      <c r="AY101">
+        <v>29</v>
+      </c>
+      <c r="AZ101">
+        <v>9</v>
+      </c>
+      <c r="BA101">
+        <v>11</v>
+      </c>
+      <c r="BB101">
+        <v>3</v>
+      </c>
+      <c r="BC101">
+        <v>14</v>
+      </c>
+      <c r="BD101">
+        <v>1.59</v>
+      </c>
+      <c r="BE101">
+        <v>7.25</v>
+      </c>
+      <c r="BF101">
+        <v>3.3</v>
+      </c>
+      <c r="BG101">
+        <v>1.2</v>
+      </c>
+      <c r="BH101">
+        <v>4</v>
+      </c>
+      <c r="BI101">
+        <v>1.35</v>
+      </c>
+      <c r="BJ101">
+        <v>3</v>
+      </c>
+      <c r="BK101">
+        <v>1.57</v>
+      </c>
+      <c r="BL101">
+        <v>2.35</v>
+      </c>
+      <c r="BM101">
+        <v>1.94</v>
+      </c>
+      <c r="BN101">
+        <v>1.87</v>
+      </c>
+      <c r="BO101">
+        <v>2.43</v>
+      </c>
+      <c r="BP101">
+        <v>1.53</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Brazil Serie B_2025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Brazil Serie B_2025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="668" uniqueCount="200">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="674" uniqueCount="200">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -975,7 +975,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP101"/>
+  <dimension ref="A1:BP102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1339,10 +1339,10 @@
         <v>7</v>
       </c>
       <c r="AY2">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="AZ2">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="BA2">
         <v>8</v>
@@ -1545,10 +1545,10 @@
         <v>7</v>
       </c>
       <c r="AY3">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="AZ3">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="BA3">
         <v>5</v>
@@ -1754,7 +1754,7 @@
         <v>18</v>
       </c>
       <c r="AZ4">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="BA4">
         <v>6</v>
@@ -1957,7 +1957,7 @@
         <v>5</v>
       </c>
       <c r="AY5">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AZ5">
         <v>5</v>
@@ -2163,10 +2163,10 @@
         <v>13</v>
       </c>
       <c r="AY6">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="AZ6">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="BA6">
         <v>3</v>
@@ -2369,10 +2369,10 @@
         <v>10</v>
       </c>
       <c r="AY7">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="AZ7">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="BA7">
         <v>2</v>
@@ -2575,10 +2575,10 @@
         <v>6</v>
       </c>
       <c r="AY8">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="AZ8">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="BA8">
         <v>11</v>
@@ -2781,10 +2781,10 @@
         <v>10</v>
       </c>
       <c r="AY9">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="AZ9">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="BA9">
         <v>4</v>
@@ -2987,10 +2987,10 @@
         <v>11</v>
       </c>
       <c r="AY10">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="AZ10">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="BA10">
         <v>4</v>
@@ -3193,10 +3193,10 @@
         <v>8</v>
       </c>
       <c r="AY11">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="AZ11">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="BA11">
         <v>7</v>
@@ -3402,7 +3402,7 @@
         <v>16</v>
       </c>
       <c r="AZ12">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="BA12">
         <v>7</v>
@@ -3605,10 +3605,10 @@
         <v>7</v>
       </c>
       <c r="AY13">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="AZ13">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="BA13">
         <v>7</v>
@@ -3787,7 +3787,7 @@
         <v>2.4</v>
       </c>
       <c r="AQ14">
-        <v>1.2</v>
+        <v>1.17</v>
       </c>
       <c r="AR14">
         <v>0</v>
@@ -3811,7 +3811,7 @@
         <v>8</v>
       </c>
       <c r="AY14">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="AZ14">
         <v>14</v>
@@ -4017,10 +4017,10 @@
         <v>10</v>
       </c>
       <c r="AY15">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="AZ15">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="BA15">
         <v>4</v>
@@ -4223,7 +4223,7 @@
         <v>8</v>
       </c>
       <c r="AY16">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="AZ16">
         <v>10</v>
@@ -4429,10 +4429,10 @@
         <v>3</v>
       </c>
       <c r="AY17">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="AZ17">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="BA17">
         <v>6</v>
@@ -4635,7 +4635,7 @@
         <v>3</v>
       </c>
       <c r="AY18">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="AZ18">
         <v>7</v>
@@ -4841,10 +4841,10 @@
         <v>15</v>
       </c>
       <c r="AY19">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="AZ19">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="BA19">
         <v>7</v>
@@ -5047,10 +5047,10 @@
         <v>7</v>
       </c>
       <c r="AY20">
+        <v>12</v>
+      </c>
+      <c r="AZ20">
         <v>14</v>
-      </c>
-      <c r="AZ20">
-        <v>15</v>
       </c>
       <c r="BA20">
         <v>2</v>
@@ -5253,10 +5253,10 @@
         <v>17</v>
       </c>
       <c r="AY21">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AZ21">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="BA21">
         <v>6</v>
@@ -5459,10 +5459,10 @@
         <v>3</v>
       </c>
       <c r="AY22">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="AZ22">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="BA22">
         <v>9</v>
@@ -5665,7 +5665,7 @@
         <v>3</v>
       </c>
       <c r="AY23">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="AZ23">
         <v>9</v>
@@ -6077,7 +6077,7 @@
         <v>2</v>
       </c>
       <c r="AY25">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AZ25">
         <v>4</v>
@@ -6283,10 +6283,10 @@
         <v>6</v>
       </c>
       <c r="AY26">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="AZ26">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="BA26">
         <v>11</v>
@@ -6489,7 +6489,7 @@
         <v>1</v>
       </c>
       <c r="AY27">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AZ27">
         <v>3</v>
@@ -6695,10 +6695,10 @@
         <v>10</v>
       </c>
       <c r="AY28">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="AZ28">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="BA28">
         <v>4</v>
@@ -6901,10 +6901,10 @@
         <v>14</v>
       </c>
       <c r="AY29">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="AZ29">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="BA29">
         <v>3</v>
@@ -7107,10 +7107,10 @@
         <v>8</v>
       </c>
       <c r="AY30">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="AZ30">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="BA30">
         <v>6</v>
@@ -7313,10 +7313,10 @@
         <v>5</v>
       </c>
       <c r="AY31">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AZ31">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="BA31">
         <v>4</v>
@@ -7725,10 +7725,10 @@
         <v>4</v>
       </c>
       <c r="AY33">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="AZ33">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="BA33">
         <v>5</v>
@@ -7931,10 +7931,10 @@
         <v>14</v>
       </c>
       <c r="AY34">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="AZ34">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="BA34">
         <v>3</v>
@@ -8137,10 +8137,10 @@
         <v>6</v>
       </c>
       <c r="AY35">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AZ35">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="BA35">
         <v>4</v>
@@ -8343,10 +8343,10 @@
         <v>8</v>
       </c>
       <c r="AY36">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="AZ36">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="BA36">
         <v>10</v>
@@ -8549,10 +8549,10 @@
         <v>6</v>
       </c>
       <c r="AY37">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="AZ37">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="BA37">
         <v>4</v>
@@ -8755,10 +8755,10 @@
         <v>0</v>
       </c>
       <c r="AY38">
-        <v>37</v>
+        <v>26</v>
       </c>
       <c r="AZ38">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="BA38">
         <v>8</v>
@@ -8937,7 +8937,7 @@
         <v>2.6</v>
       </c>
       <c r="AQ39">
-        <v>1.2</v>
+        <v>1.17</v>
       </c>
       <c r="AR39">
         <v>1.19</v>
@@ -8961,10 +8961,10 @@
         <v>14</v>
       </c>
       <c r="AY39">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AZ39">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="BA39">
         <v>1</v>
@@ -9167,10 +9167,10 @@
         <v>12</v>
       </c>
       <c r="AY40">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AZ40">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="BA40">
         <v>2</v>
@@ -9373,10 +9373,10 @@
         <v>3</v>
       </c>
       <c r="AY41">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="AZ41">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="BA41">
         <v>6</v>
@@ -9579,10 +9579,10 @@
         <v>8</v>
       </c>
       <c r="AY42">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="AZ42">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="BA42">
         <v>7</v>
@@ -9785,7 +9785,7 @@
         <v>7</v>
       </c>
       <c r="AY43">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AZ43">
         <v>12</v>
@@ -9991,10 +9991,10 @@
         <v>12</v>
       </c>
       <c r="AY44">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="AZ44">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="BA44">
         <v>7</v>
@@ -10197,10 +10197,10 @@
         <v>6</v>
       </c>
       <c r="AY45">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AZ45">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="BA45">
         <v>5</v>
@@ -10403,10 +10403,10 @@
         <v>11</v>
       </c>
       <c r="AY46">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="AZ46">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="BA46">
         <v>5</v>
@@ -10609,10 +10609,10 @@
         <v>11</v>
       </c>
       <c r="AY47">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AZ47">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="BA47">
         <v>6</v>
@@ -10815,10 +10815,10 @@
         <v>6</v>
       </c>
       <c r="AY48">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="AZ48">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="BA48">
         <v>7</v>
@@ -11021,10 +11021,10 @@
         <v>16</v>
       </c>
       <c r="AY49">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="AZ49">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="BA49">
         <v>8</v>
@@ -11227,10 +11227,10 @@
         <v>11</v>
       </c>
       <c r="AY50">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="AZ50">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="BA50">
         <v>8</v>
@@ -11433,10 +11433,10 @@
         <v>5</v>
       </c>
       <c r="AY51">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="AZ51">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="BA51">
         <v>5</v>
@@ -11615,7 +11615,7 @@
         <v>1.8</v>
       </c>
       <c r="AQ52">
-        <v>1.2</v>
+        <v>1.17</v>
       </c>
       <c r="AR52">
         <v>2.26</v>
@@ -11639,10 +11639,10 @@
         <v>6</v>
       </c>
       <c r="AY52">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="AZ52">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="BA52">
         <v>2</v>
@@ -11845,10 +11845,10 @@
         <v>12</v>
       </c>
       <c r="AY53">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AZ53">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="BA53">
         <v>3</v>
@@ -12051,10 +12051,10 @@
         <v>11</v>
       </c>
       <c r="AY54">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="AZ54">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="BA54">
         <v>8</v>
@@ -12257,10 +12257,10 @@
         <v>10</v>
       </c>
       <c r="AY55">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="AZ55">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="BA55">
         <v>6</v>
@@ -12466,7 +12466,7 @@
         <v>18</v>
       </c>
       <c r="AZ56">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="BA56">
         <v>2</v>
@@ -12672,7 +12672,7 @@
         <v>11</v>
       </c>
       <c r="AZ57">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="BA57">
         <v>4</v>
@@ -12875,10 +12875,10 @@
         <v>7</v>
       </c>
       <c r="AY58">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AZ58">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="BA58">
         <v>5</v>
@@ -13081,10 +13081,10 @@
         <v>9</v>
       </c>
       <c r="AY59">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="AZ59">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="BA59">
         <v>13</v>
@@ -13287,7 +13287,7 @@
         <v>7</v>
       </c>
       <c r="AY60">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AZ60">
         <v>19</v>
@@ -13296,10 +13296,10 @@
         <v>7</v>
       </c>
       <c r="BB60">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BC60">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="BD60">
         <v>1.63</v>
@@ -13493,10 +13493,10 @@
         <v>6</v>
       </c>
       <c r="AY61">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="AZ61">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="BA61">
         <v>5</v>
@@ -13699,10 +13699,10 @@
         <v>4</v>
       </c>
       <c r="AY62">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AZ62">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="BA62">
         <v>10</v>
@@ -13905,10 +13905,10 @@
         <v>8</v>
       </c>
       <c r="AY63">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="AZ63">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="BA63">
         <v>6</v>
@@ -14087,7 +14087,7 @@
         <v>2.6</v>
       </c>
       <c r="AQ64">
-        <v>1.2</v>
+        <v>1.17</v>
       </c>
       <c r="AR64">
         <v>1.84</v>
@@ -14111,10 +14111,10 @@
         <v>10</v>
       </c>
       <c r="AY64">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="AZ64">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="BA64">
         <v>5</v>
@@ -14317,19 +14317,19 @@
         <v>10</v>
       </c>
       <c r="AY65">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AZ65">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="BA65">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="BB65">
         <v>5</v>
       </c>
       <c r="BC65">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="BD65">
         <v>1.51</v>
@@ -14523,10 +14523,10 @@
         <v>3</v>
       </c>
       <c r="AY66">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AZ66">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="BA66">
         <v>6</v>
@@ -14729,10 +14729,10 @@
         <v>9</v>
       </c>
       <c r="AY67">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="AZ67">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="BA67">
         <v>8</v>
@@ -14935,10 +14935,10 @@
         <v>8</v>
       </c>
       <c r="AY68">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="AZ68">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="BA68">
         <v>7</v>
@@ -15141,10 +15141,10 @@
         <v>10</v>
       </c>
       <c r="AY69">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="AZ69">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="BA69">
         <v>7</v>
@@ -15347,10 +15347,10 @@
         <v>16</v>
       </c>
       <c r="AY70">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AZ70">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="BA70">
         <v>5</v>
@@ -15553,7 +15553,7 @@
         <v>5</v>
       </c>
       <c r="AY71">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="AZ71">
         <v>11</v>
@@ -15759,10 +15759,10 @@
         <v>11</v>
       </c>
       <c r="AY72">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="AZ72">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="BA72">
         <v>3</v>
@@ -15965,10 +15965,10 @@
         <v>15</v>
       </c>
       <c r="AY73">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AZ73">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="BA73">
         <v>4</v>
@@ -16171,10 +16171,10 @@
         <v>3</v>
       </c>
       <c r="AY74">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="AZ74">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="BA74">
         <v>6</v>
@@ -16377,7 +16377,7 @@
         <v>6</v>
       </c>
       <c r="AY75">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AZ75">
         <v>9</v>
@@ -16583,10 +16583,10 @@
         <v>6</v>
       </c>
       <c r="AY76">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="AZ76">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="BA76">
         <v>10</v>
@@ -16789,7 +16789,7 @@
         <v>3</v>
       </c>
       <c r="AY77">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="AZ77">
         <v>9</v>
@@ -16995,10 +16995,10 @@
         <v>11</v>
       </c>
       <c r="AY78">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="AZ78">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="BA78">
         <v>1</v>
@@ -17201,10 +17201,10 @@
         <v>10</v>
       </c>
       <c r="AY79">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="AZ79">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="BA79">
         <v>5</v>
@@ -17407,7 +17407,7 @@
         <v>0</v>
       </c>
       <c r="AY80">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="AZ80">
         <v>3</v>
@@ -17613,10 +17613,10 @@
         <v>6</v>
       </c>
       <c r="AY81">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="AZ81">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="BA81">
         <v>9</v>
@@ -17819,10 +17819,10 @@
         <v>14</v>
       </c>
       <c r="AY82">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="AZ82">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="BA82">
         <v>4</v>
@@ -18025,7 +18025,7 @@
         <v>5</v>
       </c>
       <c r="AY83">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="AZ83">
         <v>8</v>
@@ -18231,10 +18231,10 @@
         <v>8</v>
       </c>
       <c r="AY84">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="AZ84">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="BA84">
         <v>3</v>
@@ -18437,10 +18437,10 @@
         <v>13</v>
       </c>
       <c r="AY85">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="AZ85">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="BA85">
         <v>5</v>
@@ -18643,10 +18643,10 @@
         <v>4</v>
       </c>
       <c r="AY86">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="AZ86">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="BA86">
         <v>8</v>
@@ -18852,7 +18852,7 @@
         <v>12</v>
       </c>
       <c r="AZ87">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="BA87">
         <v>4</v>
@@ -19031,7 +19031,7 @@
         <v>1</v>
       </c>
       <c r="AQ88">
-        <v>1.2</v>
+        <v>1.17</v>
       </c>
       <c r="AR88">
         <v>2.01</v>
@@ -19055,10 +19055,10 @@
         <v>6</v>
       </c>
       <c r="AY88">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="AZ88">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="BA88">
         <v>9</v>
@@ -19261,10 +19261,10 @@
         <v>11</v>
       </c>
       <c r="AY89">
+        <v>13</v>
+      </c>
+      <c r="AZ89">
         <v>15</v>
-      </c>
-      <c r="AZ89">
-        <v>20</v>
       </c>
       <c r="BA89">
         <v>1</v>
@@ -19467,7 +19467,7 @@
         <v>5</v>
       </c>
       <c r="AY90">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="AZ90">
         <v>8</v>
@@ -19673,10 +19673,10 @@
         <v>8</v>
       </c>
       <c r="AY91">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AZ91">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="BA91">
         <v>6</v>
@@ -19879,10 +19879,10 @@
         <v>9</v>
       </c>
       <c r="AY92">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="AZ92">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="BA92">
         <v>2</v>
@@ -20085,10 +20085,10 @@
         <v>6</v>
       </c>
       <c r="AY93">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="AZ93">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="BA93">
         <v>13</v>
@@ -20291,7 +20291,7 @@
         <v>4</v>
       </c>
       <c r="AY94">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AZ94">
         <v>9</v>
@@ -20497,10 +20497,10 @@
         <v>3</v>
       </c>
       <c r="AY95">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AZ95">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="BA95">
         <v>6</v>
@@ -20703,10 +20703,10 @@
         <v>8</v>
       </c>
       <c r="AY96">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="AZ96">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="BA96">
         <v>3</v>
@@ -20909,10 +20909,10 @@
         <v>5</v>
       </c>
       <c r="AY97">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AZ97">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="BA97">
         <v>1</v>
@@ -21115,10 +21115,10 @@
         <v>12</v>
       </c>
       <c r="AY98">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="AZ98">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="BA98">
         <v>5</v>
@@ -21321,10 +21321,10 @@
         <v>7</v>
       </c>
       <c r="AY99">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="AZ99">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="BA99">
         <v>6</v>
@@ -21527,10 +21527,10 @@
         <v>9</v>
       </c>
       <c r="AY100">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="AZ100">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="BA100">
         <v>9</v>
@@ -21733,7 +21733,7 @@
         <v>2</v>
       </c>
       <c r="AY101">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="AZ101">
         <v>9</v>
@@ -21785,6 +21785,212 @@
       </c>
       <c r="BP101">
         <v>1.53</v>
+      </c>
+    </row>
+    <row r="102" spans="1:68">
+      <c r="A102" s="1">
+        <v>101</v>
+      </c>
+      <c r="B102">
+        <v>7841141</v>
+      </c>
+      <c r="C102" t="s">
+        <v>68</v>
+      </c>
+      <c r="D102" t="s">
+        <v>69</v>
+      </c>
+      <c r="E102" s="2">
+        <v>45813.75</v>
+      </c>
+      <c r="F102">
+        <v>11</v>
+      </c>
+      <c r="G102" t="s">
+        <v>89</v>
+      </c>
+      <c r="H102" t="s">
+        <v>73</v>
+      </c>
+      <c r="I102">
+        <v>0</v>
+      </c>
+      <c r="J102">
+        <v>0</v>
+      </c>
+      <c r="K102">
+        <v>0</v>
+      </c>
+      <c r="L102">
+        <v>0</v>
+      </c>
+      <c r="M102">
+        <v>0</v>
+      </c>
+      <c r="N102">
+        <v>0</v>
+      </c>
+      <c r="O102" t="s">
+        <v>97</v>
+      </c>
+      <c r="P102" t="s">
+        <v>97</v>
+      </c>
+      <c r="Q102">
+        <v>3.74</v>
+      </c>
+      <c r="R102">
+        <v>1.85</v>
+      </c>
+      <c r="S102">
+        <v>3.1</v>
+      </c>
+      <c r="T102">
+        <v>1.6</v>
+      </c>
+      <c r="U102">
+        <v>2.35</v>
+      </c>
+      <c r="V102">
+        <v>3.3</v>
+      </c>
+      <c r="W102">
+        <v>1.27</v>
+      </c>
+      <c r="X102">
+        <v>9</v>
+      </c>
+      <c r="Y102">
+        <v>1</v>
+      </c>
+      <c r="Z102">
+        <v>3.2</v>
+      </c>
+      <c r="AA102">
+        <v>2.98</v>
+      </c>
+      <c r="AB102">
+        <v>2.38</v>
+      </c>
+      <c r="AC102">
+        <v>1.08</v>
+      </c>
+      <c r="AD102">
+        <v>6</v>
+      </c>
+      <c r="AE102">
+        <v>1.5</v>
+      </c>
+      <c r="AF102">
+        <v>2.4</v>
+      </c>
+      <c r="AG102">
+        <v>2.45</v>
+      </c>
+      <c r="AH102">
+        <v>1.47</v>
+      </c>
+      <c r="AI102">
+        <v>2.1</v>
+      </c>
+      <c r="AJ102">
+        <v>1.65</v>
+      </c>
+      <c r="AK102">
+        <v>1.4</v>
+      </c>
+      <c r="AL102">
+        <v>1.35</v>
+      </c>
+      <c r="AM102">
+        <v>1.35</v>
+      </c>
+      <c r="AN102">
+        <v>1</v>
+      </c>
+      <c r="AO102">
+        <v>1.2</v>
+      </c>
+      <c r="AP102">
+        <v>1</v>
+      </c>
+      <c r="AQ102">
+        <v>1.17</v>
+      </c>
+      <c r="AR102">
+        <v>1.3</v>
+      </c>
+      <c r="AS102">
+        <v>1.37</v>
+      </c>
+      <c r="AT102">
+        <v>2.67</v>
+      </c>
+      <c r="AU102">
+        <v>3</v>
+      </c>
+      <c r="AV102">
+        <v>2</v>
+      </c>
+      <c r="AW102">
+        <v>4</v>
+      </c>
+      <c r="AX102">
+        <v>3</v>
+      </c>
+      <c r="AY102">
+        <v>7</v>
+      </c>
+      <c r="AZ102">
+        <v>5</v>
+      </c>
+      <c r="BA102">
+        <v>3</v>
+      </c>
+      <c r="BB102">
+        <v>8</v>
+      </c>
+      <c r="BC102">
+        <v>11</v>
+      </c>
+      <c r="BD102">
+        <v>2.17</v>
+      </c>
+      <c r="BE102">
+        <v>6.7</v>
+      </c>
+      <c r="BF102">
+        <v>2.05</v>
+      </c>
+      <c r="BG102">
+        <v>1.18</v>
+      </c>
+      <c r="BH102">
+        <v>4.1</v>
+      </c>
+      <c r="BI102">
+        <v>1.32</v>
+      </c>
+      <c r="BJ102">
+        <v>3.22</v>
+      </c>
+      <c r="BK102">
+        <v>1.62</v>
+      </c>
+      <c r="BL102">
+        <v>2.42</v>
+      </c>
+      <c r="BM102">
+        <v>1.81</v>
+      </c>
+      <c r="BN102">
+        <v>1.94</v>
+      </c>
+      <c r="BO102">
+        <v>2.23</v>
+      </c>
+      <c r="BP102">
+        <v>1.6</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Brazil Serie B_2025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Brazil Serie B_2025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="674" uniqueCount="200">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="686" uniqueCount="202">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -505,6 +505,12 @@
     <t>['15', '27', '57', '90+3']</t>
   </si>
   <si>
+    <t>['-1']</t>
+  </si>
+  <si>
+    <t>['83']</t>
+  </si>
+  <si>
     <t>['33', '72']</t>
   </si>
   <si>
@@ -975,7 +981,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP102"/>
+  <dimension ref="A1:BP104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1440,7 +1446,7 @@
         <v>91</v>
       </c>
       <c r="P3" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="Q3">
         <v>3.5</v>
@@ -1646,7 +1652,7 @@
         <v>92</v>
       </c>
       <c r="P4" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="Q4">
         <v>2.5</v>
@@ -2139,7 +2145,7 @@
         <v>2.6</v>
       </c>
       <c r="AQ6">
-        <v>0.8</v>
+        <v>0.67</v>
       </c>
       <c r="AR6">
         <v>0</v>
@@ -2470,7 +2476,7 @@
         <v>96</v>
       </c>
       <c r="P8" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="Q8">
         <v>3</v>
@@ -3088,7 +3094,7 @@
         <v>99</v>
       </c>
       <c r="P11" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="Q11">
         <v>2.38</v>
@@ -3294,7 +3300,7 @@
         <v>100</v>
       </c>
       <c r="P12" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="Q12">
         <v>2.51</v>
@@ -3500,7 +3506,7 @@
         <v>101</v>
       </c>
       <c r="P13" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="Q13">
         <v>2.8</v>
@@ -3578,7 +3584,7 @@
         <v>0</v>
       </c>
       <c r="AP13">
-        <v>2</v>
+        <v>2.17</v>
       </c>
       <c r="AQ13">
         <v>1</v>
@@ -3706,7 +3712,7 @@
         <v>102</v>
       </c>
       <c r="P14" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="Q14">
         <v>3.3</v>
@@ -3993,7 +3999,7 @@
         <v>2.4</v>
       </c>
       <c r="AQ15">
-        <v>0.4</v>
+        <v>0.33</v>
       </c>
       <c r="AR15">
         <v>0</v>
@@ -4402,7 +4408,7 @@
         <v>0</v>
       </c>
       <c r="AP17">
-        <v>2.2</v>
+        <v>2.33</v>
       </c>
       <c r="AQ17">
         <v>0.4</v>
@@ -4530,7 +4536,7 @@
         <v>105</v>
       </c>
       <c r="P18" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="Q18">
         <v>3.22</v>
@@ -4736,7 +4742,7 @@
         <v>106</v>
       </c>
       <c r="P19" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="Q19">
         <v>2.55</v>
@@ -5148,7 +5154,7 @@
         <v>92</v>
       </c>
       <c r="P21" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="Q21">
         <v>3.5</v>
@@ -5354,7 +5360,7 @@
         <v>108</v>
       </c>
       <c r="P22" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="Q22">
         <v>3.5</v>
@@ -5432,7 +5438,7 @@
         <v>3</v>
       </c>
       <c r="AP22">
-        <v>2</v>
+        <v>2.17</v>
       </c>
       <c r="AQ22">
         <v>0.8</v>
@@ -5560,7 +5566,7 @@
         <v>97</v>
       </c>
       <c r="P23" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="Q23">
         <v>2.33</v>
@@ -5641,7 +5647,7 @@
         <v>0.4</v>
       </c>
       <c r="AQ23">
-        <v>0.8</v>
+        <v>0.67</v>
       </c>
       <c r="AR23">
         <v>1.37</v>
@@ -6178,7 +6184,7 @@
         <v>109</v>
       </c>
       <c r="P26" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="Q26">
         <v>2.38</v>
@@ -6796,7 +6802,7 @@
         <v>112</v>
       </c>
       <c r="P29" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="Q29">
         <v>3.1</v>
@@ -7208,7 +7214,7 @@
         <v>114</v>
       </c>
       <c r="P31" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="Q31">
         <v>2.2</v>
@@ -7495,7 +7501,7 @@
         <v>1.6</v>
       </c>
       <c r="AQ32">
-        <v>0.4</v>
+        <v>0.33</v>
       </c>
       <c r="AR32">
         <v>1.17</v>
@@ -8444,7 +8450,7 @@
         <v>97</v>
       </c>
       <c r="P37" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="Q37">
         <v>3.6</v>
@@ -8650,7 +8656,7 @@
         <v>119</v>
       </c>
       <c r="P38" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="Q38">
         <v>2.58</v>
@@ -8728,7 +8734,7 @@
         <v>0</v>
       </c>
       <c r="AP38">
-        <v>2.2</v>
+        <v>2.33</v>
       </c>
       <c r="AQ38">
         <v>0.8</v>
@@ -9474,7 +9480,7 @@
         <v>122</v>
       </c>
       <c r="P42" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="Q42">
         <v>3.1</v>
@@ -9552,7 +9558,7 @@
         <v>1.5</v>
       </c>
       <c r="AP42">
-        <v>2.2</v>
+        <v>2.33</v>
       </c>
       <c r="AQ42">
         <v>0.8</v>
@@ -9967,7 +9973,7 @@
         <v>2.4</v>
       </c>
       <c r="AQ44">
-        <v>0.8</v>
+        <v>0.67</v>
       </c>
       <c r="AR44">
         <v>1.73</v>
@@ -10710,7 +10716,7 @@
         <v>95</v>
       </c>
       <c r="P48" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="Q48">
         <v>3.08</v>
@@ -10916,7 +10922,7 @@
         <v>127</v>
       </c>
       <c r="P49" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="Q49">
         <v>2.75</v>
@@ -11200,7 +11206,7 @@
         <v>1</v>
       </c>
       <c r="AP50">
-        <v>2</v>
+        <v>2.17</v>
       </c>
       <c r="AQ50">
         <v>0.6</v>
@@ -11328,7 +11334,7 @@
         <v>97</v>
       </c>
       <c r="P51" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="Q51">
         <v>4.2</v>
@@ -11534,7 +11540,7 @@
         <v>129</v>
       </c>
       <c r="P52" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="Q52">
         <v>3.5</v>
@@ -12027,7 +12033,7 @@
         <v>1.6</v>
       </c>
       <c r="AQ54">
-        <v>0.4</v>
+        <v>0.33</v>
       </c>
       <c r="AR54">
         <v>1.72</v>
@@ -12564,7 +12570,7 @@
         <v>133</v>
       </c>
       <c r="P57" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="Q57">
         <v>1.97</v>
@@ -12976,7 +12982,7 @@
         <v>135</v>
       </c>
       <c r="P59" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="Q59">
         <v>2.88</v>
@@ -13388,7 +13394,7 @@
         <v>97</v>
       </c>
       <c r="P61" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="Q61">
         <v>2.85</v>
@@ -13594,7 +13600,7 @@
         <v>137</v>
       </c>
       <c r="P62" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="Q62">
         <v>2.13</v>
@@ -13675,7 +13681,7 @@
         <v>2</v>
       </c>
       <c r="AQ62">
-        <v>0.8</v>
+        <v>0.67</v>
       </c>
       <c r="AR62">
         <v>1.4</v>
@@ -14418,7 +14424,7 @@
         <v>139</v>
       </c>
       <c r="P66" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="Q66">
         <v>2.6</v>
@@ -14496,7 +14502,7 @@
         <v>1</v>
       </c>
       <c r="AP66">
-        <v>2</v>
+        <v>2.17</v>
       </c>
       <c r="AQ66">
         <v>1.2</v>
@@ -14624,7 +14630,7 @@
         <v>140</v>
       </c>
       <c r="P67" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="Q67">
         <v>2.35</v>
@@ -14702,7 +14708,7 @@
         <v>0.67</v>
       </c>
       <c r="AP67">
-        <v>2.2</v>
+        <v>2.33</v>
       </c>
       <c r="AQ67">
         <v>0.6</v>
@@ -14830,7 +14836,7 @@
         <v>97</v>
       </c>
       <c r="P68" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="Q68">
         <v>2.8</v>
@@ -15036,7 +15042,7 @@
         <v>141</v>
       </c>
       <c r="P69" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="Q69">
         <v>3</v>
@@ -15448,7 +15454,7 @@
         <v>143</v>
       </c>
       <c r="P71" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="Q71">
         <v>2.13</v>
@@ -15529,7 +15535,7 @@
         <v>2.6</v>
       </c>
       <c r="AQ71">
-        <v>0.4</v>
+        <v>0.33</v>
       </c>
       <c r="AR71">
         <v>2.01</v>
@@ -16272,7 +16278,7 @@
         <v>147</v>
       </c>
       <c r="P75" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="Q75">
         <v>3.6</v>
@@ -16478,7 +16484,7 @@
         <v>97</v>
       </c>
       <c r="P76" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="Q76">
         <v>3.64</v>
@@ -16684,7 +16690,7 @@
         <v>148</v>
       </c>
       <c r="P77" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="Q77">
         <v>2.5</v>
@@ -18332,7 +18338,7 @@
         <v>154</v>
       </c>
       <c r="P85" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="Q85">
         <v>2.4</v>
@@ -18413,7 +18419,7 @@
         <v>2.2</v>
       </c>
       <c r="AQ85">
-        <v>0.8</v>
+        <v>0.67</v>
       </c>
       <c r="AR85">
         <v>1.73</v>
@@ -18616,10 +18622,10 @@
         <v>0.5</v>
       </c>
       <c r="AP86">
-        <v>2.2</v>
+        <v>2.33</v>
       </c>
       <c r="AQ86">
-        <v>0.4</v>
+        <v>0.33</v>
       </c>
       <c r="AR86">
         <v>2.07</v>
@@ -18950,7 +18956,7 @@
         <v>97</v>
       </c>
       <c r="P88" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="Q88">
         <v>2.85</v>
@@ -19156,7 +19162,7 @@
         <v>157</v>
       </c>
       <c r="P89" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="Q89">
         <v>2.8</v>
@@ -19440,7 +19446,7 @@
         <v>1</v>
       </c>
       <c r="AP90">
-        <v>2</v>
+        <v>2.17</v>
       </c>
       <c r="AQ90">
         <v>0.8</v>
@@ -19568,7 +19574,7 @@
         <v>158</v>
       </c>
       <c r="P91" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="Q91">
         <v>2.34</v>
@@ -19774,7 +19780,7 @@
         <v>92</v>
       </c>
       <c r="P92" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="Q92">
         <v>2.78</v>
@@ -19980,7 +19986,7 @@
         <v>97</v>
       </c>
       <c r="P93" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="Q93">
         <v>3.12</v>
@@ -20392,7 +20398,7 @@
         <v>94</v>
       </c>
       <c r="P95" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="Q95">
         <v>2.9</v>
@@ -20598,7 +20604,7 @@
         <v>97</v>
       </c>
       <c r="P96" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="Q96">
         <v>3.2</v>
@@ -21628,7 +21634,7 @@
         <v>97</v>
       </c>
       <c r="P101" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="Q101">
         <v>3.12</v>
@@ -21991,6 +21997,418 @@
       </c>
       <c r="BP102">
         <v>1.6</v>
+      </c>
+    </row>
+    <row r="103" spans="1:68">
+      <c r="A103" s="1">
+        <v>102</v>
+      </c>
+      <c r="B103">
+        <v>7841140</v>
+      </c>
+      <c r="C103" t="s">
+        <v>68</v>
+      </c>
+      <c r="D103" t="s">
+        <v>69</v>
+      </c>
+      <c r="E103" s="2">
+        <v>45814.79166666666</v>
+      </c>
+      <c r="F103">
+        <v>11</v>
+      </c>
+      <c r="G103" t="s">
+        <v>85</v>
+      </c>
+      <c r="H103" t="s">
+        <v>82</v>
+      </c>
+      <c r="I103">
+        <v>0</v>
+      </c>
+      <c r="J103">
+        <v>0</v>
+      </c>
+      <c r="K103">
+        <v>0</v>
+      </c>
+      <c r="L103">
+        <v>1</v>
+      </c>
+      <c r="M103">
+        <v>0</v>
+      </c>
+      <c r="N103">
+        <v>1</v>
+      </c>
+      <c r="O103" t="s">
+        <v>163</v>
+      </c>
+      <c r="P103" t="s">
+        <v>97</v>
+      </c>
+      <c r="Q103">
+        <v>2.35</v>
+      </c>
+      <c r="R103">
+        <v>2.14</v>
+      </c>
+      <c r="S103">
+        <v>6.79</v>
+      </c>
+      <c r="T103">
+        <v>1.45</v>
+      </c>
+      <c r="U103">
+        <v>2.44</v>
+      </c>
+      <c r="V103">
+        <v>3.4</v>
+      </c>
+      <c r="W103">
+        <v>1.28</v>
+      </c>
+      <c r="X103">
+        <v>9.5</v>
+      </c>
+      <c r="Y103">
+        <v>1.03</v>
+      </c>
+      <c r="Z103">
+        <v>1.63</v>
+      </c>
+      <c r="AA103">
+        <v>3.3</v>
+      </c>
+      <c r="AB103">
+        <v>5.25</v>
+      </c>
+      <c r="AC103">
+        <v>1.06</v>
+      </c>
+      <c r="AD103">
+        <v>7</v>
+      </c>
+      <c r="AE103">
+        <v>1.48</v>
+      </c>
+      <c r="AF103">
+        <v>2.6</v>
+      </c>
+      <c r="AG103">
+        <v>2.3</v>
+      </c>
+      <c r="AH103">
+        <v>1.57</v>
+      </c>
+      <c r="AI103">
+        <v>2.3</v>
+      </c>
+      <c r="AJ103">
+        <v>1.6</v>
+      </c>
+      <c r="AK103">
+        <v>1.08</v>
+      </c>
+      <c r="AL103">
+        <v>1.26</v>
+      </c>
+      <c r="AM103">
+        <v>2.2</v>
+      </c>
+      <c r="AN103">
+        <v>2.2</v>
+      </c>
+      <c r="AO103">
+        <v>0.8</v>
+      </c>
+      <c r="AP103">
+        <v>2.33</v>
+      </c>
+      <c r="AQ103">
+        <v>0.67</v>
+      </c>
+      <c r="AR103">
+        <v>2.14</v>
+      </c>
+      <c r="AS103">
+        <v>1.61</v>
+      </c>
+      <c r="AT103">
+        <v>3.75</v>
+      </c>
+      <c r="AU103">
+        <v>6</v>
+      </c>
+      <c r="AV103">
+        <v>4</v>
+      </c>
+      <c r="AW103">
+        <v>6</v>
+      </c>
+      <c r="AX103">
+        <v>7</v>
+      </c>
+      <c r="AY103">
+        <v>12</v>
+      </c>
+      <c r="AZ103">
+        <v>11</v>
+      </c>
+      <c r="BA103">
+        <v>5</v>
+      </c>
+      <c r="BB103">
+        <v>0</v>
+      </c>
+      <c r="BC103">
+        <v>5</v>
+      </c>
+      <c r="BD103">
+        <v>1.3</v>
+      </c>
+      <c r="BE103">
+        <v>8</v>
+      </c>
+      <c r="BF103">
+        <v>3.4</v>
+      </c>
+      <c r="BG103">
+        <v>1.16</v>
+      </c>
+      <c r="BH103">
+        <v>4.33</v>
+      </c>
+      <c r="BI103">
+        <v>1.28</v>
+      </c>
+      <c r="BJ103">
+        <v>3</v>
+      </c>
+      <c r="BK103">
+        <v>1.48</v>
+      </c>
+      <c r="BL103">
+        <v>2.3</v>
+      </c>
+      <c r="BM103">
+        <v>1.85</v>
+      </c>
+      <c r="BN103">
+        <v>1.85</v>
+      </c>
+      <c r="BO103">
+        <v>2.25</v>
+      </c>
+      <c r="BP103">
+        <v>1.57</v>
+      </c>
+    </row>
+    <row r="104" spans="1:68">
+      <c r="A104" s="1">
+        <v>103</v>
+      </c>
+      <c r="B104">
+        <v>7841134</v>
+      </c>
+      <c r="C104" t="s">
+        <v>68</v>
+      </c>
+      <c r="D104" t="s">
+        <v>69</v>
+      </c>
+      <c r="E104" s="2">
+        <v>45814.89930555555</v>
+      </c>
+      <c r="F104">
+        <v>11</v>
+      </c>
+      <c r="G104" t="s">
+        <v>81</v>
+      </c>
+      <c r="H104" t="s">
+        <v>71</v>
+      </c>
+      <c r="I104">
+        <v>0</v>
+      </c>
+      <c r="J104">
+        <v>0</v>
+      </c>
+      <c r="K104">
+        <v>0</v>
+      </c>
+      <c r="L104">
+        <v>1</v>
+      </c>
+      <c r="M104">
+        <v>0</v>
+      </c>
+      <c r="N104">
+        <v>1</v>
+      </c>
+      <c r="O104" t="s">
+        <v>164</v>
+      </c>
+      <c r="P104" t="s">
+        <v>97</v>
+      </c>
+      <c r="Q104">
+        <v>1.97</v>
+      </c>
+      <c r="R104">
+        <v>1.93</v>
+      </c>
+      <c r="S104">
+        <v>6.7</v>
+      </c>
+      <c r="T104">
+        <v>1.57</v>
+      </c>
+      <c r="U104">
+        <v>2.4</v>
+      </c>
+      <c r="V104">
+        <v>3.2</v>
+      </c>
+      <c r="W104">
+        <v>1.27</v>
+      </c>
+      <c r="X104">
+        <v>10</v>
+      </c>
+      <c r="Y104">
+        <v>1.01</v>
+      </c>
+      <c r="Z104">
+        <v>1.64</v>
+      </c>
+      <c r="AA104">
+        <v>3.25</v>
+      </c>
+      <c r="AB104">
+        <v>5.78</v>
+      </c>
+      <c r="AC104">
+        <v>1.09</v>
+      </c>
+      <c r="AD104">
+        <v>7.5</v>
+      </c>
+      <c r="AE104">
+        <v>1.44</v>
+      </c>
+      <c r="AF104">
+        <v>2.6</v>
+      </c>
+      <c r="AG104">
+        <v>2.4</v>
+      </c>
+      <c r="AH104">
+        <v>1.5</v>
+      </c>
+      <c r="AI104">
+        <v>2.33</v>
+      </c>
+      <c r="AJ104">
+        <v>1.52</v>
+      </c>
+      <c r="AK104">
+        <v>1.25</v>
+      </c>
+      <c r="AL104">
+        <v>1.25</v>
+      </c>
+      <c r="AM104">
+        <v>2.2</v>
+      </c>
+      <c r="AN104">
+        <v>2</v>
+      </c>
+      <c r="AO104">
+        <v>0.4</v>
+      </c>
+      <c r="AP104">
+        <v>2.17</v>
+      </c>
+      <c r="AQ104">
+        <v>0.33</v>
+      </c>
+      <c r="AR104">
+        <v>1.67</v>
+      </c>
+      <c r="AS104">
+        <v>1.13</v>
+      </c>
+      <c r="AT104">
+        <v>2.8</v>
+      </c>
+      <c r="AU104">
+        <v>7</v>
+      </c>
+      <c r="AV104">
+        <v>4</v>
+      </c>
+      <c r="AW104">
+        <v>16</v>
+      </c>
+      <c r="AX104">
+        <v>5</v>
+      </c>
+      <c r="AY104">
+        <v>23</v>
+      </c>
+      <c r="AZ104">
+        <v>9</v>
+      </c>
+      <c r="BA104">
+        <v>9</v>
+      </c>
+      <c r="BB104">
+        <v>3</v>
+      </c>
+      <c r="BC104">
+        <v>12</v>
+      </c>
+      <c r="BD104">
+        <v>1.47</v>
+      </c>
+      <c r="BE104">
+        <v>9.4</v>
+      </c>
+      <c r="BF104">
+        <v>3.45</v>
+      </c>
+      <c r="BG104">
+        <v>1.17</v>
+      </c>
+      <c r="BH104">
+        <v>4.2</v>
+      </c>
+      <c r="BI104">
+        <v>1.38</v>
+      </c>
+      <c r="BJ104">
+        <v>3.05</v>
+      </c>
+      <c r="BK104">
+        <v>1.71</v>
+      </c>
+      <c r="BL104">
+        <v>2.3</v>
+      </c>
+      <c r="BM104">
+        <v>1.96</v>
+      </c>
+      <c r="BN104">
+        <v>1.83</v>
+      </c>
+      <c r="BO104">
+        <v>2.4</v>
+      </c>
+      <c r="BP104">
+        <v>1.5</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Brazil Serie B_2025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Brazil Serie B_2025.xlsx
@@ -22139,7 +22139,7 @@
         <v>3.75</v>
       </c>
       <c r="AU103">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AV103">
         <v>4</v>
@@ -22148,13 +22148,13 @@
         <v>6</v>
       </c>
       <c r="AX103">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AY103">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AZ103">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="BA103">
         <v>5</v>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Brazil Serie B_2025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Brazil Serie B_2025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="686" uniqueCount="202">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="692" uniqueCount="203">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -505,10 +505,10 @@
     <t>['15', '27', '57', '90+3']</t>
   </si>
   <si>
-    <t>['-1']</t>
+    <t>['83']</t>
   </si>
   <si>
-    <t>['83']</t>
+    <t>['33']</t>
   </si>
   <si>
     <t>['33', '72']</t>
@@ -620,6 +620,9 @@
   </si>
   <si>
     <t>['12', '87']</t>
+  </si>
+  <si>
+    <t>['71', '80']</t>
   </si>
 </sst>
 </file>
@@ -981,7 +984,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP104"/>
+  <dimension ref="A1:BP105"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2348,7 +2351,7 @@
         <v>0</v>
       </c>
       <c r="AP7">
-        <v>2.6</v>
+        <v>2.17</v>
       </c>
       <c r="AQ7">
         <v>0.8</v>
@@ -4205,7 +4208,7 @@
         <v>1.2</v>
       </c>
       <c r="AQ16">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="AR16">
         <v>0</v>
@@ -7292,7 +7295,7 @@
         <v>0</v>
       </c>
       <c r="AP31">
-        <v>2.6</v>
+        <v>2.17</v>
       </c>
       <c r="AQ31">
         <v>0.2</v>
@@ -8322,7 +8325,7 @@
         <v>3</v>
       </c>
       <c r="AP36">
-        <v>2.6</v>
+        <v>2.17</v>
       </c>
       <c r="AQ36">
         <v>2</v>
@@ -9355,7 +9358,7 @@
         <v>1.6</v>
       </c>
       <c r="AQ41">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="AR41">
         <v>1.74</v>
@@ -11209,7 +11212,7 @@
         <v>2.17</v>
       </c>
       <c r="AQ50">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="AR50">
         <v>1.55</v>
@@ -14711,7 +14714,7 @@
         <v>2.33</v>
       </c>
       <c r="AQ67">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="AR67">
         <v>2.23</v>
@@ -15532,7 +15535,7 @@
         <v>0.33</v>
       </c>
       <c r="AP71">
-        <v>2.6</v>
+        <v>2.17</v>
       </c>
       <c r="AQ71">
         <v>0.33</v>
@@ -17801,7 +17804,7 @@
         <v>2.6</v>
       </c>
       <c r="AQ82">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="AR82">
         <v>1.86</v>
@@ -19652,7 +19655,7 @@
         <v>0.75</v>
       </c>
       <c r="AP91">
-        <v>2.6</v>
+        <v>2.17</v>
       </c>
       <c r="AQ91">
         <v>0.6</v>
@@ -22043,7 +22046,7 @@
         <v>1</v>
       </c>
       <c r="O103" t="s">
-        <v>163</v>
+        <v>116</v>
       </c>
       <c r="P103" t="s">
         <v>97</v>
@@ -22249,7 +22252,7 @@
         <v>1</v>
       </c>
       <c r="O104" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="P104" t="s">
         <v>97</v>
@@ -22409,6 +22412,212 @@
       </c>
       <c r="BP104">
         <v>1.5</v>
+      </c>
+    </row>
+    <row r="105" spans="1:68">
+      <c r="A105" s="1">
+        <v>104</v>
+      </c>
+      <c r="B105">
+        <v>7841139</v>
+      </c>
+      <c r="C105" t="s">
+        <v>68</v>
+      </c>
+      <c r="D105" t="s">
+        <v>69</v>
+      </c>
+      <c r="E105" s="2">
+        <v>45815.66666666666</v>
+      </c>
+      <c r="F105">
+        <v>11</v>
+      </c>
+      <c r="G105" t="s">
+        <v>75</v>
+      </c>
+      <c r="H105" t="s">
+        <v>76</v>
+      </c>
+      <c r="I105">
+        <v>1</v>
+      </c>
+      <c r="J105">
+        <v>0</v>
+      </c>
+      <c r="K105">
+        <v>1</v>
+      </c>
+      <c r="L105">
+        <v>1</v>
+      </c>
+      <c r="M105">
+        <v>2</v>
+      </c>
+      <c r="N105">
+        <v>3</v>
+      </c>
+      <c r="O105" t="s">
+        <v>164</v>
+      </c>
+      <c r="P105" t="s">
+        <v>202</v>
+      </c>
+      <c r="Q105">
+        <v>2.19</v>
+      </c>
+      <c r="R105">
+        <v>2.18</v>
+      </c>
+      <c r="S105">
+        <v>5.75</v>
+      </c>
+      <c r="T105">
+        <v>1.44</v>
+      </c>
+      <c r="U105">
+        <v>2.48</v>
+      </c>
+      <c r="V105">
+        <v>3.28</v>
+      </c>
+      <c r="W105">
+        <v>1.32</v>
+      </c>
+      <c r="X105">
+        <v>8</v>
+      </c>
+      <c r="Y105">
+        <v>1.05</v>
+      </c>
+      <c r="Z105">
+        <v>1.63</v>
+      </c>
+      <c r="AA105">
+        <v>3.37</v>
+      </c>
+      <c r="AB105">
+        <v>5.2</v>
+      </c>
+      <c r="AC105">
+        <v>1.01</v>
+      </c>
+      <c r="AD105">
+        <v>7.5</v>
+      </c>
+      <c r="AE105">
+        <v>1.4</v>
+      </c>
+      <c r="AF105">
+        <v>2.7</v>
+      </c>
+      <c r="AG105">
+        <v>2.15</v>
+      </c>
+      <c r="AH105">
+        <v>1.57</v>
+      </c>
+      <c r="AI105">
+        <v>2.25</v>
+      </c>
+      <c r="AJ105">
+        <v>1.62</v>
+      </c>
+      <c r="AK105">
+        <v>1.3</v>
+      </c>
+      <c r="AL105">
+        <v>1.22</v>
+      </c>
+      <c r="AM105">
+        <v>2.25</v>
+      </c>
+      <c r="AN105">
+        <v>2.6</v>
+      </c>
+      <c r="AO105">
+        <v>0.6</v>
+      </c>
+      <c r="AP105">
+        <v>2.17</v>
+      </c>
+      <c r="AQ105">
+        <v>1</v>
+      </c>
+      <c r="AR105">
+        <v>1.85</v>
+      </c>
+      <c r="AS105">
+        <v>1.43</v>
+      </c>
+      <c r="AT105">
+        <v>3.28</v>
+      </c>
+      <c r="AU105">
+        <v>4</v>
+      </c>
+      <c r="AV105">
+        <v>6</v>
+      </c>
+      <c r="AW105">
+        <v>12</v>
+      </c>
+      <c r="AX105">
+        <v>9</v>
+      </c>
+      <c r="AY105">
+        <v>16</v>
+      </c>
+      <c r="AZ105">
+        <v>15</v>
+      </c>
+      <c r="BA105">
+        <v>9</v>
+      </c>
+      <c r="BB105">
+        <v>3</v>
+      </c>
+      <c r="BC105">
+        <v>12</v>
+      </c>
+      <c r="BD105">
+        <v>1.37</v>
+      </c>
+      <c r="BE105">
+        <v>7.25</v>
+      </c>
+      <c r="BF105">
+        <v>3.86</v>
+      </c>
+      <c r="BG105">
+        <v>1.2</v>
+      </c>
+      <c r="BH105">
+        <v>4</v>
+      </c>
+      <c r="BI105">
+        <v>1.3</v>
+      </c>
+      <c r="BJ105">
+        <v>2.9</v>
+      </c>
+      <c r="BK105">
+        <v>1.5</v>
+      </c>
+      <c r="BL105">
+        <v>2.23</v>
+      </c>
+      <c r="BM105">
+        <v>1.9</v>
+      </c>
+      <c r="BN105">
+        <v>1.79</v>
+      </c>
+      <c r="BO105">
+        <v>2.38</v>
+      </c>
+      <c r="BP105">
+        <v>1.53</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Brazil Serie B_2025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Brazil Serie B_2025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="692" uniqueCount="203">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="698" uniqueCount="204">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -511,6 +511,9 @@
     <t>['33']</t>
   </si>
   <si>
+    <t>['90+1']</t>
+  </si>
+  <si>
     <t>['33', '72']</t>
   </si>
   <si>
@@ -984,7 +987,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP105"/>
+  <dimension ref="A1:BP106"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1449,7 +1452,7 @@
         <v>91</v>
       </c>
       <c r="P3" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="Q3">
         <v>3.5</v>
@@ -1655,7 +1658,7 @@
         <v>92</v>
       </c>
       <c r="P4" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="Q4">
         <v>2.5</v>
@@ -2479,7 +2482,7 @@
         <v>96</v>
       </c>
       <c r="P8" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="Q8">
         <v>3</v>
@@ -2969,7 +2972,7 @@
         <v>0</v>
       </c>
       <c r="AP10">
-        <v>2.2</v>
+        <v>2.33</v>
       </c>
       <c r="AQ10">
         <v>1.6</v>
@@ -3097,7 +3100,7 @@
         <v>99</v>
       </c>
       <c r="P11" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="Q11">
         <v>2.38</v>
@@ -3303,7 +3306,7 @@
         <v>100</v>
       </c>
       <c r="P12" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="Q12">
         <v>2.51</v>
@@ -3509,7 +3512,7 @@
         <v>101</v>
       </c>
       <c r="P13" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="Q13">
         <v>2.8</v>
@@ -3715,7 +3718,7 @@
         <v>102</v>
       </c>
       <c r="P14" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="Q14">
         <v>3.3</v>
@@ -4539,7 +4542,7 @@
         <v>105</v>
       </c>
       <c r="P18" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="Q18">
         <v>3.22</v>
@@ -4745,7 +4748,7 @@
         <v>106</v>
       </c>
       <c r="P19" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="Q19">
         <v>2.55</v>
@@ -4826,7 +4829,7 @@
         <v>0.6</v>
       </c>
       <c r="AQ19">
-        <v>1</v>
+        <v>0.83</v>
       </c>
       <c r="AR19">
         <v>0</v>
@@ -5157,7 +5160,7 @@
         <v>92</v>
       </c>
       <c r="P21" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="Q21">
         <v>3.5</v>
@@ -5363,7 +5366,7 @@
         <v>108</v>
       </c>
       <c r="P22" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="Q22">
         <v>3.5</v>
@@ -5569,7 +5572,7 @@
         <v>97</v>
       </c>
       <c r="P23" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="Q23">
         <v>2.33</v>
@@ -5853,7 +5856,7 @@
         <v>3</v>
       </c>
       <c r="AP24">
-        <v>2.2</v>
+        <v>2.33</v>
       </c>
       <c r="AQ24">
         <v>1.2</v>
@@ -6187,7 +6190,7 @@
         <v>109</v>
       </c>
       <c r="P26" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="Q26">
         <v>2.38</v>
@@ -6805,7 +6808,7 @@
         <v>112</v>
       </c>
       <c r="P29" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="Q29">
         <v>3.1</v>
@@ -7217,7 +7220,7 @@
         <v>114</v>
       </c>
       <c r="P31" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="Q31">
         <v>2.2</v>
@@ -8122,7 +8125,7 @@
         <v>2</v>
       </c>
       <c r="AQ35">
-        <v>1</v>
+        <v>0.83</v>
       </c>
       <c r="AR35">
         <v>1.66</v>
@@ -8453,7 +8456,7 @@
         <v>97</v>
       </c>
       <c r="P37" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="Q37">
         <v>3.6</v>
@@ -8659,7 +8662,7 @@
         <v>119</v>
       </c>
       <c r="P38" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="Q38">
         <v>2.58</v>
@@ -9483,7 +9486,7 @@
         <v>122</v>
       </c>
       <c r="P42" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="Q42">
         <v>3.1</v>
@@ -10385,7 +10388,7 @@
         <v>0</v>
       </c>
       <c r="AP46">
-        <v>2.2</v>
+        <v>2.33</v>
       </c>
       <c r="AQ46">
         <v>0</v>
@@ -10719,7 +10722,7 @@
         <v>95</v>
       </c>
       <c r="P48" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="Q48">
         <v>3.08</v>
@@ -10925,7 +10928,7 @@
         <v>127</v>
       </c>
       <c r="P49" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="Q49">
         <v>2.75</v>
@@ -11006,7 +11009,7 @@
         <v>0.4</v>
       </c>
       <c r="AQ49">
-        <v>1</v>
+        <v>0.83</v>
       </c>
       <c r="AR49">
         <v>1.47</v>
@@ -11337,7 +11340,7 @@
         <v>97</v>
       </c>
       <c r="P51" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="Q51">
         <v>4.2</v>
@@ -11543,7 +11546,7 @@
         <v>129</v>
       </c>
       <c r="P52" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="Q52">
         <v>3.5</v>
@@ -12573,7 +12576,7 @@
         <v>133</v>
       </c>
       <c r="P57" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="Q57">
         <v>1.97</v>
@@ -12985,7 +12988,7 @@
         <v>135</v>
       </c>
       <c r="P59" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="Q59">
         <v>2.88</v>
@@ -13397,7 +13400,7 @@
         <v>97</v>
       </c>
       <c r="P61" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="Q61">
         <v>2.85</v>
@@ -13603,7 +13606,7 @@
         <v>137</v>
       </c>
       <c r="P62" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="Q62">
         <v>2.13</v>
@@ -13887,7 +13890,7 @@
         <v>0.67</v>
       </c>
       <c r="AP63">
-        <v>2.2</v>
+        <v>2.33</v>
       </c>
       <c r="AQ63">
         <v>0.6</v>
@@ -14427,7 +14430,7 @@
         <v>139</v>
       </c>
       <c r="P66" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="Q66">
         <v>2.6</v>
@@ -14633,7 +14636,7 @@
         <v>140</v>
       </c>
       <c r="P67" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="Q67">
         <v>2.35</v>
@@ -14839,7 +14842,7 @@
         <v>97</v>
       </c>
       <c r="P68" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="Q68">
         <v>2.8</v>
@@ -15045,7 +15048,7 @@
         <v>141</v>
       </c>
       <c r="P69" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="Q69">
         <v>3</v>
@@ -15126,7 +15129,7 @@
         <v>1.2</v>
       </c>
       <c r="AQ69">
-        <v>1</v>
+        <v>0.83</v>
       </c>
       <c r="AR69">
         <v>1.87</v>
@@ -15457,7 +15460,7 @@
         <v>143</v>
       </c>
       <c r="P71" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="Q71">
         <v>2.13</v>
@@ -16281,7 +16284,7 @@
         <v>147</v>
       </c>
       <c r="P75" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="Q75">
         <v>3.6</v>
@@ -16487,7 +16490,7 @@
         <v>97</v>
       </c>
       <c r="P76" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="Q76">
         <v>3.64</v>
@@ -16693,7 +16696,7 @@
         <v>148</v>
       </c>
       <c r="P77" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="Q77">
         <v>2.5</v>
@@ -18341,7 +18344,7 @@
         <v>154</v>
       </c>
       <c r="P85" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="Q85">
         <v>2.4</v>
@@ -18419,7 +18422,7 @@
         <v>1</v>
       </c>
       <c r="AP85">
-        <v>2.2</v>
+        <v>2.33</v>
       </c>
       <c r="AQ85">
         <v>0.67</v>
@@ -18959,7 +18962,7 @@
         <v>97</v>
       </c>
       <c r="P88" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="Q88">
         <v>2.85</v>
@@ -19165,7 +19168,7 @@
         <v>157</v>
       </c>
       <c r="P89" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="Q89">
         <v>2.8</v>
@@ -19246,7 +19249,7 @@
         <v>1</v>
       </c>
       <c r="AQ89">
-        <v>1</v>
+        <v>0.83</v>
       </c>
       <c r="AR89">
         <v>1.31</v>
@@ -19577,7 +19580,7 @@
         <v>158</v>
       </c>
       <c r="P91" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="Q91">
         <v>2.34</v>
@@ -19783,7 +19786,7 @@
         <v>92</v>
       </c>
       <c r="P92" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="Q92">
         <v>2.78</v>
@@ -19989,7 +19992,7 @@
         <v>97</v>
       </c>
       <c r="P93" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="Q93">
         <v>3.12</v>
@@ -20401,7 +20404,7 @@
         <v>94</v>
       </c>
       <c r="P95" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="Q95">
         <v>2.9</v>
@@ -20607,7 +20610,7 @@
         <v>97</v>
       </c>
       <c r="P96" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="Q96">
         <v>3.2</v>
@@ -21637,7 +21640,7 @@
         <v>97</v>
       </c>
       <c r="P101" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="Q101">
         <v>3.12</v>
@@ -22461,7 +22464,7 @@
         <v>164</v>
       </c>
       <c r="P105" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="Q105">
         <v>2.19</v>
@@ -22618,6 +22621,212 @@
       </c>
       <c r="BP105">
         <v>1.53</v>
+      </c>
+    </row>
+    <row r="106" spans="1:68">
+      <c r="A106" s="1">
+        <v>105</v>
+      </c>
+      <c r="B106">
+        <v>7841136</v>
+      </c>
+      <c r="C106" t="s">
+        <v>68</v>
+      </c>
+      <c r="D106" t="s">
+        <v>69</v>
+      </c>
+      <c r="E106" s="2">
+        <v>45815.85416666666</v>
+      </c>
+      <c r="F106">
+        <v>11</v>
+      </c>
+      <c r="G106" t="s">
+        <v>78</v>
+      </c>
+      <c r="H106" t="s">
+        <v>74</v>
+      </c>
+      <c r="I106">
+        <v>0</v>
+      </c>
+      <c r="J106">
+        <v>0</v>
+      </c>
+      <c r="K106">
+        <v>0</v>
+      </c>
+      <c r="L106">
+        <v>1</v>
+      </c>
+      <c r="M106">
+        <v>0</v>
+      </c>
+      <c r="N106">
+        <v>1</v>
+      </c>
+      <c r="O106" t="s">
+        <v>165</v>
+      </c>
+      <c r="P106" t="s">
+        <v>97</v>
+      </c>
+      <c r="Q106">
+        <v>2.35</v>
+      </c>
+      <c r="R106">
+        <v>2.26</v>
+      </c>
+      <c r="S106">
+        <v>5.25</v>
+      </c>
+      <c r="T106">
+        <v>1.41</v>
+      </c>
+      <c r="U106">
+        <v>2.7</v>
+      </c>
+      <c r="V106">
+        <v>2.88</v>
+      </c>
+      <c r="W106">
+        <v>1.38</v>
+      </c>
+      <c r="X106">
+        <v>7</v>
+      </c>
+      <c r="Y106">
+        <v>1.02</v>
+      </c>
+      <c r="Z106">
+        <v>1.73</v>
+      </c>
+      <c r="AA106">
+        <v>3.6</v>
+      </c>
+      <c r="AB106">
+        <v>4.5</v>
+      </c>
+      <c r="AC106">
+        <v>1.08</v>
+      </c>
+      <c r="AD106">
+        <v>7.8</v>
+      </c>
+      <c r="AE106">
+        <v>1.27</v>
+      </c>
+      <c r="AF106">
+        <v>2.8</v>
+      </c>
+      <c r="AG106">
+        <v>1.98</v>
+      </c>
+      <c r="AH106">
+        <v>1.62</v>
+      </c>
+      <c r="AI106">
+        <v>1.91</v>
+      </c>
+      <c r="AJ106">
+        <v>1.76</v>
+      </c>
+      <c r="AK106">
+        <v>1.15</v>
+      </c>
+      <c r="AL106">
+        <v>1.25</v>
+      </c>
+      <c r="AM106">
+        <v>2.1</v>
+      </c>
+      <c r="AN106">
+        <v>2.2</v>
+      </c>
+      <c r="AO106">
+        <v>1</v>
+      </c>
+      <c r="AP106">
+        <v>2.33</v>
+      </c>
+      <c r="AQ106">
+        <v>0.83</v>
+      </c>
+      <c r="AR106">
+        <v>1.79</v>
+      </c>
+      <c r="AS106">
+        <v>1.74</v>
+      </c>
+      <c r="AT106">
+        <v>3.53</v>
+      </c>
+      <c r="AU106">
+        <v>9</v>
+      </c>
+      <c r="AV106">
+        <v>4</v>
+      </c>
+      <c r="AW106">
+        <v>7</v>
+      </c>
+      <c r="AX106">
+        <v>11</v>
+      </c>
+      <c r="AY106">
+        <v>16</v>
+      </c>
+      <c r="AZ106">
+        <v>15</v>
+      </c>
+      <c r="BA106">
+        <v>6</v>
+      </c>
+      <c r="BB106">
+        <v>8</v>
+      </c>
+      <c r="BC106">
+        <v>14</v>
+      </c>
+      <c r="BD106">
+        <v>1.54</v>
+      </c>
+      <c r="BE106">
+        <v>7</v>
+      </c>
+      <c r="BF106">
+        <v>3.24</v>
+      </c>
+      <c r="BG106">
+        <v>1.15</v>
+      </c>
+      <c r="BH106">
+        <v>4.45</v>
+      </c>
+      <c r="BI106">
+        <v>1.25</v>
+      </c>
+      <c r="BJ106">
+        <v>3.2</v>
+      </c>
+      <c r="BK106">
+        <v>1.58</v>
+      </c>
+      <c r="BL106">
+        <v>2.37</v>
+      </c>
+      <c r="BM106">
+        <v>1.84</v>
+      </c>
+      <c r="BN106">
+        <v>1.9</v>
+      </c>
+      <c r="BO106">
+        <v>2.38</v>
+      </c>
+      <c r="BP106">
+        <v>1.55</v>
       </c>
     </row>
   </sheetData>
